--- a/output/summary_table_1.xlsx
+++ b/output/summary_table_1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Inequalities" sheetId="5" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t>Table 2. Average weekly spend on tobacco by socio-economic status (SES) and age group</t>
   </si>
@@ -71,12 +71,6 @@
     <t>% of income spent on tobacco</t>
   </si>
   <si>
-    <t>Total estimated annual expenditure (£000s)</t>
-  </si>
-  <si>
-    <t>Annual Smokefree Dividend (£000s)</t>
-  </si>
-  <si>
     <t>Table 4. Expenditure of smoking in the local authorities with the highest tobacco expenditure as a proportion of income</t>
   </si>
   <si>
@@ -137,6 +131,12 @@
     <t>Female</t>
   </si>
   <si>
+    <t>Total estimated annual expenditure (£m)</t>
+  </si>
+  <si>
+    <t>Annual Smokefree Dividend (£m)</t>
+  </si>
+  <si>
     <t xml:space="preserve">E09000002</t>
   </si>
   <si>
@@ -1041,17 +1041,45 @@
   </si>
   <si>
     <t xml:space="preserve">York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Midlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East of England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Midlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yorkshire and the Humber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;Â£&quot;#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,15 +1098,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <i/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <b/>
     </font>
   </fonts>
   <fills count="11">
@@ -1155,46 +1174,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1507,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1525,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1540,30 +1535,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="2" max="2" width="33.54296875" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="19.54296875" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" hidden="0" customWidth="1"/>
     <col min="13" max="13" width="13" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="C1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -1573,48 +1568,48 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" ht="55" customHeight="1">
+    <row r="2" ht="54.95" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="J2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="L2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -9205,7 +9200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9223,19 +9218,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="3" max="3" width="15.90625" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9243,12 +9238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="43.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="45" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9281,10 +9276,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>25.92</v>
@@ -9292,7 +9287,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>25.18</v>
@@ -9359,23 +9354,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="19" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9383,22 +9378,195 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="44" customHeight="1">
+    <row r="2" ht="44.1" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="D2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="D3" s="14" t="n">
+        <v>754.41</v>
+      </c>
+      <c r="E3" s="14" t="n">
+        <v>701.601</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>882.95</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>821.144</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>1196.657</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>1112.891</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>473.288</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>440.158</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>1157.891</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>1076.839</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>1095.475</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>1018.792</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>721.862</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>671.332</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" t="n">
+        <v>27</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>901.299</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>838.208</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>883.534</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>821.687</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9407,46 +9575,236 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="19" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" ht="44" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="44.1" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="D2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="n">
+        <v>37.97</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="D3" s="14" t="n">
+        <v>29.616</v>
+      </c>
+      <c r="E3" s="14" t="n">
+        <v>27.543</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" t="n">
+        <v>34.16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>25.185</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>23.422</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>71.377</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>66.381</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="n">
+        <v>34.17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>33.011</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>50.388</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>46.861</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>62.779</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>58.384</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50.96</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>29.146</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>27.106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>25.763</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="n">
+        <v>39.61</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>63.414</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>58.975</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>55.898</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>51.985</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/summary_table_1.xlsx
+++ b/output/summary_table_1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Inequalities" sheetId="5" state="visible" r:id="rId1"/>
@@ -1073,13 +1073,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;Â£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,6 +1098,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <b/>
     </font>
   </fonts>
   <fills count="11">
@@ -1174,22 +1183,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1502,7 +1536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1520,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9200,7 +9234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9218,7 +9252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9239,11 +9273,11 @@
       </c>
     </row>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9354,7 +9388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9382,16 +9416,16 @@
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9405,10 +9439,10 @@
       <c r="C3" t="n">
         <v>4.77</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="16" t="n">
         <v>754.41</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="16" t="n">
         <v>701.601</v>
       </c>
     </row>
@@ -9422,10 +9456,10 @@
       <c r="C4" t="n">
         <v>4.71</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="16" t="n">
         <v>882.95</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="16" t="n">
         <v>821.144</v>
       </c>
     </row>
@@ -9439,10 +9473,10 @@
       <c r="C5" t="n">
         <v>4.25</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="16" t="n">
         <v>1196.657</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="16" t="n">
         <v>1112.891</v>
       </c>
     </row>
@@ -9456,10 +9490,10 @@
       <c r="C6" t="n">
         <v>6.22</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="16" t="n">
         <v>473.288</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="16" t="n">
         <v>440.158</v>
       </c>
     </row>
@@ -9473,10 +9507,10 @@
       <c r="C7" t="n">
         <v>6.04</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="16" t="n">
         <v>1157.891</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="16" t="n">
         <v>1076.839</v>
       </c>
     </row>
@@ -9490,10 +9524,10 @@
       <c r="C8" t="n">
         <v>4.43</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="16" t="n">
         <v>1095.475</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="16" t="n">
         <v>1018.792</v>
       </c>
     </row>
@@ -9507,10 +9541,10 @@
       <c r="C9" t="n">
         <v>4.19</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="16" t="n">
         <v>721.862</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="16" t="n">
         <v>671.332</v>
       </c>
     </row>
@@ -9524,10 +9558,10 @@
       <c r="C10" t="n">
         <v>5.53</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="16" t="n">
         <v>901.299</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="16" t="n">
         <v>838.208</v>
       </c>
     </row>
@@ -9541,32 +9575,32 @@
       <c r="C11" t="n">
         <v>5.14</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="16" t="n">
         <v>883.534</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="16" t="n">
         <v>821.687</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13">
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14">
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15">
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16">
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9575,13 +9609,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -9603,16 +9637,16 @@
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9626,10 +9660,10 @@
       <c r="C3" t="n">
         <v>8.26</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="16" t="n">
         <v>29.616</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="16" t="n">
         <v>27.543</v>
       </c>
     </row>
@@ -9643,10 +9677,10 @@
       <c r="C4" t="n">
         <v>8.1</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="16" t="n">
         <v>25.185</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="16" t="n">
         <v>23.422</v>
       </c>
     </row>
@@ -9660,10 +9694,10 @@
       <c r="C5" t="n">
         <v>8.09</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="16" t="n">
         <v>71.377</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="16" t="n">
         <v>66.381</v>
       </c>
     </row>
@@ -9677,10 +9711,10 @@
       <c r="C6" t="n">
         <v>7.96</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="16" t="n">
         <v>33.011</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="16" t="n">
         <v>30.7</v>
       </c>
     </row>
@@ -9694,10 +9728,10 @@
       <c r="C7" t="n">
         <v>7.51</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="16" t="n">
         <v>50.388</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="16" t="n">
         <v>46.861</v>
       </c>
     </row>
@@ -9711,10 +9745,10 @@
       <c r="C8" t="n">
         <v>7.42</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="16" t="n">
         <v>62.779</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="16" t="n">
         <v>58.384</v>
       </c>
     </row>
@@ -9728,10 +9762,10 @@
       <c r="C9" t="n">
         <v>7.36</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="16" t="n">
         <v>29.146</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="16" t="n">
         <v>27.106</v>
       </c>
     </row>
@@ -9745,10 +9779,10 @@
       <c r="C10" t="n">
         <v>7.36</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="16" t="n">
         <v>25.763</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="16" t="n">
         <v>23.96</v>
       </c>
     </row>
@@ -9762,10 +9796,10 @@
       <c r="C11" t="n">
         <v>7.33</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="16" t="n">
         <v>63.414</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="16" t="n">
         <v>58.975</v>
       </c>
     </row>
@@ -9779,32 +9813,32 @@
       <c r="C12" t="n">
         <v>7.08</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="16" t="n">
         <v>55.898</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="16" t="n">
         <v>51.985</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14">
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15">
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16">
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17">
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/summary_table_1.xlsx
+++ b/output/summary_table_1.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Inequalities" sheetId="5" state="visible" r:id="rId1"/>
+    <sheet name="Upshift Calcs" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="LA data" sheetId="6" state="visible" r:id="rId2"/>
-    <sheet name="Upshift Calcs" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Average Tobacco Spend" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Expenditure % of Income" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Expenditure % of Income LA" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Average Tobacco Spend" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Expenditure % of Income" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Expenditure % of Income LA" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>Table 2. Average weekly spend on tobacco by socio-economic status (SES) and age group</t>
   </si>
@@ -59,9 +58,6 @@
     <t>65+</t>
   </si>
   <si>
-    <t>Table 3. Expenditure of smoking as a proportion of income</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -71,9 +67,6 @@
     <t>% of income spent on tobacco</t>
   </si>
   <si>
-    <t>Table 4. Expenditure of smoking in the local authorities with the highest tobacco expenditure as a proportion of income</t>
-  </si>
-  <si>
     <t>LA</t>
   </si>
   <si>
@@ -135,6 +128,66 @@
   </si>
   <si>
     <t>Annual Smokefree Dividend (£m)</t>
+  </si>
+  <si>
+    <t>Table 4. Expenditure on smoking in the local authorities with the highest tobacco expenditure as a proportion of income</t>
+  </si>
+  <si>
+    <t>Table 3. Expenditure on smoking as a proportion of income</t>
+  </si>
+  <si>
+    <t>HMRC Stats</t>
+  </si>
+  <si>
+    <t>Cigarettes</t>
+  </si>
+  <si>
+    <t>Hand-Rolled</t>
+  </si>
+  <si>
+    <t>Ad-Valorem tax</t>
+  </si>
+  <si>
+    <t>Specific duty</t>
+  </si>
+  <si>
+    <t>Total duties (£m)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total excise per pack</t>
+  </si>
+  <si>
+    <t>Total excise % of price</t>
+  </si>
+  <si>
+    <t>Price per 100g (Dec 2020)</t>
+  </si>
+  <si>
+    <t>Price per 100g (Dec 2018)</t>
+  </si>
+  <si>
+    <t>Price deflator</t>
+  </si>
+  <si>
+    <t>Total cigarette spend (£m)</t>
+  </si>
+  <si>
+    <t>Total HRT spend (£m)</t>
+  </si>
+  <si>
+    <t>Total grossed-up expenditure</t>
+  </si>
+  <si>
+    <t>Upshift Factor:</t>
+  </si>
+  <si>
+    <t>Pack Price (20 cigs)</t>
+  </si>
+  <si>
+    <t>Survey data estimate</t>
   </si>
   <si>
     <t xml:space="preserve">E09000002</t>
@@ -1073,13 +1126,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;Â£&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,29 +1152,37 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <i/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <b/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1143,12 +1211,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,47 +1245,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,25 +1577,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B13:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1564,102 +1720,104 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K230" sqref="K230"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="2" max="2" width="33.5703125" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="13" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" ht="54.95" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="6" t="s">
+      <c r="M2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-    </row>
-    <row r="2" ht="54.95" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C3" t="n">
-        <v>24.1</v>
+        <v>23.4</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>25722.73</v>
       </c>
       <c r="F3" t="n">
@@ -1675,35 +1833,35 @@
         <v>26982</v>
       </c>
       <c r="J3" t="n">
-        <v>650</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>33.813</v>
+        <v>631</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>32.826</v>
       </c>
       <c r="L3" t="n">
         <v>495</v>
       </c>
       <c r="M3" t="n">
-        <v>4.87</v>
+        <v>4.73</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C4" t="n">
-        <v>26.51</v>
+        <v>23.7</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>32931.71</v>
       </c>
       <c r="F4" t="n">
@@ -1719,16 +1877,16 @@
         <v>33648</v>
       </c>
       <c r="J4" t="n">
-        <v>892</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>46.381</v>
+        <v>797</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>41.465</v>
       </c>
       <c r="L4" t="n">
         <v>633</v>
       </c>
       <c r="M4" t="n">
-        <v>4.19</v>
+        <v>3.74</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
@@ -1736,18 +1894,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C5" t="n">
-        <v>18.84</v>
+        <v>17.04</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="7" t="n">
         <v>26290</v>
       </c>
       <c r="F5" t="n">
@@ -1763,16 +1921,16 @@
         <v>35804</v>
       </c>
       <c r="J5" t="n">
-        <v>674</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>35.07</v>
+        <v>610</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>31.721</v>
       </c>
       <c r="L5" t="n">
         <v>506</v>
       </c>
       <c r="M5" t="n">
-        <v>3.73</v>
+        <v>3.37</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
@@ -1780,18 +1938,18 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56</v>
+        <v>16.59</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="7" t="n">
         <v>29866.67</v>
       </c>
       <c r="F6" t="n">
@@ -1807,16 +1965,16 @@
         <v>20484</v>
       </c>
       <c r="J6" t="n">
-        <v>401</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>20.833</v>
+        <v>340</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>17.673</v>
       </c>
       <c r="L6" t="n">
         <v>574</v>
       </c>
       <c r="M6" t="n">
-        <v>3.41</v>
+        <v>2.89</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -1824,18 +1982,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C7" t="n">
-        <v>19.54</v>
+        <v>16.85</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="7" t="n">
         <v>29835</v>
       </c>
       <c r="F7" t="n">
@@ -1851,16 +2009,16 @@
         <v>14262</v>
       </c>
       <c r="J7" t="n">
-        <v>279</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>14.494</v>
+        <v>240</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>12.5</v>
       </c>
       <c r="L7" t="n">
         <v>574</v>
       </c>
       <c r="M7" t="n">
-        <v>3.41</v>
+        <v>2.94</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -1868,18 +2026,18 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C8" t="n">
         <v>25.3</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>32378.57</v>
       </c>
       <c r="F8" t="n">
@@ -1897,7 +2055,7 @@
       <c r="J8" t="n">
         <v>685</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="8" t="n">
         <v>35.63</v>
       </c>
       <c r="L8" t="n">
@@ -1907,23 +2065,23 @@
         <v>4.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C9" t="n">
-        <v>28.22</v>
+        <v>25.28</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="7" t="n">
         <v>22587.88</v>
       </c>
       <c r="F9" t="n">
@@ -1939,16 +2097,16 @@
         <v>126363</v>
       </c>
       <c r="J9" t="n">
-        <v>3566</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>185.436</v>
+        <v>3194</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>166.102</v>
       </c>
       <c r="L9" t="n">
         <v>434</v>
       </c>
       <c r="M9" t="n">
-        <v>6.5</v>
+        <v>5.82</v>
       </c>
       <c r="N9" t="n">
         <v>9</v>
@@ -1956,18 +2114,18 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C10" t="n">
         <v>26.1</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="n">
         <v>21933.33</v>
       </c>
       <c r="F10" t="n">
@@ -1985,7 +2143,7 @@
       <c r="J10" t="n">
         <v>449</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="8" t="n">
         <v>23.341</v>
       </c>
       <c r="L10" t="n">
@@ -2000,18 +2158,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C11" t="n">
-        <v>25.15</v>
+        <v>23.09</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="7" t="n">
         <v>19615.79</v>
       </c>
       <c r="F11" t="n">
@@ -2027,16 +2185,16 @@
         <v>25797</v>
       </c>
       <c r="J11" t="n">
-        <v>649</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>33.742</v>
+        <v>596</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>30.973</v>
       </c>
       <c r="L11" t="n">
         <v>377</v>
       </c>
       <c r="M11" t="n">
-        <v>6.67</v>
+        <v>6.12</v>
       </c>
       <c r="N11" t="n">
         <v>9</v>
@@ -2044,18 +2202,18 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C12" t="n">
-        <v>34.72</v>
+        <v>32.33</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="7" t="n">
         <v>24328.57</v>
       </c>
       <c r="F12" t="n">
@@ -2071,16 +2229,16 @@
         <v>34774</v>
       </c>
       <c r="J12" t="n">
-        <v>1207</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>62.779</v>
+        <v>1124</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>58.463</v>
       </c>
       <c r="L12" t="n">
         <v>468</v>
       </c>
       <c r="M12" t="n">
-        <v>7.42</v>
+        <v>6.91</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
@@ -2088,18 +2246,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C13" t="n">
-        <v>21.82</v>
+        <v>21.14</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="n">
         <v>26429.88</v>
       </c>
       <c r="F13" t="n">
@@ -2115,16 +2273,16 @@
         <v>44330</v>
       </c>
       <c r="J13" t="n">
-        <v>967</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>50.3</v>
+        <v>937</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>48.73</v>
       </c>
       <c r="L13" t="n">
         <v>508</v>
       </c>
       <c r="M13" t="n">
-        <v>4.29</v>
+        <v>4.16</v>
       </c>
       <c r="N13" t="n">
         <v>4</v>
@@ -2132,18 +2290,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C14" t="n">
         <v>20.91</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="n">
         <v>31433.33</v>
       </c>
       <c r="F14" t="n">
@@ -2161,7 +2319,7 @@
       <c r="J14" t="n">
         <v>234</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="8" t="n">
         <v>12.144</v>
       </c>
       <c r="L14" t="n">
@@ -2171,23 +2329,23 @@
         <v>3.46</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C15" t="n">
-        <v>27.21</v>
+        <v>25.47</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="7" t="n">
         <v>22373.77</v>
       </c>
       <c r="F15" t="n">
@@ -2203,16 +2361,16 @@
         <v>65583</v>
       </c>
       <c r="J15" t="n">
-        <v>1784</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>92.786</v>
+        <v>1670</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>86.866</v>
       </c>
       <c r="L15" t="n">
         <v>430</v>
       </c>
       <c r="M15" t="n">
-        <v>6.32</v>
+        <v>5.92</v>
       </c>
       <c r="N15" t="n">
         <v>9</v>
@@ -2220,18 +2378,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C16" t="n">
-        <v>26.78</v>
+        <v>24.76</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="7" t="n">
         <v>27582.35</v>
       </c>
       <c r="F16" t="n">
@@ -2247,16 +2405,16 @@
         <v>26046</v>
       </c>
       <c r="J16" t="n">
-        <v>697</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>36.264</v>
+        <v>645</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>33.533</v>
       </c>
       <c r="L16" t="n">
         <v>530</v>
       </c>
       <c r="M16" t="n">
-        <v>5.05</v>
+        <v>4.67</v>
       </c>
       <c r="N16" t="n">
         <v>6</v>
@@ -2264,18 +2422,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C17" t="n">
-        <v>20.29</v>
+        <v>19.32</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="n">
         <v>29896.97</v>
       </c>
       <c r="F17" t="n">
@@ -2291,35 +2449,35 @@
         <v>42107</v>
       </c>
       <c r="J17" t="n">
-        <v>854</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <v>44.431</v>
+        <v>814</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>42.307</v>
       </c>
       <c r="L17" t="n">
         <v>575</v>
       </c>
       <c r="M17" t="n">
-        <v>3.53</v>
+        <v>3.36</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C18" t="n">
-        <v>19.92</v>
+        <v>19.16</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="n">
         <v>27087.27</v>
       </c>
       <c r="F18" t="n">
@@ -2335,35 +2493,35 @@
         <v>66358</v>
       </c>
       <c r="J18" t="n">
-        <v>1322</v>
-      </c>
-      <c r="K18" s="3" t="n">
-        <v>68.728</v>
+        <v>1271</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>66.112</v>
       </c>
       <c r="L18" t="n">
         <v>521</v>
       </c>
       <c r="M18" t="n">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C19" t="n">
-        <v>26.73</v>
+        <v>23.24</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="n">
         <v>36620.51</v>
       </c>
       <c r="F19" t="n">
@@ -2379,35 +2537,35 @@
         <v>24254</v>
       </c>
       <c r="J19" t="n">
-        <v>648</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>33.712</v>
+        <v>564</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>29.313</v>
       </c>
       <c r="L19" t="n">
         <v>704</v>
       </c>
       <c r="M19" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C20" t="n">
-        <v>23.54</v>
+        <v>21.73</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7" t="n">
         <v>33529.07</v>
       </c>
       <c r="F20" t="n">
@@ -2417,12 +2575,12 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="8"/>
       <c r="L20" t="n">
         <v>645</v>
       </c>
       <c r="M20" t="n">
-        <v>3.65</v>
+        <v>3.37</v>
       </c>
       <c r="N20" t="n">
         <v>2</v>
@@ -2430,18 +2588,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C21" t="n">
-        <v>25.7</v>
+        <v>23.31</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="7" t="n">
         <v>26407.69</v>
       </c>
       <c r="F21" t="n">
@@ -2457,35 +2615,35 @@
         <v>18859</v>
       </c>
       <c r="J21" t="n">
-        <v>485</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>25.205</v>
+        <v>440</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>22.863</v>
       </c>
       <c r="L21" t="n">
         <v>508</v>
       </c>
       <c r="M21" t="n">
-        <v>5.06</v>
+        <v>4.59</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C22" t="n">
-        <v>25.68</v>
+        <v>24.86</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7" t="n">
         <v>25077.78</v>
       </c>
       <c r="F22" t="n">
@@ -2501,35 +2659,35 @@
         <v>26598</v>
       </c>
       <c r="J22" t="n">
-        <v>683</v>
-      </c>
-      <c r="K22" s="3" t="n">
-        <v>35.522</v>
+        <v>661</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>34.379</v>
       </c>
       <c r="L22" t="n">
         <v>482</v>
       </c>
       <c r="M22" t="n">
-        <v>5.33</v>
+        <v>5.15</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C23" t="n">
-        <v>22.73</v>
+        <v>21.71</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="7" t="n">
         <v>32436.02</v>
       </c>
       <c r="F23" t="n">
@@ -2545,35 +2703,35 @@
         <v>68239</v>
       </c>
       <c r="J23" t="n">
-        <v>1551</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>80.646</v>
+        <v>1482</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>77.053</v>
       </c>
       <c r="L23" t="n">
         <v>624</v>
       </c>
       <c r="M23" t="n">
-        <v>3.64</v>
+        <v>3.48</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="C24" t="n">
-        <v>22.16</v>
+        <v>21.54</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="n">
         <v>32492.86</v>
       </c>
       <c r="F24" t="n">
@@ -2589,35 +2747,35 @@
         <v>26219</v>
       </c>
       <c r="J24" t="n">
-        <v>581</v>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>30.213</v>
+        <v>565</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>29.366</v>
       </c>
       <c r="L24" t="n">
         <v>625</v>
       </c>
       <c r="M24" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C25" t="n">
-        <v>28.01</v>
+        <v>25.37</v>
       </c>
       <c r="D25" t="n">
         <v>7</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="7" t="n">
         <v>32036.36</v>
       </c>
       <c r="F25" t="n">
@@ -2633,16 +2791,16 @@
         <v>30831</v>
       </c>
       <c r="J25" t="n">
-        <v>864</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>44.904</v>
+        <v>782</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>40.676</v>
       </c>
       <c r="L25" t="n">
         <v>616</v>
       </c>
       <c r="M25" t="n">
-        <v>4.55</v>
+        <v>4.12</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
@@ -2650,18 +2808,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="C26" t="n">
-        <v>30.1</v>
+        <v>29.39</v>
       </c>
       <c r="D26" t="n">
         <v>9</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="7" t="n">
         <v>30198.04</v>
       </c>
       <c r="F26" t="n">
@@ -2677,35 +2835,35 @@
         <v>42362</v>
       </c>
       <c r="J26" t="n">
-        <v>1275</v>
-      </c>
-      <c r="K26" s="3" t="n">
-        <v>66.308</v>
+        <v>1245</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>64.74</v>
       </c>
       <c r="L26" t="n">
         <v>581</v>
       </c>
       <c r="M26" t="n">
-        <v>5.18</v>
+        <v>5.06</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>15.01</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="7" t="n">
         <v>29140.43</v>
       </c>
       <c r="F27" t="n">
@@ -2721,16 +2879,16 @@
         <v>31125</v>
       </c>
       <c r="J27" t="n">
-        <v>529</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>27.515</v>
+        <v>467</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>24.286</v>
       </c>
       <c r="L27" t="n">
         <v>560</v>
       </c>
       <c r="M27" t="n">
-        <v>3.03</v>
+        <v>2.68</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -2738,14 +2896,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="7" t="n">
         <v>41800</v>
       </c>
       <c r="F28" t="n">
@@ -2755,7 +2913,7 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="8"/>
       <c r="L28" t="n">
         <v>804</v>
       </c>
@@ -2764,18 +2922,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C29" t="n">
-        <v>19.9</v>
+        <v>18.74</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="7" t="n">
         <v>25473.97</v>
       </c>
       <c r="F29" t="n">
@@ -2791,16 +2949,16 @@
         <v>69931</v>
       </c>
       <c r="J29" t="n">
-        <v>1392</v>
-      </c>
-      <c r="K29" s="3" t="n">
-        <v>72.376</v>
+        <v>1311</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>68.148</v>
       </c>
       <c r="L29" t="n">
         <v>490</v>
       </c>
       <c r="M29" t="n">
-        <v>4.06</v>
+        <v>3.83</v>
       </c>
       <c r="N29" t="n">
         <v>3</v>
@@ -2808,18 +2966,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C30" t="n">
-        <v>23.42</v>
+        <v>22.21</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="n">
         <v>25237.88</v>
       </c>
       <c r="F30" t="n">
@@ -2835,16 +2993,16 @@
         <v>72875</v>
       </c>
       <c r="J30" t="n">
-        <v>1707</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>88.767</v>
+        <v>1619</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>84.17</v>
       </c>
       <c r="L30" t="n">
         <v>485</v>
       </c>
       <c r="M30" t="n">
-        <v>4.83</v>
+        <v>4.58</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -2852,18 +3010,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C31" t="n">
-        <v>25.88</v>
+        <v>23.81</v>
       </c>
       <c r="D31" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="7" t="n">
         <v>24764.29</v>
       </c>
       <c r="F31" t="n">
@@ -2879,16 +3037,16 @@
         <v>43973</v>
       </c>
       <c r="J31" t="n">
-        <v>1138</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>59.168</v>
+        <v>1047</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>54.452</v>
       </c>
       <c r="L31" t="n">
         <v>476</v>
       </c>
       <c r="M31" t="n">
-        <v>5.43</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
         <v>7</v>
@@ -2896,18 +3054,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C32" t="n">
-        <v>24.98</v>
+        <v>23.27</v>
       </c>
       <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="7" t="n">
         <v>31211.36</v>
       </c>
       <c r="F32" t="n">
@@ -2923,16 +3081,16 @@
         <v>36269</v>
       </c>
       <c r="J32" t="n">
-        <v>906</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <v>47.116</v>
+        <v>844</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>43.888</v>
       </c>
       <c r="L32" t="n">
         <v>600</v>
       </c>
       <c r="M32" t="n">
-        <v>4.16</v>
+        <v>3.88</v>
       </c>
       <c r="N32" t="n">
         <v>3</v>
@@ -2940,18 +3098,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C33" t="n">
-        <v>24.69</v>
+        <v>23.93</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" s="7" t="n">
         <v>26745.87</v>
       </c>
       <c r="F33" t="n">
@@ -2967,35 +3125,35 @@
         <v>62243</v>
       </c>
       <c r="J33" t="n">
-        <v>1537</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>79.92</v>
+        <v>1490</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>77.455</v>
       </c>
       <c r="L33" t="n">
         <v>514</v>
       </c>
       <c r="M33" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C34" t="n">
-        <v>31.59</v>
+        <v>29.88</v>
       </c>
       <c r="D34" t="n">
         <v>9</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="7" t="n">
         <v>24253.33</v>
       </c>
       <c r="F34" t="n">
@@ -3011,16 +3169,16 @@
         <v>11552</v>
       </c>
       <c r="J34" t="n">
-        <v>365</v>
-      </c>
-      <c r="K34" s="3" t="n">
-        <v>18.978</v>
+        <v>345</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>17.949</v>
       </c>
       <c r="L34" t="n">
         <v>466</v>
       </c>
       <c r="M34" t="n">
-        <v>6.77</v>
+        <v>6.41</v>
       </c>
       <c r="N34" t="n">
         <v>10</v>
@@ -3028,18 +3186,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C35" t="n">
-        <v>23.6</v>
+        <v>22.43</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7" t="n">
         <v>27148.39</v>
       </c>
       <c r="F35" t="n">
@@ -3055,35 +3213,35 @@
         <v>33045</v>
       </c>
       <c r="J35" t="n">
-        <v>780</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>40.56</v>
+        <v>741</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>38.548</v>
       </c>
       <c r="L35" t="n">
         <v>522</v>
       </c>
       <c r="M35" t="n">
-        <v>4.52</v>
+        <v>4.3</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C36" t="n">
-        <v>26.87</v>
+        <v>24.49</v>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" s="7" t="n">
         <v>28928.41</v>
       </c>
       <c r="F36" t="n">
@@ -3099,35 +3257,35 @@
         <v>81716</v>
       </c>
       <c r="J36" t="n">
-        <v>2196</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <v>114.193</v>
+        <v>2001</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>104.065</v>
       </c>
       <c r="L36" t="n">
         <v>556</v>
       </c>
       <c r="M36" t="n">
-        <v>4.83</v>
+        <v>4.4</v>
       </c>
       <c r="N36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C37" t="n">
-        <v>20.05</v>
+        <v>18.05</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="7" t="n">
         <v>27183.86</v>
       </c>
       <c r="F37" t="n">
@@ -3143,16 +3301,16 @@
         <v>88461</v>
       </c>
       <c r="J37" t="n">
-        <v>1774</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>92.249</v>
+        <v>1597</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>83.034</v>
       </c>
       <c r="L37" t="n">
         <v>523</v>
       </c>
       <c r="M37" t="n">
-        <v>3.84</v>
+        <v>3.45</v>
       </c>
       <c r="N37" t="n">
         <v>2</v>
@@ -3160,18 +3318,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C38" t="n">
-        <v>31.57</v>
+        <v>30.41</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" s="7" t="n">
         <v>25915.38</v>
       </c>
       <c r="F38" t="n">
@@ -3187,16 +3345,16 @@
         <v>46779</v>
       </c>
       <c r="J38" t="n">
-        <v>1477</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>76.791</v>
+        <v>1423</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>73.973</v>
       </c>
       <c r="L38" t="n">
         <v>498</v>
       </c>
       <c r="M38" t="n">
-        <v>6.33</v>
+        <v>6.1</v>
       </c>
       <c r="N38" t="n">
         <v>9</v>
@@ -3204,18 +3362,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C39" t="n">
-        <v>23.22</v>
+        <v>19.44</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7" t="n">
         <v>28697.19</v>
       </c>
       <c r="F39" t="n">
@@ -3231,35 +3389,35 @@
         <v>31530</v>
       </c>
       <c r="J39" t="n">
-        <v>732</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>38.074</v>
+        <v>613</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>31.868</v>
       </c>
       <c r="L39" t="n">
         <v>552</v>
       </c>
       <c r="M39" t="n">
-        <v>4.21</v>
+        <v>3.52</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="C40" t="n">
-        <v>23.18</v>
+        <v>20.87</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="7" t="n">
         <v>24918.6</v>
       </c>
       <c r="F40" t="n">
@@ -3275,35 +3433,35 @@
         <v>34039</v>
       </c>
       <c r="J40" t="n">
-        <v>789</v>
-      </c>
-      <c r="K40" s="3" t="n">
-        <v>41.026</v>
+        <v>710</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>36.935</v>
       </c>
       <c r="L40" t="n">
         <v>479</v>
       </c>
       <c r="M40" t="n">
-        <v>4.84</v>
+        <v>4.35</v>
       </c>
       <c r="N40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C41" t="n">
-        <v>26.04</v>
+        <v>22.89</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7" t="n">
         <v>31084.62</v>
       </c>
       <c r="F41" t="n">
@@ -3319,35 +3477,35 @@
         <v>25841</v>
       </c>
       <c r="J41" t="n">
-        <v>673</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>34.985</v>
+        <v>592</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>30.759</v>
       </c>
       <c r="L41" t="n">
         <v>598</v>
       </c>
       <c r="M41" t="n">
-        <v>4.36</v>
+        <v>3.83</v>
       </c>
       <c r="N41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C42" t="n">
-        <v>28.58</v>
+        <v>26.11</v>
       </c>
       <c r="D42" t="n">
         <v>8</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="7" t="n">
         <v>28239.53</v>
       </c>
       <c r="F42" t="n">
@@ -3363,16 +3521,16 @@
         <v>33682</v>
       </c>
       <c r="J42" t="n">
-        <v>963</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>50.06</v>
+        <v>880</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>45.736</v>
       </c>
       <c r="L42" t="n">
         <v>543</v>
       </c>
       <c r="M42" t="n">
-        <v>5.26</v>
+        <v>4.81</v>
       </c>
       <c r="N42" t="n">
         <v>7</v>
@@ -3380,18 +3538,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C43" t="n">
-        <v>22.18</v>
+        <v>20.59</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7" t="n">
         <v>28866.33</v>
       </c>
       <c r="F43" t="n">
@@ -3407,35 +3565,35 @@
         <v>57010</v>
       </c>
       <c r="J43" t="n">
-        <v>1264</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>65.753</v>
+        <v>1174</v>
+      </c>
+      <c r="K43" s="8" t="n">
+        <v>61.052</v>
       </c>
       <c r="L43" t="n">
         <v>555</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C44" t="n">
-        <v>25.26</v>
+        <v>23.64</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="7" t="n">
         <v>28469.44</v>
       </c>
       <c r="F44" t="n">
@@ -3451,16 +3609,16 @@
         <v>39424</v>
       </c>
       <c r="J44" t="n">
-        <v>996</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>51.789</v>
+        <v>932</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>48.456</v>
       </c>
       <c r="L44" t="n">
         <v>547</v>
       </c>
       <c r="M44" t="n">
-        <v>4.61</v>
+        <v>4.32</v>
       </c>
       <c r="N44" t="n">
         <v>5</v>
@@ -3468,18 +3626,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C45" t="n">
-        <v>27.72</v>
+        <v>26.26</v>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
-      </c>
-      <c r="E45" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" s="7" t="n">
         <v>29986.79</v>
       </c>
       <c r="F45" t="n">
@@ -3495,16 +3653,16 @@
         <v>154954</v>
       </c>
       <c r="J45" t="n">
-        <v>4295</v>
-      </c>
-      <c r="K45" s="3" t="n">
-        <v>223.351</v>
+        <v>4068</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>211.56</v>
       </c>
       <c r="L45" t="n">
         <v>577</v>
       </c>
       <c r="M45" t="n">
-        <v>4.81</v>
+        <v>4.55</v>
       </c>
       <c r="N45" t="n">
         <v>6</v>
@@ -3512,18 +3670,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C46" t="n">
         <v>20.7</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7" t="n">
         <v>24418.52</v>
       </c>
       <c r="F46" t="n">
@@ -3541,7 +3699,7 @@
       <c r="J46" t="n">
         <v>575</v>
       </c>
-      <c r="K46" s="3" t="n">
+      <c r="K46" s="8" t="n">
         <v>29.923</v>
       </c>
       <c r="L46" t="n">
@@ -3551,23 +3709,23 @@
         <v>4.41</v>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C47" t="n">
-        <v>23.59</v>
+        <v>22.88</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" s="7" t="n">
         <v>29223.71</v>
       </c>
       <c r="F47" t="n">
@@ -3583,35 +3741,35 @@
         <v>65858</v>
       </c>
       <c r="J47" t="n">
-        <v>1554</v>
-      </c>
-      <c r="K47" s="3" t="n">
-        <v>80.784</v>
+        <v>1507</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>78.355</v>
       </c>
       <c r="L47" t="n">
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>4.2</v>
+        <v>4.07</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C48" t="n">
-        <v>26.71</v>
+        <v>24.94</v>
       </c>
       <c r="D48" t="n">
         <v>6</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="7" t="n">
         <v>30403.03</v>
       </c>
       <c r="F48" t="n">
@@ -3627,16 +3785,16 @@
         <v>27929</v>
       </c>
       <c r="J48" t="n">
-        <v>746</v>
-      </c>
-      <c r="K48" s="3" t="n">
-        <v>38.784</v>
+        <v>697</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>36.224</v>
       </c>
       <c r="L48" t="n">
         <v>585</v>
       </c>
       <c r="M48" t="n">
-        <v>4.57</v>
+        <v>4.27</v>
       </c>
       <c r="N48" t="n">
         <v>5</v>
@@ -3644,18 +3802,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C49" t="n">
-        <v>21.33</v>
+        <v>18.91</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="7" t="n">
         <v>27000</v>
       </c>
       <c r="F49" t="n">
@@ -3671,16 +3829,16 @@
         <v>31381</v>
       </c>
       <c r="J49" t="n">
-        <v>669</v>
-      </c>
-      <c r="K49" s="3" t="n">
-        <v>34.808</v>
+        <v>593</v>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>30.851</v>
       </c>
       <c r="L49" t="n">
         <v>519</v>
       </c>
       <c r="M49" t="n">
-        <v>4.11</v>
+        <v>3.64</v>
       </c>
       <c r="N49" t="n">
         <v>3</v>
@@ -3688,10 +3846,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C50" t="n">
         <v>37.97</v>
@@ -3699,7 +3857,7 @@
       <c r="D50" t="n">
         <v>10</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="7" t="n">
         <v>23906.25</v>
       </c>
       <c r="F50" t="n">
@@ -3717,7 +3875,7 @@
       <c r="J50" t="n">
         <v>570</v>
       </c>
-      <c r="K50" s="3" t="n">
+      <c r="K50" s="8" t="n">
         <v>29.616</v>
       </c>
       <c r="L50" t="n">
@@ -3732,18 +3890,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="C51" t="n">
-        <v>24.05</v>
+        <v>21.45</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" s="7" t="n">
         <v>31740</v>
       </c>
       <c r="F51" t="n">
@@ -3759,16 +3917,16 @@
         <v>15305</v>
       </c>
       <c r="J51" t="n">
-        <v>368</v>
-      </c>
-      <c r="K51" s="3" t="n">
-        <v>19.14</v>
+        <v>328</v>
+      </c>
+      <c r="K51" s="8" t="n">
+        <v>17.068</v>
       </c>
       <c r="L51" t="n">
         <v>610</v>
       </c>
       <c r="M51" t="n">
-        <v>3.94</v>
+        <v>3.51</v>
       </c>
       <c r="N51" t="n">
         <v>2</v>
@@ -3776,18 +3934,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C52" t="n">
-        <v>27.47</v>
+        <v>25.33</v>
       </c>
       <c r="D52" t="n">
         <v>7</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="7" t="n">
         <v>32746.23</v>
       </c>
       <c r="F52" t="n">
@@ -3803,16 +3961,16 @@
         <v>109694</v>
       </c>
       <c r="J52" t="n">
-        <v>3013</v>
-      </c>
-      <c r="K52" s="3" t="n">
-        <v>156.666</v>
+        <v>2779</v>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>144.495</v>
       </c>
       <c r="L52" t="n">
         <v>630</v>
       </c>
       <c r="M52" t="n">
-        <v>4.36</v>
+        <v>4.02</v>
       </c>
       <c r="N52" t="n">
         <v>4</v>
@@ -3820,18 +3978,18 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C53" t="n">
-        <v>21.15</v>
+        <v>17.84</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="n">
         <v>30000</v>
       </c>
       <c r="F53" t="n">
@@ -3847,35 +4005,35 @@
         <v>31107</v>
       </c>
       <c r="J53" t="n">
-        <v>658</v>
-      </c>
-      <c r="K53" s="3" t="n">
-        <v>34.211</v>
+        <v>555</v>
+      </c>
+      <c r="K53" s="8" t="n">
+        <v>28.851</v>
       </c>
       <c r="L53" t="n">
         <v>577</v>
       </c>
       <c r="M53" t="n">
-        <v>3.67</v>
+        <v>3.09</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C54" t="n">
-        <v>31.54</v>
+        <v>26.99</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
-      </c>
-      <c r="E54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" s="7" t="n">
         <v>33486.67</v>
       </c>
       <c r="F54" t="n">
@@ -3891,35 +4049,35 @@
         <v>19875</v>
       </c>
       <c r="J54" t="n">
-        <v>627</v>
-      </c>
-      <c r="K54" s="3" t="n">
-        <v>32.592</v>
+        <v>536</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>27.894</v>
       </c>
       <c r="L54" t="n">
         <v>644</v>
       </c>
       <c r="M54" t="n">
-        <v>4.9</v>
+        <v>4.19</v>
       </c>
       <c r="N54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C55" t="n">
-        <v>34.16</v>
+        <v>31.01</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="7" t="n">
         <v>21925</v>
       </c>
       <c r="F55" t="n">
@@ -3935,16 +4093,16 @@
         <v>14180</v>
       </c>
       <c r="J55" t="n">
-        <v>484</v>
-      </c>
-      <c r="K55" s="3" t="n">
-        <v>25.185</v>
+        <v>440</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>22.864</v>
       </c>
       <c r="L55" t="n">
         <v>422</v>
       </c>
       <c r="M55" t="n">
-        <v>8.1</v>
+        <v>7.35</v>
       </c>
       <c r="N55" t="n">
         <v>10</v>
@@ -3952,18 +4110,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="C56" t="n">
-        <v>38.24</v>
+        <v>34.33</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="7" t="n">
         <v>32280</v>
       </c>
       <c r="F56" t="n">
@@ -3979,16 +4137,16 @@
         <v>26524</v>
       </c>
       <c r="J56" t="n">
-        <v>1014</v>
-      </c>
-      <c r="K56" s="3" t="n">
-        <v>52.742</v>
+        <v>911</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>47.349</v>
       </c>
       <c r="L56" t="n">
         <v>621</v>
       </c>
       <c r="M56" t="n">
-        <v>6.16</v>
+        <v>5.53</v>
       </c>
       <c r="N56" t="n">
         <v>8</v>
@@ -3996,18 +4154,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C57" t="n">
-        <v>29.48</v>
+        <v>26.07</v>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
-      </c>
-      <c r="E57" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E57" s="7" t="n">
         <v>27047.83</v>
       </c>
       <c r="F57" t="n">
@@ -4023,35 +4181,35 @@
         <v>19235</v>
       </c>
       <c r="J57" t="n">
-        <v>567</v>
-      </c>
-      <c r="K57" s="3" t="n">
-        <v>29.484</v>
+        <v>502</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>26.079</v>
       </c>
       <c r="L57" t="n">
         <v>520</v>
       </c>
       <c r="M57" t="n">
-        <v>5.67</v>
+        <v>5.01</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C58" t="n">
-        <v>24.13</v>
+        <v>21.12</v>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
-      </c>
-      <c r="E58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" s="7" t="n">
         <v>31018.53</v>
       </c>
       <c r="F58" t="n">
@@ -4067,16 +4225,16 @@
         <v>100550</v>
       </c>
       <c r="J58" t="n">
-        <v>2427</v>
-      </c>
-      <c r="K58" s="3" t="n">
-        <v>126.188</v>
+        <v>2124</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>110.442</v>
       </c>
       <c r="L58" t="n">
         <v>597</v>
       </c>
       <c r="M58" t="n">
-        <v>4.05</v>
+        <v>3.54</v>
       </c>
       <c r="N58" t="n">
         <v>2</v>
@@ -4084,18 +4242,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C59" t="n">
-        <v>26.19</v>
+        <v>25.12</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
-      </c>
-      <c r="E59" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E59" s="7" t="n">
         <v>31968.75</v>
       </c>
       <c r="F59" t="n">
@@ -4111,35 +4269,35 @@
         <v>27469</v>
       </c>
       <c r="J59" t="n">
-        <v>719</v>
-      </c>
-      <c r="K59" s="3" t="n">
-        <v>37.405</v>
+        <v>690</v>
+      </c>
+      <c r="K59" s="8" t="n">
+        <v>35.884</v>
       </c>
       <c r="L59" t="n">
         <v>615</v>
       </c>
       <c r="M59" t="n">
-        <v>4.26</v>
+        <v>4.09</v>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C60" t="n">
-        <v>27.74</v>
+        <v>24.76</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
-      </c>
-      <c r="E60" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" s="7" t="n">
         <v>30850</v>
       </c>
       <c r="F60" t="n">
@@ -4155,16 +4313,16 @@
         <v>29395</v>
       </c>
       <c r="J60" t="n">
-        <v>815</v>
-      </c>
-      <c r="K60" s="3" t="n">
-        <v>42.405</v>
+        <v>728</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>37.841</v>
       </c>
       <c r="L60" t="n">
         <v>593</v>
       </c>
       <c r="M60" t="n">
-        <v>4.68</v>
+        <v>4.17</v>
       </c>
       <c r="N60" t="n">
         <v>5</v>
@@ -4172,18 +4330,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C61" t="n">
-        <v>29.71</v>
+        <v>26.72</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" s="7" t="n">
         <v>27144.44</v>
       </c>
       <c r="F61" t="n">
@@ -4199,16 +4357,16 @@
         <v>16896</v>
       </c>
       <c r="J61" t="n">
-        <v>502</v>
-      </c>
-      <c r="K61" s="3" t="n">
-        <v>26.101</v>
+        <v>452</v>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>23.48</v>
       </c>
       <c r="L61" t="n">
         <v>522</v>
       </c>
       <c r="M61" t="n">
-        <v>5.69</v>
+        <v>5.12</v>
       </c>
       <c r="N61" t="n">
         <v>8</v>
@@ -4216,14 +4374,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="7" t="n">
         <v>22700</v>
       </c>
       <c r="F62" t="n">
@@ -4233,7 +4391,7 @@
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="K62" s="3"/>
+      <c r="K62" s="8"/>
       <c r="L62" t="n">
         <v>437</v>
       </c>
@@ -4242,18 +4400,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="C63" t="n">
-        <v>23.25</v>
+        <v>21.84</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
-      </c>
-      <c r="E63" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" s="7" t="n">
         <v>29604.35</v>
       </c>
       <c r="F63" t="n">
@@ -4269,16 +4427,16 @@
         <v>24714</v>
       </c>
       <c r="J63" t="n">
-        <v>575</v>
-      </c>
-      <c r="K63" s="3" t="n">
-        <v>29.878</v>
+        <v>540</v>
+      </c>
+      <c r="K63" s="8" t="n">
+        <v>28.064</v>
       </c>
       <c r="L63" t="n">
         <v>569</v>
       </c>
       <c r="M63" t="n">
-        <v>4.08</v>
+        <v>3.84</v>
       </c>
       <c r="N63" t="n">
         <v>3</v>
@@ -4286,18 +4444,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="C64" t="n">
-        <v>30.38</v>
+        <v>22.75</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" s="7" t="n">
         <v>34028.57</v>
       </c>
       <c r="F64" t="n">
@@ -4313,35 +4471,35 @@
         <v>18999</v>
       </c>
       <c r="J64" t="n">
-        <v>577</v>
-      </c>
-      <c r="K64" s="3" t="n">
-        <v>30.017</v>
+        <v>432</v>
+      </c>
+      <c r="K64" s="8" t="n">
+        <v>22.476</v>
       </c>
       <c r="L64" t="n">
         <v>654</v>
       </c>
       <c r="M64" t="n">
-        <v>4.64</v>
+        <v>3.48</v>
       </c>
       <c r="N64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C65" t="n">
-        <v>25.54</v>
+        <v>23.46</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="7"/>
       <c r="F65"/>
       <c r="G65" t="n">
         <v>13.69</v>
@@ -4353,10 +4511,10 @@
         <v>169384</v>
       </c>
       <c r="J65" t="n">
-        <v>4326</v>
-      </c>
-      <c r="K65" s="3" t="n">
-        <v>224.934</v>
+        <v>3974</v>
+      </c>
+      <c r="K65" s="8" t="n">
+        <v>206.666</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -4364,18 +4522,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C66" t="n">
-        <v>28.96</v>
+        <v>26.49</v>
       </c>
       <c r="D66" t="n">
         <v>8</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="7" t="n">
         <v>22446.88</v>
       </c>
       <c r="F66" t="n">
@@ -4391,35 +4549,35 @@
         <v>44979</v>
       </c>
       <c r="J66" t="n">
-        <v>1302</v>
-      </c>
-      <c r="K66" s="3" t="n">
-        <v>67.726</v>
+        <v>1191</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <v>61.958</v>
       </c>
       <c r="L66" t="n">
         <v>432</v>
       </c>
       <c r="M66" t="n">
-        <v>6.71</v>
+        <v>6.14</v>
       </c>
       <c r="N66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C67" t="n">
-        <v>18.66</v>
+        <v>16.7</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="7" t="n">
         <v>38760</v>
       </c>
       <c r="F67" t="n">
@@ -4435,16 +4593,16 @@
         <v>12722</v>
       </c>
       <c r="J67" t="n">
-        <v>237</v>
-      </c>
-      <c r="K67" s="3" t="n">
-        <v>12.345</v>
+        <v>212</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>11.047</v>
       </c>
       <c r="L67" t="n">
         <v>745</v>
       </c>
       <c r="M67" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
@@ -4452,18 +4610,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C68" t="n">
-        <v>24.14</v>
+        <v>22.8</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="7" t="n">
         <v>24350.85</v>
       </c>
       <c r="F68" t="n">
@@ -4479,16 +4637,16 @@
         <v>48497</v>
       </c>
       <c r="J68" t="n">
-        <v>1171</v>
-      </c>
-      <c r="K68" s="3" t="n">
-        <v>60.88</v>
+        <v>1106</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>57.497</v>
       </c>
       <c r="L68" t="n">
         <v>468</v>
       </c>
       <c r="M68" t="n">
-        <v>5.16</v>
+        <v>4.87</v>
       </c>
       <c r="N68" t="n">
         <v>7</v>
@@ -4496,18 +4654,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="C69" t="n">
-        <v>29.7</v>
+        <v>26.63</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="7" t="n">
         <v>20985</v>
       </c>
       <c r="F69" t="n">
@@ -4523,16 +4681,16 @@
         <v>16682</v>
       </c>
       <c r="J69" t="n">
-        <v>495</v>
-      </c>
-      <c r="K69" s="3" t="n">
-        <v>25.763</v>
+        <v>444</v>
+      </c>
+      <c r="K69" s="8" t="n">
+        <v>23.102</v>
       </c>
       <c r="L69" t="n">
         <v>404</v>
       </c>
       <c r="M69" t="n">
-        <v>7.36</v>
+        <v>6.6</v>
       </c>
       <c r="N69" t="n">
         <v>10</v>
@@ -4540,18 +4698,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="C70" t="n">
-        <v>24.71</v>
+        <v>21.89</v>
       </c>
       <c r="D70" t="n">
         <v>4</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="7" t="n">
         <v>30728.57</v>
       </c>
       <c r="F70" t="n">
@@ -4567,16 +4725,16 @@
         <v>35272</v>
       </c>
       <c r="J70" t="n">
-        <v>872</v>
-      </c>
-      <c r="K70" s="3" t="n">
-        <v>45.326</v>
+        <v>772</v>
+      </c>
+      <c r="K70" s="8" t="n">
+        <v>40.148</v>
       </c>
       <c r="L70" t="n">
         <v>591</v>
       </c>
       <c r="M70" t="n">
-        <v>4.18</v>
+        <v>3.7</v>
       </c>
       <c r="N70" t="n">
         <v>3</v>
@@ -4584,18 +4742,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C71" t="n">
-        <v>25.02</v>
+        <v>23.49</v>
       </c>
       <c r="D71" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="7" t="n">
         <v>25636.48</v>
       </c>
       <c r="F71" t="n">
@@ -4611,16 +4769,16 @@
         <v>134164</v>
       </c>
       <c r="J71" t="n">
-        <v>3357</v>
-      </c>
-      <c r="K71" s="3" t="n">
-        <v>174.555</v>
+        <v>3152</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <v>163.896</v>
       </c>
       <c r="L71" t="n">
         <v>493</v>
       </c>
       <c r="M71" t="n">
-        <v>5.08</v>
+        <v>4.77</v>
       </c>
       <c r="N71" t="n">
         <v>7</v>
@@ -4628,18 +4786,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C72" t="n">
-        <v>20.65</v>
+        <v>19.38</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="7" t="n">
         <v>25265.42</v>
       </c>
       <c r="F72" t="n">
@@ -4655,35 +4813,35 @@
         <v>95184</v>
       </c>
       <c r="J72" t="n">
-        <v>1965</v>
-      </c>
-      <c r="K72" s="3" t="n">
-        <v>102.186</v>
+        <v>1845</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>95.921</v>
       </c>
       <c r="L72" t="n">
         <v>486</v>
       </c>
       <c r="M72" t="n">
-        <v>4.25</v>
+        <v>3.99</v>
       </c>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C73" t="n">
-        <v>20.85</v>
+        <v>20.06</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="7" t="n">
         <v>20843.24</v>
       </c>
       <c r="F73" t="n">
@@ -4699,16 +4857,16 @@
         <v>41728</v>
       </c>
       <c r="J73" t="n">
-        <v>870</v>
-      </c>
-      <c r="K73" s="3" t="n">
-        <v>45.252</v>
+        <v>837</v>
+      </c>
+      <c r="K73" s="8" t="n">
+        <v>43.534</v>
       </c>
       <c r="L73" t="n">
         <v>401</v>
       </c>
       <c r="M73" t="n">
-        <v>5.2</v>
+        <v>5.01</v>
       </c>
       <c r="N73" t="n">
         <v>7</v>
@@ -4716,18 +4874,18 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C74" t="n">
-        <v>29.02</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
-        <v>8</v>
-      </c>
-      <c r="E74" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E74" s="7" t="n">
         <v>31161.77</v>
       </c>
       <c r="F74" t="n">
@@ -4743,16 +4901,16 @@
         <v>67615</v>
       </c>
       <c r="J74" t="n">
-        <v>1962</v>
-      </c>
-      <c r="K74" s="3" t="n">
-        <v>102.029</v>
+        <v>1893</v>
+      </c>
+      <c r="K74" s="8" t="n">
+        <v>98.431</v>
       </c>
       <c r="L74" t="n">
         <v>599</v>
       </c>
       <c r="M74" t="n">
-        <v>4.84</v>
+        <v>4.67</v>
       </c>
       <c r="N74" t="n">
         <v>6</v>
@@ -4760,18 +4918,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C75" t="n">
-        <v>24.23</v>
+        <v>21.2</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
-      </c>
-      <c r="E75" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" s="7" t="n">
         <v>30763.89</v>
       </c>
       <c r="F75" t="n">
@@ -4787,35 +4945,35 @@
         <v>34483</v>
       </c>
       <c r="J75" t="n">
-        <v>836</v>
-      </c>
-      <c r="K75" s="3" t="n">
-        <v>43.454</v>
+        <v>731</v>
+      </c>
+      <c r="K75" s="8" t="n">
+        <v>38.022</v>
       </c>
       <c r="L75" t="n">
         <v>592</v>
       </c>
       <c r="M75" t="n">
-        <v>4.1</v>
+        <v>3.58</v>
       </c>
       <c r="N75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="C76" t="n">
-        <v>22.15</v>
+        <v>21.33</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
-      </c>
-      <c r="E76" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" s="7" t="n">
         <v>27021.75</v>
       </c>
       <c r="F76" t="n">
@@ -4831,16 +4989,16 @@
         <v>94175</v>
       </c>
       <c r="J76" t="n">
-        <v>2086</v>
-      </c>
-      <c r="K76" s="3" t="n">
-        <v>108.479</v>
+        <v>2009</v>
+      </c>
+      <c r="K76" s="8" t="n">
+        <v>104.468</v>
       </c>
       <c r="L76" t="n">
         <v>520</v>
       </c>
       <c r="M76" t="n">
-        <v>4.26</v>
+        <v>4.11</v>
       </c>
       <c r="N76" t="n">
         <v>4</v>
@@ -4848,18 +5006,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C77" t="n">
-        <v>25.85</v>
+        <v>24.49</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="7" t="n">
         <v>21895.08</v>
       </c>
       <c r="F77" t="n">
@@ -4875,35 +5033,35 @@
         <v>56803</v>
       </c>
       <c r="J77" t="n">
-        <v>1469</v>
-      </c>
-      <c r="K77" s="3" t="n">
-        <v>76.367</v>
+        <v>1391</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>72.34</v>
       </c>
       <c r="L77" t="n">
         <v>421</v>
       </c>
       <c r="M77" t="n">
-        <v>6.14</v>
+        <v>5.82</v>
       </c>
       <c r="N77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C78" t="n">
-        <v>36.98</v>
+        <v>29.8</v>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
-      </c>
-      <c r="E78" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E78" s="7" t="n">
         <v>25614.29</v>
       </c>
       <c r="F78" t="n">
@@ -4919,35 +5077,35 @@
         <v>26204</v>
       </c>
       <c r="J78" t="n">
-        <v>969</v>
-      </c>
-      <c r="K78" s="3" t="n">
-        <v>50.388</v>
+        <v>781</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>40.605</v>
       </c>
       <c r="L78" t="n">
         <v>493</v>
       </c>
       <c r="M78" t="n">
-        <v>7.51</v>
+        <v>6.05</v>
       </c>
       <c r="N78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C79" t="n">
-        <v>15.58</v>
+        <v>14.54</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="7" t="n">
         <v>21901.75</v>
       </c>
       <c r="F79" t="n">
@@ -4963,16 +5121,16 @@
         <v>77467</v>
       </c>
       <c r="J79" t="n">
-        <v>1207</v>
-      </c>
-      <c r="K79" s="3" t="n">
-        <v>62.771</v>
+        <v>1126</v>
+      </c>
+      <c r="K79" s="8" t="n">
+        <v>58.562</v>
       </c>
       <c r="L79" t="n">
         <v>421</v>
       </c>
       <c r="M79" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="N79" t="n">
         <v>2</v>
@@ -4980,18 +5138,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C80" t="n">
-        <v>30.77</v>
+        <v>28.39</v>
       </c>
       <c r="D80" t="n">
         <v>9</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="7" t="n">
         <v>28457.89</v>
       </c>
       <c r="F80" t="n">
@@ -5007,16 +5165,16 @@
         <v>30036</v>
       </c>
       <c r="J80" t="n">
-        <v>924</v>
-      </c>
-      <c r="K80" s="3" t="n">
-        <v>48.055</v>
+        <v>853</v>
+      </c>
+      <c r="K80" s="8" t="n">
+        <v>44.342</v>
       </c>
       <c r="L80" t="n">
         <v>547</v>
       </c>
       <c r="M80" t="n">
-        <v>5.62</v>
+        <v>5.19</v>
       </c>
       <c r="N80" t="n">
         <v>8</v>
@@ -5024,18 +5182,18 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C81" t="n">
-        <v>21.33</v>
+        <v>18.81</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="7" t="n">
         <v>35368</v>
       </c>
       <c r="F81" t="n">
@@ -5051,16 +5209,16 @@
         <v>21559</v>
       </c>
       <c r="J81" t="n">
-        <v>460</v>
-      </c>
-      <c r="K81" s="3" t="n">
-        <v>23.912</v>
+        <v>405</v>
+      </c>
+      <c r="K81" s="8" t="n">
+        <v>21.084</v>
       </c>
       <c r="L81" t="n">
         <v>680</v>
       </c>
       <c r="M81" t="n">
-        <v>3.14</v>
+        <v>2.77</v>
       </c>
       <c r="N81" t="n">
         <v>1</v>
@@ -5068,18 +5226,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C82" t="n">
-        <v>34.17</v>
+        <v>30.83</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="7" t="n">
         <v>22326.32</v>
       </c>
       <c r="F82" t="n">
@@ -5095,16 +5253,16 @@
         <v>18578</v>
       </c>
       <c r="J82" t="n">
-        <v>635</v>
-      </c>
-      <c r="K82" s="3" t="n">
-        <v>33.011</v>
+        <v>573</v>
+      </c>
+      <c r="K82" s="8" t="n">
+        <v>29.788</v>
       </c>
       <c r="L82" t="n">
         <v>429</v>
       </c>
       <c r="M82" t="n">
-        <v>7.96</v>
+        <v>7.18</v>
       </c>
       <c r="N82" t="n">
         <v>10</v>
@@ -5112,18 +5270,18 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C83" t="n">
-        <v>25.99</v>
+        <v>24.97</v>
       </c>
       <c r="D83" t="n">
         <v>6</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="7" t="n">
         <v>29484.38</v>
       </c>
       <c r="F83" t="n">
@@ -5139,16 +5297,16 @@
         <v>30202</v>
       </c>
       <c r="J83" t="n">
-        <v>785</v>
-      </c>
-      <c r="K83" s="3" t="n">
-        <v>40.818</v>
+        <v>754</v>
+      </c>
+      <c r="K83" s="8" t="n">
+        <v>39.218</v>
       </c>
       <c r="L83" t="n">
         <v>567</v>
       </c>
       <c r="M83" t="n">
-        <v>4.58</v>
+        <v>4.4</v>
       </c>
       <c r="N83" t="n">
         <v>5</v>
@@ -5156,18 +5314,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B84" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="C84" t="n">
-        <v>32.57</v>
+        <v>29.99</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="7" t="n">
         <v>24086.21</v>
       </c>
       <c r="F84" t="n">
@@ -5183,16 +5341,16 @@
         <v>31804</v>
       </c>
       <c r="J84" t="n">
-        <v>1036</v>
-      </c>
-      <c r="K84" s="3" t="n">
-        <v>53.857</v>
+        <v>954</v>
+      </c>
+      <c r="K84" s="8" t="n">
+        <v>49.599</v>
       </c>
       <c r="L84" t="n">
         <v>463</v>
       </c>
       <c r="M84" t="n">
-        <v>7.03</v>
+        <v>6.47</v>
       </c>
       <c r="N84" t="n">
         <v>10</v>
@@ -5200,18 +5358,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C85" t="n">
-        <v>29.38</v>
+        <v>28.1</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
-      </c>
-      <c r="E85" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E85" s="7" t="n">
         <v>26275.68</v>
       </c>
       <c r="F85" t="n">
@@ -5227,16 +5385,16 @@
         <v>36891</v>
       </c>
       <c r="J85" t="n">
-        <v>1084</v>
-      </c>
-      <c r="K85" s="3" t="n">
-        <v>56.364</v>
+        <v>1037</v>
+      </c>
+      <c r="K85" s="8" t="n">
+        <v>53.9</v>
       </c>
       <c r="L85" t="n">
         <v>505</v>
       </c>
       <c r="M85" t="n">
-        <v>5.81</v>
+        <v>5.56</v>
       </c>
       <c r="N85" t="n">
         <v>8</v>
@@ -5244,18 +5402,18 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C86" t="n">
-        <v>21.3</v>
+        <v>20.36</v>
       </c>
       <c r="D86" t="n">
         <v>2</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="7" t="n">
         <v>28364.07</v>
       </c>
       <c r="F86" t="n">
@@ -5271,35 +5429,35 @@
         <v>106988</v>
       </c>
       <c r="J86" t="n">
-        <v>2279</v>
-      </c>
-      <c r="K86" s="3" t="n">
-        <v>118.489</v>
+        <v>2178</v>
+      </c>
+      <c r="K86" s="8" t="n">
+        <v>113.249</v>
       </c>
       <c r="L86" t="n">
         <v>545</v>
       </c>
       <c r="M86" t="n">
-        <v>3.9</v>
+        <v>3.73</v>
       </c>
       <c r="N86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C87" t="n">
-        <v>25.53</v>
+        <v>24.66</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
-      </c>
-      <c r="E87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E87" s="7" t="n">
         <v>23526.09</v>
       </c>
       <c r="F87" t="n">
@@ -5315,16 +5473,16 @@
         <v>27763</v>
       </c>
       <c r="J87" t="n">
-        <v>709</v>
-      </c>
-      <c r="K87" s="3" t="n">
-        <v>36.854</v>
+        <v>685</v>
+      </c>
+      <c r="K87" s="8" t="n">
+        <v>35.605</v>
       </c>
       <c r="L87" t="n">
         <v>452</v>
       </c>
       <c r="M87" t="n">
-        <v>5.64</v>
+        <v>5.45</v>
       </c>
       <c r="N87" t="n">
         <v>8</v>
@@ -5332,18 +5490,18 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C88" t="n">
-        <v>27.22</v>
+        <v>25.34</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="7" t="n">
         <v>26817.39</v>
       </c>
       <c r="F88" t="n">
@@ -5359,16 +5517,16 @@
         <v>24374</v>
       </c>
       <c r="J88" t="n">
-        <v>664</v>
-      </c>
-      <c r="K88" s="3" t="n">
-        <v>34.505</v>
+        <v>618</v>
+      </c>
+      <c r="K88" s="8" t="n">
+        <v>32.119</v>
       </c>
       <c r="L88" t="n">
         <v>516</v>
       </c>
       <c r="M88" t="n">
-        <v>5.28</v>
+        <v>4.91</v>
       </c>
       <c r="N88" t="n">
         <v>7</v>
@@ -5376,18 +5534,18 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="C89" t="n">
-        <v>19.84</v>
+        <v>16.35</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="7" t="n">
         <v>28900</v>
       </c>
       <c r="F89" t="n">
@@ -5403,16 +5561,16 @@
         <v>19276</v>
       </c>
       <c r="J89" t="n">
-        <v>382</v>
-      </c>
-      <c r="K89" s="3" t="n">
-        <v>19.884</v>
+        <v>315</v>
+      </c>
+      <c r="K89" s="8" t="n">
+        <v>16.391</v>
       </c>
       <c r="L89" t="n">
         <v>556</v>
       </c>
       <c r="M89" t="n">
-        <v>3.57</v>
+        <v>2.94</v>
       </c>
       <c r="N89" t="n">
         <v>1</v>
@@ -5420,18 +5578,18 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C90" t="n">
-        <v>30.83</v>
+        <v>27.04</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
-      </c>
-      <c r="E90" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" s="7" t="n">
         <v>26016.67</v>
       </c>
       <c r="F90" t="n">
@@ -5447,16 +5605,16 @@
         <v>23140</v>
       </c>
       <c r="J90" t="n">
-        <v>713</v>
-      </c>
-      <c r="K90" s="3" t="n">
-        <v>37.094</v>
+        <v>626</v>
+      </c>
+      <c r="K90" s="8" t="n">
+        <v>32.533</v>
       </c>
       <c r="L90" t="n">
         <v>500</v>
       </c>
       <c r="M90" t="n">
-        <v>6.16</v>
+        <v>5.4</v>
       </c>
       <c r="N90" t="n">
         <v>8</v>
@@ -5464,18 +5622,18 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="C91" t="n">
-        <v>25.96</v>
+        <v>24.27</v>
       </c>
       <c r="D91" t="n">
         <v>6</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="7" t="n">
         <v>28621.17</v>
       </c>
       <c r="F91" t="n">
@@ -5491,35 +5649,35 @@
         <v>59798</v>
       </c>
       <c r="J91" t="n">
-        <v>1552</v>
-      </c>
-      <c r="K91" s="3" t="n">
-        <v>80.726</v>
+        <v>1451</v>
+      </c>
+      <c r="K91" s="8" t="n">
+        <v>75.457</v>
       </c>
       <c r="L91" t="n">
         <v>550</v>
       </c>
       <c r="M91" t="n">
-        <v>4.72</v>
+        <v>4.41</v>
       </c>
       <c r="N91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C92" t="n">
-        <v>26.93</v>
+        <v>25.92</v>
       </c>
       <c r="D92" t="n">
         <v>7</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="7" t="n">
         <v>29037.4</v>
       </c>
       <c r="F92" t="n">
@@ -5535,16 +5693,16 @@
         <v>95181</v>
       </c>
       <c r="J92" t="n">
-        <v>2563</v>
-      </c>
-      <c r="K92" s="3" t="n">
-        <v>133.302</v>
+        <v>2467</v>
+      </c>
+      <c r="K92" s="8" t="n">
+        <v>128.309</v>
       </c>
       <c r="L92" t="n">
         <v>558</v>
       </c>
       <c r="M92" t="n">
-        <v>4.82</v>
+        <v>4.64</v>
       </c>
       <c r="N92" t="n">
         <v>6</v>
@@ -5552,18 +5710,18 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C93" t="n">
-        <v>28.16</v>
+        <v>26.51</v>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
-      </c>
-      <c r="E93" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" s="7" t="n">
         <v>26652.5</v>
       </c>
       <c r="F93" t="n">
@@ -5579,16 +5737,16 @@
         <v>33849</v>
       </c>
       <c r="J93" t="n">
-        <v>953</v>
-      </c>
-      <c r="K93" s="3" t="n">
-        <v>49.561</v>
+        <v>897</v>
+      </c>
+      <c r="K93" s="8" t="n">
+        <v>46.653</v>
       </c>
       <c r="L93" t="n">
         <v>513</v>
       </c>
       <c r="M93" t="n">
-        <v>5.49</v>
+        <v>5.17</v>
       </c>
       <c r="N93" t="n">
         <v>8</v>
@@ -5596,18 +5754,18 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C94" t="n">
-        <v>24.92</v>
+        <v>24.26</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
-      </c>
-      <c r="E94" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E94" s="7" t="n">
         <v>23686.84</v>
       </c>
       <c r="F94" t="n">
@@ -5623,16 +5781,16 @@
         <v>55121</v>
       </c>
       <c r="J94" t="n">
-        <v>1373</v>
-      </c>
-      <c r="K94" s="3" t="n">
-        <v>71.421</v>
+        <v>1337</v>
+      </c>
+      <c r="K94" s="8" t="n">
+        <v>69.545</v>
       </c>
       <c r="L94" t="n">
         <v>456</v>
       </c>
       <c r="M94" t="n">
-        <v>5.47</v>
+        <v>5.33</v>
       </c>
       <c r="N94" t="n">
         <v>8</v>
@@ -5640,18 +5798,18 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C95" t="n">
-        <v>27.17</v>
+        <v>26.02</v>
       </c>
       <c r="D95" t="n">
         <v>7</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="7" t="n">
         <v>30664.52</v>
       </c>
       <c r="F95" t="n">
@@ -5667,35 +5825,35 @@
         <v>95012</v>
       </c>
       <c r="J95" t="n">
-        <v>2581</v>
-      </c>
-      <c r="K95" s="3" t="n">
-        <v>134.238</v>
+        <v>2472</v>
+      </c>
+      <c r="K95" s="8" t="n">
+        <v>128.534</v>
       </c>
       <c r="L95" t="n">
         <v>590</v>
       </c>
       <c r="M95" t="n">
-        <v>4.61</v>
+        <v>4.41</v>
       </c>
       <c r="N95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="C96" t="n">
-        <v>31.86</v>
+        <v>29.87</v>
       </c>
       <c r="D96" t="n">
         <v>9</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="7" t="n">
         <v>24087.88</v>
       </c>
       <c r="F96" t="n">
@@ -5711,16 +5869,16 @@
         <v>31764</v>
       </c>
       <c r="J96" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K96" s="3" t="n">
-        <v>52.629</v>
+        <v>949</v>
+      </c>
+      <c r="K96" s="8" t="n">
+        <v>49.337</v>
       </c>
       <c r="L96" t="n">
         <v>463</v>
       </c>
       <c r="M96" t="n">
-        <v>6.88</v>
+        <v>6.45</v>
       </c>
       <c r="N96" t="n">
         <v>10</v>
@@ -5728,18 +5886,18 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C97" t="n">
-        <v>23.95</v>
+        <v>23.4</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
-      </c>
-      <c r="E97" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" s="7" t="n">
         <v>33310.03</v>
       </c>
       <c r="F97" t="n">
@@ -5755,35 +5913,35 @@
         <v>65455</v>
       </c>
       <c r="J97" t="n">
-        <v>1567</v>
-      </c>
-      <c r="K97" s="3" t="n">
-        <v>81.502</v>
+        <v>1531</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>79.637</v>
       </c>
       <c r="L97" t="n">
         <v>641</v>
       </c>
       <c r="M97" t="n">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="N97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C98" t="n">
-        <v>21.74</v>
+        <v>17.27</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
-      </c>
-      <c r="E98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="7" t="n">
         <v>26936.36</v>
       </c>
       <c r="F98" t="n">
@@ -5799,35 +5957,35 @@
         <v>28328</v>
       </c>
       <c r="J98" t="n">
-        <v>616</v>
-      </c>
-      <c r="K98" s="3" t="n">
-        <v>32.021</v>
+        <v>489</v>
+      </c>
+      <c r="K98" s="8" t="n">
+        <v>25.445</v>
       </c>
       <c r="L98" t="n">
         <v>518</v>
       </c>
       <c r="M98" t="n">
-        <v>4.2</v>
+        <v>3.33</v>
       </c>
       <c r="N98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C99" t="n">
-        <v>22.02</v>
+        <v>19.19</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="7" t="n">
         <v>26246.88</v>
       </c>
       <c r="F99" t="n">
@@ -5843,35 +6001,35 @@
         <v>38738</v>
       </c>
       <c r="J99" t="n">
-        <v>853</v>
-      </c>
-      <c r="K99" s="3" t="n">
-        <v>44.361</v>
+        <v>744</v>
+      </c>
+      <c r="K99" s="8" t="n">
+        <v>38.666</v>
       </c>
       <c r="L99" t="n">
         <v>505</v>
       </c>
       <c r="M99" t="n">
-        <v>4.36</v>
+        <v>3.8</v>
       </c>
       <c r="N99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B100" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="C100" t="n">
-        <v>29.04</v>
+        <v>27.62</v>
       </c>
       <c r="D100" t="n">
         <v>8</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="7" t="n">
         <v>29028</v>
       </c>
       <c r="F100" t="n">
@@ -5887,16 +6045,16 @@
         <v>28148</v>
       </c>
       <c r="J100" t="n">
-        <v>817</v>
-      </c>
-      <c r="K100" s="3" t="n">
-        <v>42.509</v>
+        <v>778</v>
+      </c>
+      <c r="K100" s="8" t="n">
+        <v>40.43</v>
       </c>
       <c r="L100" t="n">
         <v>558</v>
       </c>
       <c r="M100" t="n">
-        <v>5.2</v>
+        <v>4.95</v>
       </c>
       <c r="N100" t="n">
         <v>7</v>
@@ -5904,14 +6062,18 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B101" t="s">
-        <v>288</v>
-      </c>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101" s="2" t="n">
+        <v>306</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7" t="n">
         <v>31094.44</v>
       </c>
       <c r="F101" t="n">
@@ -5926,28 +6088,36 @@
       <c r="I101" t="n">
         <v>17404</v>
       </c>
-      <c r="J101"/>
-      <c r="K101" s="3"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="L101" t="n">
         <v>598</v>
       </c>
-      <c r="M101"/>
-      <c r="N101"/>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="C102" t="n">
-        <v>28.72</v>
+        <v>24.52</v>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
-      </c>
-      <c r="E102" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" s="7" t="n">
         <v>30845.16</v>
       </c>
       <c r="F102" t="n">
@@ -5963,35 +6133,35 @@
         <v>30605</v>
       </c>
       <c r="J102" t="n">
-        <v>879</v>
-      </c>
-      <c r="K102" s="3" t="n">
-        <v>45.712</v>
+        <v>750</v>
+      </c>
+      <c r="K102" s="8" t="n">
+        <v>39.02</v>
       </c>
       <c r="L102" t="n">
         <v>593</v>
       </c>
       <c r="M102" t="n">
-        <v>4.84</v>
+        <v>4.13</v>
       </c>
       <c r="N102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C103" t="n">
-        <v>28.88</v>
+        <v>27.71</v>
       </c>
       <c r="D103" t="n">
         <v>8</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="7" t="n">
         <v>24326.32</v>
       </c>
       <c r="F103" t="n">
@@ -6007,16 +6177,16 @@
         <v>16942</v>
       </c>
       <c r="J103" t="n">
-        <v>489</v>
-      </c>
-      <c r="K103" s="3" t="n">
-        <v>25.442</v>
+        <v>469</v>
+      </c>
+      <c r="K103" s="8" t="n">
+        <v>24.41</v>
       </c>
       <c r="L103" t="n">
         <v>468</v>
       </c>
       <c r="M103" t="n">
-        <v>6.17</v>
+        <v>5.92</v>
       </c>
       <c r="N103" t="n">
         <v>9</v>
@@ -6024,18 +6194,18 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="C104" t="n">
-        <v>26.51</v>
+        <v>22.69</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
-      </c>
-      <c r="E104" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" s="7" t="n">
         <v>40526.09</v>
       </c>
       <c r="F104" t="n">
@@ -6051,16 +6221,16 @@
         <v>12172</v>
       </c>
       <c r="J104" t="n">
-        <v>323</v>
-      </c>
-      <c r="K104" s="3" t="n">
-        <v>16.78</v>
+        <v>276</v>
+      </c>
+      <c r="K104" s="8" t="n">
+        <v>14.36</v>
       </c>
       <c r="L104" t="n">
         <v>779</v>
       </c>
       <c r="M104" t="n">
-        <v>3.4</v>
+        <v>2.91</v>
       </c>
       <c r="N104" t="n">
         <v>1</v>
@@ -6068,18 +6238,18 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C105" t="n">
-        <v>24.37</v>
+        <v>21.72</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
-      </c>
-      <c r="E105" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E105" s="7" t="n">
         <v>23664</v>
       </c>
       <c r="F105" t="n">
@@ -6095,16 +6265,16 @@
         <v>25632</v>
       </c>
       <c r="J105" t="n">
-        <v>625</v>
-      </c>
-      <c r="K105" s="3" t="n">
-        <v>32.476</v>
+        <v>557</v>
+      </c>
+      <c r="K105" s="8" t="n">
+        <v>28.954</v>
       </c>
       <c r="L105" t="n">
         <v>455</v>
       </c>
       <c r="M105" t="n">
-        <v>5.35</v>
+        <v>4.77</v>
       </c>
       <c r="N105" t="n">
         <v>7</v>
@@ -6112,18 +6282,18 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C106" t="n">
-        <v>24.09</v>
+        <v>21.64</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
-      </c>
-      <c r="E106" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" s="7" t="n">
         <v>26457.58</v>
       </c>
       <c r="F106" t="n">
@@ -6139,16 +6309,16 @@
         <v>37100</v>
       </c>
       <c r="J106" t="n">
-        <v>894</v>
-      </c>
-      <c r="K106" s="3" t="n">
-        <v>46.48</v>
+        <v>803</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>41.745</v>
       </c>
       <c r="L106" t="n">
         <v>509</v>
       </c>
       <c r="M106" t="n">
-        <v>4.74</v>
+        <v>4.25</v>
       </c>
       <c r="N106" t="n">
         <v>5</v>
@@ -6156,18 +6326,18 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C107" t="n">
         <v>29.14</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
-      </c>
-      <c r="E107" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E107" s="7" t="n">
         <v>34400</v>
       </c>
       <c r="F107" t="n">
@@ -6185,7 +6355,7 @@
       <c r="J107" t="n">
         <v>95</v>
       </c>
-      <c r="K107" s="3" t="n">
+      <c r="K107" s="8" t="n">
         <v>4.936</v>
       </c>
       <c r="L107" t="n">
@@ -6195,23 +6365,23 @@
         <v>4.4</v>
       </c>
       <c r="N107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C108" t="n">
-        <v>35.71</v>
+        <v>33.92</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="7" t="n">
         <v>22953.33</v>
       </c>
       <c r="F108" t="n">
@@ -6227,16 +6397,16 @@
         <v>38440</v>
       </c>
       <c r="J108" t="n">
-        <v>1373</v>
-      </c>
-      <c r="K108" s="3" t="n">
-        <v>71.377</v>
+        <v>1304</v>
+      </c>
+      <c r="K108" s="8" t="n">
+        <v>67.811</v>
       </c>
       <c r="L108" t="n">
         <v>441</v>
       </c>
       <c r="M108" t="n">
-        <v>8.09</v>
+        <v>7.69</v>
       </c>
       <c r="N108" t="n">
         <v>10</v>
@@ -6244,18 +6414,18 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C109" t="n">
-        <v>28.48</v>
+        <v>27.8</v>
       </c>
       <c r="D109" t="n">
-        <v>8</v>
-      </c>
-      <c r="E109" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E109" s="7" t="n">
         <v>20923.68</v>
       </c>
       <c r="F109" t="n">
@@ -6271,16 +6441,16 @@
         <v>37750</v>
       </c>
       <c r="J109" t="n">
-        <v>1075</v>
-      </c>
-      <c r="K109" s="3" t="n">
-        <v>55.898</v>
+        <v>1050</v>
+      </c>
+      <c r="K109" s="8" t="n">
+        <v>54.576</v>
       </c>
       <c r="L109" t="n">
         <v>402</v>
       </c>
       <c r="M109" t="n">
-        <v>7.08</v>
+        <v>6.91</v>
       </c>
       <c r="N109" t="n">
         <v>10</v>
@@ -6288,18 +6458,18 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C110" t="n">
-        <v>32.39</v>
+        <v>31.01</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="7" t="n">
         <v>25771.05</v>
       </c>
       <c r="F110" t="n">
@@ -6315,16 +6485,16 @@
         <v>21157</v>
       </c>
       <c r="J110" t="n">
-        <v>685</v>
-      </c>
-      <c r="K110" s="3" t="n">
-        <v>35.631</v>
+        <v>656</v>
+      </c>
+      <c r="K110" s="8" t="n">
+        <v>34.113</v>
       </c>
       <c r="L110" t="n">
         <v>496</v>
       </c>
       <c r="M110" t="n">
-        <v>6.53</v>
+        <v>6.26</v>
       </c>
       <c r="N110" t="n">
         <v>9</v>
@@ -6332,18 +6502,18 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C111" t="n">
-        <v>24.72</v>
+        <v>20.75</v>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
-      </c>
-      <c r="E111" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" s="7" t="n">
         <v>27158.57</v>
       </c>
       <c r="F111" t="n">
@@ -6359,35 +6529,35 @@
         <v>64968</v>
       </c>
       <c r="J111" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K111" s="3" t="n">
-        <v>83.507</v>
+        <v>1348</v>
+      </c>
+      <c r="K111" s="8" t="n">
+        <v>70.106</v>
       </c>
       <c r="L111" t="n">
         <v>522</v>
       </c>
       <c r="M111" t="n">
-        <v>4.73</v>
+        <v>3.97</v>
       </c>
       <c r="N111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B112" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C112" t="n">
-        <v>31.63</v>
+        <v>25.37</v>
       </c>
       <c r="D112" t="n">
-        <v>9</v>
-      </c>
-      <c r="E112" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E112" s="7" t="n">
         <v>27856.41</v>
       </c>
       <c r="F112" t="n">
@@ -6403,35 +6573,35 @@
         <v>36082</v>
       </c>
       <c r="J112" t="n">
-        <v>1141</v>
-      </c>
-      <c r="K112" s="3" t="n">
-        <v>59.34</v>
+        <v>915</v>
+      </c>
+      <c r="K112" s="8" t="n">
+        <v>47.606</v>
       </c>
       <c r="L112" t="n">
         <v>536</v>
       </c>
       <c r="M112" t="n">
-        <v>5.9</v>
+        <v>4.74</v>
       </c>
       <c r="N112" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C113" t="n">
-        <v>24.61</v>
+        <v>23</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
-      </c>
-      <c r="E113" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E113" s="7" t="n">
         <v>25914.29</v>
       </c>
       <c r="F113" t="n">
@@ -6447,16 +6617,16 @@
         <v>17192</v>
       </c>
       <c r="J113" t="n">
-        <v>423</v>
-      </c>
-      <c r="K113" s="3" t="n">
-        <v>22.005</v>
+        <v>395</v>
+      </c>
+      <c r="K113" s="8" t="n">
+        <v>20.562</v>
       </c>
       <c r="L113" t="n">
         <v>498</v>
       </c>
       <c r="M113" t="n">
-        <v>4.94</v>
+        <v>4.62</v>
       </c>
       <c r="N113" t="n">
         <v>6</v>
@@ -6464,18 +6634,18 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C114" t="n">
-        <v>33.2</v>
+        <v>30.37</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="E114" s="7" t="n">
         <v>29434.48</v>
       </c>
       <c r="F114" t="n">
@@ -6491,16 +6661,16 @@
         <v>21225</v>
       </c>
       <c r="J114" t="n">
-        <v>705</v>
-      </c>
-      <c r="K114" s="3" t="n">
-        <v>36.645</v>
+        <v>645</v>
+      </c>
+      <c r="K114" s="8" t="n">
+        <v>33.516</v>
       </c>
       <c r="L114" t="n">
         <v>566</v>
       </c>
       <c r="M114" t="n">
-        <v>5.87</v>
+        <v>5.36</v>
       </c>
       <c r="N114" t="n">
         <v>8</v>
@@ -6508,18 +6678,18 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C115" t="n">
-        <v>21.48</v>
+        <v>19.39</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="7" t="n">
         <v>27074.5</v>
       </c>
       <c r="F115" t="n">
@@ -6535,16 +6705,16 @@
         <v>64912</v>
       </c>
       <c r="J115" t="n">
-        <v>1394</v>
-      </c>
-      <c r="K115" s="3" t="n">
-        <v>72.495</v>
+        <v>1259</v>
+      </c>
+      <c r="K115" s="8" t="n">
+        <v>65.45</v>
       </c>
       <c r="L115" t="n">
         <v>521</v>
       </c>
       <c r="M115" t="n">
-        <v>4.12</v>
+        <v>3.72</v>
       </c>
       <c r="N115" t="n">
         <v>3</v>
@@ -6552,18 +6722,18 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C116" t="n">
-        <v>23.32</v>
+        <v>22.63</v>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
-      </c>
-      <c r="E116" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" s="7" t="n">
         <v>30287.5</v>
       </c>
       <c r="F116" t="n">
@@ -6579,35 +6749,35 @@
         <v>25299</v>
       </c>
       <c r="J116" t="n">
-        <v>590</v>
-      </c>
-      <c r="K116" s="3" t="n">
-        <v>30.678</v>
+        <v>572</v>
+      </c>
+      <c r="K116" s="8" t="n">
+        <v>29.767</v>
       </c>
       <c r="L116" t="n">
         <v>582</v>
       </c>
       <c r="M116" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="N116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B117" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="C117" t="n">
-        <v>24.91</v>
+        <v>21.13</v>
       </c>
       <c r="D117" t="n">
-        <v>5</v>
-      </c>
-      <c r="E117" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E117" s="7" t="n">
         <v>24521.74</v>
       </c>
       <c r="F117" t="n">
@@ -6623,35 +6793,35 @@
         <v>19723</v>
       </c>
       <c r="J117" t="n">
-        <v>491</v>
-      </c>
-      <c r="K117" s="3" t="n">
-        <v>25.549</v>
+        <v>417</v>
+      </c>
+      <c r="K117" s="8" t="n">
+        <v>21.667</v>
       </c>
       <c r="L117" t="n">
         <v>472</v>
       </c>
       <c r="M117" t="n">
-        <v>5.28</v>
+        <v>4.48</v>
       </c>
       <c r="N117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B118" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C118" t="n">
-        <v>22.4</v>
+        <v>21.22</v>
       </c>
       <c r="D118" t="n">
         <v>3</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="7" t="n">
         <v>27565.62</v>
       </c>
       <c r="F118" t="n">
@@ -6667,35 +6837,35 @@
         <v>33803</v>
       </c>
       <c r="J118" t="n">
-        <v>757</v>
-      </c>
-      <c r="K118" s="3" t="n">
-        <v>39.369</v>
+        <v>717</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>37.294</v>
       </c>
       <c r="L118" t="n">
         <v>530</v>
       </c>
       <c r="M118" t="n">
-        <v>4.23</v>
+        <v>4</v>
       </c>
       <c r="N118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C119" t="n">
-        <v>27.73</v>
+        <v>26.53</v>
       </c>
       <c r="D119" t="n">
-        <v>7</v>
-      </c>
-      <c r="E119" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E119" s="7" t="n">
         <v>28000</v>
       </c>
       <c r="F119" t="n">
@@ -6711,16 +6881,16 @@
         <v>18976</v>
       </c>
       <c r="J119" t="n">
-        <v>526</v>
-      </c>
-      <c r="K119" s="3" t="n">
-        <v>27.358</v>
+        <v>503</v>
+      </c>
+      <c r="K119" s="8" t="n">
+        <v>26.179</v>
       </c>
       <c r="L119" t="n">
         <v>538</v>
       </c>
       <c r="M119" t="n">
-        <v>5.15</v>
+        <v>4.93</v>
       </c>
       <c r="N119" t="n">
         <v>7</v>
@@ -6728,18 +6898,18 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B120" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="C120" t="n">
-        <v>20.97</v>
+        <v>18.41</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
-      </c>
-      <c r="E120" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="7" t="n">
         <v>30700</v>
       </c>
       <c r="F120" t="n">
@@ -6755,16 +6925,16 @@
         <v>39445</v>
       </c>
       <c r="J120" t="n">
-        <v>827</v>
-      </c>
-      <c r="K120" s="3" t="n">
-        <v>43.012</v>
+        <v>726</v>
+      </c>
+      <c r="K120" s="8" t="n">
+        <v>37.752</v>
       </c>
       <c r="L120" t="n">
         <v>590</v>
       </c>
       <c r="M120" t="n">
-        <v>3.55</v>
+        <v>3.12</v>
       </c>
       <c r="N120" t="n">
         <v>1</v>
@@ -6772,18 +6942,18 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B121" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C121" t="n">
-        <v>30.77</v>
+        <v>29.21</v>
       </c>
       <c r="D121" t="n">
         <v>9</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="7" t="n">
         <v>25352.17</v>
       </c>
       <c r="F121" t="n">
@@ -6799,16 +6969,16 @@
         <v>18748</v>
       </c>
       <c r="J121" t="n">
-        <v>577</v>
-      </c>
-      <c r="K121" s="3" t="n">
-        <v>30.002</v>
+        <v>548</v>
+      </c>
+      <c r="K121" s="8" t="n">
+        <v>28.476</v>
       </c>
       <c r="L121" t="n">
         <v>488</v>
       </c>
       <c r="M121" t="n">
-        <v>6.31</v>
+        <v>5.99</v>
       </c>
       <c r="N121" t="n">
         <v>9</v>
@@ -6816,18 +6986,18 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C122" t="n">
-        <v>24.55</v>
+        <v>21.76</v>
       </c>
       <c r="D122" t="n">
         <v>4</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="7" t="n">
         <v>28082.17</v>
       </c>
       <c r="F122" t="n">
@@ -6843,16 +7013,16 @@
         <v>98437</v>
       </c>
       <c r="J122" t="n">
-        <v>2417</v>
-      </c>
-      <c r="K122" s="3" t="n">
-        <v>125.686</v>
+        <v>2142</v>
+      </c>
+      <c r="K122" s="8" t="n">
+        <v>111.386</v>
       </c>
       <c r="L122" t="n">
         <v>540</v>
       </c>
       <c r="M122" t="n">
-        <v>4.55</v>
+        <v>4.03</v>
       </c>
       <c r="N122" t="n">
         <v>4</v>
@@ -6860,18 +7030,18 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B123" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C123" t="n">
-        <v>39.61</v>
+        <v>34.23</v>
       </c>
       <c r="D123" t="n">
         <v>10</v>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="E123" s="7" t="n">
         <v>28107.14</v>
       </c>
       <c r="F123" t="n">
@@ -6887,16 +7057,16 @@
         <v>30789</v>
       </c>
       <c r="J123" t="n">
-        <v>1219</v>
-      </c>
-      <c r="K123" s="3" t="n">
-        <v>63.414</v>
+        <v>1054</v>
+      </c>
+      <c r="K123" s="8" t="n">
+        <v>54.809</v>
       </c>
       <c r="L123" t="n">
         <v>541</v>
       </c>
       <c r="M123" t="n">
-        <v>7.33</v>
+        <v>6.33</v>
       </c>
       <c r="N123" t="n">
         <v>10</v>
@@ -6904,18 +7074,18 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B124" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C124" t="n">
-        <v>30.54</v>
+        <v>28.43</v>
       </c>
       <c r="D124" t="n">
         <v>9</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="7" t="n">
         <v>25450</v>
       </c>
       <c r="F124" t="n">
@@ -6931,35 +7101,35 @@
         <v>20294</v>
       </c>
       <c r="J124" t="n">
-        <v>620</v>
-      </c>
-      <c r="K124" s="3" t="n">
-        <v>32.234</v>
+        <v>577</v>
+      </c>
+      <c r="K124" s="8" t="n">
+        <v>30.001</v>
       </c>
       <c r="L124" t="n">
         <v>489</v>
       </c>
       <c r="M124" t="n">
-        <v>6.24</v>
+        <v>5.81</v>
       </c>
       <c r="N124" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B125" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="C125" t="n">
-        <v>24.77</v>
+        <v>23.55</v>
       </c>
       <c r="D125" t="n">
         <v>5</v>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="E125" s="7" t="n">
         <v>23550</v>
       </c>
       <c r="F125" t="n">
@@ -6975,16 +7145,16 @@
         <v>36216</v>
       </c>
       <c r="J125" t="n">
-        <v>897</v>
-      </c>
-      <c r="K125" s="3" t="n">
-        <v>46.642</v>
+        <v>853</v>
+      </c>
+      <c r="K125" s="8" t="n">
+        <v>44.345</v>
       </c>
       <c r="L125" t="n">
         <v>453</v>
       </c>
       <c r="M125" t="n">
-        <v>5.47</v>
+        <v>5.2</v>
       </c>
       <c r="N125" t="n">
         <v>8</v>
@@ -6992,18 +7162,18 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B126" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C126" t="n">
-        <v>24.68</v>
+        <v>23.73</v>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
-      </c>
-      <c r="E126" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E126" s="7" t="n">
         <v>29087.56</v>
       </c>
       <c r="F126" t="n">
@@ -7019,35 +7189,35 @@
         <v>97749</v>
       </c>
       <c r="J126" t="n">
-        <v>2412</v>
-      </c>
-      <c r="K126" s="3" t="n">
-        <v>125.448</v>
+        <v>2320</v>
+      </c>
+      <c r="K126" s="8" t="n">
+        <v>120.639</v>
       </c>
       <c r="L126" t="n">
         <v>559</v>
       </c>
       <c r="M126" t="n">
-        <v>4.41</v>
+        <v>4.24</v>
       </c>
       <c r="N126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B127" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C127" t="n">
-        <v>28.92</v>
+        <v>27.79</v>
       </c>
       <c r="D127" t="n">
         <v>8</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="7" t="n">
         <v>24250</v>
       </c>
       <c r="F127" t="n">
@@ -7063,16 +7233,16 @@
         <v>35699</v>
       </c>
       <c r="J127" t="n">
-        <v>1032</v>
-      </c>
-      <c r="K127" s="3" t="n">
-        <v>53.687</v>
+        <v>992</v>
+      </c>
+      <c r="K127" s="8" t="n">
+        <v>51.587</v>
       </c>
       <c r="L127" t="n">
         <v>466</v>
       </c>
       <c r="M127" t="n">
-        <v>6.2</v>
+        <v>5.96</v>
       </c>
       <c r="N127" t="n">
         <v>9</v>
@@ -7080,18 +7250,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C128" t="n">
-        <v>31.35</v>
+        <v>28.52</v>
       </c>
       <c r="D128" t="n">
         <v>9</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="7" t="n">
         <v>34224.48</v>
       </c>
       <c r="F128" t="n">
@@ -7107,16 +7277,16 @@
         <v>93710</v>
       </c>
       <c r="J128" t="n">
-        <v>2938</v>
-      </c>
-      <c r="K128" s="3" t="n">
-        <v>152.777</v>
+        <v>2672</v>
+      </c>
+      <c r="K128" s="8" t="n">
+        <v>138.959</v>
       </c>
       <c r="L128" t="n">
         <v>658</v>
       </c>
       <c r="M128" t="n">
-        <v>4.76</v>
+        <v>4.33</v>
       </c>
       <c r="N128" t="n">
         <v>5</v>
@@ -7124,18 +7294,18 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C129" t="n">
-        <v>31.91</v>
+        <v>28.89</v>
       </c>
       <c r="D129" t="n">
         <v>9</v>
       </c>
-      <c r="E129" s="2" t="n">
+      <c r="E129" s="7" t="n">
         <v>35245.83</v>
       </c>
       <c r="F129" t="n">
@@ -7151,16 +7321,16 @@
         <v>24988</v>
       </c>
       <c r="J129" t="n">
-        <v>797</v>
-      </c>
-      <c r="K129" s="3" t="n">
-        <v>41.463</v>
+        <v>722</v>
+      </c>
+      <c r="K129" s="8" t="n">
+        <v>37.54</v>
       </c>
       <c r="L129" t="n">
         <v>678</v>
       </c>
       <c r="M129" t="n">
-        <v>4.71</v>
+        <v>4.26</v>
       </c>
       <c r="N129" t="n">
         <v>5</v>
@@ -7168,18 +7338,18 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="B130" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="C130" t="n">
-        <v>26.49</v>
+        <v>25.85</v>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
-      </c>
-      <c r="E130" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E130" s="7" t="n">
         <v>27385.19</v>
       </c>
       <c r="F130" t="n">
@@ -7195,35 +7365,35 @@
         <v>22505</v>
       </c>
       <c r="J130" t="n">
-        <v>596</v>
-      </c>
-      <c r="K130" s="3" t="n">
-        <v>31.001</v>
+        <v>582</v>
+      </c>
+      <c r="K130" s="8" t="n">
+        <v>30.253</v>
       </c>
       <c r="L130" t="n">
         <v>527</v>
       </c>
       <c r="M130" t="n">
-        <v>5.03</v>
+        <v>4.91</v>
       </c>
       <c r="N130" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C131" t="n">
-        <v>29.36</v>
+        <v>27.39</v>
       </c>
       <c r="D131" t="n">
         <v>8</v>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="E131" s="7" t="n">
         <v>23670</v>
       </c>
       <c r="F131" t="n">
@@ -7239,16 +7409,16 @@
         <v>31913</v>
       </c>
       <c r="J131" t="n">
-        <v>937</v>
-      </c>
-      <c r="K131" s="3" t="n">
-        <v>48.721</v>
+        <v>874</v>
+      </c>
+      <c r="K131" s="8" t="n">
+        <v>45.447</v>
       </c>
       <c r="L131" t="n">
         <v>455</v>
       </c>
       <c r="M131" t="n">
-        <v>6.45</v>
+        <v>6.02</v>
       </c>
       <c r="N131" t="n">
         <v>9</v>
@@ -7256,18 +7426,18 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B132" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="C132" t="n">
-        <v>26.54</v>
+        <v>23.78</v>
       </c>
       <c r="D132" t="n">
         <v>6</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="E132" s="7" t="n">
         <v>26547.83</v>
       </c>
       <c r="F132" t="n">
@@ -7283,35 +7453,35 @@
         <v>21344</v>
       </c>
       <c r="J132" t="n">
-        <v>567</v>
-      </c>
-      <c r="K132" s="3" t="n">
-        <v>29.461</v>
+        <v>508</v>
+      </c>
+      <c r="K132" s="8" t="n">
+        <v>26.399</v>
       </c>
       <c r="L132" t="n">
         <v>511</v>
       </c>
       <c r="M132" t="n">
-        <v>5.2</v>
+        <v>4.66</v>
       </c>
       <c r="N132" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B133" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C133" t="n">
-        <v>33.52</v>
+        <v>31.31</v>
       </c>
       <c r="D133" t="n">
         <v>10</v>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="E133" s="7" t="n">
         <v>27936.84</v>
       </c>
       <c r="F133" t="n">
@@ -7327,16 +7497,16 @@
         <v>22753</v>
       </c>
       <c r="J133" t="n">
-        <v>763</v>
-      </c>
-      <c r="K133" s="3" t="n">
-        <v>39.663</v>
+        <v>712</v>
+      </c>
+      <c r="K133" s="8" t="n">
+        <v>37.043</v>
       </c>
       <c r="L133" t="n">
         <v>537</v>
       </c>
       <c r="M133" t="n">
-        <v>6.24</v>
+        <v>5.83</v>
       </c>
       <c r="N133" t="n">
         <v>9</v>
@@ -7344,18 +7514,18 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B134" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C134" t="n">
         <v>22.17</v>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
-      </c>
-      <c r="E134" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" s="7" t="n">
         <v>22947.06</v>
       </c>
       <c r="F134" t="n">
@@ -7373,7 +7543,7 @@
       <c r="J134" t="n">
         <v>368</v>
       </c>
-      <c r="K134" s="3" t="n">
+      <c r="K134" s="8" t="n">
         <v>19.123</v>
       </c>
       <c r="L134" t="n">
@@ -7383,23 +7553,23 @@
         <v>5.02</v>
       </c>
       <c r="N134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B135" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C135" t="n">
-        <v>24.72</v>
+        <v>22.17</v>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
-      </c>
-      <c r="E135" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E135" s="7" t="n">
         <v>28475</v>
       </c>
       <c r="F135" t="n">
@@ -7415,16 +7585,16 @@
         <v>38117</v>
       </c>
       <c r="J135" t="n">
-        <v>942</v>
-      </c>
-      <c r="K135" s="3" t="n">
-        <v>49.004</v>
+        <v>845</v>
+      </c>
+      <c r="K135" s="8" t="n">
+        <v>43.947</v>
       </c>
       <c r="L135" t="n">
         <v>548</v>
       </c>
       <c r="M135" t="n">
-        <v>4.51</v>
+        <v>4.05</v>
       </c>
       <c r="N135" t="n">
         <v>4</v>
@@ -7432,18 +7602,18 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="C136" t="n">
         <v>25.45</v>
       </c>
       <c r="D136" t="n">
-        <v>5</v>
-      </c>
-      <c r="E136" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" s="7" t="n">
         <v>27867.86</v>
       </c>
       <c r="F136" t="n">
@@ -7461,7 +7631,7 @@
       <c r="J136" t="n">
         <v>421</v>
       </c>
-      <c r="K136" s="3" t="n">
+      <c r="K136" s="8" t="n">
         <v>21.899</v>
       </c>
       <c r="L136" t="n">
@@ -7471,23 +7641,23 @@
         <v>4.75</v>
       </c>
       <c r="N136" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B137" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C137" t="n">
-        <v>21.77</v>
+        <v>21.02</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
-      </c>
-      <c r="E137" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E137" s="7" t="n">
         <v>26402.22</v>
       </c>
       <c r="F137" t="n">
@@ -7503,16 +7673,16 @@
         <v>45778</v>
       </c>
       <c r="J137" t="n">
-        <v>996</v>
-      </c>
-      <c r="K137" s="3" t="n">
-        <v>51.815</v>
+        <v>962</v>
+      </c>
+      <c r="K137" s="8" t="n">
+        <v>50.038</v>
       </c>
       <c r="L137" t="n">
         <v>508</v>
       </c>
       <c r="M137" t="n">
-        <v>4.29</v>
+        <v>4.14</v>
       </c>
       <c r="N137" t="n">
         <v>4</v>
@@ -7520,18 +7690,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C138" t="n">
-        <v>22.36</v>
+        <v>18.57</v>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
-      </c>
-      <c r="E138" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" s="7" t="n">
         <v>23005.13</v>
       </c>
       <c r="F138" t="n">
@@ -7547,35 +7717,35 @@
         <v>32551</v>
       </c>
       <c r="J138" t="n">
-        <v>728</v>
-      </c>
-      <c r="K138" s="3" t="n">
-        <v>37.846</v>
+        <v>604</v>
+      </c>
+      <c r="K138" s="8" t="n">
+        <v>31.433</v>
       </c>
       <c r="L138" t="n">
         <v>442</v>
       </c>
       <c r="M138" t="n">
-        <v>5.05</v>
+        <v>4.2</v>
       </c>
       <c r="N138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C139" t="n">
-        <v>25.01</v>
+        <v>22.53</v>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
-      </c>
-      <c r="E139" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E139" s="7" t="n">
         <v>29785.71</v>
       </c>
       <c r="F139" t="n">
@@ -7591,35 +7761,35 @@
         <v>33953</v>
       </c>
       <c r="J139" t="n">
-        <v>849</v>
-      </c>
-      <c r="K139" s="3" t="n">
-        <v>44.162</v>
+        <v>765</v>
+      </c>
+      <c r="K139" s="8" t="n">
+        <v>39.771</v>
       </c>
       <c r="L139" t="n">
         <v>573</v>
       </c>
       <c r="M139" t="n">
-        <v>4.37</v>
+        <v>3.93</v>
       </c>
       <c r="N139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C140" t="n">
-        <v>24.22</v>
+        <v>18.43</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
-      </c>
-      <c r="E140" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="7" t="n">
         <v>35881.08</v>
       </c>
       <c r="F140" t="n">
@@ -7635,16 +7805,16 @@
         <v>35713</v>
       </c>
       <c r="J140" t="n">
-        <v>865</v>
-      </c>
-      <c r="K140" s="3" t="n">
-        <v>44.979</v>
+        <v>658</v>
+      </c>
+      <c r="K140" s="8" t="n">
+        <v>34.22</v>
       </c>
       <c r="L140" t="n">
         <v>690</v>
       </c>
       <c r="M140" t="n">
-        <v>3.51</v>
+        <v>2.67</v>
       </c>
       <c r="N140" t="n">
         <v>1</v>
@@ -7652,14 +7822,14 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B141" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="7" t="n">
         <v>28268</v>
       </c>
       <c r="F141" t="n">
@@ -7675,7 +7845,7 @@
         <v>18634</v>
       </c>
       <c r="J141"/>
-      <c r="K141" s="3"/>
+      <c r="K141" s="8"/>
       <c r="L141" t="n">
         <v>544</v>
       </c>
@@ -7684,18 +7854,18 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B142" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C142" t="n">
-        <v>26.87</v>
+        <v>26.12</v>
       </c>
       <c r="D142" t="n">
-        <v>7</v>
-      </c>
-      <c r="E142" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E142" s="7" t="n">
         <v>28910.92</v>
       </c>
       <c r="F142" t="n">
@@ -7711,16 +7881,16 @@
         <v>61149</v>
       </c>
       <c r="J142" t="n">
-        <v>1643</v>
-      </c>
-      <c r="K142" s="3" t="n">
-        <v>85.424</v>
+        <v>1597</v>
+      </c>
+      <c r="K142" s="8" t="n">
+        <v>83.057</v>
       </c>
       <c r="L142" t="n">
         <v>556</v>
       </c>
       <c r="M142" t="n">
-        <v>4.83</v>
+        <v>4.7</v>
       </c>
       <c r="N142" t="n">
         <v>6</v>
@@ -7728,18 +7898,18 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B143" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C143" t="n">
         <v>19.87</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" s="7" t="n">
         <v>34086.36</v>
       </c>
       <c r="F143" t="n">
@@ -7757,7 +7927,7 @@
       <c r="J143" t="n">
         <v>253</v>
       </c>
-      <c r="K143" s="3" t="n">
+      <c r="K143" s="8" t="n">
         <v>13.132</v>
       </c>
       <c r="L143" t="n">
@@ -7772,18 +7942,18 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C144" t="n">
-        <v>23.34</v>
+        <v>21.34</v>
       </c>
       <c r="D144" t="n">
         <v>3</v>
       </c>
-      <c r="E144" s="2" t="n">
+      <c r="E144" s="7" t="n">
         <v>30881.63</v>
       </c>
       <c r="F144" t="n">
@@ -7799,16 +7969,16 @@
         <v>69067</v>
       </c>
       <c r="J144" t="n">
-        <v>1612</v>
-      </c>
-      <c r="K144" s="3" t="n">
-        <v>83.837</v>
+        <v>1474</v>
+      </c>
+      <c r="K144" s="8" t="n">
+        <v>76.641</v>
       </c>
       <c r="L144" t="n">
         <v>594</v>
       </c>
       <c r="M144" t="n">
-        <v>3.93</v>
+        <v>3.59</v>
       </c>
       <c r="N144" t="n">
         <v>2</v>
@@ -7816,18 +7986,18 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="C145" t="n">
-        <v>24.42</v>
+        <v>21.73</v>
       </c>
       <c r="D145" t="n">
         <v>4</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="7" t="n">
         <v>33279.17</v>
       </c>
       <c r="F145" t="n">
@@ -7843,16 +8013,16 @@
         <v>22254</v>
       </c>
       <c r="J145" t="n">
-        <v>543</v>
-      </c>
-      <c r="K145" s="3" t="n">
-        <v>28.259</v>
+        <v>484</v>
+      </c>
+      <c r="K145" s="8" t="n">
+        <v>25.147</v>
       </c>
       <c r="L145" t="n">
         <v>640</v>
       </c>
       <c r="M145" t="n">
-        <v>3.82</v>
+        <v>3.4</v>
       </c>
       <c r="N145" t="n">
         <v>2</v>
@@ -7860,18 +8030,18 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B146" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="C146" t="n">
-        <v>31.97</v>
+        <v>30.97</v>
       </c>
       <c r="D146" t="n">
         <v>10</v>
       </c>
-      <c r="E146" s="2" t="n">
+      <c r="E146" s="7" t="n">
         <v>25187.5</v>
       </c>
       <c r="F146" t="n">
@@ -7887,35 +8057,35 @@
         <v>44173</v>
       </c>
       <c r="J146" t="n">
-        <v>1412</v>
-      </c>
-      <c r="K146" s="3" t="n">
-        <v>73.428</v>
+        <v>1368</v>
+      </c>
+      <c r="K146" s="8" t="n">
+        <v>71.131</v>
       </c>
       <c r="L146" t="n">
         <v>484</v>
       </c>
       <c r="M146" t="n">
-        <v>6.6</v>
+        <v>6.39</v>
       </c>
       <c r="N146" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="C147" t="n">
-        <v>27.07</v>
+        <v>25.03</v>
       </c>
       <c r="D147" t="n">
-        <v>7</v>
-      </c>
-      <c r="E147" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E147" s="7" t="n">
         <v>29887.1</v>
       </c>
       <c r="F147" t="n">
@@ -7931,16 +8101,16 @@
         <v>57527</v>
       </c>
       <c r="J147" t="n">
-        <v>1557</v>
-      </c>
-      <c r="K147" s="3" t="n">
-        <v>80.976</v>
+        <v>1440</v>
+      </c>
+      <c r="K147" s="8" t="n">
+        <v>74.875</v>
       </c>
       <c r="L147" t="n">
         <v>575</v>
       </c>
       <c r="M147" t="n">
-        <v>4.71</v>
+        <v>4.35</v>
       </c>
       <c r="N147" t="n">
         <v>5</v>
@@ -7948,18 +8118,18 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B148" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C148" t="n">
         <v>20.66</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E148" s="7" t="n">
         <v>33372.22</v>
       </c>
       <c r="F148" t="n">
@@ -7977,7 +8147,7 @@
       <c r="J148" t="n">
         <v>236</v>
       </c>
-      <c r="K148" s="3" t="n">
+      <c r="K148" s="8" t="n">
         <v>12.296</v>
       </c>
       <c r="L148" t="n">
@@ -7992,18 +8162,18 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B149" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C149" t="n">
-        <v>28.23</v>
+        <v>25.53</v>
       </c>
       <c r="D149" t="n">
         <v>7</v>
       </c>
-      <c r="E149" s="2" t="n">
+      <c r="E149" s="7" t="n">
         <v>26150</v>
       </c>
       <c r="F149" t="n">
@@ -8019,16 +8189,16 @@
         <v>27545</v>
       </c>
       <c r="J149" t="n">
-        <v>778</v>
-      </c>
-      <c r="K149" s="3" t="n">
-        <v>40.432</v>
+        <v>703</v>
+      </c>
+      <c r="K149" s="8" t="n">
+        <v>36.572</v>
       </c>
       <c r="L149" t="n">
         <v>503</v>
       </c>
       <c r="M149" t="n">
-        <v>5.61</v>
+        <v>5.08</v>
       </c>
       <c r="N149" t="n">
         <v>8</v>
@@ -8036,10 +8206,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B150" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C150" t="n">
         <v>50.96</v>
@@ -8047,7 +8217,7 @@
       <c r="D150" t="n">
         <v>10</v>
       </c>
-      <c r="E150" s="2" t="n">
+      <c r="E150" s="7" t="n">
         <v>35985</v>
       </c>
       <c r="F150" t="n">
@@ -8065,7 +8235,7 @@
       <c r="J150" t="n">
         <v>560</v>
       </c>
-      <c r="K150" s="3" t="n">
+      <c r="K150" s="8" t="n">
         <v>29.146</v>
       </c>
       <c r="L150" t="n">
@@ -8080,18 +8250,18 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B151" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C151" t="n">
-        <v>29.31</v>
+        <v>28.07</v>
       </c>
       <c r="D151" t="n">
-        <v>8</v>
-      </c>
-      <c r="E151" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E151" s="7" t="n">
         <v>22763.64</v>
       </c>
       <c r="F151" t="n">
@@ -8107,35 +8277,35 @@
         <v>30362</v>
       </c>
       <c r="J151" t="n">
-        <v>890</v>
-      </c>
-      <c r="K151" s="3" t="n">
-        <v>46.27</v>
+        <v>852</v>
+      </c>
+      <c r="K151" s="8" t="n">
+        <v>44.325</v>
       </c>
       <c r="L151" t="n">
         <v>438</v>
       </c>
       <c r="M151" t="n">
-        <v>6.69</v>
+        <v>6.41</v>
       </c>
       <c r="N151" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B152" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="C152" t="n">
-        <v>23.48</v>
+        <v>22.43</v>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
-      </c>
-      <c r="E152" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E152" s="7" t="n">
         <v>28328.42</v>
       </c>
       <c r="F152" t="n">
@@ -8151,16 +8321,16 @@
         <v>51570</v>
       </c>
       <c r="J152" t="n">
-        <v>1211</v>
-      </c>
-      <c r="K152" s="3" t="n">
-        <v>62.973</v>
+        <v>1157</v>
+      </c>
+      <c r="K152" s="8" t="n">
+        <v>60.16</v>
       </c>
       <c r="L152" t="n">
         <v>545</v>
       </c>
       <c r="M152" t="n">
-        <v>4.31</v>
+        <v>4.12</v>
       </c>
       <c r="N152" t="n">
         <v>4</v>
@@ -8168,18 +8338,18 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B153" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="C153" t="n">
         <v>26.49</v>
       </c>
       <c r="D153" t="n">
-        <v>6</v>
-      </c>
-      <c r="E153" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E153" s="7" t="n">
         <v>29625</v>
       </c>
       <c r="F153" t="n">
@@ -8197,7 +8367,7 @@
       <c r="J153" t="n">
         <v>551</v>
       </c>
-      <c r="K153" s="3" t="n">
+      <c r="K153" s="8" t="n">
         <v>28.626</v>
       </c>
       <c r="L153" t="n">
@@ -8207,1020 +8377,1020 @@
         <v>4.65</v>
       </c>
       <c r="N153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154">
-      <c r="E154" s="2"/>
-      <c r="K154" s="3"/>
+      <c r="E154" s="7"/>
+      <c r="K154" s="8"/>
     </row>
     <row r="155">
-      <c r="E155" s="2"/>
-      <c r="K155" s="3"/>
+      <c r="E155" s="7"/>
+      <c r="K155" s="8"/>
     </row>
     <row r="156">
-      <c r="E156" s="2"/>
-      <c r="K156" s="3"/>
+      <c r="E156" s="7"/>
+      <c r="K156" s="8"/>
     </row>
     <row r="157">
-      <c r="E157" s="2"/>
-      <c r="K157" s="3"/>
+      <c r="E157" s="7"/>
+      <c r="K157" s="8"/>
     </row>
     <row r="158">
-      <c r="E158" s="2"/>
-      <c r="K158" s="3"/>
+      <c r="E158" s="7"/>
+      <c r="K158" s="8"/>
     </row>
     <row r="159">
-      <c r="E159" s="2"/>
-      <c r="K159" s="3"/>
+      <c r="E159" s="7"/>
+      <c r="K159" s="8"/>
     </row>
     <row r="160">
-      <c r="E160" s="2"/>
-      <c r="K160" s="3"/>
+      <c r="E160" s="7"/>
+      <c r="K160" s="8"/>
     </row>
     <row r="161">
-      <c r="E161" s="2"/>
-      <c r="K161" s="3"/>
+      <c r="E161" s="7"/>
+      <c r="K161" s="8"/>
     </row>
     <row r="162">
-      <c r="E162" s="2"/>
-      <c r="K162" s="3"/>
+      <c r="E162" s="7"/>
+      <c r="K162" s="8"/>
     </row>
     <row r="163">
-      <c r="E163" s="2"/>
-      <c r="K163" s="3"/>
+      <c r="E163" s="7"/>
+      <c r="K163" s="8"/>
     </row>
     <row r="164">
-      <c r="E164" s="2"/>
-      <c r="K164" s="3"/>
+      <c r="E164" s="7"/>
+      <c r="K164" s="8"/>
     </row>
     <row r="165">
-      <c r="E165" s="2"/>
-      <c r="K165" s="3"/>
+      <c r="E165" s="7"/>
+      <c r="K165" s="8"/>
     </row>
     <row r="166">
-      <c r="E166" s="2"/>
-      <c r="K166" s="3"/>
+      <c r="E166" s="7"/>
+      <c r="K166" s="8"/>
     </row>
     <row r="167">
-      <c r="E167" s="2"/>
-      <c r="K167" s="3"/>
+      <c r="E167" s="7"/>
+      <c r="K167" s="8"/>
     </row>
     <row r="168">
-      <c r="E168" s="2"/>
-      <c r="K168" s="3"/>
+      <c r="E168" s="7"/>
+      <c r="K168" s="8"/>
     </row>
     <row r="169">
-      <c r="E169" s="2"/>
-      <c r="K169" s="3"/>
+      <c r="E169" s="7"/>
+      <c r="K169" s="8"/>
     </row>
     <row r="170">
-      <c r="E170" s="2"/>
-      <c r="K170" s="3"/>
+      <c r="E170" s="7"/>
+      <c r="K170" s="8"/>
     </row>
     <row r="171">
-      <c r="E171" s="2"/>
-      <c r="K171" s="3"/>
+      <c r="E171" s="7"/>
+      <c r="K171" s="8"/>
     </row>
     <row r="172">
-      <c r="E172" s="2"/>
-      <c r="K172" s="3"/>
+      <c r="E172" s="7"/>
+      <c r="K172" s="8"/>
     </row>
     <row r="173">
-      <c r="E173" s="2"/>
-      <c r="K173" s="3"/>
+      <c r="E173" s="7"/>
+      <c r="K173" s="8"/>
     </row>
     <row r="174">
-      <c r="E174" s="2"/>
-      <c r="K174" s="3"/>
+      <c r="E174" s="7"/>
+      <c r="K174" s="8"/>
     </row>
     <row r="175">
-      <c r="E175" s="2"/>
-      <c r="K175" s="3"/>
+      <c r="E175" s="7"/>
+      <c r="K175" s="8"/>
     </row>
     <row r="176">
-      <c r="E176" s="2"/>
-      <c r="K176" s="3"/>
+      <c r="E176" s="7"/>
+      <c r="K176" s="8"/>
     </row>
     <row r="177">
-      <c r="E177" s="2"/>
-      <c r="K177" s="3"/>
+      <c r="E177" s="7"/>
+      <c r="K177" s="8"/>
     </row>
     <row r="178">
-      <c r="E178" s="2"/>
-      <c r="K178" s="3"/>
+      <c r="E178" s="7"/>
+      <c r="K178" s="8"/>
     </row>
     <row r="179">
-      <c r="E179" s="2"/>
-      <c r="K179" s="3"/>
+      <c r="E179" s="7"/>
+      <c r="K179" s="8"/>
     </row>
     <row r="180">
-      <c r="E180" s="2"/>
-      <c r="K180" s="3"/>
+      <c r="E180" s="7"/>
+      <c r="K180" s="8"/>
     </row>
     <row r="181">
-      <c r="E181" s="2"/>
-      <c r="K181" s="3"/>
+      <c r="E181" s="7"/>
+      <c r="K181" s="8"/>
     </row>
     <row r="182">
-      <c r="E182" s="2"/>
-      <c r="K182" s="3"/>
+      <c r="E182" s="7"/>
+      <c r="K182" s="8"/>
     </row>
     <row r="183">
-      <c r="E183" s="2"/>
-      <c r="K183" s="3"/>
+      <c r="E183" s="7"/>
+      <c r="K183" s="8"/>
     </row>
     <row r="184">
-      <c r="E184" s="2"/>
-      <c r="K184" s="3"/>
+      <c r="E184" s="7"/>
+      <c r="K184" s="8"/>
     </row>
     <row r="185">
-      <c r="E185" s="2"/>
-      <c r="K185" s="3"/>
+      <c r="E185" s="7"/>
+      <c r="K185" s="8"/>
     </row>
     <row r="186">
-      <c r="E186" s="2"/>
-      <c r="K186" s="3"/>
+      <c r="E186" s="7"/>
+      <c r="K186" s="8"/>
     </row>
     <row r="187">
-      <c r="E187" s="2"/>
-      <c r="K187" s="3"/>
+      <c r="E187" s="7"/>
+      <c r="K187" s="8"/>
     </row>
     <row r="188">
-      <c r="E188" s="2"/>
-      <c r="K188" s="3"/>
+      <c r="E188" s="7"/>
+      <c r="K188" s="8"/>
     </row>
     <row r="189">
-      <c r="E189" s="2"/>
-      <c r="K189" s="3"/>
+      <c r="E189" s="7"/>
+      <c r="K189" s="8"/>
     </row>
     <row r="190">
-      <c r="E190" s="2"/>
-      <c r="K190" s="3"/>
+      <c r="E190" s="7"/>
+      <c r="K190" s="8"/>
     </row>
     <row r="191">
-      <c r="E191" s="2"/>
-      <c r="K191" s="3"/>
+      <c r="E191" s="7"/>
+      <c r="K191" s="8"/>
     </row>
     <row r="192">
-      <c r="E192" s="2"/>
-      <c r="K192" s="3"/>
+      <c r="E192" s="7"/>
+      <c r="K192" s="8"/>
     </row>
     <row r="193">
-      <c r="E193" s="2"/>
-      <c r="K193" s="3"/>
+      <c r="E193" s="7"/>
+      <c r="K193" s="8"/>
     </row>
     <row r="194">
-      <c r="E194" s="2"/>
-      <c r="K194" s="3"/>
+      <c r="E194" s="7"/>
+      <c r="K194" s="8"/>
     </row>
     <row r="195">
-      <c r="E195" s="2"/>
-      <c r="K195" s="3"/>
+      <c r="E195" s="7"/>
+      <c r="K195" s="8"/>
     </row>
     <row r="196">
-      <c r="E196" s="2"/>
-      <c r="K196" s="3"/>
+      <c r="E196" s="7"/>
+      <c r="K196" s="8"/>
     </row>
     <row r="197">
-      <c r="E197" s="2"/>
-      <c r="K197" s="3"/>
+      <c r="E197" s="7"/>
+      <c r="K197" s="8"/>
     </row>
     <row r="198">
-      <c r="E198" s="2"/>
-      <c r="K198" s="3"/>
+      <c r="E198" s="7"/>
+      <c r="K198" s="8"/>
     </row>
     <row r="199">
-      <c r="E199" s="2"/>
-      <c r="K199" s="3"/>
+      <c r="E199" s="7"/>
+      <c r="K199" s="8"/>
     </row>
     <row r="200">
-      <c r="E200" s="2"/>
-      <c r="K200" s="3"/>
+      <c r="E200" s="7"/>
+      <c r="K200" s="8"/>
     </row>
     <row r="201">
-      <c r="E201" s="2"/>
-      <c r="K201" s="3"/>
+      <c r="E201" s="7"/>
+      <c r="K201" s="8"/>
     </row>
     <row r="202">
-      <c r="E202" s="2"/>
-      <c r="K202" s="3"/>
+      <c r="E202" s="7"/>
+      <c r="K202" s="8"/>
     </row>
     <row r="203">
-      <c r="E203" s="2"/>
-      <c r="K203" s="3"/>
+      <c r="E203" s="7"/>
+      <c r="K203" s="8"/>
     </row>
     <row r="204">
-      <c r="E204" s="2"/>
-      <c r="K204" s="3"/>
+      <c r="E204" s="7"/>
+      <c r="K204" s="8"/>
     </row>
     <row r="205">
-      <c r="E205" s="2"/>
-      <c r="K205" s="3"/>
+      <c r="E205" s="7"/>
+      <c r="K205" s="8"/>
     </row>
     <row r="206">
-      <c r="E206" s="2"/>
-      <c r="K206" s="3"/>
+      <c r="E206" s="7"/>
+      <c r="K206" s="8"/>
     </row>
     <row r="207">
-      <c r="E207" s="2"/>
-      <c r="K207" s="3"/>
+      <c r="E207" s="7"/>
+      <c r="K207" s="8"/>
     </row>
     <row r="208">
-      <c r="E208" s="2"/>
-      <c r="K208" s="3"/>
+      <c r="E208" s="7"/>
+      <c r="K208" s="8"/>
     </row>
     <row r="209">
-      <c r="E209" s="2"/>
-      <c r="K209" s="3"/>
+      <c r="E209" s="7"/>
+      <c r="K209" s="8"/>
     </row>
     <row r="210">
-      <c r="E210" s="2"/>
-      <c r="K210" s="3"/>
+      <c r="E210" s="7"/>
+      <c r="K210" s="8"/>
     </row>
     <row r="211">
-      <c r="E211" s="2"/>
-      <c r="K211" s="3"/>
+      <c r="E211" s="7"/>
+      <c r="K211" s="8"/>
     </row>
     <row r="212">
-      <c r="E212" s="2"/>
-      <c r="K212" s="3"/>
+      <c r="E212" s="7"/>
+      <c r="K212" s="8"/>
     </row>
     <row r="213">
-      <c r="E213" s="2"/>
-      <c r="K213" s="3"/>
+      <c r="E213" s="7"/>
+      <c r="K213" s="8"/>
     </row>
     <row r="214">
-      <c r="E214" s="2"/>
-      <c r="K214" s="3"/>
+      <c r="E214" s="7"/>
+      <c r="K214" s="8"/>
     </row>
     <row r="215">
-      <c r="E215" s="2"/>
-      <c r="K215" s="3"/>
+      <c r="E215" s="7"/>
+      <c r="K215" s="8"/>
     </row>
     <row r="216">
-      <c r="E216" s="2"/>
-      <c r="K216" s="3"/>
+      <c r="E216" s="7"/>
+      <c r="K216" s="8"/>
     </row>
     <row r="217">
-      <c r="E217" s="2"/>
-      <c r="K217" s="3"/>
+      <c r="E217" s="7"/>
+      <c r="K217" s="8"/>
     </row>
     <row r="218">
-      <c r="E218" s="2"/>
-      <c r="K218" s="3"/>
+      <c r="E218" s="7"/>
+      <c r="K218" s="8"/>
     </row>
     <row r="219">
-      <c r="E219" s="2"/>
-      <c r="K219" s="3"/>
+      <c r="E219" s="7"/>
+      <c r="K219" s="8"/>
     </row>
     <row r="220">
-      <c r="E220" s="2"/>
-      <c r="K220" s="3"/>
+      <c r="E220" s="7"/>
+      <c r="K220" s="8"/>
     </row>
     <row r="221">
-      <c r="E221" s="2"/>
-      <c r="K221" s="3"/>
+      <c r="E221" s="7"/>
+      <c r="K221" s="8"/>
     </row>
     <row r="222">
-      <c r="E222" s="2"/>
-      <c r="K222" s="3"/>
+      <c r="E222" s="7"/>
+      <c r="K222" s="8"/>
     </row>
     <row r="223">
-      <c r="E223" s="2"/>
-      <c r="K223" s="3"/>
+      <c r="E223" s="7"/>
+      <c r="K223" s="8"/>
     </row>
     <row r="224">
-      <c r="E224" s="2"/>
-      <c r="K224" s="3"/>
+      <c r="E224" s="7"/>
+      <c r="K224" s="8"/>
     </row>
     <row r="225">
-      <c r="E225" s="2"/>
-      <c r="K225" s="3"/>
+      <c r="E225" s="7"/>
+      <c r="K225" s="8"/>
     </row>
     <row r="226">
-      <c r="E226" s="2"/>
-      <c r="K226" s="3"/>
+      <c r="E226" s="7"/>
+      <c r="K226" s="8"/>
     </row>
     <row r="227">
-      <c r="E227" s="2"/>
-      <c r="K227" s="3"/>
+      <c r="E227" s="7"/>
+      <c r="K227" s="8"/>
     </row>
     <row r="228">
-      <c r="E228" s="2"/>
-      <c r="K228" s="3"/>
+      <c r="E228" s="7"/>
+      <c r="K228" s="8"/>
     </row>
     <row r="229">
-      <c r="E229" s="2"/>
-      <c r="K229" s="3"/>
+      <c r="E229" s="7"/>
+      <c r="K229" s="8"/>
     </row>
     <row r="230">
-      <c r="E230" s="2"/>
-      <c r="K230" s="3"/>
+      <c r="E230" s="7"/>
+      <c r="K230" s="8"/>
     </row>
     <row r="231">
-      <c r="E231" s="2"/>
-      <c r="K231" s="3"/>
+      <c r="E231" s="7"/>
+      <c r="K231" s="8"/>
     </row>
     <row r="232">
-      <c r="E232" s="2"/>
-      <c r="K232" s="3"/>
+      <c r="E232" s="7"/>
+      <c r="K232" s="8"/>
     </row>
     <row r="233">
-      <c r="E233" s="2"/>
+      <c r="E233" s="7"/>
     </row>
     <row r="234">
-      <c r="E234" s="2"/>
+      <c r="E234" s="7"/>
     </row>
     <row r="235">
-      <c r="E235" s="2"/>
+      <c r="E235" s="7"/>
     </row>
     <row r="236">
-      <c r="E236" s="2"/>
+      <c r="E236" s="7"/>
     </row>
     <row r="237">
-      <c r="E237" s="2"/>
+      <c r="E237" s="7"/>
     </row>
     <row r="238">
-      <c r="E238" s="2"/>
+      <c r="E238" s="7"/>
     </row>
     <row r="239">
-      <c r="E239" s="2"/>
+      <c r="E239" s="7"/>
     </row>
     <row r="240">
-      <c r="E240" s="2"/>
+      <c r="E240" s="7"/>
     </row>
     <row r="241">
-      <c r="E241" s="1"/>
+      <c r="E241" s="6"/>
     </row>
     <row r="242">
-      <c r="E242" s="1"/>
+      <c r="E242" s="6"/>
     </row>
     <row r="243">
-      <c r="E243" s="1"/>
+      <c r="E243" s="6"/>
     </row>
     <row r="244">
-      <c r="E244" s="1"/>
+      <c r="E244" s="6"/>
     </row>
     <row r="245">
-      <c r="E245" s="1"/>
+      <c r="E245" s="6"/>
     </row>
     <row r="246">
-      <c r="E246" s="1"/>
+      <c r="E246" s="6"/>
     </row>
     <row r="247">
-      <c r="E247" s="1"/>
+      <c r="E247" s="6"/>
     </row>
     <row r="248">
-      <c r="E248" s="1"/>
+      <c r="E248" s="6"/>
     </row>
     <row r="249">
-      <c r="E249" s="1"/>
+      <c r="E249" s="6"/>
     </row>
     <row r="250">
-      <c r="E250" s="1"/>
+      <c r="E250" s="6"/>
     </row>
     <row r="251">
-      <c r="E251" s="1"/>
+      <c r="E251" s="6"/>
     </row>
     <row r="252">
-      <c r="E252" s="1"/>
+      <c r="E252" s="6"/>
     </row>
     <row r="253">
-      <c r="E253" s="1"/>
+      <c r="E253" s="6"/>
     </row>
     <row r="254">
-      <c r="E254" s="1"/>
+      <c r="E254" s="6"/>
     </row>
     <row r="255">
-      <c r="E255" s="1"/>
+      <c r="E255" s="6"/>
     </row>
     <row r="256">
-      <c r="E256" s="1"/>
+      <c r="E256" s="6"/>
     </row>
     <row r="257">
-      <c r="E257" s="1"/>
+      <c r="E257" s="6"/>
     </row>
     <row r="258">
-      <c r="E258" s="1"/>
+      <c r="E258" s="6"/>
     </row>
     <row r="259">
-      <c r="E259" s="1"/>
+      <c r="E259" s="6"/>
     </row>
     <row r="260">
-      <c r="E260" s="1"/>
+      <c r="E260" s="6"/>
     </row>
     <row r="261">
-      <c r="E261" s="1"/>
+      <c r="E261" s="6"/>
     </row>
     <row r="262">
-      <c r="E262" s="1"/>
+      <c r="E262" s="6"/>
     </row>
     <row r="263">
-      <c r="E263" s="1"/>
+      <c r="E263" s="6"/>
     </row>
     <row r="264">
-      <c r="E264" s="1"/>
+      <c r="E264" s="6"/>
     </row>
     <row r="265">
-      <c r="E265" s="1"/>
+      <c r="E265" s="6"/>
     </row>
     <row r="266">
-      <c r="E266" s="1"/>
+      <c r="E266" s="6"/>
     </row>
     <row r="267">
-      <c r="E267" s="1"/>
+      <c r="E267" s="6"/>
     </row>
     <row r="268">
-      <c r="E268" s="1"/>
+      <c r="E268" s="6"/>
     </row>
     <row r="269">
-      <c r="E269" s="1"/>
+      <c r="E269" s="6"/>
     </row>
     <row r="270">
-      <c r="E270" s="1"/>
+      <c r="E270" s="6"/>
     </row>
     <row r="271">
-      <c r="E271" s="1"/>
+      <c r="E271" s="6"/>
     </row>
     <row r="272">
-      <c r="E272" s="1"/>
+      <c r="E272" s="6"/>
     </row>
     <row r="273">
-      <c r="E273" s="1"/>
+      <c r="E273" s="6"/>
     </row>
     <row r="274">
-      <c r="E274" s="1"/>
+      <c r="E274" s="6"/>
     </row>
     <row r="275">
-      <c r="E275" s="1"/>
+      <c r="E275" s="6"/>
     </row>
     <row r="276">
-      <c r="E276" s="1"/>
+      <c r="E276" s="6"/>
     </row>
     <row r="277">
-      <c r="E277" s="1"/>
+      <c r="E277" s="6"/>
     </row>
     <row r="278">
-      <c r="E278" s="1"/>
+      <c r="E278" s="6"/>
     </row>
     <row r="279">
-      <c r="E279" s="1"/>
+      <c r="E279" s="6"/>
     </row>
     <row r="280">
-      <c r="E280" s="1"/>
+      <c r="E280" s="6"/>
     </row>
     <row r="281">
-      <c r="E281" s="1"/>
+      <c r="E281" s="6"/>
     </row>
     <row r="282">
-      <c r="E282" s="1"/>
+      <c r="E282" s="6"/>
     </row>
     <row r="283">
-      <c r="E283" s="1"/>
+      <c r="E283" s="6"/>
     </row>
     <row r="284">
-      <c r="E284" s="1"/>
+      <c r="E284" s="6"/>
     </row>
     <row r="285">
-      <c r="E285" s="1"/>
+      <c r="E285" s="6"/>
     </row>
     <row r="286">
-      <c r="E286" s="1"/>
+      <c r="E286" s="6"/>
     </row>
     <row r="287">
-      <c r="E287" s="1"/>
+      <c r="E287" s="6"/>
     </row>
     <row r="288">
-      <c r="E288" s="1"/>
+      <c r="E288" s="6"/>
     </row>
     <row r="289">
-      <c r="E289" s="1"/>
+      <c r="E289" s="6"/>
     </row>
     <row r="290">
-      <c r="E290" s="1"/>
+      <c r="E290" s="6"/>
     </row>
     <row r="291">
-      <c r="E291" s="1"/>
+      <c r="E291" s="6"/>
     </row>
     <row r="292">
-      <c r="E292" s="1"/>
+      <c r="E292" s="6"/>
     </row>
     <row r="293">
-      <c r="E293" s="1"/>
+      <c r="E293" s="6"/>
     </row>
     <row r="294">
-      <c r="E294" s="1"/>
+      <c r="E294" s="6"/>
     </row>
     <row r="295">
-      <c r="E295" s="1"/>
+      <c r="E295" s="6"/>
     </row>
     <row r="296">
-      <c r="E296" s="1"/>
+      <c r="E296" s="6"/>
     </row>
     <row r="297">
-      <c r="E297" s="1"/>
+      <c r="E297" s="6"/>
     </row>
     <row r="298">
-      <c r="E298" s="1"/>
+      <c r="E298" s="6"/>
     </row>
     <row r="299">
-      <c r="E299" s="1"/>
+      <c r="E299" s="6"/>
     </row>
     <row r="300">
-      <c r="E300" s="1"/>
+      <c r="E300" s="6"/>
     </row>
     <row r="301">
-      <c r="E301" s="1"/>
+      <c r="E301" s="6"/>
     </row>
     <row r="302">
-      <c r="E302" s="1"/>
+      <c r="E302" s="6"/>
     </row>
     <row r="303">
-      <c r="E303" s="1"/>
+      <c r="E303" s="6"/>
     </row>
     <row r="304">
-      <c r="E304" s="1"/>
+      <c r="E304" s="6"/>
     </row>
     <row r="305">
-      <c r="E305" s="1"/>
+      <c r="E305" s="6"/>
     </row>
     <row r="306">
-      <c r="E306" s="1"/>
+      <c r="E306" s="6"/>
     </row>
     <row r="307">
-      <c r="E307" s="1"/>
+      <c r="E307" s="6"/>
     </row>
     <row r="308">
-      <c r="E308" s="1"/>
+      <c r="E308" s="6"/>
     </row>
     <row r="309">
-      <c r="E309" s="1"/>
+      <c r="E309" s="6"/>
     </row>
     <row r="310">
-      <c r="E310" s="1"/>
+      <c r="E310" s="6"/>
     </row>
     <row r="311">
-      <c r="E311" s="1"/>
+      <c r="E311" s="6"/>
     </row>
     <row r="312">
-      <c r="E312" s="1"/>
+      <c r="E312" s="6"/>
     </row>
     <row r="313">
-      <c r="E313" s="1"/>
+      <c r="E313" s="6"/>
     </row>
     <row r="314">
-      <c r="E314" s="1"/>
+      <c r="E314" s="6"/>
     </row>
     <row r="315">
-      <c r="E315" s="1"/>
+      <c r="E315" s="6"/>
     </row>
     <row r="316">
-      <c r="E316" s="1"/>
+      <c r="E316" s="6"/>
     </row>
     <row r="317">
-      <c r="E317" s="1"/>
+      <c r="E317" s="6"/>
     </row>
     <row r="318">
-      <c r="E318" s="1"/>
+      <c r="E318" s="6"/>
     </row>
     <row r="319">
-      <c r="E319" s="1"/>
+      <c r="E319" s="6"/>
     </row>
     <row r="320">
-      <c r="E320" s="1"/>
+      <c r="E320" s="6"/>
     </row>
     <row r="321">
-      <c r="E321" s="1"/>
+      <c r="E321" s="6"/>
     </row>
     <row r="322">
-      <c r="E322" s="1"/>
+      <c r="E322" s="6"/>
     </row>
     <row r="323">
-      <c r="E323" s="1"/>
+      <c r="E323" s="6"/>
     </row>
     <row r="324">
-      <c r="E324" s="1"/>
+      <c r="E324" s="6"/>
     </row>
     <row r="325">
-      <c r="E325" s="1"/>
+      <c r="E325" s="6"/>
     </row>
     <row r="326">
-      <c r="E326" s="1"/>
+      <c r="E326" s="6"/>
     </row>
     <row r="327">
-      <c r="E327" s="1"/>
+      <c r="E327" s="6"/>
     </row>
     <row r="328">
-      <c r="E328" s="1"/>
+      <c r="E328" s="6"/>
     </row>
     <row r="329">
-      <c r="E329" s="1"/>
+      <c r="E329" s="6"/>
     </row>
     <row r="330">
-      <c r="E330" s="1"/>
+      <c r="E330" s="6"/>
     </row>
     <row r="331">
-      <c r="E331" s="1"/>
+      <c r="E331" s="6"/>
     </row>
     <row r="332">
-      <c r="E332" s="1"/>
+      <c r="E332" s="6"/>
     </row>
     <row r="333">
-      <c r="E333" s="1"/>
+      <c r="E333" s="6"/>
     </row>
     <row r="334">
-      <c r="E334" s="1"/>
+      <c r="E334" s="6"/>
     </row>
     <row r="335">
-      <c r="E335" s="1"/>
+      <c r="E335" s="6"/>
     </row>
     <row r="336">
-      <c r="E336" s="1"/>
+      <c r="E336" s="6"/>
     </row>
     <row r="337">
-      <c r="E337" s="1"/>
+      <c r="E337" s="6"/>
     </row>
     <row r="338">
-      <c r="E338" s="1"/>
+      <c r="E338" s="6"/>
     </row>
     <row r="339">
-      <c r="E339" s="1"/>
+      <c r="E339" s="6"/>
     </row>
     <row r="340">
-      <c r="E340" s="1"/>
+      <c r="E340" s="6"/>
     </row>
     <row r="341">
-      <c r="E341" s="1"/>
+      <c r="E341" s="6"/>
     </row>
     <row r="342">
-      <c r="E342" s="1"/>
+      <c r="E342" s="6"/>
     </row>
     <row r="343">
-      <c r="E343" s="1"/>
+      <c r="E343" s="6"/>
     </row>
     <row r="344">
-      <c r="E344" s="1"/>
+      <c r="E344" s="6"/>
     </row>
     <row r="345">
-      <c r="E345" s="1"/>
+      <c r="E345" s="6"/>
     </row>
     <row r="346">
-      <c r="E346" s="1"/>
+      <c r="E346" s="6"/>
     </row>
     <row r="347">
-      <c r="E347" s="1"/>
+      <c r="E347" s="6"/>
     </row>
     <row r="348">
-      <c r="E348" s="1"/>
+      <c r="E348" s="6"/>
     </row>
     <row r="349">
-      <c r="E349" s="1"/>
+      <c r="E349" s="6"/>
     </row>
     <row r="350">
-      <c r="E350" s="1"/>
+      <c r="E350" s="6"/>
     </row>
     <row r="351">
-      <c r="E351" s="1"/>
+      <c r="E351" s="6"/>
     </row>
     <row r="352">
-      <c r="E352" s="1"/>
+      <c r="E352" s="6"/>
     </row>
     <row r="353">
-      <c r="E353" s="1"/>
+      <c r="E353" s="6"/>
     </row>
     <row r="354">
-      <c r="E354" s="1"/>
+      <c r="E354" s="6"/>
     </row>
     <row r="355">
-      <c r="E355" s="1"/>
+      <c r="E355" s="6"/>
     </row>
     <row r="356">
-      <c r="E356" s="1"/>
+      <c r="E356" s="6"/>
     </row>
     <row r="357">
-      <c r="E357" s="1"/>
+      <c r="E357" s="6"/>
     </row>
     <row r="358">
-      <c r="E358" s="1"/>
+      <c r="E358" s="6"/>
     </row>
     <row r="359">
-      <c r="E359" s="1"/>
+      <c r="E359" s="6"/>
     </row>
     <row r="360">
-      <c r="E360" s="1"/>
+      <c r="E360" s="6"/>
     </row>
     <row r="361">
-      <c r="E361" s="1"/>
+      <c r="E361" s="6"/>
     </row>
     <row r="362">
-      <c r="E362" s="1"/>
+      <c r="E362" s="6"/>
     </row>
     <row r="363">
-      <c r="E363" s="1"/>
+      <c r="E363" s="6"/>
     </row>
     <row r="364">
-      <c r="E364" s="1"/>
+      <c r="E364" s="6"/>
     </row>
     <row r="365">
-      <c r="E365" s="1"/>
+      <c r="E365" s="6"/>
     </row>
     <row r="366">
-      <c r="E366" s="1"/>
+      <c r="E366" s="6"/>
     </row>
     <row r="367">
-      <c r="E367" s="1"/>
+      <c r="E367" s="6"/>
     </row>
     <row r="368">
-      <c r="E368" s="1"/>
+      <c r="E368" s="6"/>
     </row>
     <row r="369">
-      <c r="E369" s="1"/>
+      <c r="E369" s="6"/>
     </row>
     <row r="370">
-      <c r="E370" s="1"/>
+      <c r="E370" s="6"/>
     </row>
     <row r="371">
-      <c r="E371" s="1"/>
+      <c r="E371" s="6"/>
     </row>
     <row r="372">
-      <c r="E372" s="1"/>
+      <c r="E372" s="6"/>
     </row>
     <row r="373">
-      <c r="E373" s="1"/>
+      <c r="E373" s="6"/>
     </row>
     <row r="374">
-      <c r="E374" s="1"/>
+      <c r="E374" s="6"/>
     </row>
     <row r="375">
-      <c r="E375" s="1"/>
+      <c r="E375" s="6"/>
     </row>
     <row r="376">
-      <c r="E376" s="1"/>
+      <c r="E376" s="6"/>
     </row>
     <row r="377">
-      <c r="E377" s="1"/>
+      <c r="E377" s="6"/>
     </row>
     <row r="378">
-      <c r="E378" s="1"/>
+      <c r="E378" s="6"/>
     </row>
     <row r="379">
-      <c r="E379" s="1"/>
+      <c r="E379" s="6"/>
     </row>
     <row r="380">
-      <c r="E380" s="1"/>
+      <c r="E380" s="6"/>
     </row>
     <row r="381">
-      <c r="E381" s="1"/>
+      <c r="E381" s="6"/>
     </row>
     <row r="382">
-      <c r="E382" s="1"/>
+      <c r="E382" s="6"/>
     </row>
     <row r="383">
-      <c r="E383" s="1"/>
+      <c r="E383" s="6"/>
     </row>
     <row r="384">
-      <c r="E384" s="1"/>
+      <c r="E384" s="6"/>
     </row>
     <row r="385">
-      <c r="E385" s="1"/>
+      <c r="E385" s="6"/>
     </row>
     <row r="386">
-      <c r="E386" s="1"/>
+      <c r="E386" s="6"/>
     </row>
     <row r="387">
-      <c r="E387" s="1"/>
+      <c r="E387" s="6"/>
     </row>
     <row r="388">
-      <c r="E388" s="1"/>
+      <c r="E388" s="6"/>
     </row>
     <row r="389">
-      <c r="E389" s="1"/>
+      <c r="E389" s="6"/>
     </row>
     <row r="390">
-      <c r="E390" s="1"/>
+      <c r="E390" s="6"/>
     </row>
     <row r="391">
-      <c r="E391" s="1"/>
+      <c r="E391" s="6"/>
     </row>
     <row r="392">
-      <c r="E392" s="1"/>
+      <c r="E392" s="6"/>
     </row>
     <row r="393">
-      <c r="E393" s="1"/>
+      <c r="E393" s="6"/>
     </row>
     <row r="394">
-      <c r="E394" s="1"/>
+      <c r="E394" s="6"/>
     </row>
     <row r="395">
-      <c r="E395" s="1"/>
+      <c r="E395" s="6"/>
     </row>
     <row r="396">
-      <c r="E396" s="1"/>
+      <c r="E396" s="6"/>
     </row>
     <row r="397">
-      <c r="E397" s="1"/>
+      <c r="E397" s="6"/>
     </row>
     <row r="398">
-      <c r="E398" s="1"/>
+      <c r="E398" s="6"/>
     </row>
     <row r="399">
-      <c r="E399" s="1"/>
+      <c r="E399" s="6"/>
     </row>
     <row r="400">
-      <c r="E400" s="1"/>
+      <c r="E400" s="6"/>
     </row>
     <row r="401">
-      <c r="E401" s="1"/>
+      <c r="E401" s="6"/>
     </row>
     <row r="402">
-      <c r="E402" s="1"/>
+      <c r="E402" s="6"/>
     </row>
     <row r="403">
-      <c r="E403" s="1"/>
+      <c r="E403" s="6"/>
     </row>
     <row r="404">
-      <c r="E404" s="1"/>
+      <c r="E404" s="6"/>
     </row>
     <row r="405">
-      <c r="E405" s="1"/>
+      <c r="E405" s="6"/>
     </row>
     <row r="406">
-      <c r="E406" s="1"/>
+      <c r="E406" s="6"/>
     </row>
     <row r="407">
-      <c r="E407" s="1"/>
+      <c r="E407" s="6"/>
     </row>
     <row r="408">
-      <c r="E408" s="1"/>
+      <c r="E408" s="6"/>
     </row>
     <row r="409">
-      <c r="E409" s="1"/>
+      <c r="E409" s="6"/>
     </row>
     <row r="410">
-      <c r="E410" s="1"/>
+      <c r="E410" s="6"/>
     </row>
     <row r="411">
-      <c r="E411" s="1"/>
+      <c r="E411" s="6"/>
     </row>
     <row r="412">
-      <c r="E412" s="1"/>
+      <c r="E412" s="6"/>
     </row>
     <row r="413">
-      <c r="E413" s="1"/>
+      <c r="E413" s="6"/>
     </row>
     <row r="414">
-      <c r="E414" s="1"/>
+      <c r="E414" s="6"/>
     </row>
     <row r="415">
-      <c r="E415" s="1"/>
+      <c r="E415" s="6"/>
     </row>
     <row r="416">
-      <c r="E416" s="1"/>
+      <c r="E416" s="6"/>
     </row>
     <row r="417">
-      <c r="E417" s="1"/>
+      <c r="E417" s="6"/>
     </row>
     <row r="418">
-      <c r="E418" s="1"/>
+      <c r="E418" s="6"/>
     </row>
     <row r="419">
-      <c r="E419" s="1"/>
+      <c r="E419" s="6"/>
     </row>
     <row r="420">
-      <c r="E420" s="1"/>
+      <c r="E420" s="6"/>
     </row>
     <row r="421">
-      <c r="E421" s="1"/>
+      <c r="E421" s="6"/>
     </row>
     <row r="422">
-      <c r="E422" s="1"/>
+      <c r="E422" s="6"/>
     </row>
     <row r="423">
-      <c r="E423" s="1"/>
+      <c r="E423" s="6"/>
     </row>
     <row r="424">
-      <c r="E424" s="1"/>
+      <c r="E424" s="6"/>
     </row>
     <row r="425">
-      <c r="E425" s="1"/>
+      <c r="E425" s="6"/>
     </row>
     <row r="426">
-      <c r="E426" s="1"/>
+      <c r="E426" s="6"/>
     </row>
     <row r="427">
-      <c r="E427" s="1"/>
+      <c r="E427" s="6"/>
     </row>
     <row r="428">
-      <c r="E428" s="1"/>
+      <c r="E428" s="6"/>
     </row>
     <row r="429">
-      <c r="E429" s="1"/>
+      <c r="E429" s="6"/>
     </row>
     <row r="430">
-      <c r="E430" s="1"/>
+      <c r="E430" s="6"/>
     </row>
     <row r="431">
-      <c r="E431" s="1"/>
+      <c r="E431" s="6"/>
     </row>
     <row r="432">
-      <c r="E432" s="1"/>
+      <c r="E432" s="6"/>
     </row>
     <row r="433">
-      <c r="E433" s="1"/>
+      <c r="E433" s="6"/>
     </row>
     <row r="434">
-      <c r="E434" s="1"/>
+      <c r="E434" s="6"/>
     </row>
     <row r="435">
-      <c r="E435" s="1"/>
+      <c r="E435" s="6"/>
     </row>
     <row r="436">
-      <c r="E436" s="1"/>
+      <c r="E436" s="6"/>
     </row>
     <row r="437">
-      <c r="E437" s="1"/>
+      <c r="E437" s="6"/>
     </row>
     <row r="438">
-      <c r="E438" s="1"/>
+      <c r="E438" s="6"/>
     </row>
     <row r="439">
-      <c r="E439" s="1"/>
+      <c r="E439" s="6"/>
     </row>
     <row r="440">
-      <c r="E440" s="1"/>
+      <c r="E440" s="6"/>
     </row>
     <row r="441">
-      <c r="E441" s="1"/>
+      <c r="E441" s="6"/>
     </row>
     <row r="442">
-      <c r="E442" s="1"/>
+      <c r="E442" s="6"/>
     </row>
     <row r="443">
-      <c r="E443" s="1"/>
+      <c r="E443" s="6"/>
     </row>
     <row r="444">
-      <c r="E444" s="1"/>
+      <c r="E444" s="6"/>
     </row>
     <row r="445">
-      <c r="E445" s="1"/>
+      <c r="E445" s="6"/>
     </row>
     <row r="446">
-      <c r="E446" s="1"/>
+      <c r="E446" s="6"/>
     </row>
     <row r="447">
-      <c r="E447" s="1"/>
+      <c r="E447" s="6"/>
     </row>
     <row r="448">
-      <c r="E448" s="1"/>
+      <c r="E448" s="6"/>
     </row>
     <row r="449">
-      <c r="E449" s="1"/>
+      <c r="E449" s="6"/>
     </row>
     <row r="450">
-      <c r="E450" s="1"/>
+      <c r="E450" s="6"/>
     </row>
     <row r="451">
-      <c r="E451" s="1"/>
+      <c r="E451" s="6"/>
     </row>
     <row r="452">
-      <c r="E452" s="1"/>
+      <c r="E452" s="6"/>
     </row>
     <row r="453">
-      <c r="E453" s="1"/>
+      <c r="E453" s="6"/>
     </row>
     <row r="454">
-      <c r="E454" s="1"/>
+      <c r="E454" s="6"/>
     </row>
     <row r="455">
-      <c r="E455" s="1"/>
+      <c r="E455" s="6"/>
     </row>
     <row r="456">
-      <c r="E456" s="1"/>
+      <c r="E456" s="6"/>
     </row>
     <row r="457">
-      <c r="E457" s="1"/>
+      <c r="E457" s="6"/>
     </row>
     <row r="458">
-      <c r="E458" s="1"/>
+      <c r="E458" s="6"/>
     </row>
     <row r="459">
-      <c r="E459" s="1"/>
+      <c r="E459" s="6"/>
     </row>
     <row r="460">
-      <c r="E460" s="1"/>
+      <c r="E460" s="6"/>
     </row>
     <row r="461">
-      <c r="E461" s="1"/>
+      <c r="E461" s="6"/>
     </row>
     <row r="462">
-      <c r="E462" s="1"/>
+      <c r="E462" s="6"/>
     </row>
     <row r="463">
-      <c r="E463" s="1"/>
+      <c r="E463" s="6"/>
     </row>
     <row r="464">
-      <c r="E464" s="1"/>
+      <c r="E464" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9234,51 +9404,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
-        <v>15</v>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -9286,7 +9440,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>25.57</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="4">
@@ -9297,7 +9451,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3</v>
+        <v>23.17</v>
       </c>
     </row>
     <row r="5">
@@ -9305,26 +9459,26 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>25.73</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>25.92</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>25.18</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="8">
@@ -9335,7 +9489,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>19.61</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="9">
@@ -9343,7 +9497,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>24.25</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="10">
@@ -9351,7 +9505,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>26.54</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="11">
@@ -9359,7 +9513,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>27.86</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="12">
@@ -9367,7 +9521,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>28.64</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="13">
@@ -9375,7 +9529,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>29.29</v>
+        <v>25.65</v>
       </c>
     </row>
   </sheetData>
@@ -9387,220 +9541,220 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="19" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="44.1" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="B3" t="n">
-        <v>25.63</v>
+        <v>24.63</v>
       </c>
       <c r="C3" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="D3" s="16" t="n">
-        <v>754.41</v>
-      </c>
-      <c r="E3" s="16" t="n">
-        <v>701.601</v>
+        <v>4.59</v>
+      </c>
+      <c r="D3" s="18" t="n">
+        <v>720.37</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>669.944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B4" t="n">
-        <v>26.19</v>
+        <v>23.67</v>
       </c>
       <c r="C4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="D4" s="16" t="n">
-        <v>882.95</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>821.144</v>
+        <v>4.25</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <v>815.391</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>758.314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B5" t="n">
-        <v>25.73</v>
+        <v>23.02</v>
       </c>
       <c r="C5" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D5" s="16" t="n">
-        <v>1196.657</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>1112.891</v>
+        <v>3.82</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <v>1073.696</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>998.537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B6" t="n">
-        <v>29.07</v>
+        <v>26.93</v>
       </c>
       <c r="C6" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>473.288</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>440.158</v>
+        <v>5.76</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <v>441.144</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>410.264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B7" t="n">
-        <v>28.51</v>
+        <v>26.8</v>
       </c>
       <c r="C7" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>1157.891</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>1076.839</v>
+        <v>5.67</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>1088.186</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>1012.013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B8" t="n">
-        <v>26.25</v>
+        <v>23.58</v>
       </c>
       <c r="C8" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>1095.475</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>1018.792</v>
+        <v>3.97</v>
+      </c>
+      <c r="D8" s="18" t="n">
+        <v>1021.801</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <v>950.275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="B9" t="n">
-        <v>22.17</v>
+        <v>20.47</v>
       </c>
       <c r="C9" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>721.862</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>671.332</v>
+        <v>3.87</v>
+      </c>
+      <c r="D9" s="18" t="n">
+        <v>668.445</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>621.654</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>24.56</v>
       </c>
       <c r="C10" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>901.299</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>838.208</v>
+        <v>5.04</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>820.371</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>762.945</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="B11" t="n">
-        <v>25.43</v>
+        <v>23.78</v>
       </c>
       <c r="C11" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="D11" s="16" t="n">
-        <v>883.534</v>
-      </c>
-      <c r="E11" s="16" t="n">
-        <v>821.687</v>
+        <v>4.81</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <v>821.747</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>764.225</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13">
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14">
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15">
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16">
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9608,51 +9762,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="19" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
+      <c r="A1" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B3" t="n">
         <v>37.97</v>
@@ -9660,185 +9814,185 @@
       <c r="C3" t="n">
         <v>8.26</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="18" t="n">
         <v>29.616</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="18" t="n">
         <v>27.543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="B4" t="n">
-        <v>34.16</v>
+        <v>33.92</v>
       </c>
       <c r="C4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D4" s="16" t="n">
-        <v>25.185</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>23.422</v>
+        <v>7.69</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <v>67.811</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>63.064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="B5" t="n">
-        <v>35.71</v>
+        <v>50.96</v>
       </c>
       <c r="C5" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="D5" s="16" t="n">
-        <v>71.377</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>66.381</v>
+        <v>7.36</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <v>29.146</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>27.106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B6" t="n">
-        <v>34.17</v>
+        <v>31.01</v>
       </c>
       <c r="C6" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>33.011</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>30.7</v>
+        <v>7.35</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <v>22.864</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>21.264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B7" t="n">
-        <v>36.98</v>
+        <v>30.83</v>
       </c>
       <c r="C7" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>50.388</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>46.861</v>
+        <v>7.18</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>29.788</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>27.703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B8" t="n">
-        <v>34.72</v>
+        <v>32.33</v>
       </c>
       <c r="C8" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>62.779</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>58.384</v>
+        <v>6.91</v>
+      </c>
+      <c r="D8" s="18" t="n">
+        <v>58.463</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <v>54.371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B9" t="n">
-        <v>50.96</v>
+        <v>27.8</v>
       </c>
       <c r="C9" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>29.146</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>27.106</v>
+        <v>6.91</v>
+      </c>
+      <c r="D9" s="18" t="n">
+        <v>54.576</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>50.756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="B10" t="n">
-        <v>29.7</v>
+        <v>26.63</v>
       </c>
       <c r="C10" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>25.763</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>23.96</v>
+        <v>6.6</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>23.102</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>21.485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B11" t="n">
-        <v>39.61</v>
+        <v>29.99</v>
       </c>
       <c r="C11" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="D11" s="16" t="n">
-        <v>63.414</v>
-      </c>
-      <c r="E11" s="16" t="n">
-        <v>58.975</v>
+        <v>6.47</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <v>49.599</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>46.127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B12" t="n">
-        <v>28.48</v>
+        <v>29.87</v>
       </c>
       <c r="C12" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="D12" s="16" t="n">
-        <v>55.898</v>
-      </c>
-      <c r="E12" s="16" t="n">
-        <v>51.985</v>
+        <v>6.45</v>
+      </c>
+      <c r="D12" s="18" t="n">
+        <v>49.337</v>
+      </c>
+      <c r="E12" s="18" t="n">
+        <v>45.883</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14">
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15">
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16">
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17">
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/summary_table_1.xlsx
+++ b/output/summary_table_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Upshift Calcs" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t>Table 2. Average weekly spend on tobacco by socio-economic status (SES) and age group</t>
   </si>
@@ -145,49 +145,91 @@
     <t>Hand-Rolled</t>
   </si>
   <si>
-    <t>Ad-Valorem tax</t>
-  </si>
-  <si>
-    <t>Specific duty</t>
-  </si>
-  <si>
-    <t>Total duties (£m)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total excise per pack</t>
-  </si>
-  <si>
-    <t>Total excise % of price</t>
-  </si>
-  <si>
-    <t>Price per 100g (Dec 2020)</t>
-  </si>
-  <si>
-    <t>Price per 100g (Dec 2018)</t>
-  </si>
-  <si>
-    <t>Price deflator</t>
-  </si>
-  <si>
-    <t>Total cigarette spend (£m)</t>
-  </si>
-  <si>
-    <t>Total HRT spend (£m)</t>
-  </si>
-  <si>
     <t>Total grossed-up expenditure</t>
   </si>
   <si>
     <t>Upshift Factor:</t>
   </si>
   <si>
-    <t>Pack Price (20 cigs)</t>
-  </si>
-  <si>
     <t>Survey data estimate</t>
+  </si>
+  <si>
+    <t>(2) Pack Price (20 cigs)</t>
+  </si>
+  <si>
+    <t>(4) Ad-Valorem tax (per pack)</t>
+  </si>
+  <si>
+    <t>(5) Specific duty (per 1000 cigs)</t>
+  </si>
+  <si>
+    <t>(6) Specific duty (per pack)</t>
+  </si>
+  <si>
+    <t>(7) Total excise per pack</t>
+  </si>
+  <si>
+    <t>(8) Total excise % of price</t>
+  </si>
+  <si>
+    <t>(9) Total cigarette spend (£m)</t>
+  </si>
+  <si>
+    <t>(1) Total duty receipts (£m)</t>
+  </si>
+  <si>
+    <t>(2) * (3)</t>
+  </si>
+  <si>
+    <t>(3) Ad-Valorem tax rate</t>
+  </si>
+  <si>
+    <t>(5) / 20</t>
+  </si>
+  <si>
+    <t>(4) + (6)</t>
+  </si>
+  <si>
+    <t>Dataset :</t>
+  </si>
+  <si>
+    <t>(7) / (2)</t>
+  </si>
+  <si>
+    <t>(1) / (8)</t>
+  </si>
+  <si>
+    <t>(2) Price per 100g (Dec 2020)</t>
+  </si>
+  <si>
+    <t>(3) Price deflator</t>
+  </si>
+  <si>
+    <t>(4) Price per 100g (Dec 2018)</t>
+  </si>
+  <si>
+    <t>(5) Specific duty (per kg)</t>
+  </si>
+  <si>
+    <t>(6) Specific duty (per 100g)</t>
+  </si>
+  <si>
+    <t>(7) Total excise % of price</t>
+  </si>
+  <si>
+    <t>(8) Total HRT spend (£m)</t>
+  </si>
+  <si>
+    <t>(5) / 10</t>
+  </si>
+  <si>
+    <t>(6) / (4)</t>
+  </si>
+  <si>
+    <t>(1) / (7)</t>
+  </si>
+  <si>
+    <t>Totals (£m)</t>
   </si>
   <si>
     <t xml:space="preserve">E09000002</t>
@@ -1127,8 +1169,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
@@ -1168,6 +1211,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1175,12 +1230,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,12 +1265,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1245,22 +1288,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1583,126 +1632,198 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="2" max="2" width="28.7109375" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="9"/>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9">
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10">
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" s="3"/>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="11"/>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1741,75 +1862,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" ht="54.95" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C3" t="n">
         <v>23.4</v>
@@ -1817,7 +1938,7 @@
       <c r="D3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="13" t="n">
         <v>25722.73</v>
       </c>
       <c r="F3" t="n">
@@ -1835,7 +1956,7 @@
       <c r="J3" t="n">
         <v>631</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="14" t="n">
         <v>32.826</v>
       </c>
       <c r="L3" t="n">
@@ -1850,10 +1971,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C4" t="n">
         <v>23.7</v>
@@ -1861,7 +1982,7 @@
       <c r="D4" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="13" t="n">
         <v>32931.71</v>
       </c>
       <c r="F4" t="n">
@@ -1879,7 +2000,7 @@
       <c r="J4" t="n">
         <v>797</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="14" t="n">
         <v>41.465</v>
       </c>
       <c r="L4" t="n">
@@ -1894,10 +2015,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C5" t="n">
         <v>17.04</v>
@@ -1905,7 +2026,7 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="13" t="n">
         <v>26290</v>
       </c>
       <c r="F5" t="n">
@@ -1923,7 +2044,7 @@
       <c r="J5" t="n">
         <v>610</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="14" t="n">
         <v>31.721</v>
       </c>
       <c r="L5" t="n">
@@ -1938,10 +2059,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C6" t="n">
         <v>16.59</v>
@@ -1949,7 +2070,7 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="13" t="n">
         <v>29866.67</v>
       </c>
       <c r="F6" t="n">
@@ -1967,7 +2088,7 @@
       <c r="J6" t="n">
         <v>340</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="14" t="n">
         <v>17.673</v>
       </c>
       <c r="L6" t="n">
@@ -1982,10 +2103,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C7" t="n">
         <v>16.85</v>
@@ -1993,7 +2114,7 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="13" t="n">
         <v>29835</v>
       </c>
       <c r="F7" t="n">
@@ -2011,7 +2132,7 @@
       <c r="J7" t="n">
         <v>240</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="14" t="n">
         <v>12.5</v>
       </c>
       <c r="L7" t="n">
@@ -2026,10 +2147,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C8" t="n">
         <v>25.3</v>
@@ -2037,7 +2158,7 @@
       <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="13" t="n">
         <v>32378.57</v>
       </c>
       <c r="F8" t="n">
@@ -2055,7 +2176,7 @@
       <c r="J8" t="n">
         <v>685</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="14" t="n">
         <v>35.63</v>
       </c>
       <c r="L8" t="n">
@@ -2070,10 +2191,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C9" t="n">
         <v>25.28</v>
@@ -2081,7 +2202,7 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="13" t="n">
         <v>22587.88</v>
       </c>
       <c r="F9" t="n">
@@ -2099,7 +2220,7 @@
       <c r="J9" t="n">
         <v>3194</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="14" t="n">
         <v>166.102</v>
       </c>
       <c r="L9" t="n">
@@ -2114,10 +2235,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C10" t="n">
         <v>26.1</v>
@@ -2125,7 +2246,7 @@
       <c r="D10" t="n">
         <v>7</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="13" t="n">
         <v>21933.33</v>
       </c>
       <c r="F10" t="n">
@@ -2143,7 +2264,7 @@
       <c r="J10" t="n">
         <v>449</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="14" t="n">
         <v>23.341</v>
       </c>
       <c r="L10" t="n">
@@ -2158,10 +2279,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C11" t="n">
         <v>23.09</v>
@@ -2169,7 +2290,7 @@
       <c r="D11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="13" t="n">
         <v>19615.79</v>
       </c>
       <c r="F11" t="n">
@@ -2187,7 +2308,7 @@
       <c r="J11" t="n">
         <v>596</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="14" t="n">
         <v>30.973</v>
       </c>
       <c r="L11" t="n">
@@ -2202,10 +2323,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C12" t="n">
         <v>32.33</v>
@@ -2213,7 +2334,7 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="13" t="n">
         <v>24328.57</v>
       </c>
       <c r="F12" t="n">
@@ -2231,7 +2352,7 @@
       <c r="J12" t="n">
         <v>1124</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="14" t="n">
         <v>58.463</v>
       </c>
       <c r="L12" t="n">
@@ -2246,10 +2367,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C13" t="n">
         <v>21.14</v>
@@ -2257,7 +2378,7 @@
       <c r="D13" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="13" t="n">
         <v>26429.88</v>
       </c>
       <c r="F13" t="n">
@@ -2275,7 +2396,7 @@
       <c r="J13" t="n">
         <v>937</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="14" t="n">
         <v>48.73</v>
       </c>
       <c r="L13" t="n">
@@ -2290,10 +2411,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C14" t="n">
         <v>20.91</v>
@@ -2301,7 +2422,7 @@
       <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="13" t="n">
         <v>31433.33</v>
       </c>
       <c r="F14" t="n">
@@ -2319,7 +2440,7 @@
       <c r="J14" t="n">
         <v>234</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="14" t="n">
         <v>12.144</v>
       </c>
       <c r="L14" t="n">
@@ -2334,10 +2455,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C15" t="n">
         <v>25.47</v>
@@ -2345,7 +2466,7 @@
       <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="13" t="n">
         <v>22373.77</v>
       </c>
       <c r="F15" t="n">
@@ -2363,7 +2484,7 @@
       <c r="J15" t="n">
         <v>1670</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="14" t="n">
         <v>86.866</v>
       </c>
       <c r="L15" t="n">
@@ -2378,10 +2499,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C16" t="n">
         <v>24.76</v>
@@ -2389,7 +2510,7 @@
       <c r="D16" t="n">
         <v>6</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="13" t="n">
         <v>27582.35</v>
       </c>
       <c r="F16" t="n">
@@ -2407,7 +2528,7 @@
       <c r="J16" t="n">
         <v>645</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="14" t="n">
         <v>33.533</v>
       </c>
       <c r="L16" t="n">
@@ -2422,10 +2543,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C17" t="n">
         <v>19.32</v>
@@ -2433,7 +2554,7 @@
       <c r="D17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="13" t="n">
         <v>29896.97</v>
       </c>
       <c r="F17" t="n">
@@ -2451,7 +2572,7 @@
       <c r="J17" t="n">
         <v>814</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="14" t="n">
         <v>42.307</v>
       </c>
       <c r="L17" t="n">
@@ -2466,10 +2587,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C18" t="n">
         <v>19.16</v>
@@ -2477,7 +2598,7 @@
       <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="13" t="n">
         <v>27087.27</v>
       </c>
       <c r="F18" t="n">
@@ -2495,7 +2616,7 @@
       <c r="J18" t="n">
         <v>1271</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="14" t="n">
         <v>66.112</v>
       </c>
       <c r="L18" t="n">
@@ -2510,10 +2631,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C19" t="n">
         <v>23.24</v>
@@ -2521,7 +2642,7 @@
       <c r="D19" t="n">
         <v>5</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="13" t="n">
         <v>36620.51</v>
       </c>
       <c r="F19" t="n">
@@ -2539,7 +2660,7 @@
       <c r="J19" t="n">
         <v>564</v>
       </c>
-      <c r="K19" s="8" t="n">
+      <c r="K19" s="14" t="n">
         <v>29.313</v>
       </c>
       <c r="L19" t="n">
@@ -2554,10 +2675,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C20" t="n">
         <v>21.73</v>
@@ -2565,7 +2686,7 @@
       <c r="D20" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="13" t="n">
         <v>33529.07</v>
       </c>
       <c r="F20" t="n">
@@ -2575,7 +2696,7 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="14"/>
       <c r="L20" t="n">
         <v>645</v>
       </c>
@@ -2588,10 +2709,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C21" t="n">
         <v>23.31</v>
@@ -2599,7 +2720,7 @@
       <c r="D21" t="n">
         <v>5</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="13" t="n">
         <v>26407.69</v>
       </c>
       <c r="F21" t="n">
@@ -2617,7 +2738,7 @@
       <c r="J21" t="n">
         <v>440</v>
       </c>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="14" t="n">
         <v>22.863</v>
       </c>
       <c r="L21" t="n">
@@ -2632,10 +2753,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C22" t="n">
         <v>24.86</v>
@@ -2643,7 +2764,7 @@
       <c r="D22" t="n">
         <v>6</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="13" t="n">
         <v>25077.78</v>
       </c>
       <c r="F22" t="n">
@@ -2661,7 +2782,7 @@
       <c r="J22" t="n">
         <v>661</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="14" t="n">
         <v>34.379</v>
       </c>
       <c r="L22" t="n">
@@ -2676,10 +2797,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C23" t="n">
         <v>21.71</v>
@@ -2687,7 +2808,7 @@
       <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="13" t="n">
         <v>32436.02</v>
       </c>
       <c r="F23" t="n">
@@ -2705,7 +2826,7 @@
       <c r="J23" t="n">
         <v>1482</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="14" t="n">
         <v>77.053</v>
       </c>
       <c r="L23" t="n">
@@ -2720,10 +2841,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C24" t="n">
         <v>21.54</v>
@@ -2731,7 +2852,7 @@
       <c r="D24" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="13" t="n">
         <v>32492.86</v>
       </c>
       <c r="F24" t="n">
@@ -2749,7 +2870,7 @@
       <c r="J24" t="n">
         <v>565</v>
       </c>
-      <c r="K24" s="8" t="n">
+      <c r="K24" s="14" t="n">
         <v>29.366</v>
       </c>
       <c r="L24" t="n">
@@ -2764,10 +2885,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C25" t="n">
         <v>25.37</v>
@@ -2775,7 +2896,7 @@
       <c r="D25" t="n">
         <v>7</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="13" t="n">
         <v>32036.36</v>
       </c>
       <c r="F25" t="n">
@@ -2793,7 +2914,7 @@
       <c r="J25" t="n">
         <v>782</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="14" t="n">
         <v>40.676</v>
       </c>
       <c r="L25" t="n">
@@ -2808,10 +2929,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C26" t="n">
         <v>29.39</v>
@@ -2819,7 +2940,7 @@
       <c r="D26" t="n">
         <v>9</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="13" t="n">
         <v>30198.04</v>
       </c>
       <c r="F26" t="n">
@@ -2837,7 +2958,7 @@
       <c r="J26" t="n">
         <v>1245</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26" s="14" t="n">
         <v>64.74</v>
       </c>
       <c r="L26" t="n">
@@ -2852,10 +2973,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C27" t="n">
         <v>15.01</v>
@@ -2863,7 +2984,7 @@
       <c r="D27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="13" t="n">
         <v>29140.43</v>
       </c>
       <c r="F27" t="n">
@@ -2881,7 +3002,7 @@
       <c r="J27" t="n">
         <v>467</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="14" t="n">
         <v>24.286</v>
       </c>
       <c r="L27" t="n">
@@ -2896,14 +3017,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="13" t="n">
         <v>41800</v>
       </c>
       <c r="F28" t="n">
@@ -2913,7 +3034,7 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28" s="8"/>
+      <c r="K28" s="14"/>
       <c r="L28" t="n">
         <v>804</v>
       </c>
@@ -2922,10 +3043,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C29" t="n">
         <v>18.74</v>
@@ -2933,7 +3054,7 @@
       <c r="D29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="13" t="n">
         <v>25473.97</v>
       </c>
       <c r="F29" t="n">
@@ -2951,7 +3072,7 @@
       <c r="J29" t="n">
         <v>1311</v>
       </c>
-      <c r="K29" s="8" t="n">
+      <c r="K29" s="14" t="n">
         <v>68.148</v>
       </c>
       <c r="L29" t="n">
@@ -2966,10 +3087,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C30" t="n">
         <v>22.21</v>
@@ -2977,7 +3098,7 @@
       <c r="D30" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="13" t="n">
         <v>25237.88</v>
       </c>
       <c r="F30" t="n">
@@ -2995,7 +3116,7 @@
       <c r="J30" t="n">
         <v>1619</v>
       </c>
-      <c r="K30" s="8" t="n">
+      <c r="K30" s="14" t="n">
         <v>84.17</v>
       </c>
       <c r="L30" t="n">
@@ -3010,10 +3131,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C31" t="n">
         <v>23.81</v>
@@ -3021,7 +3142,7 @@
       <c r="D31" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="13" t="n">
         <v>24764.29</v>
       </c>
       <c r="F31" t="n">
@@ -3039,7 +3160,7 @@
       <c r="J31" t="n">
         <v>1047</v>
       </c>
-      <c r="K31" s="8" t="n">
+      <c r="K31" s="14" t="n">
         <v>54.452</v>
       </c>
       <c r="L31" t="n">
@@ -3054,10 +3175,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C32" t="n">
         <v>23.27</v>
@@ -3065,7 +3186,7 @@
       <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="13" t="n">
         <v>31211.36</v>
       </c>
       <c r="F32" t="n">
@@ -3083,7 +3204,7 @@
       <c r="J32" t="n">
         <v>844</v>
       </c>
-      <c r="K32" s="8" t="n">
+      <c r="K32" s="14" t="n">
         <v>43.888</v>
       </c>
       <c r="L32" t="n">
@@ -3098,10 +3219,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C33" t="n">
         <v>23.93</v>
@@ -3109,7 +3230,7 @@
       <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="13" t="n">
         <v>26745.87</v>
       </c>
       <c r="F33" t="n">
@@ -3127,7 +3248,7 @@
       <c r="J33" t="n">
         <v>1490</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="14" t="n">
         <v>77.455</v>
       </c>
       <c r="L33" t="n">
@@ -3142,10 +3263,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C34" t="n">
         <v>29.88</v>
@@ -3153,7 +3274,7 @@
       <c r="D34" t="n">
         <v>9</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="13" t="n">
         <v>24253.33</v>
       </c>
       <c r="F34" t="n">
@@ -3171,7 +3292,7 @@
       <c r="J34" t="n">
         <v>345</v>
       </c>
-      <c r="K34" s="8" t="n">
+      <c r="K34" s="14" t="n">
         <v>17.949</v>
       </c>
       <c r="L34" t="n">
@@ -3186,10 +3307,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C35" t="n">
         <v>22.43</v>
@@ -3197,7 +3318,7 @@
       <c r="D35" t="n">
         <v>4</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="13" t="n">
         <v>27148.39</v>
       </c>
       <c r="F35" t="n">
@@ -3215,7 +3336,7 @@
       <c r="J35" t="n">
         <v>741</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="14" t="n">
         <v>38.548</v>
       </c>
       <c r="L35" t="n">
@@ -3230,10 +3351,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C36" t="n">
         <v>24.49</v>
@@ -3241,7 +3362,7 @@
       <c r="D36" t="n">
         <v>6</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="13" t="n">
         <v>28928.41</v>
       </c>
       <c r="F36" t="n">
@@ -3259,7 +3380,7 @@
       <c r="J36" t="n">
         <v>2001</v>
       </c>
-      <c r="K36" s="8" t="n">
+      <c r="K36" s="14" t="n">
         <v>104.065</v>
       </c>
       <c r="L36" t="n">
@@ -3274,10 +3395,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C37" t="n">
         <v>18.05</v>
@@ -3285,7 +3406,7 @@
       <c r="D37" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="13" t="n">
         <v>27183.86</v>
       </c>
       <c r="F37" t="n">
@@ -3303,7 +3424,7 @@
       <c r="J37" t="n">
         <v>1597</v>
       </c>
-      <c r="K37" s="8" t="n">
+      <c r="K37" s="14" t="n">
         <v>83.034</v>
       </c>
       <c r="L37" t="n">
@@ -3318,10 +3439,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C38" t="n">
         <v>30.41</v>
@@ -3329,7 +3450,7 @@
       <c r="D38" t="n">
         <v>10</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="13" t="n">
         <v>25915.38</v>
       </c>
       <c r="F38" t="n">
@@ -3347,7 +3468,7 @@
       <c r="J38" t="n">
         <v>1423</v>
       </c>
-      <c r="K38" s="8" t="n">
+      <c r="K38" s="14" t="n">
         <v>73.973</v>
       </c>
       <c r="L38" t="n">
@@ -3362,10 +3483,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C39" t="n">
         <v>19.44</v>
@@ -3373,7 +3494,7 @@
       <c r="D39" t="n">
         <v>2</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="13" t="n">
         <v>28697.19</v>
       </c>
       <c r="F39" t="n">
@@ -3391,7 +3512,7 @@
       <c r="J39" t="n">
         <v>613</v>
       </c>
-      <c r="K39" s="8" t="n">
+      <c r="K39" s="14" t="n">
         <v>31.868</v>
       </c>
       <c r="L39" t="n">
@@ -3406,10 +3527,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C40" t="n">
         <v>20.87</v>
@@ -3417,7 +3538,7 @@
       <c r="D40" t="n">
         <v>3</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="13" t="n">
         <v>24918.6</v>
       </c>
       <c r="F40" t="n">
@@ -3435,7 +3556,7 @@
       <c r="J40" t="n">
         <v>710</v>
       </c>
-      <c r="K40" s="8" t="n">
+      <c r="K40" s="14" t="n">
         <v>36.935</v>
       </c>
       <c r="L40" t="n">
@@ -3450,10 +3571,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C41" t="n">
         <v>22.89</v>
@@ -3461,7 +3582,7 @@
       <c r="D41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="13" t="n">
         <v>31084.62</v>
       </c>
       <c r="F41" t="n">
@@ -3479,7 +3600,7 @@
       <c r="J41" t="n">
         <v>592</v>
       </c>
-      <c r="K41" s="8" t="n">
+      <c r="K41" s="14" t="n">
         <v>30.759</v>
       </c>
       <c r="L41" t="n">
@@ -3494,10 +3615,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C42" t="n">
         <v>26.11</v>
@@ -3505,7 +3626,7 @@
       <c r="D42" t="n">
         <v>8</v>
       </c>
-      <c r="E42" s="7" t="n">
+      <c r="E42" s="13" t="n">
         <v>28239.53</v>
       </c>
       <c r="F42" t="n">
@@ -3523,7 +3644,7 @@
       <c r="J42" t="n">
         <v>880</v>
       </c>
-      <c r="K42" s="8" t="n">
+      <c r="K42" s="14" t="n">
         <v>45.736</v>
       </c>
       <c r="L42" t="n">
@@ -3538,10 +3659,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C43" t="n">
         <v>20.59</v>
@@ -3549,7 +3670,7 @@
       <c r="D43" t="n">
         <v>2</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="13" t="n">
         <v>28866.33</v>
       </c>
       <c r="F43" t="n">
@@ -3567,7 +3688,7 @@
       <c r="J43" t="n">
         <v>1174</v>
       </c>
-      <c r="K43" s="8" t="n">
+      <c r="K43" s="14" t="n">
         <v>61.052</v>
       </c>
       <c r="L43" t="n">
@@ -3582,10 +3703,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C44" t="n">
         <v>23.64</v>
@@ -3593,7 +3714,7 @@
       <c r="D44" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="13" t="n">
         <v>28469.44</v>
       </c>
       <c r="F44" t="n">
@@ -3611,7 +3732,7 @@
       <c r="J44" t="n">
         <v>932</v>
       </c>
-      <c r="K44" s="8" t="n">
+      <c r="K44" s="14" t="n">
         <v>48.456</v>
       </c>
       <c r="L44" t="n">
@@ -3626,10 +3747,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C45" t="n">
         <v>26.26</v>
@@ -3637,7 +3758,7 @@
       <c r="D45" t="n">
         <v>8</v>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="13" t="n">
         <v>29986.79</v>
       </c>
       <c r="F45" t="n">
@@ -3655,7 +3776,7 @@
       <c r="J45" t="n">
         <v>4068</v>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K45" s="14" t="n">
         <v>211.56</v>
       </c>
       <c r="L45" t="n">
@@ -3670,10 +3791,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C46" t="n">
         <v>20.7</v>
@@ -3681,7 +3802,7 @@
       <c r="D46" t="n">
         <v>2</v>
       </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="13" t="n">
         <v>24418.52</v>
       </c>
       <c r="F46" t="n">
@@ -3699,7 +3820,7 @@
       <c r="J46" t="n">
         <v>575</v>
       </c>
-      <c r="K46" s="8" t="n">
+      <c r="K46" s="14" t="n">
         <v>29.923</v>
       </c>
       <c r="L46" t="n">
@@ -3714,10 +3835,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C47" t="n">
         <v>22.88</v>
@@ -3725,7 +3846,7 @@
       <c r="D47" t="n">
         <v>5</v>
       </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="13" t="n">
         <v>29223.71</v>
       </c>
       <c r="F47" t="n">
@@ -3743,7 +3864,7 @@
       <c r="J47" t="n">
         <v>1507</v>
       </c>
-      <c r="K47" s="8" t="n">
+      <c r="K47" s="14" t="n">
         <v>78.355</v>
       </c>
       <c r="L47" t="n">
@@ -3758,10 +3879,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C48" t="n">
         <v>24.94</v>
@@ -3769,7 +3890,7 @@
       <c r="D48" t="n">
         <v>6</v>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="13" t="n">
         <v>30403.03</v>
       </c>
       <c r="F48" t="n">
@@ -3787,7 +3908,7 @@
       <c r="J48" t="n">
         <v>697</v>
       </c>
-      <c r="K48" s="8" t="n">
+      <c r="K48" s="14" t="n">
         <v>36.224</v>
       </c>
       <c r="L48" t="n">
@@ -3802,10 +3923,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C49" t="n">
         <v>18.91</v>
@@ -3813,7 +3934,7 @@
       <c r="D49" t="n">
         <v>2</v>
       </c>
-      <c r="E49" s="7" t="n">
+      <c r="E49" s="13" t="n">
         <v>27000</v>
       </c>
       <c r="F49" t="n">
@@ -3831,7 +3952,7 @@
       <c r="J49" t="n">
         <v>593</v>
       </c>
-      <c r="K49" s="8" t="n">
+      <c r="K49" s="14" t="n">
         <v>30.851</v>
       </c>
       <c r="L49" t="n">
@@ -3846,10 +3967,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C50" t="n">
         <v>37.97</v>
@@ -3857,7 +3978,7 @@
       <c r="D50" t="n">
         <v>10</v>
       </c>
-      <c r="E50" s="7" t="n">
+      <c r="E50" s="13" t="n">
         <v>23906.25</v>
       </c>
       <c r="F50" t="n">
@@ -3875,7 +3996,7 @@
       <c r="J50" t="n">
         <v>570</v>
       </c>
-      <c r="K50" s="8" t="n">
+      <c r="K50" s="14" t="n">
         <v>29.616</v>
       </c>
       <c r="L50" t="n">
@@ -3890,10 +4011,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C51" t="n">
         <v>21.45</v>
@@ -3901,7 +4022,7 @@
       <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="7" t="n">
+      <c r="E51" s="13" t="n">
         <v>31740</v>
       </c>
       <c r="F51" t="n">
@@ -3919,7 +4040,7 @@
       <c r="J51" t="n">
         <v>328</v>
       </c>
-      <c r="K51" s="8" t="n">
+      <c r="K51" s="14" t="n">
         <v>17.068</v>
       </c>
       <c r="L51" t="n">
@@ -3934,10 +4055,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C52" t="n">
         <v>25.33</v>
@@ -3945,7 +4066,7 @@
       <c r="D52" t="n">
         <v>7</v>
       </c>
-      <c r="E52" s="7" t="n">
+      <c r="E52" s="13" t="n">
         <v>32746.23</v>
       </c>
       <c r="F52" t="n">
@@ -3963,7 +4084,7 @@
       <c r="J52" t="n">
         <v>2779</v>
       </c>
-      <c r="K52" s="8" t="n">
+      <c r="K52" s="14" t="n">
         <v>144.495</v>
       </c>
       <c r="L52" t="n">
@@ -3978,10 +4099,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C53" t="n">
         <v>17.84</v>
@@ -3989,7 +4110,7 @@
       <c r="D53" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="7" t="n">
+      <c r="E53" s="13" t="n">
         <v>30000</v>
       </c>
       <c r="F53" t="n">
@@ -4007,7 +4128,7 @@
       <c r="J53" t="n">
         <v>555</v>
       </c>
-      <c r="K53" s="8" t="n">
+      <c r="K53" s="14" t="n">
         <v>28.851</v>
       </c>
       <c r="L53" t="n">
@@ -4022,10 +4143,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C54" t="n">
         <v>26.99</v>
@@ -4033,7 +4154,7 @@
       <c r="D54" t="n">
         <v>8</v>
       </c>
-      <c r="E54" s="7" t="n">
+      <c r="E54" s="13" t="n">
         <v>33486.67</v>
       </c>
       <c r="F54" t="n">
@@ -4051,7 +4172,7 @@
       <c r="J54" t="n">
         <v>536</v>
       </c>
-      <c r="K54" s="8" t="n">
+      <c r="K54" s="14" t="n">
         <v>27.894</v>
       </c>
       <c r="L54" t="n">
@@ -4066,10 +4187,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C55" t="n">
         <v>31.01</v>
@@ -4077,7 +4198,7 @@
       <c r="D55" t="n">
         <v>10</v>
       </c>
-      <c r="E55" s="7" t="n">
+      <c r="E55" s="13" t="n">
         <v>21925</v>
       </c>
       <c r="F55" t="n">
@@ -4095,7 +4216,7 @@
       <c r="J55" t="n">
         <v>440</v>
       </c>
-      <c r="K55" s="8" t="n">
+      <c r="K55" s="14" t="n">
         <v>22.864</v>
       </c>
       <c r="L55" t="n">
@@ -4110,10 +4231,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C56" t="n">
         <v>34.33</v>
@@ -4121,7 +4242,7 @@
       <c r="D56" t="n">
         <v>10</v>
       </c>
-      <c r="E56" s="7" t="n">
+      <c r="E56" s="13" t="n">
         <v>32280</v>
       </c>
       <c r="F56" t="n">
@@ -4139,7 +4260,7 @@
       <c r="J56" t="n">
         <v>911</v>
       </c>
-      <c r="K56" s="8" t="n">
+      <c r="K56" s="14" t="n">
         <v>47.349</v>
       </c>
       <c r="L56" t="n">
@@ -4154,10 +4275,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C57" t="n">
         <v>26.07</v>
@@ -4165,7 +4286,7 @@
       <c r="D57" t="n">
         <v>7</v>
       </c>
-      <c r="E57" s="7" t="n">
+      <c r="E57" s="13" t="n">
         <v>27047.83</v>
       </c>
       <c r="F57" t="n">
@@ -4183,7 +4304,7 @@
       <c r="J57" t="n">
         <v>502</v>
       </c>
-      <c r="K57" s="8" t="n">
+      <c r="K57" s="14" t="n">
         <v>26.079</v>
       </c>
       <c r="L57" t="n">
@@ -4198,10 +4319,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C58" t="n">
         <v>21.12</v>
@@ -4209,7 +4330,7 @@
       <c r="D58" t="n">
         <v>3</v>
       </c>
-      <c r="E58" s="7" t="n">
+      <c r="E58" s="13" t="n">
         <v>31018.53</v>
       </c>
       <c r="F58" t="n">
@@ -4227,7 +4348,7 @@
       <c r="J58" t="n">
         <v>2124</v>
       </c>
-      <c r="K58" s="8" t="n">
+      <c r="K58" s="14" t="n">
         <v>110.442</v>
       </c>
       <c r="L58" t="n">
@@ -4242,10 +4363,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C59" t="n">
         <v>25.12</v>
@@ -4253,7 +4374,7 @@
       <c r="D59" t="n">
         <v>7</v>
       </c>
-      <c r="E59" s="7" t="n">
+      <c r="E59" s="13" t="n">
         <v>31968.75</v>
       </c>
       <c r="F59" t="n">
@@ -4271,7 +4392,7 @@
       <c r="J59" t="n">
         <v>690</v>
       </c>
-      <c r="K59" s="8" t="n">
+      <c r="K59" s="14" t="n">
         <v>35.884</v>
       </c>
       <c r="L59" t="n">
@@ -4286,10 +4407,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C60" t="n">
         <v>24.76</v>
@@ -4297,7 +4418,7 @@
       <c r="D60" t="n">
         <v>6</v>
       </c>
-      <c r="E60" s="7" t="n">
+      <c r="E60" s="13" t="n">
         <v>30850</v>
       </c>
       <c r="F60" t="n">
@@ -4315,7 +4436,7 @@
       <c r="J60" t="n">
         <v>728</v>
       </c>
-      <c r="K60" s="8" t="n">
+      <c r="K60" s="14" t="n">
         <v>37.841</v>
       </c>
       <c r="L60" t="n">
@@ -4330,10 +4451,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C61" t="n">
         <v>26.72</v>
@@ -4341,7 +4462,7 @@
       <c r="D61" t="n">
         <v>8</v>
       </c>
-      <c r="E61" s="7" t="n">
+      <c r="E61" s="13" t="n">
         <v>27144.44</v>
       </c>
       <c r="F61" t="n">
@@ -4359,7 +4480,7 @@
       <c r="J61" t="n">
         <v>452</v>
       </c>
-      <c r="K61" s="8" t="n">
+      <c r="K61" s="14" t="n">
         <v>23.48</v>
       </c>
       <c r="L61" t="n">
@@ -4374,14 +4495,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" s="7" t="n">
+      <c r="E62" s="13" t="n">
         <v>22700</v>
       </c>
       <c r="F62" t="n">
@@ -4391,7 +4512,7 @@
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="K62" s="8"/>
+      <c r="K62" s="14"/>
       <c r="L62" t="n">
         <v>437</v>
       </c>
@@ -4400,10 +4521,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C63" t="n">
         <v>21.84</v>
@@ -4411,7 +4532,7 @@
       <c r="D63" t="n">
         <v>4</v>
       </c>
-      <c r="E63" s="7" t="n">
+      <c r="E63" s="13" t="n">
         <v>29604.35</v>
       </c>
       <c r="F63" t="n">
@@ -4429,7 +4550,7 @@
       <c r="J63" t="n">
         <v>540</v>
       </c>
-      <c r="K63" s="8" t="n">
+      <c r="K63" s="14" t="n">
         <v>28.064</v>
       </c>
       <c r="L63" t="n">
@@ -4444,10 +4565,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C64" t="n">
         <v>22.75</v>
@@ -4455,7 +4576,7 @@
       <c r="D64" t="n">
         <v>4</v>
       </c>
-      <c r="E64" s="7" t="n">
+      <c r="E64" s="13" t="n">
         <v>34028.57</v>
       </c>
       <c r="F64" t="n">
@@ -4473,7 +4594,7 @@
       <c r="J64" t="n">
         <v>432</v>
       </c>
-      <c r="K64" s="8" t="n">
+      <c r="K64" s="14" t="n">
         <v>22.476</v>
       </c>
       <c r="L64" t="n">
@@ -4488,10 +4609,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C65" t="n">
         <v>23.46</v>
@@ -4499,7 +4620,7 @@
       <c r="D65" t="n">
         <v>5</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="E65" s="13"/>
       <c r="F65"/>
       <c r="G65" t="n">
         <v>13.69</v>
@@ -4513,7 +4634,7 @@
       <c r="J65" t="n">
         <v>3974</v>
       </c>
-      <c r="K65" s="8" t="n">
+      <c r="K65" s="14" t="n">
         <v>206.666</v>
       </c>
       <c r="L65"/>
@@ -4522,10 +4643,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C66" t="n">
         <v>26.49</v>
@@ -4533,7 +4654,7 @@
       <c r="D66" t="n">
         <v>8</v>
       </c>
-      <c r="E66" s="7" t="n">
+      <c r="E66" s="13" t="n">
         <v>22446.88</v>
       </c>
       <c r="F66" t="n">
@@ -4551,7 +4672,7 @@
       <c r="J66" t="n">
         <v>1191</v>
       </c>
-      <c r="K66" s="8" t="n">
+      <c r="K66" s="14" t="n">
         <v>61.958</v>
       </c>
       <c r="L66" t="n">
@@ -4566,10 +4687,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C67" t="n">
         <v>16.7</v>
@@ -4577,7 +4698,7 @@
       <c r="D67" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="7" t="n">
+      <c r="E67" s="13" t="n">
         <v>38760</v>
       </c>
       <c r="F67" t="n">
@@ -4595,7 +4716,7 @@
       <c r="J67" t="n">
         <v>212</v>
       </c>
-      <c r="K67" s="8" t="n">
+      <c r="K67" s="14" t="n">
         <v>11.047</v>
       </c>
       <c r="L67" t="n">
@@ -4610,10 +4731,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C68" t="n">
         <v>22.8</v>
@@ -4621,7 +4742,7 @@
       <c r="D68" t="n">
         <v>4</v>
       </c>
-      <c r="E68" s="7" t="n">
+      <c r="E68" s="13" t="n">
         <v>24350.85</v>
       </c>
       <c r="F68" t="n">
@@ -4639,7 +4760,7 @@
       <c r="J68" t="n">
         <v>1106</v>
       </c>
-      <c r="K68" s="8" t="n">
+      <c r="K68" s="14" t="n">
         <v>57.497</v>
       </c>
       <c r="L68" t="n">
@@ -4654,10 +4775,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C69" t="n">
         <v>26.63</v>
@@ -4665,7 +4786,7 @@
       <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="7" t="n">
+      <c r="E69" s="13" t="n">
         <v>20985</v>
       </c>
       <c r="F69" t="n">
@@ -4683,7 +4804,7 @@
       <c r="J69" t="n">
         <v>444</v>
       </c>
-      <c r="K69" s="8" t="n">
+      <c r="K69" s="14" t="n">
         <v>23.102</v>
       </c>
       <c r="L69" t="n">
@@ -4698,10 +4819,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C70" t="n">
         <v>21.89</v>
@@ -4709,7 +4830,7 @@
       <c r="D70" t="n">
         <v>4</v>
       </c>
-      <c r="E70" s="7" t="n">
+      <c r="E70" s="13" t="n">
         <v>30728.57</v>
       </c>
       <c r="F70" t="n">
@@ -4727,7 +4848,7 @@
       <c r="J70" t="n">
         <v>772</v>
       </c>
-      <c r="K70" s="8" t="n">
+      <c r="K70" s="14" t="n">
         <v>40.148</v>
       </c>
       <c r="L70" t="n">
@@ -4742,10 +4863,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C71" t="n">
         <v>23.49</v>
@@ -4753,7 +4874,7 @@
       <c r="D71" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="7" t="n">
+      <c r="E71" s="13" t="n">
         <v>25636.48</v>
       </c>
       <c r="F71" t="n">
@@ -4771,7 +4892,7 @@
       <c r="J71" t="n">
         <v>3152</v>
       </c>
-      <c r="K71" s="8" t="n">
+      <c r="K71" s="14" t="n">
         <v>163.896</v>
       </c>
       <c r="L71" t="n">
@@ -4786,10 +4907,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C72" t="n">
         <v>19.38</v>
@@ -4797,7 +4918,7 @@
       <c r="D72" t="n">
         <v>2</v>
       </c>
-      <c r="E72" s="7" t="n">
+      <c r="E72" s="13" t="n">
         <v>25265.42</v>
       </c>
       <c r="F72" t="n">
@@ -4815,7 +4936,7 @@
       <c r="J72" t="n">
         <v>1845</v>
       </c>
-      <c r="K72" s="8" t="n">
+      <c r="K72" s="14" t="n">
         <v>95.921</v>
       </c>
       <c r="L72" t="n">
@@ -4830,10 +4951,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C73" t="n">
         <v>20.06</v>
@@ -4841,7 +4962,7 @@
       <c r="D73" t="n">
         <v>2</v>
       </c>
-      <c r="E73" s="7" t="n">
+      <c r="E73" s="13" t="n">
         <v>20843.24</v>
       </c>
       <c r="F73" t="n">
@@ -4859,7 +4980,7 @@
       <c r="J73" t="n">
         <v>837</v>
       </c>
-      <c r="K73" s="8" t="n">
+      <c r="K73" s="14" t="n">
         <v>43.534</v>
       </c>
       <c r="L73" t="n">
@@ -4874,10 +4995,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C74" t="n">
         <v>28</v>
@@ -4885,7 +5006,7 @@
       <c r="D74" t="n">
         <v>9</v>
       </c>
-      <c r="E74" s="7" t="n">
+      <c r="E74" s="13" t="n">
         <v>31161.77</v>
       </c>
       <c r="F74" t="n">
@@ -4903,7 +5024,7 @@
       <c r="J74" t="n">
         <v>1893</v>
       </c>
-      <c r="K74" s="8" t="n">
+      <c r="K74" s="14" t="n">
         <v>98.431</v>
       </c>
       <c r="L74" t="n">
@@ -4918,10 +5039,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C75" t="n">
         <v>21.2</v>
@@ -4929,7 +5050,7 @@
       <c r="D75" t="n">
         <v>3</v>
       </c>
-      <c r="E75" s="7" t="n">
+      <c r="E75" s="13" t="n">
         <v>30763.89</v>
       </c>
       <c r="F75" t="n">
@@ -4947,7 +5068,7 @@
       <c r="J75" t="n">
         <v>731</v>
       </c>
-      <c r="K75" s="8" t="n">
+      <c r="K75" s="14" t="n">
         <v>38.022</v>
       </c>
       <c r="L75" t="n">
@@ -4962,10 +5083,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C76" t="n">
         <v>21.33</v>
@@ -4973,7 +5094,7 @@
       <c r="D76" t="n">
         <v>3</v>
       </c>
-      <c r="E76" s="7" t="n">
+      <c r="E76" s="13" t="n">
         <v>27021.75</v>
       </c>
       <c r="F76" t="n">
@@ -4991,7 +5112,7 @@
       <c r="J76" t="n">
         <v>2009</v>
       </c>
-      <c r="K76" s="8" t="n">
+      <c r="K76" s="14" t="n">
         <v>104.468</v>
       </c>
       <c r="L76" t="n">
@@ -5006,10 +5127,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C77" t="n">
         <v>24.49</v>
@@ -5017,7 +5138,7 @@
       <c r="D77" t="n">
         <v>6</v>
       </c>
-      <c r="E77" s="7" t="n">
+      <c r="E77" s="13" t="n">
         <v>21895.08</v>
       </c>
       <c r="F77" t="n">
@@ -5035,7 +5156,7 @@
       <c r="J77" t="n">
         <v>1391</v>
       </c>
-      <c r="K77" s="8" t="n">
+      <c r="K77" s="14" t="n">
         <v>72.34</v>
       </c>
       <c r="L77" t="n">
@@ -5050,10 +5171,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C78" t="n">
         <v>29.8</v>
@@ -5061,7 +5182,7 @@
       <c r="D78" t="n">
         <v>9</v>
       </c>
-      <c r="E78" s="7" t="n">
+      <c r="E78" s="13" t="n">
         <v>25614.29</v>
       </c>
       <c r="F78" t="n">
@@ -5079,7 +5200,7 @@
       <c r="J78" t="n">
         <v>781</v>
       </c>
-      <c r="K78" s="8" t="n">
+      <c r="K78" s="14" t="n">
         <v>40.605</v>
       </c>
       <c r="L78" t="n">
@@ -5094,10 +5215,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C79" t="n">
         <v>14.54</v>
@@ -5105,7 +5226,7 @@
       <c r="D79" t="n">
         <v>1</v>
       </c>
-      <c r="E79" s="7" t="n">
+      <c r="E79" s="13" t="n">
         <v>21901.75</v>
       </c>
       <c r="F79" t="n">
@@ -5123,7 +5244,7 @@
       <c r="J79" t="n">
         <v>1126</v>
       </c>
-      <c r="K79" s="8" t="n">
+      <c r="K79" s="14" t="n">
         <v>58.562</v>
       </c>
       <c r="L79" t="n">
@@ -5138,10 +5259,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C80" t="n">
         <v>28.39</v>
@@ -5149,7 +5270,7 @@
       <c r="D80" t="n">
         <v>9</v>
       </c>
-      <c r="E80" s="7" t="n">
+      <c r="E80" s="13" t="n">
         <v>28457.89</v>
       </c>
       <c r="F80" t="n">
@@ -5167,7 +5288,7 @@
       <c r="J80" t="n">
         <v>853</v>
       </c>
-      <c r="K80" s="8" t="n">
+      <c r="K80" s="14" t="n">
         <v>44.342</v>
       </c>
       <c r="L80" t="n">
@@ -5182,10 +5303,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C81" t="n">
         <v>18.81</v>
@@ -5193,7 +5314,7 @@
       <c r="D81" t="n">
         <v>2</v>
       </c>
-      <c r="E81" s="7" t="n">
+      <c r="E81" s="13" t="n">
         <v>35368</v>
       </c>
       <c r="F81" t="n">
@@ -5211,7 +5332,7 @@
       <c r="J81" t="n">
         <v>405</v>
       </c>
-      <c r="K81" s="8" t="n">
+      <c r="K81" s="14" t="n">
         <v>21.084</v>
       </c>
       <c r="L81" t="n">
@@ -5226,10 +5347,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C82" t="n">
         <v>30.83</v>
@@ -5237,7 +5358,7 @@
       <c r="D82" t="n">
         <v>10</v>
       </c>
-      <c r="E82" s="7" t="n">
+      <c r="E82" s="13" t="n">
         <v>22326.32</v>
       </c>
       <c r="F82" t="n">
@@ -5255,7 +5376,7 @@
       <c r="J82" t="n">
         <v>573</v>
       </c>
-      <c r="K82" s="8" t="n">
+      <c r="K82" s="14" t="n">
         <v>29.788</v>
       </c>
       <c r="L82" t="n">
@@ -5270,10 +5391,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C83" t="n">
         <v>24.97</v>
@@ -5281,7 +5402,7 @@
       <c r="D83" t="n">
         <v>6</v>
       </c>
-      <c r="E83" s="7" t="n">
+      <c r="E83" s="13" t="n">
         <v>29484.38</v>
       </c>
       <c r="F83" t="n">
@@ -5299,7 +5420,7 @@
       <c r="J83" t="n">
         <v>754</v>
       </c>
-      <c r="K83" s="8" t="n">
+      <c r="K83" s="14" t="n">
         <v>39.218</v>
       </c>
       <c r="L83" t="n">
@@ -5314,10 +5435,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C84" t="n">
         <v>29.99</v>
@@ -5325,7 +5446,7 @@
       <c r="D84" t="n">
         <v>10</v>
       </c>
-      <c r="E84" s="7" t="n">
+      <c r="E84" s="13" t="n">
         <v>24086.21</v>
       </c>
       <c r="F84" t="n">
@@ -5343,7 +5464,7 @@
       <c r="J84" t="n">
         <v>954</v>
       </c>
-      <c r="K84" s="8" t="n">
+      <c r="K84" s="14" t="n">
         <v>49.599</v>
       </c>
       <c r="L84" t="n">
@@ -5358,10 +5479,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C85" t="n">
         <v>28.1</v>
@@ -5369,7 +5490,7 @@
       <c r="D85" t="n">
         <v>9</v>
       </c>
-      <c r="E85" s="7" t="n">
+      <c r="E85" s="13" t="n">
         <v>26275.68</v>
       </c>
       <c r="F85" t="n">
@@ -5387,7 +5508,7 @@
       <c r="J85" t="n">
         <v>1037</v>
       </c>
-      <c r="K85" s="8" t="n">
+      <c r="K85" s="14" t="n">
         <v>53.9</v>
       </c>
       <c r="L85" t="n">
@@ -5402,10 +5523,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C86" t="n">
         <v>20.36</v>
@@ -5413,7 +5534,7 @@
       <c r="D86" t="n">
         <v>2</v>
       </c>
-      <c r="E86" s="7" t="n">
+      <c r="E86" s="13" t="n">
         <v>28364.07</v>
       </c>
       <c r="F86" t="n">
@@ -5431,7 +5552,7 @@
       <c r="J86" t="n">
         <v>2178</v>
       </c>
-      <c r="K86" s="8" t="n">
+      <c r="K86" s="14" t="n">
         <v>113.249</v>
       </c>
       <c r="L86" t="n">
@@ -5446,10 +5567,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C87" t="n">
         <v>24.66</v>
@@ -5457,7 +5578,7 @@
       <c r="D87" t="n">
         <v>6</v>
       </c>
-      <c r="E87" s="7" t="n">
+      <c r="E87" s="13" t="n">
         <v>23526.09</v>
       </c>
       <c r="F87" t="n">
@@ -5475,7 +5596,7 @@
       <c r="J87" t="n">
         <v>685</v>
       </c>
-      <c r="K87" s="8" t="n">
+      <c r="K87" s="14" t="n">
         <v>35.605</v>
       </c>
       <c r="L87" t="n">
@@ -5490,10 +5611,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C88" t="n">
         <v>25.34</v>
@@ -5501,7 +5622,7 @@
       <c r="D88" t="n">
         <v>7</v>
       </c>
-      <c r="E88" s="7" t="n">
+      <c r="E88" s="13" t="n">
         <v>26817.39</v>
       </c>
       <c r="F88" t="n">
@@ -5519,7 +5640,7 @@
       <c r="J88" t="n">
         <v>618</v>
       </c>
-      <c r="K88" s="8" t="n">
+      <c r="K88" s="14" t="n">
         <v>32.119</v>
       </c>
       <c r="L88" t="n">
@@ -5534,10 +5655,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C89" t="n">
         <v>16.35</v>
@@ -5545,7 +5666,7 @@
       <c r="D89" t="n">
         <v>1</v>
       </c>
-      <c r="E89" s="7" t="n">
+      <c r="E89" s="13" t="n">
         <v>28900</v>
       </c>
       <c r="F89" t="n">
@@ -5563,7 +5684,7 @@
       <c r="J89" t="n">
         <v>315</v>
       </c>
-      <c r="K89" s="8" t="n">
+      <c r="K89" s="14" t="n">
         <v>16.391</v>
       </c>
       <c r="L89" t="n">
@@ -5578,10 +5699,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C90" t="n">
         <v>27.04</v>
@@ -5589,7 +5710,7 @@
       <c r="D90" t="n">
         <v>8</v>
       </c>
-      <c r="E90" s="7" t="n">
+      <c r="E90" s="13" t="n">
         <v>26016.67</v>
       </c>
       <c r="F90" t="n">
@@ -5607,7 +5728,7 @@
       <c r="J90" t="n">
         <v>626</v>
       </c>
-      <c r="K90" s="8" t="n">
+      <c r="K90" s="14" t="n">
         <v>32.533</v>
       </c>
       <c r="L90" t="n">
@@ -5622,10 +5743,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C91" t="n">
         <v>24.27</v>
@@ -5633,7 +5754,7 @@
       <c r="D91" t="n">
         <v>6</v>
       </c>
-      <c r="E91" s="7" t="n">
+      <c r="E91" s="13" t="n">
         <v>28621.17</v>
       </c>
       <c r="F91" t="n">
@@ -5651,7 +5772,7 @@
       <c r="J91" t="n">
         <v>1451</v>
       </c>
-      <c r="K91" s="8" t="n">
+      <c r="K91" s="14" t="n">
         <v>75.457</v>
       </c>
       <c r="L91" t="n">
@@ -5666,10 +5787,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C92" t="n">
         <v>25.92</v>
@@ -5677,7 +5798,7 @@
       <c r="D92" t="n">
         <v>7</v>
       </c>
-      <c r="E92" s="7" t="n">
+      <c r="E92" s="13" t="n">
         <v>29037.4</v>
       </c>
       <c r="F92" t="n">
@@ -5695,7 +5816,7 @@
       <c r="J92" t="n">
         <v>2467</v>
       </c>
-      <c r="K92" s="8" t="n">
+      <c r="K92" s="14" t="n">
         <v>128.309</v>
       </c>
       <c r="L92" t="n">
@@ -5710,10 +5831,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B93" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C93" t="n">
         <v>26.51</v>
@@ -5721,7 +5842,7 @@
       <c r="D93" t="n">
         <v>8</v>
       </c>
-      <c r="E93" s="7" t="n">
+      <c r="E93" s="13" t="n">
         <v>26652.5</v>
       </c>
       <c r="F93" t="n">
@@ -5739,7 +5860,7 @@
       <c r="J93" t="n">
         <v>897</v>
       </c>
-      <c r="K93" s="8" t="n">
+      <c r="K93" s="14" t="n">
         <v>46.653</v>
       </c>
       <c r="L93" t="n">
@@ -5754,10 +5875,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B94" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C94" t="n">
         <v>24.26</v>
@@ -5765,7 +5886,7 @@
       <c r="D94" t="n">
         <v>6</v>
       </c>
-      <c r="E94" s="7" t="n">
+      <c r="E94" s="13" t="n">
         <v>23686.84</v>
       </c>
       <c r="F94" t="n">
@@ -5783,7 +5904,7 @@
       <c r="J94" t="n">
         <v>1337</v>
       </c>
-      <c r="K94" s="8" t="n">
+      <c r="K94" s="14" t="n">
         <v>69.545</v>
       </c>
       <c r="L94" t="n">
@@ -5798,10 +5919,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B95" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C95" t="n">
         <v>26.02</v>
@@ -5809,7 +5930,7 @@
       <c r="D95" t="n">
         <v>7</v>
       </c>
-      <c r="E95" s="7" t="n">
+      <c r="E95" s="13" t="n">
         <v>30664.52</v>
       </c>
       <c r="F95" t="n">
@@ -5827,7 +5948,7 @@
       <c r="J95" t="n">
         <v>2472</v>
       </c>
-      <c r="K95" s="8" t="n">
+      <c r="K95" s="14" t="n">
         <v>128.534</v>
       </c>
       <c r="L95" t="n">
@@ -5842,10 +5963,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C96" t="n">
         <v>29.87</v>
@@ -5853,7 +5974,7 @@
       <c r="D96" t="n">
         <v>9</v>
       </c>
-      <c r="E96" s="7" t="n">
+      <c r="E96" s="13" t="n">
         <v>24087.88</v>
       </c>
       <c r="F96" t="n">
@@ -5871,7 +5992,7 @@
       <c r="J96" t="n">
         <v>949</v>
       </c>
-      <c r="K96" s="8" t="n">
+      <c r="K96" s="14" t="n">
         <v>49.337</v>
       </c>
       <c r="L96" t="n">
@@ -5886,10 +6007,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B97" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C97" t="n">
         <v>23.4</v>
@@ -5897,7 +6018,7 @@
       <c r="D97" t="n">
         <v>5</v>
       </c>
-      <c r="E97" s="7" t="n">
+      <c r="E97" s="13" t="n">
         <v>33310.03</v>
       </c>
       <c r="F97" t="n">
@@ -5915,7 +6036,7 @@
       <c r="J97" t="n">
         <v>1531</v>
       </c>
-      <c r="K97" s="8" t="n">
+      <c r="K97" s="14" t="n">
         <v>79.637</v>
       </c>
       <c r="L97" t="n">
@@ -5930,10 +6051,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B98" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C98" t="n">
         <v>17.27</v>
@@ -5941,7 +6062,7 @@
       <c r="D98" t="n">
         <v>1</v>
       </c>
-      <c r="E98" s="7" t="n">
+      <c r="E98" s="13" t="n">
         <v>26936.36</v>
       </c>
       <c r="F98" t="n">
@@ -5959,7 +6080,7 @@
       <c r="J98" t="n">
         <v>489</v>
       </c>
-      <c r="K98" s="8" t="n">
+      <c r="K98" s="14" t="n">
         <v>25.445</v>
       </c>
       <c r="L98" t="n">
@@ -5974,10 +6095,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B99" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C99" t="n">
         <v>19.19</v>
@@ -5985,7 +6106,7 @@
       <c r="D99" t="n">
         <v>2</v>
       </c>
-      <c r="E99" s="7" t="n">
+      <c r="E99" s="13" t="n">
         <v>26246.88</v>
       </c>
       <c r="F99" t="n">
@@ -6003,7 +6124,7 @@
       <c r="J99" t="n">
         <v>744</v>
       </c>
-      <c r="K99" s="8" t="n">
+      <c r="K99" s="14" t="n">
         <v>38.666</v>
       </c>
       <c r="L99" t="n">
@@ -6018,10 +6139,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B100" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C100" t="n">
         <v>27.62</v>
@@ -6029,7 +6150,7 @@
       <c r="D100" t="n">
         <v>8</v>
       </c>
-      <c r="E100" s="7" t="n">
+      <c r="E100" s="13" t="n">
         <v>29028</v>
       </c>
       <c r="F100" t="n">
@@ -6047,7 +6168,7 @@
       <c r="J100" t="n">
         <v>778</v>
       </c>
-      <c r="K100" s="8" t="n">
+      <c r="K100" s="14" t="n">
         <v>40.43</v>
       </c>
       <c r="L100" t="n">
@@ -6062,10 +6183,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -6073,7 +6194,7 @@
       <c r="D101" t="n">
         <v>1</v>
       </c>
-      <c r="E101" s="7" t="n">
+      <c r="E101" s="13" t="n">
         <v>31094.44</v>
       </c>
       <c r="F101" t="n">
@@ -6091,7 +6212,7 @@
       <c r="J101" t="n">
         <v>0</v>
       </c>
-      <c r="K101" s="8" t="n">
+      <c r="K101" s="14" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
@@ -6106,10 +6227,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C102" t="n">
         <v>24.52</v>
@@ -6117,7 +6238,7 @@
       <c r="D102" t="n">
         <v>6</v>
       </c>
-      <c r="E102" s="7" t="n">
+      <c r="E102" s="13" t="n">
         <v>30845.16</v>
       </c>
       <c r="F102" t="n">
@@ -6135,7 +6256,7 @@
       <c r="J102" t="n">
         <v>750</v>
       </c>
-      <c r="K102" s="8" t="n">
+      <c r="K102" s="14" t="n">
         <v>39.02</v>
       </c>
       <c r="L102" t="n">
@@ -6150,10 +6271,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C103" t="n">
         <v>27.71</v>
@@ -6161,7 +6282,7 @@
       <c r="D103" t="n">
         <v>8</v>
       </c>
-      <c r="E103" s="7" t="n">
+      <c r="E103" s="13" t="n">
         <v>24326.32</v>
       </c>
       <c r="F103" t="n">
@@ -6179,7 +6300,7 @@
       <c r="J103" t="n">
         <v>469</v>
       </c>
-      <c r="K103" s="8" t="n">
+      <c r="K103" s="14" t="n">
         <v>24.41</v>
       </c>
       <c r="L103" t="n">
@@ -6194,10 +6315,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C104" t="n">
         <v>22.69</v>
@@ -6205,7 +6326,7 @@
       <c r="D104" t="n">
         <v>4</v>
       </c>
-      <c r="E104" s="7" t="n">
+      <c r="E104" s="13" t="n">
         <v>40526.09</v>
       </c>
       <c r="F104" t="n">
@@ -6223,7 +6344,7 @@
       <c r="J104" t="n">
         <v>276</v>
       </c>
-      <c r="K104" s="8" t="n">
+      <c r="K104" s="14" t="n">
         <v>14.36</v>
       </c>
       <c r="L104" t="n">
@@ -6238,10 +6359,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C105" t="n">
         <v>21.72</v>
@@ -6249,7 +6370,7 @@
       <c r="D105" t="n">
         <v>3</v>
       </c>
-      <c r="E105" s="7" t="n">
+      <c r="E105" s="13" t="n">
         <v>23664</v>
       </c>
       <c r="F105" t="n">
@@ -6267,7 +6388,7 @@
       <c r="J105" t="n">
         <v>557</v>
       </c>
-      <c r="K105" s="8" t="n">
+      <c r="K105" s="14" t="n">
         <v>28.954</v>
       </c>
       <c r="L105" t="n">
@@ -6282,10 +6403,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C106" t="n">
         <v>21.64</v>
@@ -6293,7 +6414,7 @@
       <c r="D106" t="n">
         <v>3</v>
       </c>
-      <c r="E106" s="7" t="n">
+      <c r="E106" s="13" t="n">
         <v>26457.58</v>
       </c>
       <c r="F106" t="n">
@@ -6311,7 +6432,7 @@
       <c r="J106" t="n">
         <v>803</v>
       </c>
-      <c r="K106" s="8" t="n">
+      <c r="K106" s="14" t="n">
         <v>41.745</v>
       </c>
       <c r="L106" t="n">
@@ -6326,10 +6447,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="C107" t="n">
         <v>29.14</v>
@@ -6337,7 +6458,7 @@
       <c r="D107" t="n">
         <v>9</v>
       </c>
-      <c r="E107" s="7" t="n">
+      <c r="E107" s="13" t="n">
         <v>34400</v>
       </c>
       <c r="F107" t="n">
@@ -6355,7 +6476,7 @@
       <c r="J107" t="n">
         <v>95</v>
       </c>
-      <c r="K107" s="8" t="n">
+      <c r="K107" s="14" t="n">
         <v>4.936</v>
       </c>
       <c r="L107" t="n">
@@ -6370,10 +6491,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C108" t="n">
         <v>33.92</v>
@@ -6381,7 +6502,7 @@
       <c r="D108" t="n">
         <v>10</v>
       </c>
-      <c r="E108" s="7" t="n">
+      <c r="E108" s="13" t="n">
         <v>22953.33</v>
       </c>
       <c r="F108" t="n">
@@ -6399,7 +6520,7 @@
       <c r="J108" t="n">
         <v>1304</v>
       </c>
-      <c r="K108" s="8" t="n">
+      <c r="K108" s="14" t="n">
         <v>67.811</v>
       </c>
       <c r="L108" t="n">
@@ -6414,10 +6535,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C109" t="n">
         <v>27.8</v>
@@ -6425,7 +6546,7 @@
       <c r="D109" t="n">
         <v>9</v>
       </c>
-      <c r="E109" s="7" t="n">
+      <c r="E109" s="13" t="n">
         <v>20923.68</v>
       </c>
       <c r="F109" t="n">
@@ -6443,7 +6564,7 @@
       <c r="J109" t="n">
         <v>1050</v>
       </c>
-      <c r="K109" s="8" t="n">
+      <c r="K109" s="14" t="n">
         <v>54.576</v>
       </c>
       <c r="L109" t="n">
@@ -6458,10 +6579,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C110" t="n">
         <v>31.01</v>
@@ -6469,7 +6590,7 @@
       <c r="D110" t="n">
         <v>10</v>
       </c>
-      <c r="E110" s="7" t="n">
+      <c r="E110" s="13" t="n">
         <v>25771.05</v>
       </c>
       <c r="F110" t="n">
@@ -6487,7 +6608,7 @@
       <c r="J110" t="n">
         <v>656</v>
       </c>
-      <c r="K110" s="8" t="n">
+      <c r="K110" s="14" t="n">
         <v>34.113</v>
       </c>
       <c r="L110" t="n">
@@ -6502,10 +6623,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C111" t="n">
         <v>20.75</v>
@@ -6513,7 +6634,7 @@
       <c r="D111" t="n">
         <v>2</v>
       </c>
-      <c r="E111" s="7" t="n">
+      <c r="E111" s="13" t="n">
         <v>27158.57</v>
       </c>
       <c r="F111" t="n">
@@ -6531,7 +6652,7 @@
       <c r="J111" t="n">
         <v>1348</v>
       </c>
-      <c r="K111" s="8" t="n">
+      <c r="K111" s="14" t="n">
         <v>70.106</v>
       </c>
       <c r="L111" t="n">
@@ -6546,10 +6667,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B112" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C112" t="n">
         <v>25.37</v>
@@ -6557,7 +6678,7 @@
       <c r="D112" t="n">
         <v>7</v>
       </c>
-      <c r="E112" s="7" t="n">
+      <c r="E112" s="13" t="n">
         <v>27856.41</v>
       </c>
       <c r="F112" t="n">
@@ -6575,7 +6696,7 @@
       <c r="J112" t="n">
         <v>915</v>
       </c>
-      <c r="K112" s="8" t="n">
+      <c r="K112" s="14" t="n">
         <v>47.606</v>
       </c>
       <c r="L112" t="n">
@@ -6590,10 +6711,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C113" t="n">
         <v>23</v>
@@ -6601,7 +6722,7 @@
       <c r="D113" t="n">
         <v>5</v>
       </c>
-      <c r="E113" s="7" t="n">
+      <c r="E113" s="13" t="n">
         <v>25914.29</v>
       </c>
       <c r="F113" t="n">
@@ -6619,7 +6740,7 @@
       <c r="J113" t="n">
         <v>395</v>
       </c>
-      <c r="K113" s="8" t="n">
+      <c r="K113" s="14" t="n">
         <v>20.562</v>
       </c>
       <c r="L113" t="n">
@@ -6634,10 +6755,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C114" t="n">
         <v>30.37</v>
@@ -6645,7 +6766,7 @@
       <c r="D114" t="n">
         <v>10</v>
       </c>
-      <c r="E114" s="7" t="n">
+      <c r="E114" s="13" t="n">
         <v>29434.48</v>
       </c>
       <c r="F114" t="n">
@@ -6663,7 +6784,7 @@
       <c r="J114" t="n">
         <v>645</v>
       </c>
-      <c r="K114" s="8" t="n">
+      <c r="K114" s="14" t="n">
         <v>33.516</v>
       </c>
       <c r="L114" t="n">
@@ -6678,10 +6799,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C115" t="n">
         <v>19.39</v>
@@ -6689,7 +6810,7 @@
       <c r="D115" t="n">
         <v>2</v>
       </c>
-      <c r="E115" s="7" t="n">
+      <c r="E115" s="13" t="n">
         <v>27074.5</v>
       </c>
       <c r="F115" t="n">
@@ -6707,7 +6828,7 @@
       <c r="J115" t="n">
         <v>1259</v>
       </c>
-      <c r="K115" s="8" t="n">
+      <c r="K115" s="14" t="n">
         <v>65.45</v>
       </c>
       <c r="L115" t="n">
@@ -6722,10 +6843,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B116" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C116" t="n">
         <v>22.63</v>
@@ -6733,7 +6854,7 @@
       <c r="D116" t="n">
         <v>4</v>
       </c>
-      <c r="E116" s="7" t="n">
+      <c r="E116" s="13" t="n">
         <v>30287.5</v>
       </c>
       <c r="F116" t="n">
@@ -6751,7 +6872,7 @@
       <c r="J116" t="n">
         <v>572</v>
       </c>
-      <c r="K116" s="8" t="n">
+      <c r="K116" s="14" t="n">
         <v>29.767</v>
       </c>
       <c r="L116" t="n">
@@ -6766,10 +6887,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B117" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C117" t="n">
         <v>21.13</v>
@@ -6777,7 +6898,7 @@
       <c r="D117" t="n">
         <v>3</v>
       </c>
-      <c r="E117" s="7" t="n">
+      <c r="E117" s="13" t="n">
         <v>24521.74</v>
       </c>
       <c r="F117" t="n">
@@ -6795,7 +6916,7 @@
       <c r="J117" t="n">
         <v>417</v>
       </c>
-      <c r="K117" s="8" t="n">
+      <c r="K117" s="14" t="n">
         <v>21.667</v>
       </c>
       <c r="L117" t="n">
@@ -6810,10 +6931,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C118" t="n">
         <v>21.22</v>
@@ -6821,7 +6942,7 @@
       <c r="D118" t="n">
         <v>3</v>
       </c>
-      <c r="E118" s="7" t="n">
+      <c r="E118" s="13" t="n">
         <v>27565.62</v>
       </c>
       <c r="F118" t="n">
@@ -6839,7 +6960,7 @@
       <c r="J118" t="n">
         <v>717</v>
       </c>
-      <c r="K118" s="8" t="n">
+      <c r="K118" s="14" t="n">
         <v>37.294</v>
       </c>
       <c r="L118" t="n">
@@ -6854,10 +6975,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C119" t="n">
         <v>26.53</v>
@@ -6865,7 +6986,7 @@
       <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="7" t="n">
+      <c r="E119" s="13" t="n">
         <v>28000</v>
       </c>
       <c r="F119" t="n">
@@ -6883,7 +7004,7 @@
       <c r="J119" t="n">
         <v>503</v>
       </c>
-      <c r="K119" s="8" t="n">
+      <c r="K119" s="14" t="n">
         <v>26.179</v>
       </c>
       <c r="L119" t="n">
@@ -6898,10 +7019,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C120" t="n">
         <v>18.41</v>
@@ -6909,7 +7030,7 @@
       <c r="D120" t="n">
         <v>1</v>
       </c>
-      <c r="E120" s="7" t="n">
+      <c r="E120" s="13" t="n">
         <v>30700</v>
       </c>
       <c r="F120" t="n">
@@ -6927,7 +7048,7 @@
       <c r="J120" t="n">
         <v>726</v>
       </c>
-      <c r="K120" s="8" t="n">
+      <c r="K120" s="14" t="n">
         <v>37.752</v>
       </c>
       <c r="L120" t="n">
@@ -6942,10 +7063,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C121" t="n">
         <v>29.21</v>
@@ -6953,7 +7074,7 @@
       <c r="D121" t="n">
         <v>9</v>
       </c>
-      <c r="E121" s="7" t="n">
+      <c r="E121" s="13" t="n">
         <v>25352.17</v>
       </c>
       <c r="F121" t="n">
@@ -6971,7 +7092,7 @@
       <c r="J121" t="n">
         <v>548</v>
       </c>
-      <c r="K121" s="8" t="n">
+      <c r="K121" s="14" t="n">
         <v>28.476</v>
       </c>
       <c r="L121" t="n">
@@ -6986,10 +7107,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C122" t="n">
         <v>21.76</v>
@@ -6997,7 +7118,7 @@
       <c r="D122" t="n">
         <v>4</v>
       </c>
-      <c r="E122" s="7" t="n">
+      <c r="E122" s="13" t="n">
         <v>28082.17</v>
       </c>
       <c r="F122" t="n">
@@ -7015,7 +7136,7 @@
       <c r="J122" t="n">
         <v>2142</v>
       </c>
-      <c r="K122" s="8" t="n">
+      <c r="K122" s="14" t="n">
         <v>111.386</v>
       </c>
       <c r="L122" t="n">
@@ -7030,10 +7151,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C123" t="n">
         <v>34.23</v>
@@ -7041,7 +7162,7 @@
       <c r="D123" t="n">
         <v>10</v>
       </c>
-      <c r="E123" s="7" t="n">
+      <c r="E123" s="13" t="n">
         <v>28107.14</v>
       </c>
       <c r="F123" t="n">
@@ -7059,7 +7180,7 @@
       <c r="J123" t="n">
         <v>1054</v>
       </c>
-      <c r="K123" s="8" t="n">
+      <c r="K123" s="14" t="n">
         <v>54.809</v>
       </c>
       <c r="L123" t="n">
@@ -7074,10 +7195,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B124" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C124" t="n">
         <v>28.43</v>
@@ -7085,7 +7206,7 @@
       <c r="D124" t="n">
         <v>9</v>
       </c>
-      <c r="E124" s="7" t="n">
+      <c r="E124" s="13" t="n">
         <v>25450</v>
       </c>
       <c r="F124" t="n">
@@ -7103,7 +7224,7 @@
       <c r="J124" t="n">
         <v>577</v>
       </c>
-      <c r="K124" s="8" t="n">
+      <c r="K124" s="14" t="n">
         <v>30.001</v>
       </c>
       <c r="L124" t="n">
@@ -7118,10 +7239,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B125" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="C125" t="n">
         <v>23.55</v>
@@ -7129,7 +7250,7 @@
       <c r="D125" t="n">
         <v>5</v>
       </c>
-      <c r="E125" s="7" t="n">
+      <c r="E125" s="13" t="n">
         <v>23550</v>
       </c>
       <c r="F125" t="n">
@@ -7147,7 +7268,7 @@
       <c r="J125" t="n">
         <v>853</v>
       </c>
-      <c r="K125" s="8" t="n">
+      <c r="K125" s="14" t="n">
         <v>44.345</v>
       </c>
       <c r="L125" t="n">
@@ -7162,10 +7283,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C126" t="n">
         <v>23.73</v>
@@ -7173,7 +7294,7 @@
       <c r="D126" t="n">
         <v>5</v>
       </c>
-      <c r="E126" s="7" t="n">
+      <c r="E126" s="13" t="n">
         <v>29087.56</v>
       </c>
       <c r="F126" t="n">
@@ -7191,7 +7312,7 @@
       <c r="J126" t="n">
         <v>2320</v>
       </c>
-      <c r="K126" s="8" t="n">
+      <c r="K126" s="14" t="n">
         <v>120.639</v>
       </c>
       <c r="L126" t="n">
@@ -7206,10 +7327,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B127" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C127" t="n">
         <v>27.79</v>
@@ -7217,7 +7338,7 @@
       <c r="D127" t="n">
         <v>8</v>
       </c>
-      <c r="E127" s="7" t="n">
+      <c r="E127" s="13" t="n">
         <v>24250</v>
       </c>
       <c r="F127" t="n">
@@ -7235,7 +7356,7 @@
       <c r="J127" t="n">
         <v>992</v>
       </c>
-      <c r="K127" s="8" t="n">
+      <c r="K127" s="14" t="n">
         <v>51.587</v>
       </c>
       <c r="L127" t="n">
@@ -7250,10 +7371,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C128" t="n">
         <v>28.52</v>
@@ -7261,7 +7382,7 @@
       <c r="D128" t="n">
         <v>9</v>
       </c>
-      <c r="E128" s="7" t="n">
+      <c r="E128" s="13" t="n">
         <v>34224.48</v>
       </c>
       <c r="F128" t="n">
@@ -7279,7 +7400,7 @@
       <c r="J128" t="n">
         <v>2672</v>
       </c>
-      <c r="K128" s="8" t="n">
+      <c r="K128" s="14" t="n">
         <v>138.959</v>
       </c>
       <c r="L128" t="n">
@@ -7294,10 +7415,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B129" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="C129" t="n">
         <v>28.89</v>
@@ -7305,7 +7426,7 @@
       <c r="D129" t="n">
         <v>9</v>
       </c>
-      <c r="E129" s="7" t="n">
+      <c r="E129" s="13" t="n">
         <v>35245.83</v>
       </c>
       <c r="F129" t="n">
@@ -7323,7 +7444,7 @@
       <c r="J129" t="n">
         <v>722</v>
       </c>
-      <c r="K129" s="8" t="n">
+      <c r="K129" s="14" t="n">
         <v>37.54</v>
       </c>
       <c r="L129" t="n">
@@ -7338,10 +7459,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B130" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C130" t="n">
         <v>25.85</v>
@@ -7349,7 +7470,7 @@
       <c r="D130" t="n">
         <v>7</v>
       </c>
-      <c r="E130" s="7" t="n">
+      <c r="E130" s="13" t="n">
         <v>27385.19</v>
       </c>
       <c r="F130" t="n">
@@ -7367,7 +7488,7 @@
       <c r="J130" t="n">
         <v>582</v>
       </c>
-      <c r="K130" s="8" t="n">
+      <c r="K130" s="14" t="n">
         <v>30.253</v>
       </c>
       <c r="L130" t="n">
@@ -7382,10 +7503,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C131" t="n">
         <v>27.39</v>
@@ -7393,7 +7514,7 @@
       <c r="D131" t="n">
         <v>8</v>
       </c>
-      <c r="E131" s="7" t="n">
+      <c r="E131" s="13" t="n">
         <v>23670</v>
       </c>
       <c r="F131" t="n">
@@ -7411,7 +7532,7 @@
       <c r="J131" t="n">
         <v>874</v>
       </c>
-      <c r="K131" s="8" t="n">
+      <c r="K131" s="14" t="n">
         <v>45.447</v>
       </c>
       <c r="L131" t="n">
@@ -7426,10 +7547,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B132" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C132" t="n">
         <v>23.78</v>
@@ -7437,7 +7558,7 @@
       <c r="D132" t="n">
         <v>6</v>
       </c>
-      <c r="E132" s="7" t="n">
+      <c r="E132" s="13" t="n">
         <v>26547.83</v>
       </c>
       <c r="F132" t="n">
@@ -7455,7 +7576,7 @@
       <c r="J132" t="n">
         <v>508</v>
       </c>
-      <c r="K132" s="8" t="n">
+      <c r="K132" s="14" t="n">
         <v>26.399</v>
       </c>
       <c r="L132" t="n">
@@ -7470,10 +7591,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B133" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C133" t="n">
         <v>31.31</v>
@@ -7481,7 +7602,7 @@
       <c r="D133" t="n">
         <v>10</v>
       </c>
-      <c r="E133" s="7" t="n">
+      <c r="E133" s="13" t="n">
         <v>27936.84</v>
       </c>
       <c r="F133" t="n">
@@ -7499,7 +7620,7 @@
       <c r="J133" t="n">
         <v>712</v>
       </c>
-      <c r="K133" s="8" t="n">
+      <c r="K133" s="14" t="n">
         <v>37.043</v>
       </c>
       <c r="L133" t="n">
@@ -7514,10 +7635,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B134" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C134" t="n">
         <v>22.17</v>
@@ -7525,7 +7646,7 @@
       <c r="D134" t="n">
         <v>4</v>
       </c>
-      <c r="E134" s="7" t="n">
+      <c r="E134" s="13" t="n">
         <v>22947.06</v>
       </c>
       <c r="F134" t="n">
@@ -7543,7 +7664,7 @@
       <c r="J134" t="n">
         <v>368</v>
       </c>
-      <c r="K134" s="8" t="n">
+      <c r="K134" s="14" t="n">
         <v>19.123</v>
       </c>
       <c r="L134" t="n">
@@ -7558,10 +7679,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B135" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C135" t="n">
         <v>22.17</v>
@@ -7569,7 +7690,7 @@
       <c r="D135" t="n">
         <v>4</v>
       </c>
-      <c r="E135" s="7" t="n">
+      <c r="E135" s="13" t="n">
         <v>28475</v>
       </c>
       <c r="F135" t="n">
@@ -7587,7 +7708,7 @@
       <c r="J135" t="n">
         <v>845</v>
       </c>
-      <c r="K135" s="8" t="n">
+      <c r="K135" s="14" t="n">
         <v>43.947</v>
       </c>
       <c r="L135" t="n">
@@ -7602,10 +7723,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B136" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C136" t="n">
         <v>25.45</v>
@@ -7613,7 +7734,7 @@
       <c r="D136" t="n">
         <v>7</v>
       </c>
-      <c r="E136" s="7" t="n">
+      <c r="E136" s="13" t="n">
         <v>27867.86</v>
       </c>
       <c r="F136" t="n">
@@ -7631,7 +7752,7 @@
       <c r="J136" t="n">
         <v>421</v>
       </c>
-      <c r="K136" s="8" t="n">
+      <c r="K136" s="14" t="n">
         <v>21.899</v>
       </c>
       <c r="L136" t="n">
@@ -7646,10 +7767,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B137" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C137" t="n">
         <v>21.02</v>
@@ -7657,7 +7778,7 @@
       <c r="D137" t="n">
         <v>3</v>
       </c>
-      <c r="E137" s="7" t="n">
+      <c r="E137" s="13" t="n">
         <v>26402.22</v>
       </c>
       <c r="F137" t="n">
@@ -7675,7 +7796,7 @@
       <c r="J137" t="n">
         <v>962</v>
       </c>
-      <c r="K137" s="8" t="n">
+      <c r="K137" s="14" t="n">
         <v>50.038</v>
       </c>
       <c r="L137" t="n">
@@ -7690,10 +7811,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C138" t="n">
         <v>18.57</v>
@@ -7701,7 +7822,7 @@
       <c r="D138" t="n">
         <v>1</v>
       </c>
-      <c r="E138" s="7" t="n">
+      <c r="E138" s="13" t="n">
         <v>23005.13</v>
       </c>
       <c r="F138" t="n">
@@ -7719,7 +7840,7 @@
       <c r="J138" t="n">
         <v>604</v>
       </c>
-      <c r="K138" s="8" t="n">
+      <c r="K138" s="14" t="n">
         <v>31.433</v>
       </c>
       <c r="L138" t="n">
@@ -7734,10 +7855,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B139" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C139" t="n">
         <v>22.53</v>
@@ -7745,7 +7866,7 @@
       <c r="D139" t="n">
         <v>4</v>
       </c>
-      <c r="E139" s="7" t="n">
+      <c r="E139" s="13" t="n">
         <v>29785.71</v>
       </c>
       <c r="F139" t="n">
@@ -7763,7 +7884,7 @@
       <c r="J139" t="n">
         <v>765</v>
       </c>
-      <c r="K139" s="8" t="n">
+      <c r="K139" s="14" t="n">
         <v>39.771</v>
       </c>
       <c r="L139" t="n">
@@ -7778,10 +7899,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C140" t="n">
         <v>18.43</v>
@@ -7789,7 +7910,7 @@
       <c r="D140" t="n">
         <v>1</v>
       </c>
-      <c r="E140" s="7" t="n">
+      <c r="E140" s="13" t="n">
         <v>35881.08</v>
       </c>
       <c r="F140" t="n">
@@ -7807,7 +7928,7 @@
       <c r="J140" t="n">
         <v>658</v>
       </c>
-      <c r="K140" s="8" t="n">
+      <c r="K140" s="14" t="n">
         <v>34.22</v>
       </c>
       <c r="L140" t="n">
@@ -7822,14 +7943,14 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
-      <c r="E141" s="7" t="n">
+      <c r="E141" s="13" t="n">
         <v>28268</v>
       </c>
       <c r="F141" t="n">
@@ -7845,7 +7966,7 @@
         <v>18634</v>
       </c>
       <c r="J141"/>
-      <c r="K141" s="8"/>
+      <c r="K141" s="14"/>
       <c r="L141" t="n">
         <v>544</v>
       </c>
@@ -7854,10 +7975,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C142" t="n">
         <v>26.12</v>
@@ -7865,7 +7986,7 @@
       <c r="D142" t="n">
         <v>8</v>
       </c>
-      <c r="E142" s="7" t="n">
+      <c r="E142" s="13" t="n">
         <v>28910.92</v>
       </c>
       <c r="F142" t="n">
@@ -7883,7 +8004,7 @@
       <c r="J142" t="n">
         <v>1597</v>
       </c>
-      <c r="K142" s="8" t="n">
+      <c r="K142" s="14" t="n">
         <v>83.057</v>
       </c>
       <c r="L142" t="n">
@@ -7898,10 +8019,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C143" t="n">
         <v>19.87</v>
@@ -7909,7 +8030,7 @@
       <c r="D143" t="n">
         <v>2</v>
       </c>
-      <c r="E143" s="7" t="n">
+      <c r="E143" s="13" t="n">
         <v>34086.36</v>
       </c>
       <c r="F143" t="n">
@@ -7927,7 +8048,7 @@
       <c r="J143" t="n">
         <v>253</v>
       </c>
-      <c r="K143" s="8" t="n">
+      <c r="K143" s="14" t="n">
         <v>13.132</v>
       </c>
       <c r="L143" t="n">
@@ -7942,10 +8063,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C144" t="n">
         <v>21.34</v>
@@ -7953,7 +8074,7 @@
       <c r="D144" t="n">
         <v>3</v>
       </c>
-      <c r="E144" s="7" t="n">
+      <c r="E144" s="13" t="n">
         <v>30881.63</v>
       </c>
       <c r="F144" t="n">
@@ -7971,7 +8092,7 @@
       <c r="J144" t="n">
         <v>1474</v>
       </c>
-      <c r="K144" s="8" t="n">
+      <c r="K144" s="14" t="n">
         <v>76.641</v>
       </c>
       <c r="L144" t="n">
@@ -7986,10 +8107,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C145" t="n">
         <v>21.73</v>
@@ -7997,7 +8118,7 @@
       <c r="D145" t="n">
         <v>4</v>
       </c>
-      <c r="E145" s="7" t="n">
+      <c r="E145" s="13" t="n">
         <v>33279.17</v>
       </c>
       <c r="F145" t="n">
@@ -8015,7 +8136,7 @@
       <c r="J145" t="n">
         <v>484</v>
       </c>
-      <c r="K145" s="8" t="n">
+      <c r="K145" s="14" t="n">
         <v>25.147</v>
       </c>
       <c r="L145" t="n">
@@ -8030,10 +8151,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B146" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C146" t="n">
         <v>30.97</v>
@@ -8041,7 +8162,7 @@
       <c r="D146" t="n">
         <v>10</v>
       </c>
-      <c r="E146" s="7" t="n">
+      <c r="E146" s="13" t="n">
         <v>25187.5</v>
       </c>
       <c r="F146" t="n">
@@ -8059,7 +8180,7 @@
       <c r="J146" t="n">
         <v>1368</v>
       </c>
-      <c r="K146" s="8" t="n">
+      <c r="K146" s="14" t="n">
         <v>71.131</v>
       </c>
       <c r="L146" t="n">
@@ -8074,10 +8195,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C147" t="n">
         <v>25.03</v>
@@ -8085,7 +8206,7 @@
       <c r="D147" t="n">
         <v>6</v>
       </c>
-      <c r="E147" s="7" t="n">
+      <c r="E147" s="13" t="n">
         <v>29887.1</v>
       </c>
       <c r="F147" t="n">
@@ -8103,7 +8224,7 @@
       <c r="J147" t="n">
         <v>1440</v>
       </c>
-      <c r="K147" s="8" t="n">
+      <c r="K147" s="14" t="n">
         <v>74.875</v>
       </c>
       <c r="L147" t="n">
@@ -8118,10 +8239,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C148" t="n">
         <v>20.66</v>
@@ -8129,7 +8250,7 @@
       <c r="D148" t="n">
         <v>2</v>
       </c>
-      <c r="E148" s="7" t="n">
+      <c r="E148" s="13" t="n">
         <v>33372.22</v>
       </c>
       <c r="F148" t="n">
@@ -8147,7 +8268,7 @@
       <c r="J148" t="n">
         <v>236</v>
       </c>
-      <c r="K148" s="8" t="n">
+      <c r="K148" s="14" t="n">
         <v>12.296</v>
       </c>
       <c r="L148" t="n">
@@ -8162,10 +8283,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C149" t="n">
         <v>25.53</v>
@@ -8173,7 +8294,7 @@
       <c r="D149" t="n">
         <v>7</v>
       </c>
-      <c r="E149" s="7" t="n">
+      <c r="E149" s="13" t="n">
         <v>26150</v>
       </c>
       <c r="F149" t="n">
@@ -8191,7 +8312,7 @@
       <c r="J149" t="n">
         <v>703</v>
       </c>
-      <c r="K149" s="8" t="n">
+      <c r="K149" s="14" t="n">
         <v>36.572</v>
       </c>
       <c r="L149" t="n">
@@ -8206,10 +8327,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C150" t="n">
         <v>50.96</v>
@@ -8217,7 +8338,7 @@
       <c r="D150" t="n">
         <v>10</v>
       </c>
-      <c r="E150" s="7" t="n">
+      <c r="E150" s="13" t="n">
         <v>35985</v>
       </c>
       <c r="F150" t="n">
@@ -8235,7 +8356,7 @@
       <c r="J150" t="n">
         <v>560</v>
       </c>
-      <c r="K150" s="8" t="n">
+      <c r="K150" s="14" t="n">
         <v>29.146</v>
       </c>
       <c r="L150" t="n">
@@ -8250,10 +8371,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C151" t="n">
         <v>28.07</v>
@@ -8261,7 +8382,7 @@
       <c r="D151" t="n">
         <v>9</v>
       </c>
-      <c r="E151" s="7" t="n">
+      <c r="E151" s="13" t="n">
         <v>22763.64</v>
       </c>
       <c r="F151" t="n">
@@ -8279,7 +8400,7 @@
       <c r="J151" t="n">
         <v>852</v>
       </c>
-      <c r="K151" s="8" t="n">
+      <c r="K151" s="14" t="n">
         <v>44.325</v>
       </c>
       <c r="L151" t="n">
@@ -8294,10 +8415,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B152" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C152" t="n">
         <v>22.43</v>
@@ -8305,7 +8426,7 @@
       <c r="D152" t="n">
         <v>4</v>
       </c>
-      <c r="E152" s="7" t="n">
+      <c r="E152" s="13" t="n">
         <v>28328.42</v>
       </c>
       <c r="F152" t="n">
@@ -8323,7 +8444,7 @@
       <c r="J152" t="n">
         <v>1157</v>
       </c>
-      <c r="K152" s="8" t="n">
+      <c r="K152" s="14" t="n">
         <v>60.16</v>
       </c>
       <c r="L152" t="n">
@@ -8338,10 +8459,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B153" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C153" t="n">
         <v>26.49</v>
@@ -8349,7 +8470,7 @@
       <c r="D153" t="n">
         <v>8</v>
       </c>
-      <c r="E153" s="7" t="n">
+      <c r="E153" s="13" t="n">
         <v>29625</v>
       </c>
       <c r="F153" t="n">
@@ -8367,7 +8488,7 @@
       <c r="J153" t="n">
         <v>551</v>
       </c>
-      <c r="K153" s="8" t="n">
+      <c r="K153" s="14" t="n">
         <v>28.626</v>
       </c>
       <c r="L153" t="n">
@@ -8381,1016 +8502,1016 @@
       </c>
     </row>
     <row r="154">
-      <c r="E154" s="7"/>
-      <c r="K154" s="8"/>
+      <c r="E154" s="13"/>
+      <c r="K154" s="14"/>
     </row>
     <row r="155">
-      <c r="E155" s="7"/>
-      <c r="K155" s="8"/>
+      <c r="E155" s="13"/>
+      <c r="K155" s="14"/>
     </row>
     <row r="156">
-      <c r="E156" s="7"/>
-      <c r="K156" s="8"/>
+      <c r="E156" s="13"/>
+      <c r="K156" s="14"/>
     </row>
     <row r="157">
-      <c r="E157" s="7"/>
-      <c r="K157" s="8"/>
+      <c r="E157" s="13"/>
+      <c r="K157" s="14"/>
     </row>
     <row r="158">
-      <c r="E158" s="7"/>
-      <c r="K158" s="8"/>
+      <c r="E158" s="13"/>
+      <c r="K158" s="14"/>
     </row>
     <row r="159">
-      <c r="E159" s="7"/>
-      <c r="K159" s="8"/>
+      <c r="E159" s="13"/>
+      <c r="K159" s="14"/>
     </row>
     <row r="160">
-      <c r="E160" s="7"/>
-      <c r="K160" s="8"/>
+      <c r="E160" s="13"/>
+      <c r="K160" s="14"/>
     </row>
     <row r="161">
-      <c r="E161" s="7"/>
-      <c r="K161" s="8"/>
+      <c r="E161" s="13"/>
+      <c r="K161" s="14"/>
     </row>
     <row r="162">
-      <c r="E162" s="7"/>
-      <c r="K162" s="8"/>
+      <c r="E162" s="13"/>
+      <c r="K162" s="14"/>
     </row>
     <row r="163">
-      <c r="E163" s="7"/>
-      <c r="K163" s="8"/>
+      <c r="E163" s="13"/>
+      <c r="K163" s="14"/>
     </row>
     <row r="164">
-      <c r="E164" s="7"/>
-      <c r="K164" s="8"/>
+      <c r="E164" s="13"/>
+      <c r="K164" s="14"/>
     </row>
     <row r="165">
-      <c r="E165" s="7"/>
-      <c r="K165" s="8"/>
+      <c r="E165" s="13"/>
+      <c r="K165" s="14"/>
     </row>
     <row r="166">
-      <c r="E166" s="7"/>
-      <c r="K166" s="8"/>
+      <c r="E166" s="13"/>
+      <c r="K166" s="14"/>
     </row>
     <row r="167">
-      <c r="E167" s="7"/>
-      <c r="K167" s="8"/>
+      <c r="E167" s="13"/>
+      <c r="K167" s="14"/>
     </row>
     <row r="168">
-      <c r="E168" s="7"/>
-      <c r="K168" s="8"/>
+      <c r="E168" s="13"/>
+      <c r="K168" s="14"/>
     </row>
     <row r="169">
-      <c r="E169" s="7"/>
-      <c r="K169" s="8"/>
+      <c r="E169" s="13"/>
+      <c r="K169" s="14"/>
     </row>
     <row r="170">
-      <c r="E170" s="7"/>
-      <c r="K170" s="8"/>
+      <c r="E170" s="13"/>
+      <c r="K170" s="14"/>
     </row>
     <row r="171">
-      <c r="E171" s="7"/>
-      <c r="K171" s="8"/>
+      <c r="E171" s="13"/>
+      <c r="K171" s="14"/>
     </row>
     <row r="172">
-      <c r="E172" s="7"/>
-      <c r="K172" s="8"/>
+      <c r="E172" s="13"/>
+      <c r="K172" s="14"/>
     </row>
     <row r="173">
-      <c r="E173" s="7"/>
-      <c r="K173" s="8"/>
+      <c r="E173" s="13"/>
+      <c r="K173" s="14"/>
     </row>
     <row r="174">
-      <c r="E174" s="7"/>
-      <c r="K174" s="8"/>
+      <c r="E174" s="13"/>
+      <c r="K174" s="14"/>
     </row>
     <row r="175">
-      <c r="E175" s="7"/>
-      <c r="K175" s="8"/>
+      <c r="E175" s="13"/>
+      <c r="K175" s="14"/>
     </row>
     <row r="176">
-      <c r="E176" s="7"/>
-      <c r="K176" s="8"/>
+      <c r="E176" s="13"/>
+      <c r="K176" s="14"/>
     </row>
     <row r="177">
-      <c r="E177" s="7"/>
-      <c r="K177" s="8"/>
+      <c r="E177" s="13"/>
+      <c r="K177" s="14"/>
     </row>
     <row r="178">
-      <c r="E178" s="7"/>
-      <c r="K178" s="8"/>
+      <c r="E178" s="13"/>
+      <c r="K178" s="14"/>
     </row>
     <row r="179">
-      <c r="E179" s="7"/>
-      <c r="K179" s="8"/>
+      <c r="E179" s="13"/>
+      <c r="K179" s="14"/>
     </row>
     <row r="180">
-      <c r="E180" s="7"/>
-      <c r="K180" s="8"/>
+      <c r="E180" s="13"/>
+      <c r="K180" s="14"/>
     </row>
     <row r="181">
-      <c r="E181" s="7"/>
-      <c r="K181" s="8"/>
+      <c r="E181" s="13"/>
+      <c r="K181" s="14"/>
     </row>
     <row r="182">
-      <c r="E182" s="7"/>
-      <c r="K182" s="8"/>
+      <c r="E182" s="13"/>
+      <c r="K182" s="14"/>
     </row>
     <row r="183">
-      <c r="E183" s="7"/>
-      <c r="K183" s="8"/>
+      <c r="E183" s="13"/>
+      <c r="K183" s="14"/>
     </row>
     <row r="184">
-      <c r="E184" s="7"/>
-      <c r="K184" s="8"/>
+      <c r="E184" s="13"/>
+      <c r="K184" s="14"/>
     </row>
     <row r="185">
-      <c r="E185" s="7"/>
-      <c r="K185" s="8"/>
+      <c r="E185" s="13"/>
+      <c r="K185" s="14"/>
     </row>
     <row r="186">
-      <c r="E186" s="7"/>
-      <c r="K186" s="8"/>
+      <c r="E186" s="13"/>
+      <c r="K186" s="14"/>
     </row>
     <row r="187">
-      <c r="E187" s="7"/>
-      <c r="K187" s="8"/>
+      <c r="E187" s="13"/>
+      <c r="K187" s="14"/>
     </row>
     <row r="188">
-      <c r="E188" s="7"/>
-      <c r="K188" s="8"/>
+      <c r="E188" s="13"/>
+      <c r="K188" s="14"/>
     </row>
     <row r="189">
-      <c r="E189" s="7"/>
-      <c r="K189" s="8"/>
+      <c r="E189" s="13"/>
+      <c r="K189" s="14"/>
     </row>
     <row r="190">
-      <c r="E190" s="7"/>
-      <c r="K190" s="8"/>
+      <c r="E190" s="13"/>
+      <c r="K190" s="14"/>
     </row>
     <row r="191">
-      <c r="E191" s="7"/>
-      <c r="K191" s="8"/>
+      <c r="E191" s="13"/>
+      <c r="K191" s="14"/>
     </row>
     <row r="192">
-      <c r="E192" s="7"/>
-      <c r="K192" s="8"/>
+      <c r="E192" s="13"/>
+      <c r="K192" s="14"/>
     </row>
     <row r="193">
-      <c r="E193" s="7"/>
-      <c r="K193" s="8"/>
+      <c r="E193" s="13"/>
+      <c r="K193" s="14"/>
     </row>
     <row r="194">
-      <c r="E194" s="7"/>
-      <c r="K194" s="8"/>
+      <c r="E194" s="13"/>
+      <c r="K194" s="14"/>
     </row>
     <row r="195">
-      <c r="E195" s="7"/>
-      <c r="K195" s="8"/>
+      <c r="E195" s="13"/>
+      <c r="K195" s="14"/>
     </row>
     <row r="196">
-      <c r="E196" s="7"/>
-      <c r="K196" s="8"/>
+      <c r="E196" s="13"/>
+      <c r="K196" s="14"/>
     </row>
     <row r="197">
-      <c r="E197" s="7"/>
-      <c r="K197" s="8"/>
+      <c r="E197" s="13"/>
+      <c r="K197" s="14"/>
     </row>
     <row r="198">
-      <c r="E198" s="7"/>
-      <c r="K198" s="8"/>
+      <c r="E198" s="13"/>
+      <c r="K198" s="14"/>
     </row>
     <row r="199">
-      <c r="E199" s="7"/>
-      <c r="K199" s="8"/>
+      <c r="E199" s="13"/>
+      <c r="K199" s="14"/>
     </row>
     <row r="200">
-      <c r="E200" s="7"/>
-      <c r="K200" s="8"/>
+      <c r="E200" s="13"/>
+      <c r="K200" s="14"/>
     </row>
     <row r="201">
-      <c r="E201" s="7"/>
-      <c r="K201" s="8"/>
+      <c r="E201" s="13"/>
+      <c r="K201" s="14"/>
     </row>
     <row r="202">
-      <c r="E202" s="7"/>
-      <c r="K202" s="8"/>
+      <c r="E202" s="13"/>
+      <c r="K202" s="14"/>
     </row>
     <row r="203">
-      <c r="E203" s="7"/>
-      <c r="K203" s="8"/>
+      <c r="E203" s="13"/>
+      <c r="K203" s="14"/>
     </row>
     <row r="204">
-      <c r="E204" s="7"/>
-      <c r="K204" s="8"/>
+      <c r="E204" s="13"/>
+      <c r="K204" s="14"/>
     </row>
     <row r="205">
-      <c r="E205" s="7"/>
-      <c r="K205" s="8"/>
+      <c r="E205" s="13"/>
+      <c r="K205" s="14"/>
     </row>
     <row r="206">
-      <c r="E206" s="7"/>
-      <c r="K206" s="8"/>
+      <c r="E206" s="13"/>
+      <c r="K206" s="14"/>
     </row>
     <row r="207">
-      <c r="E207" s="7"/>
-      <c r="K207" s="8"/>
+      <c r="E207" s="13"/>
+      <c r="K207" s="14"/>
     </row>
     <row r="208">
-      <c r="E208" s="7"/>
-      <c r="K208" s="8"/>
+      <c r="E208" s="13"/>
+      <c r="K208" s="14"/>
     </row>
     <row r="209">
-      <c r="E209" s="7"/>
-      <c r="K209" s="8"/>
+      <c r="E209" s="13"/>
+      <c r="K209" s="14"/>
     </row>
     <row r="210">
-      <c r="E210" s="7"/>
-      <c r="K210" s="8"/>
+      <c r="E210" s="13"/>
+      <c r="K210" s="14"/>
     </row>
     <row r="211">
-      <c r="E211" s="7"/>
-      <c r="K211" s="8"/>
+      <c r="E211" s="13"/>
+      <c r="K211" s="14"/>
     </row>
     <row r="212">
-      <c r="E212" s="7"/>
-      <c r="K212" s="8"/>
+      <c r="E212" s="13"/>
+      <c r="K212" s="14"/>
     </row>
     <row r="213">
-      <c r="E213" s="7"/>
-      <c r="K213" s="8"/>
+      <c r="E213" s="13"/>
+      <c r="K213" s="14"/>
     </row>
     <row r="214">
-      <c r="E214" s="7"/>
-      <c r="K214" s="8"/>
+      <c r="E214" s="13"/>
+      <c r="K214" s="14"/>
     </row>
     <row r="215">
-      <c r="E215" s="7"/>
-      <c r="K215" s="8"/>
+      <c r="E215" s="13"/>
+      <c r="K215" s="14"/>
     </row>
     <row r="216">
-      <c r="E216" s="7"/>
-      <c r="K216" s="8"/>
+      <c r="E216" s="13"/>
+      <c r="K216" s="14"/>
     </row>
     <row r="217">
-      <c r="E217" s="7"/>
-      <c r="K217" s="8"/>
+      <c r="E217" s="13"/>
+      <c r="K217" s="14"/>
     </row>
     <row r="218">
-      <c r="E218" s="7"/>
-      <c r="K218" s="8"/>
+      <c r="E218" s="13"/>
+      <c r="K218" s="14"/>
     </row>
     <row r="219">
-      <c r="E219" s="7"/>
-      <c r="K219" s="8"/>
+      <c r="E219" s="13"/>
+      <c r="K219" s="14"/>
     </row>
     <row r="220">
-      <c r="E220" s="7"/>
-      <c r="K220" s="8"/>
+      <c r="E220" s="13"/>
+      <c r="K220" s="14"/>
     </row>
     <row r="221">
-      <c r="E221" s="7"/>
-      <c r="K221" s="8"/>
+      <c r="E221" s="13"/>
+      <c r="K221" s="14"/>
     </row>
     <row r="222">
-      <c r="E222" s="7"/>
-      <c r="K222" s="8"/>
+      <c r="E222" s="13"/>
+      <c r="K222" s="14"/>
     </row>
     <row r="223">
-      <c r="E223" s="7"/>
-      <c r="K223" s="8"/>
+      <c r="E223" s="13"/>
+      <c r="K223" s="14"/>
     </row>
     <row r="224">
-      <c r="E224" s="7"/>
-      <c r="K224" s="8"/>
+      <c r="E224" s="13"/>
+      <c r="K224" s="14"/>
     </row>
     <row r="225">
-      <c r="E225" s="7"/>
-      <c r="K225" s="8"/>
+      <c r="E225" s="13"/>
+      <c r="K225" s="14"/>
     </row>
     <row r="226">
-      <c r="E226" s="7"/>
-      <c r="K226" s="8"/>
+      <c r="E226" s="13"/>
+      <c r="K226" s="14"/>
     </row>
     <row r="227">
-      <c r="E227" s="7"/>
-      <c r="K227" s="8"/>
+      <c r="E227" s="13"/>
+      <c r="K227" s="14"/>
     </row>
     <row r="228">
-      <c r="E228" s="7"/>
-      <c r="K228" s="8"/>
+      <c r="E228" s="13"/>
+      <c r="K228" s="14"/>
     </row>
     <row r="229">
-      <c r="E229" s="7"/>
-      <c r="K229" s="8"/>
+      <c r="E229" s="13"/>
+      <c r="K229" s="14"/>
     </row>
     <row r="230">
-      <c r="E230" s="7"/>
-      <c r="K230" s="8"/>
+      <c r="E230" s="13"/>
+      <c r="K230" s="14"/>
     </row>
     <row r="231">
-      <c r="E231" s="7"/>
-      <c r="K231" s="8"/>
+      <c r="E231" s="13"/>
+      <c r="K231" s="14"/>
     </row>
     <row r="232">
-      <c r="E232" s="7"/>
-      <c r="K232" s="8"/>
+      <c r="E232" s="13"/>
+      <c r="K232" s="14"/>
     </row>
     <row r="233">
-      <c r="E233" s="7"/>
+      <c r="E233" s="13"/>
     </row>
     <row r="234">
-      <c r="E234" s="7"/>
+      <c r="E234" s="13"/>
     </row>
     <row r="235">
-      <c r="E235" s="7"/>
+      <c r="E235" s="13"/>
     </row>
     <row r="236">
-      <c r="E236" s="7"/>
+      <c r="E236" s="13"/>
     </row>
     <row r="237">
-      <c r="E237" s="7"/>
+      <c r="E237" s="13"/>
     </row>
     <row r="238">
-      <c r="E238" s="7"/>
+      <c r="E238" s="13"/>
     </row>
     <row r="239">
-      <c r="E239" s="7"/>
+      <c r="E239" s="13"/>
     </row>
     <row r="240">
-      <c r="E240" s="7"/>
+      <c r="E240" s="13"/>
     </row>
     <row r="241">
-      <c r="E241" s="6"/>
+      <c r="E241" s="12"/>
     </row>
     <row r="242">
-      <c r="E242" s="6"/>
+      <c r="E242" s="12"/>
     </row>
     <row r="243">
-      <c r="E243" s="6"/>
+      <c r="E243" s="12"/>
     </row>
     <row r="244">
-      <c r="E244" s="6"/>
+      <c r="E244" s="12"/>
     </row>
     <row r="245">
-      <c r="E245" s="6"/>
+      <c r="E245" s="12"/>
     </row>
     <row r="246">
-      <c r="E246" s="6"/>
+      <c r="E246" s="12"/>
     </row>
     <row r="247">
-      <c r="E247" s="6"/>
+      <c r="E247" s="12"/>
     </row>
     <row r="248">
-      <c r="E248" s="6"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249">
-      <c r="E249" s="6"/>
+      <c r="E249" s="12"/>
     </row>
     <row r="250">
-      <c r="E250" s="6"/>
+      <c r="E250" s="12"/>
     </row>
     <row r="251">
-      <c r="E251" s="6"/>
+      <c r="E251" s="12"/>
     </row>
     <row r="252">
-      <c r="E252" s="6"/>
+      <c r="E252" s="12"/>
     </row>
     <row r="253">
-      <c r="E253" s="6"/>
+      <c r="E253" s="12"/>
     </row>
     <row r="254">
-      <c r="E254" s="6"/>
+      <c r="E254" s="12"/>
     </row>
     <row r="255">
-      <c r="E255" s="6"/>
+      <c r="E255" s="12"/>
     </row>
     <row r="256">
-      <c r="E256" s="6"/>
+      <c r="E256" s="12"/>
     </row>
     <row r="257">
-      <c r="E257" s="6"/>
+      <c r="E257" s="12"/>
     </row>
     <row r="258">
-      <c r="E258" s="6"/>
+      <c r="E258" s="12"/>
     </row>
     <row r="259">
-      <c r="E259" s="6"/>
+      <c r="E259" s="12"/>
     </row>
     <row r="260">
-      <c r="E260" s="6"/>
+      <c r="E260" s="12"/>
     </row>
     <row r="261">
-      <c r="E261" s="6"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262">
-      <c r="E262" s="6"/>
+      <c r="E262" s="12"/>
     </row>
     <row r="263">
-      <c r="E263" s="6"/>
+      <c r="E263" s="12"/>
     </row>
     <row r="264">
-      <c r="E264" s="6"/>
+      <c r="E264" s="12"/>
     </row>
     <row r="265">
-      <c r="E265" s="6"/>
+      <c r="E265" s="12"/>
     </row>
     <row r="266">
-      <c r="E266" s="6"/>
+      <c r="E266" s="12"/>
     </row>
     <row r="267">
-      <c r="E267" s="6"/>
+      <c r="E267" s="12"/>
     </row>
     <row r="268">
-      <c r="E268" s="6"/>
+      <c r="E268" s="12"/>
     </row>
     <row r="269">
-      <c r="E269" s="6"/>
+      <c r="E269" s="12"/>
     </row>
     <row r="270">
-      <c r="E270" s="6"/>
+      <c r="E270" s="12"/>
     </row>
     <row r="271">
-      <c r="E271" s="6"/>
+      <c r="E271" s="12"/>
     </row>
     <row r="272">
-      <c r="E272" s="6"/>
+      <c r="E272" s="12"/>
     </row>
     <row r="273">
-      <c r="E273" s="6"/>
+      <c r="E273" s="12"/>
     </row>
     <row r="274">
-      <c r="E274" s="6"/>
+      <c r="E274" s="12"/>
     </row>
     <row r="275">
-      <c r="E275" s="6"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276">
-      <c r="E276" s="6"/>
+      <c r="E276" s="12"/>
     </row>
     <row r="277">
-      <c r="E277" s="6"/>
+      <c r="E277" s="12"/>
     </row>
     <row r="278">
-      <c r="E278" s="6"/>
+      <c r="E278" s="12"/>
     </row>
     <row r="279">
-      <c r="E279" s="6"/>
+      <c r="E279" s="12"/>
     </row>
     <row r="280">
-      <c r="E280" s="6"/>
+      <c r="E280" s="12"/>
     </row>
     <row r="281">
-      <c r="E281" s="6"/>
+      <c r="E281" s="12"/>
     </row>
     <row r="282">
-      <c r="E282" s="6"/>
+      <c r="E282" s="12"/>
     </row>
     <row r="283">
-      <c r="E283" s="6"/>
+      <c r="E283" s="12"/>
     </row>
     <row r="284">
-      <c r="E284" s="6"/>
+      <c r="E284" s="12"/>
     </row>
     <row r="285">
-      <c r="E285" s="6"/>
+      <c r="E285" s="12"/>
     </row>
     <row r="286">
-      <c r="E286" s="6"/>
+      <c r="E286" s="12"/>
     </row>
     <row r="287">
-      <c r="E287" s="6"/>
+      <c r="E287" s="12"/>
     </row>
     <row r="288">
-      <c r="E288" s="6"/>
+      <c r="E288" s="12"/>
     </row>
     <row r="289">
-      <c r="E289" s="6"/>
+      <c r="E289" s="12"/>
     </row>
     <row r="290">
-      <c r="E290" s="6"/>
+      <c r="E290" s="12"/>
     </row>
     <row r="291">
-      <c r="E291" s="6"/>
+      <c r="E291" s="12"/>
     </row>
     <row r="292">
-      <c r="E292" s="6"/>
+      <c r="E292" s="12"/>
     </row>
     <row r="293">
-      <c r="E293" s="6"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294">
-      <c r="E294" s="6"/>
+      <c r="E294" s="12"/>
     </row>
     <row r="295">
-      <c r="E295" s="6"/>
+      <c r="E295" s="12"/>
     </row>
     <row r="296">
-      <c r="E296" s="6"/>
+      <c r="E296" s="12"/>
     </row>
     <row r="297">
-      <c r="E297" s="6"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="298">
-      <c r="E298" s="6"/>
+      <c r="E298" s="12"/>
     </row>
     <row r="299">
-      <c r="E299" s="6"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300">
-      <c r="E300" s="6"/>
+      <c r="E300" s="12"/>
     </row>
     <row r="301">
-      <c r="E301" s="6"/>
+      <c r="E301" s="12"/>
     </row>
     <row r="302">
-      <c r="E302" s="6"/>
+      <c r="E302" s="12"/>
     </row>
     <row r="303">
-      <c r="E303" s="6"/>
+      <c r="E303" s="12"/>
     </row>
     <row r="304">
-      <c r="E304" s="6"/>
+      <c r="E304" s="12"/>
     </row>
     <row r="305">
-      <c r="E305" s="6"/>
+      <c r="E305" s="12"/>
     </row>
     <row r="306">
-      <c r="E306" s="6"/>
+      <c r="E306" s="12"/>
     </row>
     <row r="307">
-      <c r="E307" s="6"/>
+      <c r="E307" s="12"/>
     </row>
     <row r="308">
-      <c r="E308" s="6"/>
+      <c r="E308" s="12"/>
     </row>
     <row r="309">
-      <c r="E309" s="6"/>
+      <c r="E309" s="12"/>
     </row>
     <row r="310">
-      <c r="E310" s="6"/>
+      <c r="E310" s="12"/>
     </row>
     <row r="311">
-      <c r="E311" s="6"/>
+      <c r="E311" s="12"/>
     </row>
     <row r="312">
-      <c r="E312" s="6"/>
+      <c r="E312" s="12"/>
     </row>
     <row r="313">
-      <c r="E313" s="6"/>
+      <c r="E313" s="12"/>
     </row>
     <row r="314">
-      <c r="E314" s="6"/>
+      <c r="E314" s="12"/>
     </row>
     <row r="315">
-      <c r="E315" s="6"/>
+      <c r="E315" s="12"/>
     </row>
     <row r="316">
-      <c r="E316" s="6"/>
+      <c r="E316" s="12"/>
     </row>
     <row r="317">
-      <c r="E317" s="6"/>
+      <c r="E317" s="12"/>
     </row>
     <row r="318">
-      <c r="E318" s="6"/>
+      <c r="E318" s="12"/>
     </row>
     <row r="319">
-      <c r="E319" s="6"/>
+      <c r="E319" s="12"/>
     </row>
     <row r="320">
-      <c r="E320" s="6"/>
+      <c r="E320" s="12"/>
     </row>
     <row r="321">
-      <c r="E321" s="6"/>
+      <c r="E321" s="12"/>
     </row>
     <row r="322">
-      <c r="E322" s="6"/>
+      <c r="E322" s="12"/>
     </row>
     <row r="323">
-      <c r="E323" s="6"/>
+      <c r="E323" s="12"/>
     </row>
     <row r="324">
-      <c r="E324" s="6"/>
+      <c r="E324" s="12"/>
     </row>
     <row r="325">
-      <c r="E325" s="6"/>
+      <c r="E325" s="12"/>
     </row>
     <row r="326">
-      <c r="E326" s="6"/>
+      <c r="E326" s="12"/>
     </row>
     <row r="327">
-      <c r="E327" s="6"/>
+      <c r="E327" s="12"/>
     </row>
     <row r="328">
-      <c r="E328" s="6"/>
+      <c r="E328" s="12"/>
     </row>
     <row r="329">
-      <c r="E329" s="6"/>
+      <c r="E329" s="12"/>
     </row>
     <row r="330">
-      <c r="E330" s="6"/>
+      <c r="E330" s="12"/>
     </row>
     <row r="331">
-      <c r="E331" s="6"/>
+      <c r="E331" s="12"/>
     </row>
     <row r="332">
-      <c r="E332" s="6"/>
+      <c r="E332" s="12"/>
     </row>
     <row r="333">
-      <c r="E333" s="6"/>
+      <c r="E333" s="12"/>
     </row>
     <row r="334">
-      <c r="E334" s="6"/>
+      <c r="E334" s="12"/>
     </row>
     <row r="335">
-      <c r="E335" s="6"/>
+      <c r="E335" s="12"/>
     </row>
     <row r="336">
-      <c r="E336" s="6"/>
+      <c r="E336" s="12"/>
     </row>
     <row r="337">
-      <c r="E337" s="6"/>
+      <c r="E337" s="12"/>
     </row>
     <row r="338">
-      <c r="E338" s="6"/>
+      <c r="E338" s="12"/>
     </row>
     <row r="339">
-      <c r="E339" s="6"/>
+      <c r="E339" s="12"/>
     </row>
     <row r="340">
-      <c r="E340" s="6"/>
+      <c r="E340" s="12"/>
     </row>
     <row r="341">
-      <c r="E341" s="6"/>
+      <c r="E341" s="12"/>
     </row>
     <row r="342">
-      <c r="E342" s="6"/>
+      <c r="E342" s="12"/>
     </row>
     <row r="343">
-      <c r="E343" s="6"/>
+      <c r="E343" s="12"/>
     </row>
     <row r="344">
-      <c r="E344" s="6"/>
+      <c r="E344" s="12"/>
     </row>
     <row r="345">
-      <c r="E345" s="6"/>
+      <c r="E345" s="12"/>
     </row>
     <row r="346">
-      <c r="E346" s="6"/>
+      <c r="E346" s="12"/>
     </row>
     <row r="347">
-      <c r="E347" s="6"/>
+      <c r="E347" s="12"/>
     </row>
     <row r="348">
-      <c r="E348" s="6"/>
+      <c r="E348" s="12"/>
     </row>
     <row r="349">
-      <c r="E349" s="6"/>
+      <c r="E349" s="12"/>
     </row>
     <row r="350">
-      <c r="E350" s="6"/>
+      <c r="E350" s="12"/>
     </row>
     <row r="351">
-      <c r="E351" s="6"/>
+      <c r="E351" s="12"/>
     </row>
     <row r="352">
-      <c r="E352" s="6"/>
+      <c r="E352" s="12"/>
     </row>
     <row r="353">
-      <c r="E353" s="6"/>
+      <c r="E353" s="12"/>
     </row>
     <row r="354">
-      <c r="E354" s="6"/>
+      <c r="E354" s="12"/>
     </row>
     <row r="355">
-      <c r="E355" s="6"/>
+      <c r="E355" s="12"/>
     </row>
     <row r="356">
-      <c r="E356" s="6"/>
+      <c r="E356" s="12"/>
     </row>
     <row r="357">
-      <c r="E357" s="6"/>
+      <c r="E357" s="12"/>
     </row>
     <row r="358">
-      <c r="E358" s="6"/>
+      <c r="E358" s="12"/>
     </row>
     <row r="359">
-      <c r="E359" s="6"/>
+      <c r="E359" s="12"/>
     </row>
     <row r="360">
-      <c r="E360" s="6"/>
+      <c r="E360" s="12"/>
     </row>
     <row r="361">
-      <c r="E361" s="6"/>
+      <c r="E361" s="12"/>
     </row>
     <row r="362">
-      <c r="E362" s="6"/>
+      <c r="E362" s="12"/>
     </row>
     <row r="363">
-      <c r="E363" s="6"/>
+      <c r="E363" s="12"/>
     </row>
     <row r="364">
-      <c r="E364" s="6"/>
+      <c r="E364" s="12"/>
     </row>
     <row r="365">
-      <c r="E365" s="6"/>
+      <c r="E365" s="12"/>
     </row>
     <row r="366">
-      <c r="E366" s="6"/>
+      <c r="E366" s="12"/>
     </row>
     <row r="367">
-      <c r="E367" s="6"/>
+      <c r="E367" s="12"/>
     </row>
     <row r="368">
-      <c r="E368" s="6"/>
+      <c r="E368" s="12"/>
     </row>
     <row r="369">
-      <c r="E369" s="6"/>
+      <c r="E369" s="12"/>
     </row>
     <row r="370">
-      <c r="E370" s="6"/>
+      <c r="E370" s="12"/>
     </row>
     <row r="371">
-      <c r="E371" s="6"/>
+      <c r="E371" s="12"/>
     </row>
     <row r="372">
-      <c r="E372" s="6"/>
+      <c r="E372" s="12"/>
     </row>
     <row r="373">
-      <c r="E373" s="6"/>
+      <c r="E373" s="12"/>
     </row>
     <row r="374">
-      <c r="E374" s="6"/>
+      <c r="E374" s="12"/>
     </row>
     <row r="375">
-      <c r="E375" s="6"/>
+      <c r="E375" s="12"/>
     </row>
     <row r="376">
-      <c r="E376" s="6"/>
+      <c r="E376" s="12"/>
     </row>
     <row r="377">
-      <c r="E377" s="6"/>
+      <c r="E377" s="12"/>
     </row>
     <row r="378">
-      <c r="E378" s="6"/>
+      <c r="E378" s="12"/>
     </row>
     <row r="379">
-      <c r="E379" s="6"/>
+      <c r="E379" s="12"/>
     </row>
     <row r="380">
-      <c r="E380" s="6"/>
+      <c r="E380" s="12"/>
     </row>
     <row r="381">
-      <c r="E381" s="6"/>
+      <c r="E381" s="12"/>
     </row>
     <row r="382">
-      <c r="E382" s="6"/>
+      <c r="E382" s="12"/>
     </row>
     <row r="383">
-      <c r="E383" s="6"/>
+      <c r="E383" s="12"/>
     </row>
     <row r="384">
-      <c r="E384" s="6"/>
+      <c r="E384" s="12"/>
     </row>
     <row r="385">
-      <c r="E385" s="6"/>
+      <c r="E385" s="12"/>
     </row>
     <row r="386">
-      <c r="E386" s="6"/>
+      <c r="E386" s="12"/>
     </row>
     <row r="387">
-      <c r="E387" s="6"/>
+      <c r="E387" s="12"/>
     </row>
     <row r="388">
-      <c r="E388" s="6"/>
+      <c r="E388" s="12"/>
     </row>
     <row r="389">
-      <c r="E389" s="6"/>
+      <c r="E389" s="12"/>
     </row>
     <row r="390">
-      <c r="E390" s="6"/>
+      <c r="E390" s="12"/>
     </row>
     <row r="391">
-      <c r="E391" s="6"/>
+      <c r="E391" s="12"/>
     </row>
     <row r="392">
-      <c r="E392" s="6"/>
+      <c r="E392" s="12"/>
     </row>
     <row r="393">
-      <c r="E393" s="6"/>
+      <c r="E393" s="12"/>
     </row>
     <row r="394">
-      <c r="E394" s="6"/>
+      <c r="E394" s="12"/>
     </row>
     <row r="395">
-      <c r="E395" s="6"/>
+      <c r="E395" s="12"/>
     </row>
     <row r="396">
-      <c r="E396" s="6"/>
+      <c r="E396" s="12"/>
     </row>
     <row r="397">
-      <c r="E397" s="6"/>
+      <c r="E397" s="12"/>
     </row>
     <row r="398">
-      <c r="E398" s="6"/>
+      <c r="E398" s="12"/>
     </row>
     <row r="399">
-      <c r="E399" s="6"/>
+      <c r="E399" s="12"/>
     </row>
     <row r="400">
-      <c r="E400" s="6"/>
+      <c r="E400" s="12"/>
     </row>
     <row r="401">
-      <c r="E401" s="6"/>
+      <c r="E401" s="12"/>
     </row>
     <row r="402">
-      <c r="E402" s="6"/>
+      <c r="E402" s="12"/>
     </row>
     <row r="403">
-      <c r="E403" s="6"/>
+      <c r="E403" s="12"/>
     </row>
     <row r="404">
-      <c r="E404" s="6"/>
+      <c r="E404" s="12"/>
     </row>
     <row r="405">
-      <c r="E405" s="6"/>
+      <c r="E405" s="12"/>
     </row>
     <row r="406">
-      <c r="E406" s="6"/>
+      <c r="E406" s="12"/>
     </row>
     <row r="407">
-      <c r="E407" s="6"/>
+      <c r="E407" s="12"/>
     </row>
     <row r="408">
-      <c r="E408" s="6"/>
+      <c r="E408" s="12"/>
     </row>
     <row r="409">
-      <c r="E409" s="6"/>
+      <c r="E409" s="12"/>
     </row>
     <row r="410">
-      <c r="E410" s="6"/>
+      <c r="E410" s="12"/>
     </row>
     <row r="411">
-      <c r="E411" s="6"/>
+      <c r="E411" s="12"/>
     </row>
     <row r="412">
-      <c r="E412" s="6"/>
+      <c r="E412" s="12"/>
     </row>
     <row r="413">
-      <c r="E413" s="6"/>
+      <c r="E413" s="12"/>
     </row>
     <row r="414">
-      <c r="E414" s="6"/>
+      <c r="E414" s="12"/>
     </row>
     <row r="415">
-      <c r="E415" s="6"/>
+      <c r="E415" s="12"/>
     </row>
     <row r="416">
-      <c r="E416" s="6"/>
+      <c r="E416" s="12"/>
     </row>
     <row r="417">
-      <c r="E417" s="6"/>
+      <c r="E417" s="12"/>
     </row>
     <row r="418">
-      <c r="E418" s="6"/>
+      <c r="E418" s="12"/>
     </row>
     <row r="419">
-      <c r="E419" s="6"/>
+      <c r="E419" s="12"/>
     </row>
     <row r="420">
-      <c r="E420" s="6"/>
+      <c r="E420" s="12"/>
     </row>
     <row r="421">
-      <c r="E421" s="6"/>
+      <c r="E421" s="12"/>
     </row>
     <row r="422">
-      <c r="E422" s="6"/>
+      <c r="E422" s="12"/>
     </row>
     <row r="423">
-      <c r="E423" s="6"/>
+      <c r="E423" s="12"/>
     </row>
     <row r="424">
-      <c r="E424" s="6"/>
+      <c r="E424" s="12"/>
     </row>
     <row r="425">
-      <c r="E425" s="6"/>
+      <c r="E425" s="12"/>
     </row>
     <row r="426">
-      <c r="E426" s="6"/>
+      <c r="E426" s="12"/>
     </row>
     <row r="427">
-      <c r="E427" s="6"/>
+      <c r="E427" s="12"/>
     </row>
     <row r="428">
-      <c r="E428" s="6"/>
+      <c r="E428" s="12"/>
     </row>
     <row r="429">
-      <c r="E429" s="6"/>
+      <c r="E429" s="12"/>
     </row>
     <row r="430">
-      <c r="E430" s="6"/>
+      <c r="E430" s="12"/>
     </row>
     <row r="431">
-      <c r="E431" s="6"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432">
-      <c r="E432" s="6"/>
+      <c r="E432" s="12"/>
     </row>
     <row r="433">
-      <c r="E433" s="6"/>
+      <c r="E433" s="12"/>
     </row>
     <row r="434">
-      <c r="E434" s="6"/>
+      <c r="E434" s="12"/>
     </row>
     <row r="435">
-      <c r="E435" s="6"/>
+      <c r="E435" s="12"/>
     </row>
     <row r="436">
-      <c r="E436" s="6"/>
+      <c r="E436" s="12"/>
     </row>
     <row r="437">
-      <c r="E437" s="6"/>
+      <c r="E437" s="12"/>
     </row>
     <row r="438">
-      <c r="E438" s="6"/>
+      <c r="E438" s="12"/>
     </row>
     <row r="439">
-      <c r="E439" s="6"/>
+      <c r="E439" s="12"/>
     </row>
     <row r="440">
-      <c r="E440" s="6"/>
+      <c r="E440" s="12"/>
     </row>
     <row r="441">
-      <c r="E441" s="6"/>
+      <c r="E441" s="12"/>
     </row>
     <row r="442">
-      <c r="E442" s="6"/>
+      <c r="E442" s="12"/>
     </row>
     <row r="443">
-      <c r="E443" s="6"/>
+      <c r="E443" s="12"/>
     </row>
     <row r="444">
-      <c r="E444" s="6"/>
+      <c r="E444" s="12"/>
     </row>
     <row r="445">
-      <c r="E445" s="6"/>
+      <c r="E445" s="12"/>
     </row>
     <row r="446">
-      <c r="E446" s="6"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447">
-      <c r="E447" s="6"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448">
-      <c r="E448" s="6"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449">
-      <c r="E449" s="6"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450">
-      <c r="E450" s="6"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451">
-      <c r="E451" s="6"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452">
-      <c r="E452" s="6"/>
+      <c r="E452" s="12"/>
     </row>
     <row r="453">
-      <c r="E453" s="6"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454">
-      <c r="E454" s="6"/>
+      <c r="E454" s="12"/>
     </row>
     <row r="455">
-      <c r="E455" s="6"/>
+      <c r="E455" s="12"/>
     </row>
     <row r="456">
-      <c r="E456" s="6"/>
+      <c r="E456" s="12"/>
     </row>
     <row r="457">
-      <c r="E457" s="6"/>
+      <c r="E457" s="12"/>
     </row>
     <row r="458">
-      <c r="E458" s="6"/>
+      <c r="E458" s="12"/>
     </row>
     <row r="459">
-      <c r="E459" s="6"/>
+      <c r="E459" s="12"/>
     </row>
     <row r="460">
-      <c r="E460" s="6"/>
+      <c r="E460" s="12"/>
     </row>
     <row r="461">
-      <c r="E461" s="6"/>
+      <c r="E461" s="12"/>
     </row>
     <row r="462">
-      <c r="E462" s="6"/>
+      <c r="E462" s="12"/>
     </row>
     <row r="463">
-      <c r="E463" s="6"/>
+      <c r="E463" s="12"/>
     </row>
     <row r="464">
-      <c r="E464" s="6"/>
+      <c r="E464" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9422,16 +9543,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9562,30 +9683,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B3" t="n">
         <v>24.63</v>
@@ -9593,16 +9714,16 @@
       <c r="C3" t="n">
         <v>4.59</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="24" t="n">
         <v>720.37</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="E3" s="24" t="n">
         <v>669.944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="B4" t="n">
         <v>23.67</v>
@@ -9610,16 +9731,16 @@
       <c r="C4" t="n">
         <v>4.25</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="24" t="n">
         <v>815.391</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="24" t="n">
         <v>758.314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B5" t="n">
         <v>23.02</v>
@@ -9627,16 +9748,16 @@
       <c r="C5" t="n">
         <v>3.82</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="24" t="n">
         <v>1073.696</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="24" t="n">
         <v>998.537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B6" t="n">
         <v>26.93</v>
@@ -9644,16 +9765,16 @@
       <c r="C6" t="n">
         <v>5.76</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="24" t="n">
         <v>441.144</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="24" t="n">
         <v>410.264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B7" t="n">
         <v>26.8</v>
@@ -9661,16 +9782,16 @@
       <c r="C7" t="n">
         <v>5.67</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="24" t="n">
         <v>1088.186</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="24" t="n">
         <v>1012.013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B8" t="n">
         <v>23.58</v>
@@ -9678,16 +9799,16 @@
       <c r="C8" t="n">
         <v>3.97</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="24" t="n">
         <v>1021.801</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="24" t="n">
         <v>950.275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B9" t="n">
         <v>20.47</v>
@@ -9695,16 +9816,16 @@
       <c r="C9" t="n">
         <v>3.87</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="24" t="n">
         <v>668.445</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="24" t="n">
         <v>621.654</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B10" t="n">
         <v>24.56</v>
@@ -9712,16 +9833,16 @@
       <c r="C10" t="n">
         <v>5.04</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="24" t="n">
         <v>820.371</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="24" t="n">
         <v>762.945</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B11" t="n">
         <v>23.78</v>
@@ -9729,32 +9850,32 @@
       <c r="C11" t="n">
         <v>4.81</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="24" t="n">
         <v>821.747</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="24" t="n">
         <v>764.225</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13">
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14">
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15">
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16">
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9769,7 +9890,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -9783,30 +9904,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B3" t="n">
         <v>37.97</v>
@@ -9814,16 +9935,16 @@
       <c r="C3" t="n">
         <v>8.26</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="24" t="n">
         <v>29.616</v>
       </c>
-      <c r="E3" s="18" t="n">
+      <c r="E3" s="24" t="n">
         <v>27.543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B4" t="n">
         <v>33.92</v>
@@ -9831,16 +9952,16 @@
       <c r="C4" t="n">
         <v>7.69</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="24" t="n">
         <v>67.811</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="24" t="n">
         <v>63.064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B5" t="n">
         <v>50.96</v>
@@ -9848,16 +9969,16 @@
       <c r="C5" t="n">
         <v>7.36</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="24" t="n">
         <v>29.146</v>
       </c>
-      <c r="E5" s="18" t="n">
+      <c r="E5" s="24" t="n">
         <v>27.106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="B6" t="n">
         <v>31.01</v>
@@ -9865,16 +9986,16 @@
       <c r="C6" t="n">
         <v>7.35</v>
       </c>
-      <c r="D6" s="18" t="n">
+      <c r="D6" s="24" t="n">
         <v>22.864</v>
       </c>
-      <c r="E6" s="18" t="n">
+      <c r="E6" s="24" t="n">
         <v>21.264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B7" t="n">
         <v>30.83</v>
@@ -9882,16 +10003,16 @@
       <c r="C7" t="n">
         <v>7.18</v>
       </c>
-      <c r="D7" s="18" t="n">
+      <c r="D7" s="24" t="n">
         <v>29.788</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="24" t="n">
         <v>27.703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B8" t="n">
         <v>32.33</v>
@@ -9899,16 +10020,16 @@
       <c r="C8" t="n">
         <v>6.91</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="24" t="n">
         <v>58.463</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="24" t="n">
         <v>54.371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B9" t="n">
         <v>27.8</v>
@@ -9916,16 +10037,16 @@
       <c r="C9" t="n">
         <v>6.91</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="24" t="n">
         <v>54.576</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="24" t="n">
         <v>50.756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B10" t="n">
         <v>26.63</v>
@@ -9933,16 +10054,16 @@
       <c r="C10" t="n">
         <v>6.6</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="24" t="n">
         <v>23.102</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="24" t="n">
         <v>21.485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B11" t="n">
         <v>29.99</v>
@@ -9950,16 +10071,16 @@
       <c r="C11" t="n">
         <v>6.47</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="24" t="n">
         <v>49.599</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="24" t="n">
         <v>46.127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B12" t="n">
         <v>29.87</v>
@@ -9967,32 +10088,32 @@
       <c r="C12" t="n">
         <v>6.45</v>
       </c>
-      <c r="D12" s="18" t="n">
+      <c r="D12" s="24" t="n">
         <v>49.337</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="E12" s="24" t="n">
         <v>45.883</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14">
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15">
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16">
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17">
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/summary_table_1.xlsx
+++ b/output/summary_table_1.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Upshift Calcs" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="LA data" sheetId="6" state="visible" r:id="rId2"/>
-    <sheet name="Average Tobacco Spend" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Expenditure % of Income" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Expenditure % of Income LA" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Consumption" sheetId="7" state="visible" r:id="rId3"/>
+    <sheet name="Average Tobacco Spend" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Expenditure % of Income" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Expenditure % of Income LA" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
   <si>
     <t>Table 2. Average weekly spend on tobacco by socio-economic status (SES) and age group</t>
   </si>
@@ -230,6 +231,30 @@
   </si>
   <si>
     <t>Totals (£m)</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>STS calculated (smokers only)</t>
+  </si>
+  <si>
+    <t>Average Daily Total Cigarettes</t>
+  </si>
+  <si>
+    <t>Average Daily FM Cigarettes</t>
+  </si>
+  <si>
+    <t>Average Daily RYO Cigarettes</t>
+  </si>
+  <si>
+    <t>Average % of Cigs Roll-Your-Own</t>
+  </si>
+  <si>
+    <t>% of Smokers Consume RYO</t>
+  </si>
+  <si>
+    <t>% of Smokers Consume FM</t>
   </si>
   <si>
     <t xml:space="preserve">E09000002</t>
@@ -1223,13 +1248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,7 +1301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1284,11 +1309,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1299,8 +1332,8 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1312,8 +1345,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1632,7 +1667,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -1648,15 +1683,15 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
@@ -1775,7 +1810,7 @@
       <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12">
       <c r="B12" t="s">
@@ -1784,27 +1819,27 @@
       <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13">
-      <c r="H13" s="11"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="15">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16">
       <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17">
       <c r="B17" s="4" t="s">
@@ -1838,10 +1873,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1900,19 +1935,19 @@
       <c r="F2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
@@ -1927,10 +1962,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C3" t="n">
         <v>23.4</v>
@@ -1971,10 +2006,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C4" t="n">
         <v>23.7</v>
@@ -2015,10 +2050,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C5" t="n">
         <v>17.04</v>
@@ -2059,10 +2094,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C6" t="n">
         <v>16.59</v>
@@ -2103,10 +2138,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C7" t="n">
         <v>16.85</v>
@@ -2147,10 +2182,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C8" t="n">
         <v>25.3</v>
@@ -2191,10 +2226,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C9" t="n">
         <v>25.28</v>
@@ -2235,10 +2270,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C10" t="n">
         <v>26.1</v>
@@ -2279,10 +2314,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C11" t="n">
         <v>23.09</v>
@@ -2323,10 +2358,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C12" t="n">
         <v>32.33</v>
@@ -2367,10 +2402,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C13" t="n">
         <v>21.14</v>
@@ -2406,15 +2441,15 @@
         <v>4.16</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C14" t="n">
         <v>20.91</v>
@@ -2455,10 +2490,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C15" t="n">
         <v>25.47</v>
@@ -2499,10 +2534,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C16" t="n">
         <v>24.76</v>
@@ -2543,10 +2578,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C17" t="n">
         <v>19.32</v>
@@ -2587,10 +2622,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C18" t="n">
         <v>19.16</v>
@@ -2631,10 +2666,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C19" t="n">
         <v>23.24</v>
@@ -2675,10 +2710,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C20" t="n">
         <v>21.73</v>
@@ -2709,10 +2744,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C21" t="n">
         <v>23.31</v>
@@ -2753,10 +2788,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C22" t="n">
         <v>24.86</v>
@@ -2797,10 +2832,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C23" t="n">
         <v>21.71</v>
@@ -2841,10 +2876,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C24" t="n">
         <v>21.54</v>
@@ -2885,10 +2920,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C25" t="n">
         <v>25.37</v>
@@ -2929,10 +2964,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C26" t="n">
         <v>29.39</v>
@@ -2973,10 +3008,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C27" t="n">
         <v>15.01</v>
@@ -3017,10 +3052,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3043,10 +3078,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C29" t="n">
         <v>18.74</v>
@@ -3087,10 +3122,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C30" t="n">
         <v>22.21</v>
@@ -3131,10 +3166,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C31" t="n">
         <v>23.81</v>
@@ -3175,10 +3210,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C32" t="n">
         <v>23.27</v>
@@ -3219,10 +3254,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C33" t="n">
         <v>23.93</v>
@@ -3263,10 +3298,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C34" t="n">
         <v>29.88</v>
@@ -3307,10 +3342,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C35" t="n">
         <v>22.43</v>
@@ -3351,10 +3386,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C36" t="n">
         <v>24.49</v>
@@ -3395,10 +3430,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C37" t="n">
         <v>18.05</v>
@@ -3439,10 +3474,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C38" t="n">
         <v>30.41</v>
@@ -3483,10 +3518,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C39" t="n">
         <v>19.44</v>
@@ -3527,10 +3562,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C40" t="n">
         <v>20.87</v>
@@ -3571,10 +3606,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C41" t="n">
         <v>22.89</v>
@@ -3615,10 +3650,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C42" t="n">
         <v>26.11</v>
@@ -3659,10 +3694,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C43" t="n">
         <v>20.59</v>
@@ -3703,10 +3738,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C44" t="n">
         <v>23.64</v>
@@ -3747,10 +3782,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C45" t="n">
         <v>26.26</v>
@@ -3791,10 +3826,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C46" t="n">
         <v>20.7</v>
@@ -3806,7 +3841,7 @@
         <v>24418.52</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>17.09</v>
@@ -3835,10 +3870,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C47" t="n">
         <v>22.88</v>
@@ -3879,10 +3914,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C48" t="n">
         <v>24.94</v>
@@ -3923,10 +3958,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C49" t="n">
         <v>18.91</v>
@@ -3967,10 +4002,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C50" t="n">
         <v>37.97</v>
@@ -4011,10 +4046,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C51" t="n">
         <v>21.45</v>
@@ -4055,10 +4090,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C52" t="n">
         <v>25.33</v>
@@ -4099,10 +4134,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C53" t="n">
         <v>17.84</v>
@@ -4143,10 +4178,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C54" t="n">
         <v>26.99</v>
@@ -4187,10 +4222,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C55" t="n">
         <v>31.01</v>
@@ -4231,10 +4266,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C56" t="n">
         <v>34.33</v>
@@ -4275,10 +4310,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C57" t="n">
         <v>26.07</v>
@@ -4319,10 +4354,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C58" t="n">
         <v>21.12</v>
@@ -4331,10 +4366,10 @@
         <v>3</v>
       </c>
       <c r="E58" s="13" t="n">
-        <v>31018.53</v>
+        <v>31676.49</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" t="n">
         <v>10.97</v>
@@ -4352,10 +4387,10 @@
         <v>110.442</v>
       </c>
       <c r="L58" t="n">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="M58" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="N58" t="n">
         <v>2</v>
@@ -4363,10 +4398,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C59" t="n">
         <v>25.12</v>
@@ -4407,10 +4442,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C60" t="n">
         <v>24.76</v>
@@ -4451,10 +4486,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C61" t="n">
         <v>26.72</v>
@@ -4495,10 +4530,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -4521,10 +4556,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B63" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C63" t="n">
         <v>21.84</v>
@@ -4565,10 +4600,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C64" t="n">
         <v>22.75</v>
@@ -4609,10 +4644,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B65" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C65" t="n">
         <v>23.46</v>
@@ -4620,8 +4655,12 @@
       <c r="D65" t="n">
         <v>5</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65"/>
+      <c r="E65" s="13" t="n">
+        <v>29643.43</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7</v>
+      </c>
       <c r="G65" t="n">
         <v>13.69</v>
       </c>
@@ -4637,16 +4676,22 @@
       <c r="K65" s="14" t="n">
         <v>206.666</v>
       </c>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
+      <c r="L65" t="n">
+        <v>570</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C66" t="n">
         <v>26.49</v>
@@ -4687,10 +4732,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C67" t="n">
         <v>16.7</v>
@@ -4731,10 +4776,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C68" t="n">
         <v>22.8</v>
@@ -4775,10 +4820,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B69" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C69" t="n">
         <v>26.63</v>
@@ -4819,10 +4864,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C70" t="n">
         <v>21.89</v>
@@ -4863,10 +4908,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C71" t="n">
         <v>23.49</v>
@@ -4907,10 +4952,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C72" t="n">
         <v>19.38</v>
@@ -4951,10 +4996,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C73" t="n">
         <v>20.06</v>
@@ -4995,10 +5040,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C74" t="n">
         <v>28</v>
@@ -5039,10 +5084,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C75" t="n">
         <v>21.2</v>
@@ -5083,10 +5128,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C76" t="n">
         <v>21.33</v>
@@ -5127,10 +5172,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C77" t="n">
         <v>24.49</v>
@@ -5171,10 +5216,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C78" t="n">
         <v>29.8</v>
@@ -5215,10 +5260,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C79" t="n">
         <v>14.54</v>
@@ -5259,10 +5304,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C80" t="n">
         <v>28.39</v>
@@ -5303,10 +5348,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C81" t="n">
         <v>18.81</v>
@@ -5347,10 +5392,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C82" t="n">
         <v>30.83</v>
@@ -5391,10 +5436,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C83" t="n">
         <v>24.97</v>
@@ -5435,10 +5480,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C84" t="n">
         <v>29.99</v>
@@ -5479,10 +5524,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C85" t="n">
         <v>28.1</v>
@@ -5523,10 +5568,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C86" t="n">
         <v>20.36</v>
@@ -5567,10 +5612,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C87" t="n">
         <v>24.66</v>
@@ -5611,10 +5656,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C88" t="n">
         <v>25.34</v>
@@ -5655,10 +5700,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C89" t="n">
         <v>16.35</v>
@@ -5699,10 +5744,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C90" t="n">
         <v>27.04</v>
@@ -5743,10 +5788,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C91" t="n">
         <v>24.27</v>
@@ -5787,10 +5832,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C92" t="n">
         <v>25.92</v>
@@ -5831,10 +5876,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C93" t="n">
         <v>26.51</v>
@@ -5875,10 +5920,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C94" t="n">
         <v>24.26</v>
@@ -5919,10 +5964,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C95" t="n">
         <v>26.02</v>
@@ -5963,10 +6008,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C96" t="n">
         <v>29.87</v>
@@ -6007,10 +6052,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C97" t="n">
         <v>23.4</v>
@@ -6051,10 +6096,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B98" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C98" t="n">
         <v>17.27</v>
@@ -6066,7 +6111,7 @@
         <v>26936.36</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G98" t="n">
         <v>18.83</v>
@@ -6095,10 +6140,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C99" t="n">
         <v>19.19</v>
@@ -6139,10 +6184,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B100" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C100" t="n">
         <v>27.62</v>
@@ -6183,10 +6228,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -6198,7 +6243,7 @@
         <v>31094.44</v>
       </c>
       <c r="F101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G101" t="n">
         <v>13.95</v>
@@ -6227,10 +6272,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C102" t="n">
         <v>24.52</v>
@@ -6271,10 +6316,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B103" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C103" t="n">
         <v>27.71</v>
@@ -6315,10 +6360,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C104" t="n">
         <v>22.69</v>
@@ -6359,10 +6404,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B105" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C105" t="n">
         <v>21.72</v>
@@ -6403,10 +6448,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B106" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C106" t="n">
         <v>21.64</v>
@@ -6447,10 +6492,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B107" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C107" t="n">
         <v>29.14</v>
@@ -6486,15 +6531,15 @@
         <v>4.4</v>
       </c>
       <c r="N107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C108" t="n">
         <v>33.92</v>
@@ -6506,7 +6551,7 @@
         <v>22953.33</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>19.09</v>
@@ -6535,10 +6580,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C109" t="n">
         <v>27.8</v>
@@ -6579,10 +6624,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B110" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C110" t="n">
         <v>31.01</v>
@@ -6623,10 +6668,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B111" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C111" t="n">
         <v>20.75</v>
@@ -6667,10 +6712,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C112" t="n">
         <v>25.37</v>
@@ -6711,10 +6756,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C113" t="n">
         <v>23</v>
@@ -6726,7 +6771,7 @@
         <v>25914.29</v>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
         <v>16.15</v>
@@ -6755,10 +6800,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B114" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C114" t="n">
         <v>30.37</v>
@@ -6799,10 +6844,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C115" t="n">
         <v>19.39</v>
@@ -6843,10 +6888,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B116" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C116" t="n">
         <v>22.63</v>
@@ -6887,10 +6932,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B117" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C117" t="n">
         <v>21.13</v>
@@ -6931,10 +6976,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C118" t="n">
         <v>21.22</v>
@@ -6975,10 +7020,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B119" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C119" t="n">
         <v>26.53</v>
@@ -7019,10 +7064,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B120" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C120" t="n">
         <v>18.41</v>
@@ -7063,10 +7108,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C121" t="n">
         <v>29.21</v>
@@ -7107,10 +7152,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C122" t="n">
         <v>21.76</v>
@@ -7151,10 +7196,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C123" t="n">
         <v>34.23</v>
@@ -7195,10 +7240,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B124" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C124" t="n">
         <v>28.43</v>
@@ -7239,10 +7284,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B125" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C125" t="n">
         <v>23.55</v>
@@ -7283,10 +7328,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B126" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C126" t="n">
         <v>23.73</v>
@@ -7327,10 +7372,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B127" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C127" t="n">
         <v>27.79</v>
@@ -7371,10 +7416,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C128" t="n">
         <v>28.52</v>
@@ -7415,10 +7460,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B129" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C129" t="n">
         <v>28.89</v>
@@ -7459,10 +7504,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B130" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C130" t="n">
         <v>25.85</v>
@@ -7503,10 +7548,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B131" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C131" t="n">
         <v>27.39</v>
@@ -7547,10 +7592,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B132" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C132" t="n">
         <v>23.78</v>
@@ -7591,10 +7636,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B133" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C133" t="n">
         <v>31.31</v>
@@ -7606,7 +7651,7 @@
         <v>27936.84</v>
       </c>
       <c r="F133" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G133" t="n">
         <v>17.54</v>
@@ -7635,10 +7680,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B134" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C134" t="n">
         <v>22.17</v>
@@ -7674,15 +7719,15 @@
         <v>5.02</v>
       </c>
       <c r="N134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B135" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C135" t="n">
         <v>22.17</v>
@@ -7723,10 +7768,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B136" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C136" t="n">
         <v>25.45</v>
@@ -7767,10 +7812,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B137" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C137" t="n">
         <v>21.02</v>
@@ -7811,10 +7856,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C138" t="n">
         <v>18.57</v>
@@ -7855,10 +7900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B139" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C139" t="n">
         <v>22.53</v>
@@ -7899,10 +7944,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B140" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C140" t="n">
         <v>18.43</v>
@@ -7943,10 +7988,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B141" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -7975,10 +8020,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B142" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C142" t="n">
         <v>26.12</v>
@@ -7990,7 +8035,7 @@
         <v>28910.92</v>
       </c>
       <c r="F142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G142" t="n">
         <v>13.29</v>
@@ -8014,15 +8059,15 @@
         <v>4.7</v>
       </c>
       <c r="N142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B143" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C143" t="n">
         <v>19.87</v>
@@ -8063,10 +8108,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B144" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C144" t="n">
         <v>21.34</v>
@@ -8107,10 +8152,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B145" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C145" t="n">
         <v>21.73</v>
@@ -8151,10 +8196,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B146" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C146" t="n">
         <v>30.97</v>
@@ -8195,10 +8240,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B147" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C147" t="n">
         <v>25.03</v>
@@ -8239,10 +8284,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B148" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C148" t="n">
         <v>20.66</v>
@@ -8283,10 +8328,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B149" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C149" t="n">
         <v>25.53</v>
@@ -8327,10 +8372,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C150" t="n">
         <v>50.96</v>
@@ -8371,10 +8416,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B151" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C151" t="n">
         <v>28.07</v>
@@ -8415,10 +8460,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B152" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C152" t="n">
         <v>22.43</v>
@@ -8459,10 +8504,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B153" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C153" t="n">
         <v>26.49</v>
@@ -9525,6 +9570,6422 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="2" max="2" width="33.5703125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" ht="54.95" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="23" t="n">
+        <v>6.74055871583986</v>
+      </c>
+      <c r="D3" s="23" t="n">
+        <v>3.01694304766569</v>
+      </c>
+      <c r="E3" s="23" t="n">
+        <v>9.75750176350555</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0.289763886620878</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0.733749318343008</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.308374306857172</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="23" t="n">
+        <v>4.98771488764571</v>
+      </c>
+      <c r="D4" s="23" t="n">
+        <v>3.32734034228919</v>
+      </c>
+      <c r="E4" s="23" t="n">
+        <v>8.3150552299349</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.306211449483097</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.734263913171667</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.365569073570751</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="23" t="n">
+        <v>7.22077656178141</v>
+      </c>
+      <c r="D5" s="23" t="n">
+        <v>6.43291071257707</v>
+      </c>
+      <c r="E5" s="23" t="n">
+        <v>13.6536872743585</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.42307992534782</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.57692007465218</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.42307992534782</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="23" t="n">
+        <v>3.92066121683267</v>
+      </c>
+      <c r="D6" s="23" t="n">
+        <v>5.18258674407503</v>
+      </c>
+      <c r="E6" s="23" t="n">
+        <v>9.1032479609077</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.618043487488765</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.399843946469292</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.635930921446822</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>6.90350039452369</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <v>0.784694690776522</v>
+      </c>
+      <c r="E7" s="23" t="n">
+        <v>7.68819508530021</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.316113610578207</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.683886389421793</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.316113610578207</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="23" t="n">
+        <v>4.33177466412344</v>
+      </c>
+      <c r="D8" s="23" t="n">
+        <v>4.10780180177316</v>
+      </c>
+      <c r="E8" s="23" t="n">
+        <v>8.4395764658966</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.298400420833117</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.728761262217745</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.358675220497946</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="23" t="n">
+        <v>6.77708434984094</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>3.39536911485184</v>
+      </c>
+      <c r="E9" s="23" t="n">
+        <v>10.1724534646928</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.329425485362444</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.69424499306812</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.35595225995672</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="23" t="n">
+        <v>4.23668295501012</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <v>5.15898122655099</v>
+      </c>
+      <c r="E10" s="23" t="n">
+        <v>9.39566418156111</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.468016573333017</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.57368343633162</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.495816579776109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="23" t="n">
+        <v>6.89265296385742</v>
+      </c>
+      <c r="D11" s="23" t="n">
+        <v>5.05147466032288</v>
+      </c>
+      <c r="E11" s="23" t="n">
+        <v>11.9441276241803</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.464357113627326</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.558936510816595</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.525246366908465</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="23" t="n">
+        <v>8.61991461848964</v>
+      </c>
+      <c r="D12" s="23" t="n">
+        <v>3.86005597155637</v>
+      </c>
+      <c r="E12" s="23" t="n">
+        <v>12.479970590046</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.331349265461321</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.671655150362083</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.349375760401742</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="23" t="n">
+        <v>3.77531994537317</v>
+      </c>
+      <c r="D13" s="23" t="n">
+        <v>6.58533219910287</v>
+      </c>
+      <c r="E13" s="23" t="n">
+        <v>10.360652144476</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.672759765841267</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3357125258927</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.676995911708249</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="23" t="n">
+        <v>6.25360476100292</v>
+      </c>
+      <c r="D15" s="23" t="n">
+        <v>4.18958325744199</v>
+      </c>
+      <c r="E15" s="23" t="n">
+        <v>10.4431880184449</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.327497802077941</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.689213589073922</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.343888319142157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="23" t="n">
+        <v>5.37687923275945</v>
+      </c>
+      <c r="D16" s="23" t="n">
+        <v>2.49085078234371</v>
+      </c>
+      <c r="E16" s="23" t="n">
+        <v>7.86773001510315</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.33284385084286</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.695683433378083</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.362815089246664</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="23" t="n">
+        <v>3.65144461489664</v>
+      </c>
+      <c r="D17" s="23" t="n">
+        <v>6.36549957493661</v>
+      </c>
+      <c r="E17" s="23" t="n">
+        <v>10.0169441898333</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0.611609537229488</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.42101573219007</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.65265839146701</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="23" t="n">
+        <v>3.98054273172026</v>
+      </c>
+      <c r="D18" s="23" t="n">
+        <v>5.54756796174843</v>
+      </c>
+      <c r="E18" s="23" t="n">
+        <v>9.52811069346868</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.638676510469143</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.393905444257372</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.674877097875812</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="23" t="n">
+        <v>7.00929113367312</v>
+      </c>
+      <c r="D19" s="23" t="n">
+        <v>3.0186867099645</v>
+      </c>
+      <c r="E19" s="23" t="n">
+        <v>10.0279778436376</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.273300882374125</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.763323742880392</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.295852775265311</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="23" t="n">
+        <v>5.40412000768522</v>
+      </c>
+      <c r="D20" s="23" t="n">
+        <v>3.89256424845011</v>
+      </c>
+      <c r="E20" s="23" t="n">
+        <v>9.29668425613534</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.414625221113033</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.620628697841821</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.444716813788152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="23" t="n">
+        <v>4.47778274783284</v>
+      </c>
+      <c r="D21" s="23" t="n">
+        <v>8.54842032235628</v>
+      </c>
+      <c r="E21" s="23" t="n">
+        <v>13.0262030701891</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.619142493730149</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.409991569846411</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.654357721012746</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="23" t="n">
+        <v>6.48203086557193</v>
+      </c>
+      <c r="D22" s="23" t="n">
+        <v>5.90327804211147</v>
+      </c>
+      <c r="E22" s="23" t="n">
+        <v>12.3853089076834</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.479064534786343</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.533490292005012</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.487837902863939</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="23" t="n">
+        <v>5.51594232773213</v>
+      </c>
+      <c r="D23" s="23" t="n">
+        <v>5.99029399903198</v>
+      </c>
+      <c r="E23" s="23" t="n">
+        <v>11.5062363267641</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.514381279980513</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.512955751197768</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.546766789443229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="23" t="n">
+        <v>4.06035001444303</v>
+      </c>
+      <c r="D24" s="23" t="n">
+        <v>3.66052484049765</v>
+      </c>
+      <c r="E24" s="23" t="n">
+        <v>7.72087485494067</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.485093335619168</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.586343283757348</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.524697342248087</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="23" t="n">
+        <v>6.4605773153906</v>
+      </c>
+      <c r="D25" s="23" t="n">
+        <v>4.41778507008827</v>
+      </c>
+      <c r="E25" s="23" t="n">
+        <v>10.8783623854789</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0.340390242723759</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.684241569226383</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>0.387385689149648</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="23" t="n">
+        <v>7.73500709090449</v>
+      </c>
+      <c r="D26" s="23" t="n">
+        <v>6.16573070872516</v>
+      </c>
+      <c r="E26" s="23" t="n">
+        <v>13.9007377996297</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.455938432977366</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.544061567022634</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.455938432977366</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" s="23" t="n">
+        <v>5.18770311593917</v>
+      </c>
+      <c r="D27" s="23" t="n">
+        <v>4.58630934631753</v>
+      </c>
+      <c r="E27" s="23" t="n">
+        <v>9.7740124622567</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0.213135834830598</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.786864165169402</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>0.213135834830598</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="23" t="n">
+        <v>3.13941514823884</v>
+      </c>
+      <c r="D29" s="23" t="n">
+        <v>8.93187001249531</v>
+      </c>
+      <c r="E29" s="23" t="n">
+        <v>12.0712851607341</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0.752779172070904</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0.258191759639345</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0.763533083044154</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="23" t="n">
+        <v>5.22478064462308</v>
+      </c>
+      <c r="D30" s="23" t="n">
+        <v>5.56728545372538</v>
+      </c>
+      <c r="E30" s="23" t="n">
+        <v>10.7920660983485</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.42013949214612</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0.604515757318313</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0.466526876950713</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="23" t="n">
+        <v>9.23066505038882</v>
+      </c>
+      <c r="D31" s="23" t="n">
+        <v>2.16712388452118</v>
+      </c>
+      <c r="E31" s="23" t="n">
+        <v>11.39778893491</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0.201259080761171</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0.834340643744369</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>0.236858805266711</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="23" t="n">
+        <v>5.15755600514238</v>
+      </c>
+      <c r="D32" s="23" t="n">
+        <v>2.80478655001858</v>
+      </c>
+      <c r="E32" s="23" t="n">
+        <v>7.96234255516096</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0.369850283196595</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0.664115679142967</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>0.422812446594696</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="23" t="n">
+        <v>5.29659311000186</v>
+      </c>
+      <c r="D33" s="23" t="n">
+        <v>8.01993715841476</v>
+      </c>
+      <c r="E33" s="23" t="n">
+        <v>13.3165302684166</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0.583961101586784</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>0.472232069875597</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>0.631494220217007</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="23" t="n">
+        <v>6.77290056513743</v>
+      </c>
+      <c r="D34" s="23" t="n">
+        <v>4.12023506709804</v>
+      </c>
+      <c r="E34" s="23" t="n">
+        <v>10.8931356322355</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0.378312316321567</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0.629228229296222</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>0.394345873158885</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="23" t="n">
+        <v>5.02492109863389</v>
+      </c>
+      <c r="D35" s="23" t="n">
+        <v>5.3690431927789</v>
+      </c>
+      <c r="E35" s="23" t="n">
+        <v>10.3939642914128</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>0.496956420903474</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>0.522972566200002</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>0.516960012219983</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" s="23" t="n">
+        <v>6.12185869327324</v>
+      </c>
+      <c r="D36" s="23" t="n">
+        <v>6.3732973479036</v>
+      </c>
+      <c r="E36" s="23" t="n">
+        <v>12.4951560411768</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0.454525657796342</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0.566092019510528</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>0.48575671380345</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="23" t="n">
+        <v>2.88018842461157</v>
+      </c>
+      <c r="D37" s="23" t="n">
+        <v>8.06407949490744</v>
+      </c>
+      <c r="E37" s="23" t="n">
+        <v>10.944267919519</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0.721811524724818</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>0.314028198589354</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>0.758600085383526</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="23" t="n">
+        <v>8.28679511008873</v>
+      </c>
+      <c r="D38" s="23" t="n">
+        <v>5.34094167010144</v>
+      </c>
+      <c r="E38" s="23" t="n">
+        <v>13.6277367801902</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0.322475009776583</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>0.717318062085476</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>0.358682158279659</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="23" t="n">
+        <v>4.56840014242071</v>
+      </c>
+      <c r="D39" s="23" t="n">
+        <v>7.56405020332163</v>
+      </c>
+      <c r="E39" s="23" t="n">
+        <v>12.1324503457423</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>0.678657307838719</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>0.339134127359201</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>0.734044209941086</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="23" t="n">
+        <v>5.07181995383345</v>
+      </c>
+      <c r="D40" s="23" t="n">
+        <v>4.77495680772467</v>
+      </c>
+      <c r="E40" s="23" t="n">
+        <v>9.84677676155812</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0.511500069910153</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>0.512150093086069</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>0.524848650308553</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="23" t="n">
+        <v>7.36676618463593</v>
+      </c>
+      <c r="D41" s="23" t="n">
+        <v>4.01607628544461</v>
+      </c>
+      <c r="E41" s="23" t="n">
+        <v>11.3828424700805</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>0.396834794046301</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>0.652168291790858</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>0.431179436045642</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="23" t="n">
+        <v>7.5214297893303</v>
+      </c>
+      <c r="D42" s="23" t="n">
+        <v>3.4892803106498</v>
+      </c>
+      <c r="E42" s="23" t="n">
+        <v>11.0107100999801</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>0.233735301195107</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>0.766264698804893</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>0.233735301195107</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="23" t="n">
+        <v>4.92945771365536</v>
+      </c>
+      <c r="D43" s="23" t="n">
+        <v>6.21296856312174</v>
+      </c>
+      <c r="E43" s="23" t="n">
+        <v>11.1424262767771</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0.553227565894647</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>0.460813990522357</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>0.574507976625702</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="23" t="n">
+        <v>6.68576989077087</v>
+      </c>
+      <c r="D44" s="23" t="n">
+        <v>3.55958483640525</v>
+      </c>
+      <c r="E44" s="23" t="n">
+        <v>10.2453547271761</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>0.359419441823075</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0.659700024163632</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>0.37793910052522</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="23" t="n">
+        <v>5.91466988622023</v>
+      </c>
+      <c r="D45" s="23" t="n">
+        <v>5.03840230199985</v>
+      </c>
+      <c r="E45" s="23" t="n">
+        <v>10.9530721882201</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0.422068929471845</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>0.612576736179932</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>0.454375988915943</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" s="23" t="n">
+        <v>6.31003648466824</v>
+      </c>
+      <c r="D46" s="23" t="n">
+        <v>3.65401596959579</v>
+      </c>
+      <c r="E46" s="23" t="n">
+        <v>9.96405245426403</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0.302538831848672</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>0.697461168151328</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>0.302538831848672</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="23" t="n">
+        <v>5.02846315958672</v>
+      </c>
+      <c r="D47" s="23" t="n">
+        <v>5.46863890735162</v>
+      </c>
+      <c r="E47" s="23" t="n">
+        <v>10.4971020669383</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>0.532600605356257</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>0.497754682650794</v>
+      </c>
+      <c r="H47" s="6" t="n">
+        <v>0.566702004766749</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" s="23" t="n">
+        <v>5.40921187852105</v>
+      </c>
+      <c r="D48" s="23" t="n">
+        <v>4.28708674177034</v>
+      </c>
+      <c r="E48" s="23" t="n">
+        <v>9.69629862029138</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>0.363405028946154</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>0.695138139672116</v>
+      </c>
+      <c r="H48" s="6" t="n">
+        <v>0.43423956662317</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="23" t="n">
+        <v>4.36908995453466</v>
+      </c>
+      <c r="D49" s="23" t="n">
+        <v>3.43981651633958</v>
+      </c>
+      <c r="E49" s="23" t="n">
+        <v>7.80890647087424</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>0.483264996923065</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>0.555542007955241</v>
+      </c>
+      <c r="H49" s="6" t="n">
+        <v>0.52258329633791</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="23" t="n">
+        <v>10.2902599487547</v>
+      </c>
+      <c r="D50" s="23" t="n">
+        <v>3.85656082205649</v>
+      </c>
+      <c r="E50" s="23" t="n">
+        <v>14.1468207708112</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>0.308304578069005</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>0.702523425641085</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>0.339281942713563</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" s="23" t="n">
+        <v>5.46472709922001</v>
+      </c>
+      <c r="D51" s="23" t="n">
+        <v>2.40052969453953</v>
+      </c>
+      <c r="E51" s="23" t="n">
+        <v>7.86525679375954</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>0.332023256733975</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>0.709179581212661</v>
+      </c>
+      <c r="H51" s="6" t="n">
+        <v>0.36861066277255</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" s="23" t="n">
+        <v>5.46312933899709</v>
+      </c>
+      <c r="D52" s="23" t="n">
+        <v>5.87210144955894</v>
+      </c>
+      <c r="E52" s="23" t="n">
+        <v>11.335230788556</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>0.537029867526237</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>0.48413312104997</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>0.575702778846877</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="23" t="n">
+        <v>3.68616385468923</v>
+      </c>
+      <c r="D53" s="23" t="n">
+        <v>4.42309576650965</v>
+      </c>
+      <c r="E53" s="23" t="n">
+        <v>8.10925962119888</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>0.514098763030456</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>0.546508862184635</v>
+      </c>
+      <c r="H53" s="6" t="n">
+        <v>0.587166510580644</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" s="23" t="n">
+        <v>7.9342880268524</v>
+      </c>
+      <c r="D54" s="23" t="n">
+        <v>2.5663838337842</v>
+      </c>
+      <c r="E54" s="23" t="n">
+        <v>10.5006718606366</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>0.253217414172531</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>0.809792265276771</v>
+      </c>
+      <c r="H54" s="6" t="n">
+        <v>0.315917865548326</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" s="23" t="n">
+        <v>9.17633859495998</v>
+      </c>
+      <c r="D55" s="23" t="n">
+        <v>6.50307505790351</v>
+      </c>
+      <c r="E55" s="23" t="n">
+        <v>15.6794136528635</v>
+      </c>
+      <c r="F55" s="6" t="n">
+        <v>0.423932133504413</v>
+      </c>
+      <c r="G55" s="6" t="n">
+        <v>0.637905667896386</v>
+      </c>
+      <c r="H55" s="6" t="n">
+        <v>0.510002089850475</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="23" t="n">
+        <v>8.74487164080114</v>
+      </c>
+      <c r="D56" s="23" t="n">
+        <v>4.74739055160753</v>
+      </c>
+      <c r="E56" s="23" t="n">
+        <v>13.4922621924087</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>0.297941697558116</v>
+      </c>
+      <c r="G56" s="6" t="n">
+        <v>0.731079494778006</v>
+      </c>
+      <c r="H56" s="6" t="n">
+        <v>0.31928714106596</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="23" t="n">
+        <v>6.89253964738665</v>
+      </c>
+      <c r="D57" s="23" t="n">
+        <v>5.14463218087393</v>
+      </c>
+      <c r="E57" s="23" t="n">
+        <v>12.0371718282606</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>0.396497998790882</v>
+      </c>
+      <c r="G57" s="6" t="n">
+        <v>0.603502001209119</v>
+      </c>
+      <c r="H57" s="6" t="n">
+        <v>0.396497998790882</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" s="23" t="n">
+        <v>6.14914435875603</v>
+      </c>
+      <c r="D58" s="23" t="n">
+        <v>4.72072134960419</v>
+      </c>
+      <c r="E58" s="23" t="n">
+        <v>10.8698657083602</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>0.444479009233893</v>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v>0.574223071388111</v>
+      </c>
+      <c r="H58" s="6" t="n">
+        <v>0.477630506407031</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" s="23" t="n">
+        <v>6.146048005502</v>
+      </c>
+      <c r="D59" s="23" t="n">
+        <v>4.45485800677557</v>
+      </c>
+      <c r="E59" s="23" t="n">
+        <v>10.6009060122776</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>0.368830220687444</v>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v>0.701872587691697</v>
+      </c>
+      <c r="H59" s="6" t="n">
+        <v>0.449046986578671</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="23" t="n">
+        <v>8.63765660918363</v>
+      </c>
+      <c r="D60" s="23" t="n">
+        <v>2.1558253471272</v>
+      </c>
+      <c r="E60" s="23" t="n">
+        <v>10.7934819563108</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>0.286632758264789</v>
+      </c>
+      <c r="G60" s="6" t="n">
+        <v>0.742450080242967</v>
+      </c>
+      <c r="H60" s="6" t="n">
+        <v>0.319540368406929</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="23" t="n">
+        <v>4.43002503142148</v>
+      </c>
+      <c r="D61" s="23" t="n">
+        <v>9.44882292738368</v>
+      </c>
+      <c r="E61" s="23" t="n">
+        <v>13.8788479588052</v>
+      </c>
+      <c r="F61" s="6" t="n">
+        <v>0.716754163303586</v>
+      </c>
+      <c r="G61" s="6" t="n">
+        <v>0.304149014061577</v>
+      </c>
+      <c r="H61" s="6" t="n">
+        <v>0.724395599206978</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" s="23" t="n">
+        <v>5.99120053873423</v>
+      </c>
+      <c r="D63" s="23" t="n">
+        <v>3.59278785961371</v>
+      </c>
+      <c r="E63" s="23" t="n">
+        <v>9.58398839834794</v>
+      </c>
+      <c r="F63" s="6" t="n">
+        <v>0.420201191936087</v>
+      </c>
+      <c r="G63" s="6" t="n">
+        <v>0.637235695866596</v>
+      </c>
+      <c r="H63" s="6" t="n">
+        <v>0.447515294358985</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="23" t="n">
+        <v>6.01723810585623</v>
+      </c>
+      <c r="D64" s="23" t="n">
+        <v>3.52483727336748</v>
+      </c>
+      <c r="E64" s="23" t="n">
+        <v>9.54207537922371</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>0.355638130103216</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>0.662527106992708</v>
+      </c>
+      <c r="H64" s="6" t="n">
+        <v>0.402814865202426</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="23" t="n">
+        <v>6.1530671616081</v>
+      </c>
+      <c r="D65" s="23" t="n">
+        <v>4.89120840630269</v>
+      </c>
+      <c r="E65" s="23" t="n">
+        <v>11.0442755679108</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>0.40902561253942</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>0.615702712213672</v>
+      </c>
+      <c r="H65" s="6" t="n">
+        <v>0.434584899585192</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" s="23" t="n">
+        <v>7.18338488475066</v>
+      </c>
+      <c r="D66" s="23" t="n">
+        <v>8.2998279767199</v>
+      </c>
+      <c r="E66" s="23" t="n">
+        <v>15.4832128614706</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>0.453284349289937</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>0.64097043650494</v>
+      </c>
+      <c r="H66" s="6" t="n">
+        <v>0.527525353063375</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>294</v>
+      </c>
+      <c r="C67" s="23" t="n">
+        <v>3.12564232328623</v>
+      </c>
+      <c r="D67" s="23" t="n">
+        <v>5.15067861150192</v>
+      </c>
+      <c r="E67" s="23" t="n">
+        <v>8.27632093478815</v>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>0.680004767268502</v>
+      </c>
+      <c r="G67" s="6" t="n">
+        <v>0.451186130398838</v>
+      </c>
+      <c r="H67" s="6" t="n">
+        <v>0.811533744602122</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" s="23" t="n">
+        <v>5.94974608080837</v>
+      </c>
+      <c r="D68" s="23" t="n">
+        <v>5.06167700783243</v>
+      </c>
+      <c r="E68" s="23" t="n">
+        <v>11.0114230886408</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>0.409667261704718</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>0.601276100074833</v>
+      </c>
+      <c r="H68" s="6" t="n">
+        <v>0.422241946137056</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" s="23" t="n">
+        <v>8.43613950897157</v>
+      </c>
+      <c r="D69" s="23" t="n">
+        <v>2.84689546375799</v>
+      </c>
+      <c r="E69" s="23" t="n">
+        <v>11.2830349727296</v>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>0.261324788635783</v>
+      </c>
+      <c r="G69" s="6" t="n">
+        <v>0.739101090396688</v>
+      </c>
+      <c r="H69" s="6" t="n">
+        <v>0.271545885415097</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" s="23" t="n">
+        <v>5.24233522932554</v>
+      </c>
+      <c r="D70" s="23" t="n">
+        <v>2.42045458627873</v>
+      </c>
+      <c r="E70" s="23" t="n">
+        <v>7.66278981560427</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>0.353619499006157</v>
+      </c>
+      <c r="G70" s="6" t="n">
+        <v>0.709403024506112</v>
+      </c>
+      <c r="H70" s="6" t="n">
+        <v>0.413602709415068</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="23" t="n">
+        <v>5.33213353956038</v>
+      </c>
+      <c r="D71" s="23" t="n">
+        <v>5.88635728231967</v>
+      </c>
+      <c r="E71" s="23" t="n">
+        <v>11.2184908218801</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>0.483414573442127</v>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>0.540999438897261</v>
+      </c>
+      <c r="H71" s="6" t="n">
+        <v>0.512631448191014</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" s="23" t="n">
+        <v>4.31728932218908</v>
+      </c>
+      <c r="D72" s="23" t="n">
+        <v>4.61179693171369</v>
+      </c>
+      <c r="E72" s="23" t="n">
+        <v>8.92908625390277</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>0.538844943890191</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>0.48719046811384</v>
+      </c>
+      <c r="H72" s="6" t="n">
+        <v>0.569902478186849</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" s="23" t="n">
+        <v>4.4430151163284</v>
+      </c>
+      <c r="D73" s="23" t="n">
+        <v>4.63363762290197</v>
+      </c>
+      <c r="E73" s="23" t="n">
+        <v>9.07665273923038</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>0.50207652903207</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <v>0.53886874032431</v>
+      </c>
+      <c r="H73" s="6" t="n">
+        <v>0.538109178651898</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>301</v>
+      </c>
+      <c r="C74" s="23" t="n">
+        <v>6.39360923525901</v>
+      </c>
+      <c r="D74" s="23" t="n">
+        <v>4.52490462570453</v>
+      </c>
+      <c r="E74" s="23" t="n">
+        <v>10.9185138609635</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>0.395675789267079</v>
+      </c>
+      <c r="G74" s="6" t="n">
+        <v>0.647190166526937</v>
+      </c>
+      <c r="H74" s="6" t="n">
+        <v>0.4279086788467</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>302</v>
+      </c>
+      <c r="C75" s="23" t="n">
+        <v>6.01393726647263</v>
+      </c>
+      <c r="D75" s="23" t="n">
+        <v>2.96918160518854</v>
+      </c>
+      <c r="E75" s="23" t="n">
+        <v>8.98311887166117</v>
+      </c>
+      <c r="F75" s="6" t="n">
+        <v>0.383235542539371</v>
+      </c>
+      <c r="G75" s="6" t="n">
+        <v>0.654933357645625</v>
+      </c>
+      <c r="H75" s="6" t="n">
+        <v>0.413875341090218</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" s="23" t="n">
+        <v>4.73497918403728</v>
+      </c>
+      <c r="D76" s="23" t="n">
+        <v>6.50768167613611</v>
+      </c>
+      <c r="E76" s="23" t="n">
+        <v>11.2426608601734</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>0.538331360855375</v>
+      </c>
+      <c r="G76" s="6" t="n">
+        <v>0.485568501632899</v>
+      </c>
+      <c r="H76" s="6" t="n">
+        <v>0.562282157729339</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" s="23" t="n">
+        <v>6.95880156283544</v>
+      </c>
+      <c r="D77" s="23" t="n">
+        <v>4.79050457674791</v>
+      </c>
+      <c r="E77" s="23" t="n">
+        <v>11.7493061395834</v>
+      </c>
+      <c r="F77" s="6" t="n">
+        <v>0.43953001779318</v>
+      </c>
+      <c r="G77" s="6" t="n">
+        <v>0.57977780313472</v>
+      </c>
+      <c r="H77" s="6" t="n">
+        <v>0.455159394119657</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="23" t="n">
+        <v>6.23435245027588</v>
+      </c>
+      <c r="D78" s="23" t="n">
+        <v>6.56948488487492</v>
+      </c>
+      <c r="E78" s="23" t="n">
+        <v>12.8038373351508</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>0.414294663260888</v>
+      </c>
+      <c r="G78" s="6" t="n">
+        <v>0.608718711985902</v>
+      </c>
+      <c r="H78" s="6" t="n">
+        <v>0.458176856407491</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>306</v>
+      </c>
+      <c r="C79" s="23" t="n">
+        <v>2.58138866639183</v>
+      </c>
+      <c r="D79" s="23" t="n">
+        <v>4.06244352311907</v>
+      </c>
+      <c r="E79" s="23" t="n">
+        <v>6.64383218951089</v>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>0.608506118912461</v>
+      </c>
+      <c r="G79" s="6" t="n">
+        <v>0.433690490990297</v>
+      </c>
+      <c r="H79" s="6" t="n">
+        <v>0.66627438445832</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80" s="23" t="n">
+        <v>7.49317990178074</v>
+      </c>
+      <c r="D80" s="23" t="n">
+        <v>4.66923707596937</v>
+      </c>
+      <c r="E80" s="23" t="n">
+        <v>12.1624169777501</v>
+      </c>
+      <c r="F80" s="6" t="n">
+        <v>0.402306559585341</v>
+      </c>
+      <c r="G80" s="6" t="n">
+        <v>0.6159647706478</v>
+      </c>
+      <c r="H80" s="6" t="n">
+        <v>0.436731540452119</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
+        <v>308</v>
+      </c>
+      <c r="C81" s="23" t="n">
+        <v>5.96825511735002</v>
+      </c>
+      <c r="D81" s="23" t="n">
+        <v>1.51618694681035</v>
+      </c>
+      <c r="E81" s="23" t="n">
+        <v>7.48444206416038</v>
+      </c>
+      <c r="F81" s="6" t="n">
+        <v>0.266664319869994</v>
+      </c>
+      <c r="G81" s="6" t="n">
+        <v>0.767287563163088</v>
+      </c>
+      <c r="H81" s="6" t="n">
+        <v>0.311062936144024</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" s="23" t="n">
+        <v>8.59166959126765</v>
+      </c>
+      <c r="D82" s="23" t="n">
+        <v>5.41270297708988</v>
+      </c>
+      <c r="E82" s="23" t="n">
+        <v>14.0043725683575</v>
+      </c>
+      <c r="F82" s="6" t="n">
+        <v>0.355361690789718</v>
+      </c>
+      <c r="G82" s="6" t="n">
+        <v>0.701897510853996</v>
+      </c>
+      <c r="H82" s="6" t="n">
+        <v>0.416064361096503</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="23" t="n">
+        <v>6.41202226664222</v>
+      </c>
+      <c r="D83" s="23" t="n">
+        <v>4.77559683718565</v>
+      </c>
+      <c r="E83" s="23" t="n">
+        <v>11.1876191038279</v>
+      </c>
+      <c r="F83" s="6" t="n">
+        <v>0.43491741104623</v>
+      </c>
+      <c r="G83" s="6" t="n">
+        <v>0.578959361882388</v>
+      </c>
+      <c r="H83" s="6" t="n">
+        <v>0.457939251590904</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" s="23" t="n">
+        <v>7.81895062306538</v>
+      </c>
+      <c r="D84" s="23" t="n">
+        <v>5.67324000445308</v>
+      </c>
+      <c r="E84" s="23" t="n">
+        <v>13.4921906275185</v>
+      </c>
+      <c r="F84" s="6" t="n">
+        <v>0.375469020242155</v>
+      </c>
+      <c r="G84" s="6" t="n">
+        <v>0.66146157743237</v>
+      </c>
+      <c r="H84" s="6" t="n">
+        <v>0.408370679435112</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" s="23" t="n">
+        <v>8.33992289211401</v>
+      </c>
+      <c r="D85" s="23" t="n">
+        <v>1.39366267396877</v>
+      </c>
+      <c r="E85" s="23" t="n">
+        <v>9.73358556608278</v>
+      </c>
+      <c r="F85" s="6" t="n">
+        <v>0.133053886600318</v>
+      </c>
+      <c r="G85" s="6" t="n">
+        <v>0.88115545967141</v>
+      </c>
+      <c r="H85" s="6" t="n">
+        <v>0.159514527550564</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
+        <v>313</v>
+      </c>
+      <c r="C86" s="23" t="n">
+        <v>3.99102380650286</v>
+      </c>
+      <c r="D86" s="23" t="n">
+        <v>7.6375196303221</v>
+      </c>
+      <c r="E86" s="23" t="n">
+        <v>11.628543436825</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>0.64859795488759</v>
+      </c>
+      <c r="G86" s="6" t="n">
+        <v>0.394735756139642</v>
+      </c>
+      <c r="H86" s="6" t="n">
+        <v>0.68746859370841</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="23" t="n">
+        <v>5.43745340222168</v>
+      </c>
+      <c r="D87" s="23" t="n">
+        <v>9.3500801438678</v>
+      </c>
+      <c r="E87" s="23" t="n">
+        <v>14.7875335460895</v>
+      </c>
+      <c r="F87" s="6" t="n">
+        <v>0.56873036736862</v>
+      </c>
+      <c r="G87" s="6" t="n">
+        <v>0.457650510735818</v>
+      </c>
+      <c r="H87" s="6" t="n">
+        <v>0.597140763479021</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="23" t="n">
+        <v>7.63721402181354</v>
+      </c>
+      <c r="D88" s="23" t="n">
+        <v>7.00206887060166</v>
+      </c>
+      <c r="E88" s="23" t="n">
+        <v>14.6392828924152</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>0.443963114980314</v>
+      </c>
+      <c r="G88" s="6" t="n">
+        <v>0.596217577093712</v>
+      </c>
+      <c r="H88" s="6" t="n">
+        <v>0.473281608104936</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="23" t="n">
+        <v>1.02079689032489</v>
+      </c>
+      <c r="D89" s="23" t="n">
+        <v>5.75419620160973</v>
+      </c>
+      <c r="E89" s="23" t="n">
+        <v>6.77499309193462</v>
+      </c>
+      <c r="F89" s="6" t="n">
+        <v>0.66670401133713</v>
+      </c>
+      <c r="G89" s="6" t="n">
+        <v>0.444687876964303</v>
+      </c>
+      <c r="H89" s="6" t="n">
+        <v>0.674660574787232</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" s="23" t="n">
+        <v>6.9063276804542</v>
+      </c>
+      <c r="D90" s="23" t="n">
+        <v>5.63092512830075</v>
+      </c>
+      <c r="E90" s="23" t="n">
+        <v>12.5372528087549</v>
+      </c>
+      <c r="F90" s="6" t="n">
+        <v>0.400592671553704</v>
+      </c>
+      <c r="G90" s="6" t="n">
+        <v>0.632611977925924</v>
+      </c>
+      <c r="H90" s="6" t="n">
+        <v>0.422425224392027</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="23" t="n">
+        <v>6.1356377626371</v>
+      </c>
+      <c r="D91" s="23" t="n">
+        <v>4.32661904583259</v>
+      </c>
+      <c r="E91" s="23" t="n">
+        <v>10.4622568084697</v>
+      </c>
+      <c r="F91" s="6" t="n">
+        <v>0.412348128354822</v>
+      </c>
+      <c r="G91" s="6" t="n">
+        <v>0.606369329203348</v>
+      </c>
+      <c r="H91" s="6" t="n">
+        <v>0.437405508507266</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" t="s">
+        <v>319</v>
+      </c>
+      <c r="C92" s="23" t="n">
+        <v>6.28292064569928</v>
+      </c>
+      <c r="D92" s="23" t="n">
+        <v>3.94029162529153</v>
+      </c>
+      <c r="E92" s="23" t="n">
+        <v>10.2232122709908</v>
+      </c>
+      <c r="F92" s="6" t="n">
+        <v>0.395356497825182</v>
+      </c>
+      <c r="G92" s="6" t="n">
+        <v>0.635324293973884</v>
+      </c>
+      <c r="H92" s="6" t="n">
+        <v>0.424348942958577</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="23" t="n">
+        <v>5.61425695494041</v>
+      </c>
+      <c r="D93" s="23" t="n">
+        <v>6.23225872345205</v>
+      </c>
+      <c r="E93" s="23" t="n">
+        <v>11.8465156783925</v>
+      </c>
+      <c r="F93" s="6" t="n">
+        <v>0.399227710348199</v>
+      </c>
+      <c r="G93" s="6" t="n">
+        <v>0.603559778340635</v>
+      </c>
+      <c r="H93" s="6" t="n">
+        <v>0.415952642481205</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" s="23" t="n">
+        <v>6.00656673271864</v>
+      </c>
+      <c r="D94" s="23" t="n">
+        <v>2.4599178619651</v>
+      </c>
+      <c r="E94" s="23" t="n">
+        <v>8.46648459468373</v>
+      </c>
+      <c r="F94" s="6" t="n">
+        <v>0.326321755896028</v>
+      </c>
+      <c r="G94" s="6" t="n">
+        <v>0.726341116214418</v>
+      </c>
+      <c r="H94" s="6" t="n">
+        <v>0.362256313955771</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" t="s">
+        <v>322</v>
+      </c>
+      <c r="C95" s="23" t="n">
+        <v>6.40975454335093</v>
+      </c>
+      <c r="D95" s="23" t="n">
+        <v>5.08117909064382</v>
+      </c>
+      <c r="E95" s="23" t="n">
+        <v>11.4909336339948</v>
+      </c>
+      <c r="F95" s="6" t="n">
+        <v>0.45086822341843</v>
+      </c>
+      <c r="G95" s="6" t="n">
+        <v>0.567247135956091</v>
+      </c>
+      <c r="H95" s="6" t="n">
+        <v>0.467864088296466</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" t="s">
+        <v>323</v>
+      </c>
+      <c r="C96" s="23" t="n">
+        <v>7.46056822354113</v>
+      </c>
+      <c r="D96" s="23" t="n">
+        <v>3.96183566759202</v>
+      </c>
+      <c r="E96" s="23" t="n">
+        <v>11.4224038911332</v>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>0.446703441885769</v>
+      </c>
+      <c r="G96" s="6" t="n">
+        <v>0.575812917447316</v>
+      </c>
+      <c r="H96" s="6" t="n">
+        <v>0.475003069411905</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" s="23" t="n">
+        <v>5.84591222929451</v>
+      </c>
+      <c r="D97" s="23" t="n">
+        <v>4.28296173991497</v>
+      </c>
+      <c r="E97" s="23" t="n">
+        <v>10.1288739692095</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>0.420008182642951</v>
+      </c>
+      <c r="G97" s="6" t="n">
+        <v>0.605565557308576</v>
+      </c>
+      <c r="H97" s="6" t="n">
+        <v>0.446601775105762</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" s="23" t="n">
+        <v>5.91669296899836</v>
+      </c>
+      <c r="D98" s="23" t="n">
+        <v>3.68257579581629</v>
+      </c>
+      <c r="E98" s="23" t="n">
+        <v>9.59926876481465</v>
+      </c>
+      <c r="F98" s="6" t="n">
+        <v>0.475040002284459</v>
+      </c>
+      <c r="G98" s="6" t="n">
+        <v>0.524959997715541</v>
+      </c>
+      <c r="H98" s="6" t="n">
+        <v>0.475040002284459</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" t="s">
+        <v>326</v>
+      </c>
+      <c r="C99" s="23" t="n">
+        <v>2.93510517313428</v>
+      </c>
+      <c r="D99" s="23" t="n">
+        <v>8.99182142101611</v>
+      </c>
+      <c r="E99" s="23" t="n">
+        <v>11.9269265941504</v>
+      </c>
+      <c r="F99" s="6" t="n">
+        <v>0.7429930458616</v>
+      </c>
+      <c r="G99" s="6" t="n">
+        <v>0.294139933824713</v>
+      </c>
+      <c r="H99" s="6" t="n">
+        <v>0.767491165459221</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>327</v>
+      </c>
+      <c r="C100" s="23" t="n">
+        <v>7.61092746043527</v>
+      </c>
+      <c r="D100" s="23" t="n">
+        <v>4.81572924979616</v>
+      </c>
+      <c r="E100" s="23" t="n">
+        <v>12.4266567102314</v>
+      </c>
+      <c r="F100" s="6" t="n">
+        <v>0.425233121891334</v>
+      </c>
+      <c r="G100" s="6" t="n">
+        <v>0.59376125316159</v>
+      </c>
+      <c r="H100" s="6" t="n">
+        <v>0.458626342725635</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" s="23" t="n">
+        <v>1.19140431368015</v>
+      </c>
+      <c r="D101" s="23" t="n">
+        <v>2.10644676473989</v>
+      </c>
+      <c r="E101" s="23" t="n">
+        <v>3.29785107842004</v>
+      </c>
+      <c r="F101" s="6" t="n">
+        <v>0.702148921579962</v>
+      </c>
+      <c r="G101" s="6" t="n">
+        <v>0.297851078420038</v>
+      </c>
+      <c r="H101" s="6" t="n">
+        <v>0.702148921579962</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" t="s">
+        <v>329</v>
+      </c>
+      <c r="C102" s="23" t="n">
+        <v>9.629070887972</v>
+      </c>
+      <c r="D102" s="23" t="n">
+        <v>1.65659047858056</v>
+      </c>
+      <c r="E102" s="23" t="n">
+        <v>11.2856613665526</v>
+      </c>
+      <c r="F102" s="6" t="n">
+        <v>0.175417888244774</v>
+      </c>
+      <c r="G102" s="6" t="n">
+        <v>0.8654291710152</v>
+      </c>
+      <c r="H102" s="6" t="n">
+        <v>0.200783024206535</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" t="s">
+        <v>330</v>
+      </c>
+      <c r="C103" s="23" t="n">
+        <v>6.87611754081935</v>
+      </c>
+      <c r="D103" s="23" t="n">
+        <v>4.60822002407221</v>
+      </c>
+      <c r="E103" s="23" t="n">
+        <v>11.4843375648916</v>
+      </c>
+      <c r="F103" s="6" t="n">
+        <v>0.379899117609261</v>
+      </c>
+      <c r="G103" s="6" t="n">
+        <v>0.631928801266694</v>
+      </c>
+      <c r="H103" s="6" t="n">
+        <v>0.382797379277483</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="23" t="n">
+        <v>4.94877035290321</v>
+      </c>
+      <c r="D104" s="23" t="n">
+        <v>4.29845773292445</v>
+      </c>
+      <c r="E104" s="23" t="n">
+        <v>9.24722808582766</v>
+      </c>
+      <c r="F104" s="6" t="n">
+        <v>0.461551871063641</v>
+      </c>
+      <c r="G104" s="6" t="n">
+        <v>0.556600455598301</v>
+      </c>
+      <c r="H104" s="6" t="n">
+        <v>0.557712493698823</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s">
+        <v>332</v>
+      </c>
+      <c r="C105" s="23" t="n">
+        <v>4.9146602076898</v>
+      </c>
+      <c r="D105" s="23" t="n">
+        <v>7.52199835445787</v>
+      </c>
+      <c r="E105" s="23" t="n">
+        <v>12.4366585621477</v>
+      </c>
+      <c r="F105" s="6" t="n">
+        <v>0.558484348056053</v>
+      </c>
+      <c r="G105" s="6" t="n">
+        <v>0.455332399091858</v>
+      </c>
+      <c r="H105" s="6" t="n">
+        <v>0.571543199609057</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="23" t="n">
+        <v>7.82050097139629</v>
+      </c>
+      <c r="D106" s="23" t="n">
+        <v>4.58744679005753</v>
+      </c>
+      <c r="E106" s="23" t="n">
+        <v>12.4079477614538</v>
+      </c>
+      <c r="F106" s="6" t="n">
+        <v>0.377607296489808</v>
+      </c>
+      <c r="G106" s="6" t="n">
+        <v>0.678193028304665</v>
+      </c>
+      <c r="H106" s="6" t="n">
+        <v>0.419332652113361</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" s="23" t="n">
+        <v>5.00046801395935</v>
+      </c>
+      <c r="D107" s="23" t="n">
+        <v>4.42785999069059</v>
+      </c>
+      <c r="E107" s="23" t="n">
+        <v>9.42832800464994</v>
+      </c>
+      <c r="F107" s="6" t="n">
+        <v>0.527835247516038</v>
+      </c>
+      <c r="G107" s="6" t="n">
+        <v>0.524073169562753</v>
+      </c>
+      <c r="H107" s="6" t="n">
+        <v>0.588395067441293</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" s="23" t="n">
+        <v>8.81769496529708</v>
+      </c>
+      <c r="D108" s="23" t="n">
+        <v>3.13729426962561</v>
+      </c>
+      <c r="E108" s="23" t="n">
+        <v>11.9549892349227</v>
+      </c>
+      <c r="F108" s="6" t="n">
+        <v>0.268619288564455</v>
+      </c>
+      <c r="G108" s="6" t="n">
+        <v>0.786401184948237</v>
+      </c>
+      <c r="H108" s="6" t="n">
+        <v>0.332516455937719</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" t="s">
+        <v>336</v>
+      </c>
+      <c r="C109" s="23" t="n">
+        <v>7.15828249108244</v>
+      </c>
+      <c r="D109" s="23" t="n">
+        <v>4.76798685030124</v>
+      </c>
+      <c r="E109" s="23" t="n">
+        <v>11.9262693413837</v>
+      </c>
+      <c r="F109" s="6" t="n">
+        <v>0.356318974835919</v>
+      </c>
+      <c r="G109" s="6" t="n">
+        <v>0.666597097095971</v>
+      </c>
+      <c r="H109" s="6" t="n">
+        <v>0.386335839225419</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" t="s">
+        <v>337</v>
+      </c>
+      <c r="C110" s="23" t="n">
+        <v>9.24737921362241</v>
+      </c>
+      <c r="D110" s="23" t="n">
+        <v>3.77805655933709</v>
+      </c>
+      <c r="E110" s="23" t="n">
+        <v>13.0254357729595</v>
+      </c>
+      <c r="F110" s="6" t="n">
+        <v>0.294977415606569</v>
+      </c>
+      <c r="G110" s="6" t="n">
+        <v>0.727914957005462</v>
+      </c>
+      <c r="H110" s="6" t="n">
+        <v>0.318040180858504</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" t="s">
+        <v>338</v>
+      </c>
+      <c r="C111" s="23" t="n">
+        <v>6.45059043394602</v>
+      </c>
+      <c r="D111" s="23" t="n">
+        <v>4.15462609712252</v>
+      </c>
+      <c r="E111" s="23" t="n">
+        <v>10.6052165310685</v>
+      </c>
+      <c r="F111" s="6" t="n">
+        <v>0.394193040868058</v>
+      </c>
+      <c r="G111" s="6" t="n">
+        <v>0.636265981927871</v>
+      </c>
+      <c r="H111" s="6" t="n">
+        <v>0.430129194352568</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" t="s">
+        <v>339</v>
+      </c>
+      <c r="C112" s="23" t="n">
+        <v>5.35499246241842</v>
+      </c>
+      <c r="D112" s="23" t="n">
+        <v>8.2778044303608</v>
+      </c>
+      <c r="E112" s="23" t="n">
+        <v>13.6327968927792</v>
+      </c>
+      <c r="F112" s="6" t="n">
+        <v>0.564693919927889</v>
+      </c>
+      <c r="G112" s="6" t="n">
+        <v>0.469700784816024</v>
+      </c>
+      <c r="H112" s="6" t="n">
+        <v>0.584914393425354</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" s="23" t="n">
+        <v>7.76286215221652</v>
+      </c>
+      <c r="D113" s="23" t="n">
+        <v>2.13171626364157</v>
+      </c>
+      <c r="E113" s="23" t="n">
+        <v>9.89457841585809</v>
+      </c>
+      <c r="F113" s="6" t="n">
+        <v>0.260240916236626</v>
+      </c>
+      <c r="G113" s="6" t="n">
+        <v>0.758297832625612</v>
+      </c>
+      <c r="H113" s="6" t="n">
+        <v>0.358346778725203</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" s="23" t="n">
+        <v>8.39797882213565</v>
+      </c>
+      <c r="D114" s="23" t="n">
+        <v>2.59849811692942</v>
+      </c>
+      <c r="E114" s="23" t="n">
+        <v>10.9964769390651</v>
+      </c>
+      <c r="F114" s="6" t="n">
+        <v>0.259664607422987</v>
+      </c>
+      <c r="G114" s="6" t="n">
+        <v>0.764187082015005</v>
+      </c>
+      <c r="H114" s="6" t="n">
+        <v>0.275782419430878</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>191</v>
+      </c>
+      <c r="B115" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" s="23" t="n">
+        <v>3.5888171930427</v>
+      </c>
+      <c r="D115" s="23" t="n">
+        <v>7.03479872929457</v>
+      </c>
+      <c r="E115" s="23" t="n">
+        <v>10.6236159223373</v>
+      </c>
+      <c r="F115" s="6" t="n">
+        <v>0.702361430975619</v>
+      </c>
+      <c r="G115" s="6" t="n">
+        <v>0.31268430986089</v>
+      </c>
+      <c r="H115" s="6" t="n">
+        <v>0.705714500216434</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="23" t="n">
+        <v>5.11526928599763</v>
+      </c>
+      <c r="D116" s="23" t="n">
+        <v>6.2262160083899</v>
+      </c>
+      <c r="E116" s="23" t="n">
+        <v>11.3414852943875</v>
+      </c>
+      <c r="F116" s="6" t="n">
+        <v>0.589669109014414</v>
+      </c>
+      <c r="G116" s="6" t="n">
+        <v>0.410330890985586</v>
+      </c>
+      <c r="H116" s="6" t="n">
+        <v>0.589669109014414</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>193</v>
+      </c>
+      <c r="B117" t="s">
+        <v>344</v>
+      </c>
+      <c r="C117" s="23" t="n">
+        <v>6.49584304910339</v>
+      </c>
+      <c r="D117" s="23" t="n">
+        <v>6.82058747460779</v>
+      </c>
+      <c r="E117" s="23" t="n">
+        <v>13.3164305237112</v>
+      </c>
+      <c r="F117" s="6" t="n">
+        <v>0.493986384708661</v>
+      </c>
+      <c r="G117" s="6" t="n">
+        <v>0.506013615291339</v>
+      </c>
+      <c r="H117" s="6" t="n">
+        <v>0.493986384708661</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>194</v>
+      </c>
+      <c r="B118" t="s">
+        <v>345</v>
+      </c>
+      <c r="C118" s="23" t="n">
+        <v>6.61556963060477</v>
+      </c>
+      <c r="D118" s="23" t="n">
+        <v>4.79026406630684</v>
+      </c>
+      <c r="E118" s="23" t="n">
+        <v>11.4058336969116</v>
+      </c>
+      <c r="F118" s="6" t="n">
+        <v>0.501027218434284</v>
+      </c>
+      <c r="G118" s="6" t="n">
+        <v>0.503910042112422</v>
+      </c>
+      <c r="H118" s="6" t="n">
+        <v>0.515253833558478</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>195</v>
+      </c>
+      <c r="B119" t="s">
+        <v>346</v>
+      </c>
+      <c r="C119" s="23" t="n">
+        <v>5.85183796869359</v>
+      </c>
+      <c r="D119" s="23" t="n">
+        <v>5.43868502761825</v>
+      </c>
+      <c r="E119" s="23" t="n">
+        <v>11.2905229963118</v>
+      </c>
+      <c r="F119" s="6" t="n">
+        <v>0.467745771799144</v>
+      </c>
+      <c r="G119" s="6" t="n">
+        <v>0.559543003707437</v>
+      </c>
+      <c r="H119" s="6" t="n">
+        <v>0.4957720411197</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>196</v>
+      </c>
+      <c r="B120" t="s">
+        <v>347</v>
+      </c>
+      <c r="C120" s="23" t="n">
+        <v>5.21905253749543</v>
+      </c>
+      <c r="D120" s="23" t="n">
+        <v>3.04596224419626</v>
+      </c>
+      <c r="E120" s="23" t="n">
+        <v>8.2650147816917</v>
+      </c>
+      <c r="F120" s="6" t="n">
+        <v>0.463396638701396</v>
+      </c>
+      <c r="G120" s="6" t="n">
+        <v>0.576709392185372</v>
+      </c>
+      <c r="H120" s="6" t="n">
+        <v>0.513971250493416</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C121" s="23" t="n">
+        <v>6.28499071766161</v>
+      </c>
+      <c r="D121" s="23" t="n">
+        <v>5.27145700339382</v>
+      </c>
+      <c r="E121" s="23" t="n">
+        <v>11.5564477210554</v>
+      </c>
+      <c r="F121" s="6" t="n">
+        <v>0.465227554791878</v>
+      </c>
+      <c r="G121" s="6" t="n">
+        <v>0.563167175362113</v>
+      </c>
+      <c r="H121" s="6" t="n">
+        <v>0.498303095808083</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>198</v>
+      </c>
+      <c r="B122" t="s">
+        <v>349</v>
+      </c>
+      <c r="C122" s="23" t="n">
+        <v>5.95377571092731</v>
+      </c>
+      <c r="D122" s="23" t="n">
+        <v>7.70872939980944</v>
+      </c>
+      <c r="E122" s="23" t="n">
+        <v>13.6625051107368</v>
+      </c>
+      <c r="F122" s="6" t="n">
+        <v>0.584786172895611</v>
+      </c>
+      <c r="G122" s="6" t="n">
+        <v>0.442833238499704</v>
+      </c>
+      <c r="H122" s="6" t="n">
+        <v>0.627878059623049</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" s="23" t="n">
+        <v>8.53858373729678</v>
+      </c>
+      <c r="D123" s="23" t="n">
+        <v>3.972884980278</v>
+      </c>
+      <c r="E123" s="23" t="n">
+        <v>12.5114687175748</v>
+      </c>
+      <c r="F123" s="6" t="n">
+        <v>0.328629054037267</v>
+      </c>
+      <c r="G123" s="6" t="n">
+        <v>0.719478765079005</v>
+      </c>
+      <c r="H123" s="6" t="n">
+        <v>0.374085447527731</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" t="s">
+        <v>351</v>
+      </c>
+      <c r="C124" s="23" t="n">
+        <v>7.7413757486049</v>
+      </c>
+      <c r="D124" s="23" t="n">
+        <v>5.31907887656134</v>
+      </c>
+      <c r="E124" s="23" t="n">
+        <v>13.0604546251662</v>
+      </c>
+      <c r="F124" s="6" t="n">
+        <v>0.347337593718325</v>
+      </c>
+      <c r="G124" s="6" t="n">
+        <v>0.683276569987138</v>
+      </c>
+      <c r="H124" s="6" t="n">
+        <v>0.381660435887348</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125" s="23" t="n">
+        <v>5.55248317465758</v>
+      </c>
+      <c r="D125" s="23" t="n">
+        <v>7.72391846568031</v>
+      </c>
+      <c r="E125" s="23" t="n">
+        <v>13.2764016403379</v>
+      </c>
+      <c r="F125" s="6" t="n">
+        <v>0.555684497444449</v>
+      </c>
+      <c r="G125" s="6" t="n">
+        <v>0.463511064410361</v>
+      </c>
+      <c r="H125" s="6" t="n">
+        <v>0.580311640101935</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" t="s">
+        <v>353</v>
+      </c>
+      <c r="C126" s="23" t="n">
+        <v>4.05974782456272</v>
+      </c>
+      <c r="D126" s="23" t="n">
+        <v>7.68920570777091</v>
+      </c>
+      <c r="E126" s="23" t="n">
+        <v>11.7489535323336</v>
+      </c>
+      <c r="F126" s="6" t="n">
+        <v>0.659853034526911</v>
+      </c>
+      <c r="G126" s="6" t="n">
+        <v>0.360119486161366</v>
+      </c>
+      <c r="H126" s="6" t="n">
+        <v>0.688318428893027</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>203</v>
+      </c>
+      <c r="B127" t="s">
+        <v>354</v>
+      </c>
+      <c r="C127" s="23" t="n">
+        <v>8.81392206744125</v>
+      </c>
+      <c r="D127" s="23" t="n">
+        <v>3.95747230640295</v>
+      </c>
+      <c r="E127" s="23" t="n">
+        <v>12.7713943738442</v>
+      </c>
+      <c r="F127" s="6" t="n">
+        <v>0.244296514527617</v>
+      </c>
+      <c r="G127" s="6" t="n">
+        <v>0.791197653565727</v>
+      </c>
+      <c r="H127" s="6" t="n">
+        <v>0.297677823511438</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>204</v>
+      </c>
+      <c r="B128" t="s">
+        <v>355</v>
+      </c>
+      <c r="C128" s="23" t="n">
+        <v>7.0202289177753</v>
+      </c>
+      <c r="D128" s="23" t="n">
+        <v>3.15828096269872</v>
+      </c>
+      <c r="E128" s="23" t="n">
+        <v>10.178509880474</v>
+      </c>
+      <c r="F128" s="6" t="n">
+        <v>0.346133120841927</v>
+      </c>
+      <c r="G128" s="6" t="n">
+        <v>0.677044352112377</v>
+      </c>
+      <c r="H128" s="6" t="n">
+        <v>0.378347045313363</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>205</v>
+      </c>
+      <c r="B129" t="s">
+        <v>356</v>
+      </c>
+      <c r="C129" s="23" t="n">
+        <v>5.88690079718132</v>
+      </c>
+      <c r="D129" s="23" t="n">
+        <v>4.4858610797121</v>
+      </c>
+      <c r="E129" s="23" t="n">
+        <v>10.3727618768934</v>
+      </c>
+      <c r="F129" s="6" t="n">
+        <v>0.369417017352076</v>
+      </c>
+      <c r="G129" s="6" t="n">
+        <v>0.666378496476861</v>
+      </c>
+      <c r="H129" s="6" t="n">
+        <v>0.476803558838888</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>206</v>
+      </c>
+      <c r="B130" t="s">
+        <v>357</v>
+      </c>
+      <c r="C130" s="23" t="n">
+        <v>6.07644848924459</v>
+      </c>
+      <c r="D130" s="23" t="n">
+        <v>3.81254026877744</v>
+      </c>
+      <c r="E130" s="23" t="n">
+        <v>9.88898875802203</v>
+      </c>
+      <c r="F130" s="6" t="n">
+        <v>0.285570057205227</v>
+      </c>
+      <c r="G130" s="6" t="n">
+        <v>0.726641293988756</v>
+      </c>
+      <c r="H130" s="6" t="n">
+        <v>0.320047147497977</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>207</v>
+      </c>
+      <c r="B131" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131" s="23" t="n">
+        <v>7.16438142986139</v>
+      </c>
+      <c r="D131" s="23" t="n">
+        <v>6.40406706358649</v>
+      </c>
+      <c r="E131" s="23" t="n">
+        <v>13.5684484934479</v>
+      </c>
+      <c r="F131" s="6" t="n">
+        <v>0.491245631883748</v>
+      </c>
+      <c r="G131" s="6" t="n">
+        <v>0.53987149530462</v>
+      </c>
+      <c r="H131" s="6" t="n">
+        <v>0.51530899892849</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>208</v>
+      </c>
+      <c r="B132" t="s">
+        <v>359</v>
+      </c>
+      <c r="C132" s="23" t="n">
+        <v>5.50754949156204</v>
+      </c>
+      <c r="D132" s="23" t="n">
+        <v>5.97463682840804</v>
+      </c>
+      <c r="E132" s="23" t="n">
+        <v>11.4821863199701</v>
+      </c>
+      <c r="F132" s="6" t="n">
+        <v>0.415906650453128</v>
+      </c>
+      <c r="G132" s="6" t="n">
+        <v>0.610487113255163</v>
+      </c>
+      <c r="H132" s="6" t="n">
+        <v>0.431443703541266</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" t="s">
+        <v>360</v>
+      </c>
+      <c r="C133" s="23" t="n">
+        <v>7.92931539725806</v>
+      </c>
+      <c r="D133" s="23" t="n">
+        <v>5.04825532491757</v>
+      </c>
+      <c r="E133" s="23" t="n">
+        <v>12.9775707221756</v>
+      </c>
+      <c r="F133" s="6" t="n">
+        <v>0.393729616174665</v>
+      </c>
+      <c r="G133" s="6" t="n">
+        <v>0.679354440317279</v>
+      </c>
+      <c r="H133" s="6" t="n">
+        <v>0.453176479798949</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" t="s">
+        <v>361</v>
+      </c>
+      <c r="C134" s="23" t="n">
+        <v>3.52259788900032</v>
+      </c>
+      <c r="D134" s="23" t="n">
+        <v>12.4086019476035</v>
+      </c>
+      <c r="E134" s="23" t="n">
+        <v>15.9311998366038</v>
+      </c>
+      <c r="F134" s="6" t="n">
+        <v>0.576449118925679</v>
+      </c>
+      <c r="G134" s="6" t="n">
+        <v>0.423550881074321</v>
+      </c>
+      <c r="H134" s="6" t="n">
+        <v>0.576449118925679</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>211</v>
+      </c>
+      <c r="B135" t="s">
+        <v>362</v>
+      </c>
+      <c r="C135" s="23" t="n">
+        <v>4.69661908847021</v>
+      </c>
+      <c r="D135" s="23" t="n">
+        <v>3.32399901338247</v>
+      </c>
+      <c r="E135" s="23" t="n">
+        <v>8.02061810185268</v>
+      </c>
+      <c r="F135" s="6" t="n">
+        <v>0.41325206348508</v>
+      </c>
+      <c r="G135" s="6" t="n">
+        <v>0.611594101174306</v>
+      </c>
+      <c r="H135" s="6" t="n">
+        <v>0.453376212614221</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>212</v>
+      </c>
+      <c r="B136" t="s">
+        <v>363</v>
+      </c>
+      <c r="C136" s="23" t="n">
+        <v>4.95060560971506</v>
+      </c>
+      <c r="D136" s="23" t="n">
+        <v>3.29461641685173</v>
+      </c>
+      <c r="E136" s="23" t="n">
+        <v>8.24522202656679</v>
+      </c>
+      <c r="F136" s="6" t="n">
+        <v>0.31544044124802</v>
+      </c>
+      <c r="G136" s="6" t="n">
+        <v>0.696131639673707</v>
+      </c>
+      <c r="H136" s="6" t="n">
+        <v>0.337412133622945</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>213</v>
+      </c>
+      <c r="B137" t="s">
+        <v>364</v>
+      </c>
+      <c r="C137" s="23" t="n">
+        <v>4.81199518469166</v>
+      </c>
+      <c r="D137" s="23" t="n">
+        <v>8.2352652304838</v>
+      </c>
+      <c r="E137" s="23" t="n">
+        <v>13.0472604151755</v>
+      </c>
+      <c r="F137" s="6" t="n">
+        <v>0.666643624269665</v>
+      </c>
+      <c r="G137" s="6" t="n">
+        <v>0.333356375730335</v>
+      </c>
+      <c r="H137" s="6" t="n">
+        <v>0.666643624269665</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>214</v>
+      </c>
+      <c r="B138" t="s">
+        <v>365</v>
+      </c>
+      <c r="C138" s="23" t="n">
+        <v>4.83282135389165</v>
+      </c>
+      <c r="D138" s="23" t="n">
+        <v>7.15489911877195</v>
+      </c>
+      <c r="E138" s="23" t="n">
+        <v>11.9877204726636</v>
+      </c>
+      <c r="F138" s="6" t="n">
+        <v>0.578484423263465</v>
+      </c>
+      <c r="G138" s="6" t="n">
+        <v>0.439951792180023</v>
+      </c>
+      <c r="H138" s="6" t="n">
+        <v>0.586385658453531</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" t="s">
+        <v>366</v>
+      </c>
+      <c r="C139" s="23" t="n">
+        <v>4.85740262759355</v>
+      </c>
+      <c r="D139" s="23" t="n">
+        <v>3.38610771686928</v>
+      </c>
+      <c r="E139" s="23" t="n">
+        <v>8.24351034446283</v>
+      </c>
+      <c r="F139" s="6" t="n">
+        <v>0.378866980044595</v>
+      </c>
+      <c r="G139" s="6" t="n">
+        <v>0.638628256924407</v>
+      </c>
+      <c r="H139" s="6" t="n">
+        <v>0.401677768145608</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>216</v>
+      </c>
+      <c r="B140" t="s">
+        <v>367</v>
+      </c>
+      <c r="C140" s="23" t="n">
+        <v>3.98420892906336</v>
+      </c>
+      <c r="D140" s="23" t="n">
+        <v>3.56933389511511</v>
+      </c>
+      <c r="E140" s="23" t="n">
+        <v>7.55354282417847</v>
+      </c>
+      <c r="F140" s="6" t="n">
+        <v>0.460578831515045</v>
+      </c>
+      <c r="G140" s="6" t="n">
+        <v>0.582135315745006</v>
+      </c>
+      <c r="H140" s="6" t="n">
+        <v>0.481771220147501</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>217</v>
+      </c>
+      <c r="B141" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>218</v>
+      </c>
+      <c r="B142" t="s">
+        <v>369</v>
+      </c>
+      <c r="C142" s="23" t="n">
+        <v>5.92863676784904</v>
+      </c>
+      <c r="D142" s="23" t="n">
+        <v>4.96677417032357</v>
+      </c>
+      <c r="E142" s="23" t="n">
+        <v>10.8954109381726</v>
+      </c>
+      <c r="F142" s="6" t="n">
+        <v>0.449691951895939</v>
+      </c>
+      <c r="G142" s="6" t="n">
+        <v>0.564397558435375</v>
+      </c>
+      <c r="H142" s="6" t="n">
+        <v>0.463547703306771</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>219</v>
+      </c>
+      <c r="B143" t="s">
+        <v>370</v>
+      </c>
+      <c r="C143" s="23" t="n">
+        <v>5.19468313737791</v>
+      </c>
+      <c r="D143" s="23" t="n">
+        <v>6.43968486626146</v>
+      </c>
+      <c r="E143" s="23" t="n">
+        <v>11.6343680036394</v>
+      </c>
+      <c r="F143" s="6" t="n">
+        <v>0.42252104667313</v>
+      </c>
+      <c r="G143" s="6" t="n">
+        <v>0.621667404996244</v>
+      </c>
+      <c r="H143" s="6" t="n">
+        <v>0.601903349448179</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" t="s">
+        <v>371</v>
+      </c>
+      <c r="C144" s="23" t="n">
+        <v>5.00965357336393</v>
+      </c>
+      <c r="D144" s="23" t="n">
+        <v>5.62834058714285</v>
+      </c>
+      <c r="E144" s="23" t="n">
+        <v>10.6379941605068</v>
+      </c>
+      <c r="F144" s="6" t="n">
+        <v>0.494755491381209</v>
+      </c>
+      <c r="G144" s="6" t="n">
+        <v>0.534316531555262</v>
+      </c>
+      <c r="H144" s="6" t="n">
+        <v>0.525077890452515</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>221</v>
+      </c>
+      <c r="B145" t="s">
+        <v>372</v>
+      </c>
+      <c r="C145" s="23" t="n">
+        <v>4.16625252253642</v>
+      </c>
+      <c r="D145" s="23" t="n">
+        <v>2.51996085727485</v>
+      </c>
+      <c r="E145" s="23" t="n">
+        <v>6.68621337981127</v>
+      </c>
+      <c r="F145" s="6" t="n">
+        <v>0.332946888785804</v>
+      </c>
+      <c r="G145" s="6" t="n">
+        <v>0.688874497579105</v>
+      </c>
+      <c r="H145" s="6" t="n">
+        <v>0.360924908324582</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>222</v>
+      </c>
+      <c r="B146" t="s">
+        <v>373</v>
+      </c>
+      <c r="C146" s="23" t="n">
+        <v>8.97236913691323</v>
+      </c>
+      <c r="D146" s="23" t="n">
+        <v>3.30891034789791</v>
+      </c>
+      <c r="E146" s="23" t="n">
+        <v>12.2812794848111</v>
+      </c>
+      <c r="F146" s="6" t="n">
+        <v>0.292335632397123</v>
+      </c>
+      <c r="G146" s="6" t="n">
+        <v>0.737857456326104</v>
+      </c>
+      <c r="H146" s="6" t="n">
+        <v>0.310160410781469</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>223</v>
+      </c>
+      <c r="B147" t="s">
+        <v>374</v>
+      </c>
+      <c r="C147" s="23" t="n">
+        <v>5.57343938456466</v>
+      </c>
+      <c r="D147" s="23" t="n">
+        <v>6.54868821963428</v>
+      </c>
+      <c r="E147" s="23" t="n">
+        <v>12.1221276041989</v>
+      </c>
+      <c r="F147" s="6" t="n">
+        <v>0.577939159662276</v>
+      </c>
+      <c r="G147" s="6" t="n">
+        <v>0.441584625007352</v>
+      </c>
+      <c r="H147" s="6" t="n">
+        <v>0.59930512291109</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>224</v>
+      </c>
+      <c r="B148" t="s">
+        <v>375</v>
+      </c>
+      <c r="C148" s="23" t="n">
+        <v>1.09515630601437</v>
+      </c>
+      <c r="D148" s="23" t="n">
+        <v>10.829501399205</v>
+      </c>
+      <c r="E148" s="23" t="n">
+        <v>11.9246577052194</v>
+      </c>
+      <c r="F148" s="6" t="n">
+        <v>0.657906086042037</v>
+      </c>
+      <c r="G148" s="6" t="n">
+        <v>0.452711876511804</v>
+      </c>
+      <c r="H148" s="6" t="n">
+        <v>0.768524048595879</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>225</v>
+      </c>
+      <c r="B149" t="s">
+        <v>376</v>
+      </c>
+      <c r="C149" s="23" t="n">
+        <v>8.53126473537932</v>
+      </c>
+      <c r="D149" s="23" t="n">
+        <v>3.89267885056309</v>
+      </c>
+      <c r="E149" s="23" t="n">
+        <v>12.4239435859424</v>
+      </c>
+      <c r="F149" s="6" t="n">
+        <v>0.336356153007148</v>
+      </c>
+      <c r="G149" s="6" t="n">
+        <v>0.682861433072951</v>
+      </c>
+      <c r="H149" s="6" t="n">
+        <v>0.37574418127953</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>226</v>
+      </c>
+      <c r="B150" t="s">
+        <v>377</v>
+      </c>
+      <c r="C150" s="23" t="n">
+        <v>2.08459046272473</v>
+      </c>
+      <c r="D150" s="23" t="n">
+        <v>12.0194399603416</v>
+      </c>
+      <c r="E150" s="23" t="n">
+        <v>14.1040304230663</v>
+      </c>
+      <c r="F150" s="6" t="n">
+        <v>0.665390684485782</v>
+      </c>
+      <c r="G150" s="6" t="n">
+        <v>0.420500897472486</v>
+      </c>
+      <c r="H150" s="6" t="n">
+        <v>0.794228057423183</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>227</v>
+      </c>
+      <c r="B151" t="s">
+        <v>378</v>
+      </c>
+      <c r="C151" s="23" t="n">
+        <v>9.70449012105504</v>
+      </c>
+      <c r="D151" s="23" t="n">
+        <v>2.39548342131001</v>
+      </c>
+      <c r="E151" s="23" t="n">
+        <v>12.0999735423651</v>
+      </c>
+      <c r="F151" s="6" t="n">
+        <v>0.21736284878605</v>
+      </c>
+      <c r="G151" s="6" t="n">
+        <v>0.810838938511789</v>
+      </c>
+      <c r="H151" s="6" t="n">
+        <v>0.236614443332864</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>228</v>
+      </c>
+      <c r="B152" t="s">
+        <v>379</v>
+      </c>
+      <c r="C152" s="23" t="n">
+        <v>5.51800250304417</v>
+      </c>
+      <c r="D152" s="23" t="n">
+        <v>6.21757753519358</v>
+      </c>
+      <c r="E152" s="23" t="n">
+        <v>11.7355800382378</v>
+      </c>
+      <c r="F152" s="6" t="n">
+        <v>0.519585119774881</v>
+      </c>
+      <c r="G152" s="6" t="n">
+        <v>0.502723203641365</v>
+      </c>
+      <c r="H152" s="6" t="n">
+        <v>0.538603044344184</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>229</v>
+      </c>
+      <c r="B153" t="s">
+        <v>380</v>
+      </c>
+      <c r="C153" s="23" t="n">
+        <v>4.91278440313991</v>
+      </c>
+      <c r="D153" s="23" t="n">
+        <v>4.73067829949566</v>
+      </c>
+      <c r="E153" s="23" t="n">
+        <v>9.64346270263557</v>
+      </c>
+      <c r="F153" s="6" t="n">
+        <v>0.468255928517039</v>
+      </c>
+      <c r="G153" s="6" t="n">
+        <v>0.554510075209286</v>
+      </c>
+      <c r="H153" s="6" t="n">
+        <v>0.491021932243364</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="23"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="23"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="23"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="23"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="23"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="23"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="23"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="23"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="23"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="23"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="23"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="23"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="23"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="23"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="23"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="23"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="23"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="23"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="23"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="23"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="23"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="23"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="23"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="23"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="23"/>
+      <c r="D193" s="23"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="23"/>
+      <c r="D196" s="23"/>
+      <c r="E196" s="23"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="23"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="23"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="23"/>
+      <c r="D198" s="23"/>
+      <c r="E198" s="23"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="23"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="23"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="23"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="23"/>
+      <c r="D202" s="23"/>
+      <c r="E202" s="23"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="23"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="23"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="23"/>
+      <c r="D205" s="23"/>
+      <c r="E205" s="23"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="23"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="23"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="23"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="23"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="23"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="23"/>
+      <c r="D211" s="23"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="23"/>
+      <c r="D212" s="23"/>
+      <c r="E212" s="23"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="23"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="23"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="23"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="23"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="23"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="23"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="23"/>
+      <c r="D221" s="23"/>
+      <c r="E221" s="23"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="23"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="23"/>
+      <c r="D223" s="23"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="23"/>
+      <c r="D224" s="23"/>
+      <c r="E224" s="23"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="23"/>
+      <c r="D225" s="23"/>
+      <c r="E225" s="23"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="23"/>
+      <c r="D226" s="23"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="23"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="23"/>
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="23"/>
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="23"/>
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="23"/>
+      <c r="D231" s="23"/>
+      <c r="E231" s="23"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="23"/>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="23"/>
+      <c r="D235" s="23"/>
+      <c r="E235" s="23"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="23"/>
+      <c r="D236" s="23"/>
+      <c r="E236" s="23"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="23"/>
+      <c r="D237" s="23"/>
+      <c r="E237" s="23"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="23"/>
+      <c r="D238" s="23"/>
+      <c r="E238" s="23"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="23"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="23"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="23"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="23"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="23"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="23"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="23"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="23"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="23"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="23"/>
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="23"/>
+      <c r="D247" s="23"/>
+      <c r="E247" s="23"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="23"/>
+      <c r="D248" s="23"/>
+      <c r="E248" s="23"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="23"/>
+      <c r="D249" s="23"/>
+      <c r="E249" s="23"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="23"/>
+      <c r="D250" s="23"/>
+      <c r="E250" s="23"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="23"/>
+      <c r="D251" s="23"/>
+      <c r="E251" s="23"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="23"/>
+      <c r="D252" s="23"/>
+      <c r="E252" s="23"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="23"/>
+      <c r="D253" s="23"/>
+      <c r="E253" s="23"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="23"/>
+      <c r="D254" s="23"/>
+      <c r="E254" s="23"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="23"/>
+      <c r="D255" s="23"/>
+      <c r="E255" s="23"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="23"/>
+      <c r="D256" s="23"/>
+      <c r="E256" s="23"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="23"/>
+      <c r="D257" s="23"/>
+      <c r="E257" s="23"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="23"/>
+      <c r="D258" s="23"/>
+      <c r="E258" s="23"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="23"/>
+      <c r="D259" s="23"/>
+      <c r="E259" s="23"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="23"/>
+      <c r="D260" s="23"/>
+      <c r="E260" s="23"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="23"/>
+      <c r="D261" s="23"/>
+      <c r="E261" s="23"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="23"/>
+      <c r="D262" s="23"/>
+      <c r="E262" s="23"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="23"/>
+      <c r="D263" s="23"/>
+      <c r="E263" s="23"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="23"/>
+      <c r="D264" s="23"/>
+      <c r="E264" s="23"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="23"/>
+      <c r="D265" s="23"/>
+      <c r="E265" s="23"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="23"/>
+      <c r="D266" s="23"/>
+      <c r="E266" s="23"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="23"/>
+      <c r="D267" s="23"/>
+      <c r="E267" s="23"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="23"/>
+      <c r="D268" s="23"/>
+      <c r="E268" s="23"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="23"/>
+      <c r="D269" s="23"/>
+      <c r="E269" s="23"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="23"/>
+      <c r="D270" s="23"/>
+      <c r="E270" s="23"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="23"/>
+      <c r="D271" s="23"/>
+      <c r="E271" s="23"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="23"/>
+      <c r="D272" s="23"/>
+      <c r="E272" s="23"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="23"/>
+      <c r="D273" s="23"/>
+      <c r="E273" s="23"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="23"/>
+      <c r="D274" s="23"/>
+      <c r="E274" s="23"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="23"/>
+      <c r="D275" s="23"/>
+      <c r="E275" s="23"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="23"/>
+      <c r="D276" s="23"/>
+      <c r="E276" s="23"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="23"/>
+      <c r="D277" s="23"/>
+      <c r="E277" s="23"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="23"/>
+      <c r="D278" s="23"/>
+      <c r="E278" s="23"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="23"/>
+      <c r="D279" s="23"/>
+      <c r="E279" s="23"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="23"/>
+      <c r="D280" s="23"/>
+      <c r="E280" s="23"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="23"/>
+      <c r="D281" s="23"/>
+      <c r="E281" s="23"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="23"/>
+      <c r="D282" s="23"/>
+      <c r="E282" s="23"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="23"/>
+      <c r="D283" s="23"/>
+      <c r="E283" s="23"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="23"/>
+      <c r="D284" s="23"/>
+      <c r="E284" s="23"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="23"/>
+      <c r="D285" s="23"/>
+      <c r="E285" s="23"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="23"/>
+      <c r="D286" s="23"/>
+      <c r="E286" s="23"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="23"/>
+      <c r="D287" s="23"/>
+      <c r="E287" s="23"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="23"/>
+      <c r="D288" s="23"/>
+      <c r="E288" s="23"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="23"/>
+      <c r="D289" s="23"/>
+      <c r="E289" s="23"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="23"/>
+      <c r="D290" s="23"/>
+      <c r="E290" s="23"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="23"/>
+      <c r="D291" s="23"/>
+      <c r="E291" s="23"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="6"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="23"/>
+      <c r="D292" s="23"/>
+      <c r="E292" s="23"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="23"/>
+      <c r="D293" s="23"/>
+      <c r="E293" s="23"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="23"/>
+      <c r="D294" s="23"/>
+      <c r="E294" s="23"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="23"/>
+      <c r="D295" s="23"/>
+      <c r="E295" s="23"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="23"/>
+      <c r="D296" s="23"/>
+      <c r="E296" s="23"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="23"/>
+      <c r="D297" s="23"/>
+      <c r="E297" s="23"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="23"/>
+      <c r="D298" s="23"/>
+      <c r="E298" s="23"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="23"/>
+      <c r="D299" s="23"/>
+      <c r="E299" s="23"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="23"/>
+      <c r="D300" s="23"/>
+      <c r="E300" s="23"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="23"/>
+      <c r="D301" s="23"/>
+      <c r="E301" s="23"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="23"/>
+      <c r="D302" s="23"/>
+      <c r="E302" s="23"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="23"/>
+      <c r="D303" s="23"/>
+      <c r="E303" s="23"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="23"/>
+      <c r="D304" s="23"/>
+      <c r="E304" s="23"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="6"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="23"/>
+      <c r="D305" s="23"/>
+      <c r="E305" s="23"/>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="23"/>
+      <c r="D306" s="23"/>
+      <c r="E306" s="23"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="6"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="23"/>
+      <c r="D307" s="23"/>
+      <c r="E307" s="23"/>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
+      <c r="H307" s="6"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="23"/>
+      <c r="D308" s="23"/>
+      <c r="E308" s="23"/>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
+      <c r="H308" s="6"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="23"/>
+      <c r="D309" s="23"/>
+      <c r="E309" s="23"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="6"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="23"/>
+      <c r="D310" s="23"/>
+      <c r="E310" s="23"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="6"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="23"/>
+      <c r="D311" s="23"/>
+      <c r="E311" s="23"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
+      <c r="H311" s="6"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="23"/>
+      <c r="D312" s="23"/>
+      <c r="E312" s="23"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
+      <c r="H312" s="6"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="23"/>
+      <c r="D313" s="23"/>
+      <c r="E313" s="23"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="6"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="23"/>
+      <c r="D314" s="23"/>
+      <c r="E314" s="23"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
+      <c r="H314" s="6"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="23"/>
+      <c r="D315" s="23"/>
+      <c r="E315" s="23"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="23"/>
+      <c r="D316" s="23"/>
+      <c r="E316" s="23"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="23"/>
+      <c r="D317" s="23"/>
+      <c r="E317" s="23"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="6"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="23"/>
+      <c r="D318" s="23"/>
+      <c r="E318" s="23"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="6"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="23"/>
+      <c r="D319" s="23"/>
+      <c r="E319" s="23"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="6"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="23"/>
+      <c r="D320" s="23"/>
+      <c r="E320" s="23"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="6"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="23"/>
+      <c r="D321" s="23"/>
+      <c r="E321" s="23"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="6"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="23"/>
+      <c r="D322" s="23"/>
+      <c r="E322" s="23"/>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="6"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="23"/>
+      <c r="D323" s="23"/>
+      <c r="E323" s="23"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
+      <c r="H323" s="6"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="23"/>
+      <c r="D324" s="23"/>
+      <c r="E324" s="23"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
+      <c r="H324" s="6"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="23"/>
+      <c r="D325" s="23"/>
+      <c r="E325" s="23"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="6"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="23"/>
+      <c r="D326" s="23"/>
+      <c r="E326" s="23"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
+      <c r="H326" s="6"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="23"/>
+      <c r="D327" s="23"/>
+      <c r="E327" s="23"/>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6"/>
+      <c r="H327" s="6"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="23"/>
+      <c r="D328" s="23"/>
+      <c r="E328" s="23"/>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6"/>
+      <c r="H328" s="6"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="23"/>
+      <c r="D329" s="23"/>
+      <c r="E329" s="23"/>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
+      <c r="H329" s="6"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="23"/>
+      <c r="D330" s="23"/>
+      <c r="E330" s="23"/>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6"/>
+      <c r="H330" s="6"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="23"/>
+      <c r="D331" s="23"/>
+      <c r="E331" s="23"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
+      <c r="H331" s="6"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="23"/>
+      <c r="D332" s="23"/>
+      <c r="E332" s="23"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6"/>
+      <c r="H332" s="6"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="23"/>
+      <c r="D333" s="23"/>
+      <c r="E333" s="23"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="6"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="23"/>
+      <c r="D334" s="23"/>
+      <c r="E334" s="23"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
+      <c r="H334" s="6"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="23"/>
+      <c r="D335" s="23"/>
+      <c r="E335" s="23"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="6"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="23"/>
+      <c r="D336" s="23"/>
+      <c r="E336" s="23"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="23"/>
+      <c r="D337" s="23"/>
+      <c r="E337" s="23"/>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="6"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="23"/>
+      <c r="D338" s="23"/>
+      <c r="E338" s="23"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
+      <c r="H338" s="6"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="23"/>
+      <c r="D339" s="23"/>
+      <c r="E339" s="23"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="6"/>
+      <c r="H339" s="6"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="23"/>
+      <c r="D340" s="23"/>
+      <c r="E340" s="23"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="6"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="23"/>
+      <c r="D341" s="23"/>
+      <c r="E341" s="23"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="6"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="23"/>
+      <c r="D342" s="23"/>
+      <c r="E342" s="23"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="6"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="23"/>
+      <c r="D343" s="23"/>
+      <c r="E343" s="23"/>
+      <c r="F343" s="6"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="6"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="23"/>
+      <c r="D344" s="23"/>
+      <c r="E344" s="23"/>
+      <c r="F344" s="6"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="6"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="23"/>
+      <c r="D345" s="23"/>
+      <c r="E345" s="23"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="6"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="23"/>
+      <c r="D346" s="23"/>
+      <c r="E346" s="23"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="23"/>
+      <c r="D347" s="23"/>
+      <c r="E347" s="23"/>
+      <c r="F347" s="6"/>
+      <c r="G347" s="6"/>
+      <c r="H347" s="6"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="23"/>
+      <c r="D348" s="23"/>
+      <c r="E348" s="23"/>
+      <c r="F348" s="6"/>
+      <c r="G348" s="6"/>
+      <c r="H348" s="6"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="23"/>
+      <c r="D349" s="23"/>
+      <c r="E349" s="23"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
+      <c r="H349" s="6"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="23"/>
+      <c r="D350" s="23"/>
+      <c r="E350" s="23"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
+      <c r="H350" s="6"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="23"/>
+      <c r="D351" s="23"/>
+      <c r="E351" s="23"/>
+      <c r="F351" s="6"/>
+      <c r="G351" s="6"/>
+      <c r="H351" s="6"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="23"/>
+      <c r="D352" s="23"/>
+      <c r="E352" s="23"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="6"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="23"/>
+      <c r="D353" s="23"/>
+      <c r="E353" s="23"/>
+      <c r="F353" s="6"/>
+      <c r="G353" s="6"/>
+      <c r="H353" s="6"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="23"/>
+      <c r="D354" s="23"/>
+      <c r="E354" s="23"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="6"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="23"/>
+      <c r="D355" s="23"/>
+      <c r="E355" s="23"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="6"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="23"/>
+      <c r="D356" s="23"/>
+      <c r="E356" s="23"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="6"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="23"/>
+      <c r="D357" s="23"/>
+      <c r="E357" s="23"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="6"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="23"/>
+      <c r="D358" s="23"/>
+      <c r="E358" s="23"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="6"/>
+      <c r="H358" s="6"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="23"/>
+      <c r="D359" s="23"/>
+      <c r="E359" s="23"/>
+      <c r="F359" s="6"/>
+      <c r="G359" s="6"/>
+      <c r="H359" s="6"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="23"/>
+      <c r="D360" s="23"/>
+      <c r="E360" s="23"/>
+      <c r="F360" s="6"/>
+      <c r="G360" s="6"/>
+      <c r="H360" s="6"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="23"/>
+      <c r="D361" s="23"/>
+      <c r="E361" s="23"/>
+      <c r="F361" s="6"/>
+      <c r="G361" s="6"/>
+      <c r="H361" s="6"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="23"/>
+      <c r="D362" s="23"/>
+      <c r="E362" s="23"/>
+      <c r="F362" s="6"/>
+      <c r="G362" s="6"/>
+      <c r="H362" s="6"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="23"/>
+      <c r="D363" s="23"/>
+      <c r="E363" s="23"/>
+      <c r="F363" s="6"/>
+      <c r="G363" s="6"/>
+      <c r="H363" s="6"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="23"/>
+      <c r="D364" s="23"/>
+      <c r="E364" s="23"/>
+      <c r="F364" s="6"/>
+      <c r="G364" s="6"/>
+      <c r="H364" s="6"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="23"/>
+      <c r="D365" s="23"/>
+      <c r="E365" s="23"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6"/>
+      <c r="H365" s="6"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="23"/>
+      <c r="D366" s="23"/>
+      <c r="E366" s="23"/>
+      <c r="F366" s="6"/>
+      <c r="G366" s="6"/>
+      <c r="H366" s="6"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="23"/>
+      <c r="D367" s="23"/>
+      <c r="E367" s="23"/>
+      <c r="F367" s="6"/>
+      <c r="G367" s="6"/>
+      <c r="H367" s="6"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="23"/>
+      <c r="D368" s="23"/>
+      <c r="E368" s="23"/>
+      <c r="F368" s="6"/>
+      <c r="G368" s="6"/>
+      <c r="H368" s="6"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="23"/>
+      <c r="D369" s="23"/>
+      <c r="E369" s="23"/>
+      <c r="F369" s="6"/>
+      <c r="G369" s="6"/>
+      <c r="H369" s="6"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="23"/>
+      <c r="D370" s="23"/>
+      <c r="E370" s="23"/>
+      <c r="F370" s="6"/>
+      <c r="G370" s="6"/>
+      <c r="H370" s="6"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="23"/>
+      <c r="D371" s="23"/>
+      <c r="E371" s="23"/>
+      <c r="F371" s="6"/>
+      <c r="G371" s="6"/>
+      <c r="H371" s="6"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="23"/>
+      <c r="D372" s="23"/>
+      <c r="E372" s="23"/>
+      <c r="F372" s="6"/>
+      <c r="G372" s="6"/>
+      <c r="H372" s="6"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="23"/>
+      <c r="D373" s="23"/>
+      <c r="E373" s="23"/>
+      <c r="F373" s="6"/>
+      <c r="G373" s="6"/>
+      <c r="H373" s="6"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="23"/>
+      <c r="D374" s="23"/>
+      <c r="E374" s="23"/>
+      <c r="F374" s="6"/>
+      <c r="G374" s="6"/>
+      <c r="H374" s="6"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="23"/>
+      <c r="D375" s="23"/>
+      <c r="E375" s="23"/>
+      <c r="F375" s="6"/>
+      <c r="G375" s="6"/>
+      <c r="H375" s="6"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="23"/>
+      <c r="D376" s="23"/>
+      <c r="E376" s="23"/>
+      <c r="F376" s="6"/>
+      <c r="G376" s="6"/>
+      <c r="H376" s="6"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="23"/>
+      <c r="D377" s="23"/>
+      <c r="E377" s="23"/>
+      <c r="F377" s="6"/>
+      <c r="G377" s="6"/>
+      <c r="H377" s="6"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="23"/>
+      <c r="D378" s="23"/>
+      <c r="E378" s="23"/>
+      <c r="F378" s="6"/>
+      <c r="G378" s="6"/>
+      <c r="H378" s="6"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="23"/>
+      <c r="D379" s="23"/>
+      <c r="E379" s="23"/>
+      <c r="F379" s="6"/>
+      <c r="G379" s="6"/>
+      <c r="H379" s="6"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="23"/>
+      <c r="D380" s="23"/>
+      <c r="E380" s="23"/>
+      <c r="F380" s="6"/>
+      <c r="G380" s="6"/>
+      <c r="H380" s="6"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="23"/>
+      <c r="D381" s="23"/>
+      <c r="E381" s="23"/>
+      <c r="F381" s="6"/>
+      <c r="G381" s="6"/>
+      <c r="H381" s="6"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="23"/>
+      <c r="D382" s="23"/>
+      <c r="E382" s="23"/>
+      <c r="F382" s="6"/>
+      <c r="G382" s="6"/>
+      <c r="H382" s="6"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="23"/>
+      <c r="D383" s="23"/>
+      <c r="E383" s="23"/>
+      <c r="F383" s="6"/>
+      <c r="G383" s="6"/>
+      <c r="H383" s="6"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="23"/>
+      <c r="D384" s="23"/>
+      <c r="E384" s="23"/>
+      <c r="F384" s="6"/>
+      <c r="G384" s="6"/>
+      <c r="H384" s="6"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="23"/>
+      <c r="D385" s="23"/>
+      <c r="E385" s="23"/>
+      <c r="F385" s="6"/>
+      <c r="G385" s="6"/>
+      <c r="H385" s="6"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="23"/>
+      <c r="D386" s="23"/>
+      <c r="E386" s="23"/>
+      <c r="F386" s="6"/>
+      <c r="G386" s="6"/>
+      <c r="H386" s="6"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="23"/>
+      <c r="D387" s="23"/>
+      <c r="E387" s="23"/>
+      <c r="F387" s="6"/>
+      <c r="G387" s="6"/>
+      <c r="H387" s="6"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="23"/>
+      <c r="D388" s="23"/>
+      <c r="E388" s="23"/>
+      <c r="F388" s="6"/>
+      <c r="G388" s="6"/>
+      <c r="H388" s="6"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="23"/>
+      <c r="D389" s="23"/>
+      <c r="E389" s="23"/>
+      <c r="F389" s="6"/>
+      <c r="G389" s="6"/>
+      <c r="H389" s="6"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="23"/>
+      <c r="D390" s="23"/>
+      <c r="E390" s="23"/>
+      <c r="F390" s="6"/>
+      <c r="G390" s="6"/>
+      <c r="H390" s="6"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="23"/>
+      <c r="D391" s="23"/>
+      <c r="E391" s="23"/>
+      <c r="F391" s="6"/>
+      <c r="G391" s="6"/>
+      <c r="H391" s="6"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="23"/>
+      <c r="D392" s="23"/>
+      <c r="E392" s="23"/>
+      <c r="F392" s="6"/>
+      <c r="G392" s="6"/>
+      <c r="H392" s="6"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="23"/>
+      <c r="D393" s="23"/>
+      <c r="E393" s="23"/>
+      <c r="F393" s="6"/>
+      <c r="G393" s="6"/>
+      <c r="H393" s="6"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="23"/>
+      <c r="D394" s="23"/>
+      <c r="E394" s="23"/>
+      <c r="F394" s="6"/>
+      <c r="G394" s="6"/>
+      <c r="H394" s="6"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="23"/>
+      <c r="D395" s="23"/>
+      <c r="E395" s="23"/>
+      <c r="F395" s="6"/>
+      <c r="G395" s="6"/>
+      <c r="H395" s="6"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="23"/>
+      <c r="D396" s="23"/>
+      <c r="E396" s="23"/>
+      <c r="F396" s="6"/>
+      <c r="G396" s="6"/>
+      <c r="H396" s="6"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="23"/>
+      <c r="D397" s="23"/>
+      <c r="E397" s="23"/>
+      <c r="F397" s="6"/>
+      <c r="G397" s="6"/>
+      <c r="H397" s="6"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="23"/>
+      <c r="D398" s="23"/>
+      <c r="E398" s="23"/>
+      <c r="F398" s="6"/>
+      <c r="G398" s="6"/>
+      <c r="H398" s="6"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="23"/>
+      <c r="D399" s="23"/>
+      <c r="E399" s="23"/>
+      <c r="F399" s="6"/>
+      <c r="G399" s="6"/>
+      <c r="H399" s="6"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="23"/>
+      <c r="D400" s="23"/>
+      <c r="E400" s="23"/>
+      <c r="F400" s="6"/>
+      <c r="G400" s="6"/>
+      <c r="H400" s="6"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="23"/>
+      <c r="D401" s="23"/>
+      <c r="E401" s="23"/>
+      <c r="F401" s="6"/>
+      <c r="G401" s="6"/>
+      <c r="H401" s="6"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="23"/>
+      <c r="D402" s="23"/>
+      <c r="E402" s="23"/>
+      <c r="F402" s="6"/>
+      <c r="G402" s="6"/>
+      <c r="H402" s="6"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="23"/>
+      <c r="D403" s="23"/>
+      <c r="E403" s="23"/>
+      <c r="F403" s="6"/>
+      <c r="G403" s="6"/>
+      <c r="H403" s="6"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="23"/>
+      <c r="D404" s="23"/>
+      <c r="E404" s="23"/>
+      <c r="F404" s="6"/>
+      <c r="G404" s="6"/>
+      <c r="H404" s="6"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="23"/>
+      <c r="D405" s="23"/>
+      <c r="E405" s="23"/>
+      <c r="F405" s="6"/>
+      <c r="G405" s="6"/>
+      <c r="H405" s="6"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="23"/>
+      <c r="D406" s="23"/>
+      <c r="E406" s="23"/>
+      <c r="F406" s="6"/>
+      <c r="G406" s="6"/>
+      <c r="H406" s="6"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="23"/>
+      <c r="D407" s="23"/>
+      <c r="E407" s="23"/>
+      <c r="F407" s="6"/>
+      <c r="G407" s="6"/>
+      <c r="H407" s="6"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="23"/>
+      <c r="D408" s="23"/>
+      <c r="E408" s="23"/>
+      <c r="F408" s="6"/>
+      <c r="G408" s="6"/>
+      <c r="H408" s="6"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="23"/>
+      <c r="D409" s="23"/>
+      <c r="E409" s="23"/>
+      <c r="F409" s="6"/>
+      <c r="G409" s="6"/>
+      <c r="H409" s="6"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="23"/>
+      <c r="D410" s="23"/>
+      <c r="E410" s="23"/>
+      <c r="F410" s="6"/>
+      <c r="G410" s="6"/>
+      <c r="H410" s="6"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="23"/>
+      <c r="D411" s="23"/>
+      <c r="E411" s="23"/>
+      <c r="F411" s="6"/>
+      <c r="G411" s="6"/>
+      <c r="H411" s="6"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="23"/>
+      <c r="D412" s="23"/>
+      <c r="E412" s="23"/>
+      <c r="F412" s="6"/>
+      <c r="G412" s="6"/>
+      <c r="H412" s="6"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="23"/>
+      <c r="D413" s="23"/>
+      <c r="E413" s="23"/>
+      <c r="F413" s="6"/>
+      <c r="G413" s="6"/>
+      <c r="H413" s="6"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="23"/>
+      <c r="D414" s="23"/>
+      <c r="E414" s="23"/>
+      <c r="F414" s="6"/>
+      <c r="G414" s="6"/>
+      <c r="H414" s="6"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="23"/>
+      <c r="D415" s="23"/>
+      <c r="E415" s="23"/>
+      <c r="F415" s="6"/>
+      <c r="G415" s="6"/>
+      <c r="H415" s="6"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="23"/>
+      <c r="D416" s="23"/>
+      <c r="E416" s="23"/>
+      <c r="F416" s="6"/>
+      <c r="G416" s="6"/>
+      <c r="H416" s="6"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="23"/>
+      <c r="D417" s="23"/>
+      <c r="E417" s="23"/>
+      <c r="F417" s="6"/>
+      <c r="G417" s="6"/>
+      <c r="H417" s="6"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="23"/>
+      <c r="D418" s="23"/>
+      <c r="E418" s="23"/>
+      <c r="F418" s="6"/>
+      <c r="G418" s="6"/>
+      <c r="H418" s="6"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="23"/>
+      <c r="D419" s="23"/>
+      <c r="E419" s="23"/>
+      <c r="F419" s="6"/>
+      <c r="G419" s="6"/>
+      <c r="H419" s="6"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="23"/>
+      <c r="D420" s="23"/>
+      <c r="E420" s="23"/>
+      <c r="F420" s="6"/>
+      <c r="G420" s="6"/>
+      <c r="H420" s="6"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="23"/>
+      <c r="D421" s="23"/>
+      <c r="E421" s="23"/>
+      <c r="F421" s="6"/>
+      <c r="G421" s="6"/>
+      <c r="H421" s="6"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="23"/>
+      <c r="D422" s="23"/>
+      <c r="E422" s="23"/>
+      <c r="F422" s="6"/>
+      <c r="G422" s="6"/>
+      <c r="H422" s="6"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="23"/>
+      <c r="D423" s="23"/>
+      <c r="E423" s="23"/>
+      <c r="F423" s="6"/>
+      <c r="G423" s="6"/>
+      <c r="H423" s="6"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="23"/>
+      <c r="D424" s="23"/>
+      <c r="E424" s="23"/>
+      <c r="F424" s="6"/>
+      <c r="G424" s="6"/>
+      <c r="H424" s="6"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="23"/>
+      <c r="D425" s="23"/>
+      <c r="E425" s="23"/>
+      <c r="F425" s="6"/>
+      <c r="G425" s="6"/>
+      <c r="H425" s="6"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="23"/>
+      <c r="D426" s="23"/>
+      <c r="E426" s="23"/>
+      <c r="F426" s="6"/>
+      <c r="G426" s="6"/>
+      <c r="H426" s="6"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="23"/>
+      <c r="D427" s="23"/>
+      <c r="E427" s="23"/>
+      <c r="F427" s="6"/>
+      <c r="G427" s="6"/>
+      <c r="H427" s="6"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="23"/>
+      <c r="D428" s="23"/>
+      <c r="E428" s="23"/>
+      <c r="F428" s="6"/>
+      <c r="G428" s="6"/>
+      <c r="H428" s="6"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="23"/>
+      <c r="D429" s="23"/>
+      <c r="E429" s="23"/>
+      <c r="F429" s="6"/>
+      <c r="G429" s="6"/>
+      <c r="H429" s="6"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="23"/>
+      <c r="D430" s="23"/>
+      <c r="E430" s="23"/>
+      <c r="F430" s="6"/>
+      <c r="G430" s="6"/>
+      <c r="H430" s="6"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="23"/>
+      <c r="D431" s="23"/>
+      <c r="E431" s="23"/>
+      <c r="F431" s="6"/>
+      <c r="G431" s="6"/>
+      <c r="H431" s="6"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="23"/>
+      <c r="D432" s="23"/>
+      <c r="E432" s="23"/>
+      <c r="F432" s="6"/>
+      <c r="G432" s="6"/>
+      <c r="H432" s="6"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="23"/>
+      <c r="D433" s="23"/>
+      <c r="E433" s="23"/>
+      <c r="F433" s="6"/>
+      <c r="G433" s="6"/>
+      <c r="H433" s="6"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="23"/>
+      <c r="D434" s="23"/>
+      <c r="E434" s="23"/>
+      <c r="F434" s="6"/>
+      <c r="G434" s="6"/>
+      <c r="H434" s="6"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="23"/>
+      <c r="D435" s="23"/>
+      <c r="E435" s="23"/>
+      <c r="F435" s="6"/>
+      <c r="G435" s="6"/>
+      <c r="H435" s="6"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="23"/>
+      <c r="D436" s="23"/>
+      <c r="E436" s="23"/>
+      <c r="F436" s="6"/>
+      <c r="G436" s="6"/>
+      <c r="H436" s="6"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="23"/>
+      <c r="D437" s="23"/>
+      <c r="E437" s="23"/>
+      <c r="F437" s="6"/>
+      <c r="G437" s="6"/>
+      <c r="H437" s="6"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="23"/>
+      <c r="D438" s="23"/>
+      <c r="E438" s="23"/>
+      <c r="F438" s="6"/>
+      <c r="G438" s="6"/>
+      <c r="H438" s="6"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="23"/>
+      <c r="D439" s="23"/>
+      <c r="E439" s="23"/>
+      <c r="F439" s="6"/>
+      <c r="G439" s="6"/>
+      <c r="H439" s="6"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="23"/>
+      <c r="D440" s="23"/>
+      <c r="E440" s="23"/>
+      <c r="F440" s="6"/>
+      <c r="G440" s="6"/>
+      <c r="H440" s="6"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="23"/>
+      <c r="D441" s="23"/>
+      <c r="E441" s="23"/>
+      <c r="F441" s="6"/>
+      <c r="G441" s="6"/>
+      <c r="H441" s="6"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="23"/>
+      <c r="D442" s="23"/>
+      <c r="E442" s="23"/>
+      <c r="F442" s="6"/>
+      <c r="G442" s="6"/>
+      <c r="H442" s="6"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="23"/>
+      <c r="D443" s="23"/>
+      <c r="E443" s="23"/>
+      <c r="F443" s="6"/>
+      <c r="G443" s="6"/>
+      <c r="H443" s="6"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="23"/>
+      <c r="D444" s="23"/>
+      <c r="E444" s="23"/>
+      <c r="F444" s="6"/>
+      <c r="G444" s="6"/>
+      <c r="H444" s="6"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="23"/>
+      <c r="D445" s="23"/>
+      <c r="E445" s="23"/>
+      <c r="F445" s="6"/>
+      <c r="G445" s="6"/>
+      <c r="H445" s="6"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="23"/>
+      <c r="D446" s="23"/>
+      <c r="E446" s="23"/>
+      <c r="F446" s="6"/>
+      <c r="G446" s="6"/>
+      <c r="H446" s="6"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="23"/>
+      <c r="D447" s="23"/>
+      <c r="E447" s="23"/>
+      <c r="F447" s="6"/>
+      <c r="G447" s="6"/>
+      <c r="H447" s="6"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="23"/>
+      <c r="D448" s="23"/>
+      <c r="E448" s="23"/>
+      <c r="F448" s="6"/>
+      <c r="G448" s="6"/>
+      <c r="H448" s="6"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="23"/>
+      <c r="D449" s="23"/>
+      <c r="E449" s="23"/>
+      <c r="F449" s="6"/>
+      <c r="G449" s="6"/>
+      <c r="H449" s="6"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="23"/>
+      <c r="D450" s="23"/>
+      <c r="E450" s="23"/>
+      <c r="F450" s="6"/>
+      <c r="G450" s="6"/>
+      <c r="H450" s="6"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="23"/>
+      <c r="D451" s="23"/>
+      <c r="E451" s="23"/>
+      <c r="F451" s="6"/>
+      <c r="G451" s="6"/>
+      <c r="H451" s="6"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="23"/>
+      <c r="D452" s="23"/>
+      <c r="E452" s="23"/>
+      <c r="F452" s="6"/>
+      <c r="G452" s="6"/>
+      <c r="H452" s="6"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="23"/>
+      <c r="D453" s="23"/>
+      <c r="E453" s="23"/>
+      <c r="F453" s="6"/>
+      <c r="G453" s="6"/>
+      <c r="H453" s="6"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="23"/>
+      <c r="D454" s="23"/>
+      <c r="E454" s="23"/>
+      <c r="F454" s="6"/>
+      <c r="G454" s="6"/>
+      <c r="H454" s="6"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="23"/>
+      <c r="D455" s="23"/>
+      <c r="E455" s="23"/>
+      <c r="F455" s="6"/>
+      <c r="G455" s="6"/>
+      <c r="H455" s="6"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="23"/>
+      <c r="D456" s="23"/>
+      <c r="E456" s="23"/>
+      <c r="F456" s="6"/>
+      <c r="G456" s="6"/>
+      <c r="H456" s="6"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="23"/>
+      <c r="D457" s="23"/>
+      <c r="E457" s="23"/>
+      <c r="F457" s="6"/>
+      <c r="G457" s="6"/>
+      <c r="H457" s="6"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="23"/>
+      <c r="D458" s="23"/>
+      <c r="E458" s="23"/>
+      <c r="F458" s="6"/>
+      <c r="G458" s="6"/>
+      <c r="H458" s="6"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="23"/>
+      <c r="D459" s="23"/>
+      <c r="E459" s="23"/>
+      <c r="F459" s="6"/>
+      <c r="G459" s="6"/>
+      <c r="H459" s="6"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="23"/>
+      <c r="D460" s="23"/>
+      <c r="E460" s="23"/>
+      <c r="F460" s="6"/>
+      <c r="G460" s="6"/>
+      <c r="H460" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -9543,16 +16004,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9662,7 +16123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -9670,7 +16131,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -9683,30 +16144,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B3" t="n">
         <v>24.63</v>
@@ -9714,33 +16175,33 @@
       <c r="C3" t="n">
         <v>4.59</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D3" s="25" t="n">
         <v>720.37</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="25" t="n">
         <v>669.944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B4" t="n">
         <v>23.67</v>
       </c>
       <c r="C4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D4" s="24" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D4" s="25" t="n">
         <v>815.391</v>
       </c>
-      <c r="E4" s="24" t="n">
+      <c r="E4" s="25" t="n">
         <v>758.314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B5" t="n">
         <v>23.02</v>
@@ -9748,16 +16209,16 @@
       <c r="C5" t="n">
         <v>3.82</v>
       </c>
-      <c r="D5" s="24" t="n">
+      <c r="D5" s="25" t="n">
         <v>1073.696</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="25" t="n">
         <v>998.537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B6" t="n">
         <v>26.93</v>
@@ -9765,16 +16226,16 @@
       <c r="C6" t="n">
         <v>5.76</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="25" t="n">
         <v>441.144</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="25" t="n">
         <v>410.264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B7" t="n">
         <v>26.8</v>
@@ -9782,16 +16243,16 @@
       <c r="C7" t="n">
         <v>5.67</v>
       </c>
-      <c r="D7" s="24" t="n">
+      <c r="D7" s="25" t="n">
         <v>1088.186</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="25" t="n">
         <v>1012.013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B8" t="n">
         <v>23.58</v>
@@ -9799,16 +16260,16 @@
       <c r="C8" t="n">
         <v>3.97</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="25" t="n">
         <v>1021.801</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="25" t="n">
         <v>950.275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B9" t="n">
         <v>20.47</v>
@@ -9816,16 +16277,16 @@
       <c r="C9" t="n">
         <v>3.87</v>
       </c>
-      <c r="D9" s="24" t="n">
+      <c r="D9" s="25" t="n">
         <v>668.445</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="25" t="n">
         <v>621.654</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B10" t="n">
         <v>24.56</v>
@@ -9833,16 +16294,16 @@
       <c r="C10" t="n">
         <v>5.04</v>
       </c>
-      <c r="D10" s="24" t="n">
+      <c r="D10" s="25" t="n">
         <v>820.371</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="25" t="n">
         <v>762.945</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B11" t="n">
         <v>23.78</v>
@@ -9850,32 +16311,41 @@
       <c r="C11" t="n">
         <v>4.81</v>
       </c>
-      <c r="D11" s="24" t="n">
+      <c r="D11" s="25" t="n">
         <v>821.747</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="25" t="n">
         <v>764.225</v>
       </c>
     </row>
-    <row r="12">
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <f>SUM(D3:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="26" t="n">
+        <f>SUM(E3:E11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14">
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15">
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16">
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9883,7 +16353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -9904,30 +16374,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="44.1" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B3" t="n">
         <v>37.97</v>
@@ -9935,16 +16405,16 @@
       <c r="C3" t="n">
         <v>8.26</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D3" s="25" t="n">
         <v>29.616</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="25" t="n">
         <v>27.543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B4" t="n">
         <v>33.92</v>
@@ -9952,16 +16422,16 @@
       <c r="C4" t="n">
         <v>7.69</v>
       </c>
-      <c r="D4" s="24" t="n">
+      <c r="D4" s="25" t="n">
         <v>67.811</v>
       </c>
-      <c r="E4" s="24" t="n">
+      <c r="E4" s="25" t="n">
         <v>63.064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B5" t="n">
         <v>50.96</v>
@@ -9969,16 +16439,16 @@
       <c r="C5" t="n">
         <v>7.36</v>
       </c>
-      <c r="D5" s="24" t="n">
+      <c r="D5" s="25" t="n">
         <v>29.146</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="25" t="n">
         <v>27.106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B6" t="n">
         <v>31.01</v>
@@ -9986,16 +16456,16 @@
       <c r="C6" t="n">
         <v>7.35</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="25" t="n">
         <v>22.864</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="25" t="n">
         <v>21.264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B7" t="n">
         <v>30.83</v>
@@ -10003,16 +16473,16 @@
       <c r="C7" t="n">
         <v>7.18</v>
       </c>
-      <c r="D7" s="24" t="n">
+      <c r="D7" s="25" t="n">
         <v>29.788</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="25" t="n">
         <v>27.703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B8" t="n">
         <v>32.33</v>
@@ -10020,16 +16490,16 @@
       <c r="C8" t="n">
         <v>6.91</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="25" t="n">
         <v>58.463</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="25" t="n">
         <v>54.371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B9" t="n">
         <v>27.8</v>
@@ -10037,16 +16507,16 @@
       <c r="C9" t="n">
         <v>6.91</v>
       </c>
-      <c r="D9" s="24" t="n">
+      <c r="D9" s="25" t="n">
         <v>54.576</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="25" t="n">
         <v>50.756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B10" t="n">
         <v>26.63</v>
@@ -10054,16 +16524,16 @@
       <c r="C10" t="n">
         <v>6.6</v>
       </c>
-      <c r="D10" s="24" t="n">
+      <c r="D10" s="25" t="n">
         <v>23.102</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="25" t="n">
         <v>21.485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B11" t="n">
         <v>29.99</v>
@@ -10071,16 +16541,16 @@
       <c r="C11" t="n">
         <v>6.47</v>
       </c>
-      <c r="D11" s="24" t="n">
+      <c r="D11" s="25" t="n">
         <v>49.599</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="25" t="n">
         <v>46.127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B12" t="n">
         <v>29.87</v>
@@ -10088,32 +16558,32 @@
       <c r="C12" t="n">
         <v>6.45</v>
       </c>
-      <c r="D12" s="24" t="n">
+      <c r="D12" s="25" t="n">
         <v>49.337</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="25" t="n">
         <v>45.883</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14">
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15">
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16">
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17">
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/summary_table_1.xlsx
+++ b/output/summary_table_1.xlsx
@@ -16179,7 +16179,7 @@
         <v>720.37</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>669.944</v>
+        <v>674.138</v>
       </c>
     </row>
     <row r="4">
@@ -16196,7 +16196,7 @@
         <v>815.391</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>758.314</v>
+        <v>763.061</v>
       </c>
     </row>
     <row r="5">
@@ -16213,7 +16213,7 @@
         <v>1073.696</v>
       </c>
       <c r="E5" s="25" t="n">
-        <v>998.537</v>
+        <v>1004.789</v>
       </c>
     </row>
     <row r="6">
@@ -16230,7 +16230,7 @@
         <v>441.144</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>410.264</v>
+        <v>412.832</v>
       </c>
     </row>
     <row r="7">
@@ -16247,7 +16247,7 @@
         <v>1088.186</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>1012.013</v>
+        <v>1018.349</v>
       </c>
     </row>
     <row r="8">
@@ -16264,7 +16264,7 @@
         <v>1021.801</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>950.275</v>
+        <v>956.224</v>
       </c>
     </row>
     <row r="9">
@@ -16281,7 +16281,7 @@
         <v>668.445</v>
       </c>
       <c r="E9" s="25" t="n">
-        <v>621.654</v>
+        <v>625.546</v>
       </c>
     </row>
     <row r="10">
@@ -16298,7 +16298,7 @@
         <v>820.371</v>
       </c>
       <c r="E10" s="25" t="n">
-        <v>762.945</v>
+        <v>767.722</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -16315,7 +16315,7 @@
         <v>821.747</v>
       </c>
       <c r="E11" s="25" t="n">
-        <v>764.225</v>
+        <v>769.009</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -16409,7 +16409,7 @@
         <v>29.616</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>27.543</v>
+        <v>27.715</v>
       </c>
     </row>
     <row r="4">
@@ -16426,7 +16426,7 @@
         <v>67.811</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>63.064</v>
+        <v>63.459</v>
       </c>
     </row>
     <row r="5">
@@ -16443,7 +16443,7 @@
         <v>29.146</v>
       </c>
       <c r="E5" s="25" t="n">
-        <v>27.106</v>
+        <v>27.275</v>
       </c>
     </row>
     <row r="6">
@@ -16460,7 +16460,7 @@
         <v>22.864</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>21.264</v>
+        <v>21.397</v>
       </c>
     </row>
     <row r="7">
@@ -16477,7 +16477,7 @@
         <v>29.788</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>27.703</v>
+        <v>27.876</v>
       </c>
     </row>
     <row r="8">
@@ -16494,7 +16494,7 @@
         <v>58.463</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>54.371</v>
+        <v>54.711</v>
       </c>
     </row>
     <row r="9">
@@ -16511,7 +16511,7 @@
         <v>54.576</v>
       </c>
       <c r="E9" s="25" t="n">
-        <v>50.756</v>
+        <v>51.073</v>
       </c>
     </row>
     <row r="10">
@@ -16528,7 +16528,7 @@
         <v>23.102</v>
       </c>
       <c r="E10" s="25" t="n">
-        <v>21.485</v>
+        <v>21.619</v>
       </c>
     </row>
     <row r="11">
@@ -16545,7 +16545,7 @@
         <v>49.599</v>
       </c>
       <c r="E11" s="25" t="n">
-        <v>46.127</v>
+        <v>46.416</v>
       </c>
     </row>
     <row r="12">
@@ -16562,7 +16562,7 @@
         <v>49.337</v>
       </c>
       <c r="E12" s="25" t="n">
-        <v>45.883</v>
+        <v>46.171</v>
       </c>
     </row>
     <row r="13">
